--- a/results tables/results_table_scheme.xlsx
+++ b/results tables/results_table_scheme.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corvinus\Documents\UCPH\Thesis\blackbox-trading-CNN\results tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7747A8C0-7435-4AE5-A9A3-218269D317D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{270B2529-F04C-4C79-84FD-D1BE194B5D8E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Financial Results Table - Comp" sheetId="1" r:id="rId1"/>
+    <sheet name="Classification Results - Comp" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,13 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
-  <si>
-    <t>Toal P&amp;L</t>
-  </si>
-  <si>
-    <t>Success Ratio</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="29">
   <si>
     <t>Annual Returns</t>
   </si>
@@ -54,9 +48,6 @@
     <t>RSI</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Nikkei225</t>
   </si>
   <si>
@@ -78,19 +69,76 @@
     <t>Testing data (year)</t>
   </si>
   <si>
-    <t>2018-19</t>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>2006-2007</t>
+  </si>
+  <si>
+    <t>2009-2010</t>
+  </si>
+  <si>
+    <t>2017-19</t>
+  </si>
+  <si>
+    <t>Cumulative Returns</t>
+  </si>
+  <si>
+    <t>Number of Trades</t>
+  </si>
+  <si>
+    <t>Total P&amp;L</t>
+  </si>
+  <si>
+    <t>Average P&amp;L per Trade</t>
+  </si>
+  <si>
+    <t>To Appendices</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Average F1</t>
+  </si>
+  <si>
+    <t>Average Precision</t>
+  </si>
+  <si>
+    <t>Average Recall</t>
+  </si>
+  <si>
+    <t>Training Time/Testing Time</t>
+  </si>
+  <si>
+    <t>MAIN</t>
+  </si>
+  <si>
+    <t>APPENDICES</t>
+  </si>
+  <si>
+    <t>10 tables (for each asset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -231,8 +279,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -242,36 +308,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,11 +637,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64B7365-3A63-4024-982C-E328C10A189A}">
-  <dimension ref="B2:R19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,406 +667,839 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="15"/>
+    </row>
+    <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="12"/>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="11"/>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="12"/>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="11"/>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="11"/>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="12"/>
+      <c r="C19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="22" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+    </row>
+    <row r="24" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="19"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="17"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="C25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="11"/>
+      <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B28" s="11"/>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="12"/>
+      <c r="C29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="8" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B31" s="11"/>
+      <c r="C31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B32" s="11"/>
+      <c r="C32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B33" s="11"/>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="12"/>
+      <c r="C34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="8" t="s">
+      <c r="D35" s="8"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B36" s="11"/>
+      <c r="C36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B37" s="11"/>
+      <c r="C37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="12">
-        <v>2006</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="15"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="5" t="s">
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B38" s="11"/>
+      <c r="C38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="5" t="s">
+      <c r="D38" s="1"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="12"/>
+      <c r="C39" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="11"/>
-      <c r="C9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="9"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="12">
-        <v>2009</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="15"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="6"/>
-    </row>
-    <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="11"/>
-      <c r="C14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="9"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="15"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="6"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="6"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="6"/>
-    </row>
-    <row r="19" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="11"/>
-      <c r="C19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="9"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="N23:R23"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="D3:H3"/>
@@ -1026,4 +1511,360 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="11" width="9.5546875" customWidth="1"/>
+    <col min="12" max="13" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B2" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="19"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="12"/>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="11"/>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="11"/>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="11"/>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="12"/>
+      <c r="C20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="23" spans="2:13" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B23" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B6:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/results tables/results_table_scheme.xlsx
+++ b/results tables/results_table_scheme.xlsx
@@ -16,22 +16,17 @@
     <sheet name="Classification Results - Comp" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="33">
   <si>
     <t>Annual Returns</t>
   </si>
@@ -117,14 +112,26 @@
     <t>APPENDICES</t>
   </si>
   <si>
-    <t>10 tables (for each asset</t>
+    <t xml:space="preserve">Confusion matrix: </t>
+  </si>
+  <si>
+    <t>2 confusion matrices:</t>
+  </si>
+  <si>
+    <t>aggregated for all periods and assets: individual and universal</t>
+  </si>
+  <si>
+    <t>10 confusion matrices: aggregated over the testing periods but for each asset and each variant</t>
+  </si>
+  <si>
+    <t>-&gt; shall be enough for anyone to calculate their own measures</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +142,15 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -279,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -290,6 +306,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -298,15 +326,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -323,7 +342,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,10 +685,10 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -696,8 +714,8 @@
       <c r="R3" s="15"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="19"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
@@ -745,7 +763,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -768,7 +786,7 @@
       <c r="R5" s="9"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -789,7 +807,7 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -810,7 +828,7 @@
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -831,7 +849,7 @@
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="12"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
@@ -852,7 +870,7 @@
       <c r="R9" s="6"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -875,7 +893,7 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
@@ -896,7 +914,7 @@
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
@@ -917,7 +935,7 @@
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
@@ -938,7 +956,7 @@
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="12"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="5" t="s">
         <v>9</v>
       </c>
@@ -959,7 +977,7 @@
       <c r="R14" s="6"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -982,7 +1000,7 @@
       <c r="R15" s="9"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1003,7 +1021,7 @@
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1024,7 +1042,7 @@
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1045,7 +1063,7 @@
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="12"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1076,10 +1094,10 @@
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -1096,15 +1114,15 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
     </row>
     <row r="24" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="19"/>
-      <c r="C24" s="17"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="4" t="s">
         <v>1</v>
       </c>
@@ -1142,7 +1160,7 @@
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -1165,7 +1183,7 @@
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
@@ -1186,7 +1204,7 @@
       <c r="R26" s="2"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1207,7 +1225,7 @@
       <c r="R27" s="2"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
@@ -1228,7 +1246,7 @@
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="12"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="5" t="s">
         <v>9</v>
       </c>
@@ -1249,7 +1267,7 @@
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -1272,7 +1290,7 @@
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="11"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="2" t="s">
         <v>5</v>
       </c>
@@ -1293,7 +1311,7 @@
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1314,7 +1332,7 @@
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="11"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
@@ -1335,7 +1353,7 @@
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="12"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="5" t="s">
         <v>9</v>
       </c>
@@ -1356,7 +1374,7 @@
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -1379,7 +1397,7 @@
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B36" s="11"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="2" t="s">
         <v>5</v>
       </c>
@@ -1400,7 +1418,7 @@
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="11"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="2" t="s">
         <v>6</v>
       </c>
@@ -1421,7 +1439,7 @@
       <c r="R37" s="2"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="11"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="2" t="s">
         <v>8</v>
       </c>
@@ -1442,7 +1460,7 @@
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="12"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="5" t="s">
         <v>9</v>
       </c>
@@ -1515,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M24"/>
+  <dimension ref="B2:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1528,16 +1546,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -1562,8 +1580,8 @@
       <c r="M4" s="15"/>
     </row>
     <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="19"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1596,7 +1614,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1614,7 +1632,7 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1630,7 +1648,7 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1646,7 +1664,7 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1662,7 +1680,7 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="12"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1678,7 +1696,7 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1696,7 +1714,7 @@
       <c r="M11" s="9"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1712,7 +1730,7 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1728,7 +1746,7 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1744,7 +1762,7 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="12"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
@@ -1760,7 +1778,7 @@
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1778,7 +1796,7 @@
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1794,7 +1812,7 @@
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1810,7 +1828,7 @@
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1826,7 +1844,7 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="12"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="5" t="s">
         <v>9</v>
       </c>
@@ -1841,14 +1859,34 @@
       <c r="L20" s="4"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="23" spans="2:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B23" s="21" t="s">
-        <v>27</v>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B26" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/results tables/results_table_scheme.xlsx
+++ b/results tables/results_table_scheme.xlsx
@@ -16,7 +16,6 @@
     <sheet name="Classification Results - Comp" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -309,15 +308,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -327,17 +317,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -685,37 +684,37 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="13" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="13" t="s">
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="15"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="22"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="22"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
@@ -763,7 +762,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -786,7 +785,7 @@
       <c r="R5" s="9"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -807,7 +806,7 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="17"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -828,7 +827,7 @@
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -849,7 +848,7 @@
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="18"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
@@ -870,7 +869,7 @@
       <c r="R9" s="6"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -893,7 +892,7 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
@@ -914,7 +913,7 @@
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
@@ -935,7 +934,7 @@
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
@@ -956,7 +955,7 @@
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="18"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="5" t="s">
         <v>9</v>
       </c>
@@ -977,7 +976,7 @@
       <c r="R14" s="6"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1000,7 +999,7 @@
       <c r="R15" s="9"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1021,7 +1020,7 @@
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1042,7 +1041,7 @@
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1063,7 +1062,7 @@
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="18"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1094,26 +1093,26 @@
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="13" t="s">
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="15"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="22"/>
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
       <c r="P23" s="23"/>
@@ -1121,8 +1120,8 @@
       <c r="R23" s="23"/>
     </row>
     <row r="24" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="22"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="4" t="s">
         <v>1</v>
       </c>
@@ -1160,7 +1159,7 @@
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -1183,7 +1182,7 @@
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="17"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
@@ -1204,7 +1203,7 @@
       <c r="R26" s="2"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="17"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1225,7 +1224,7 @@
       <c r="R27" s="2"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="17"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
@@ -1246,7 +1245,7 @@
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="18"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="5" t="s">
         <v>9</v>
       </c>
@@ -1267,7 +1266,7 @@
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -1290,7 +1289,7 @@
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="17"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="2" t="s">
         <v>5</v>
       </c>
@@ -1311,7 +1310,7 @@
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="17"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1332,7 +1331,7 @@
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="17"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
@@ -1353,7 +1352,7 @@
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="18"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="5" t="s">
         <v>9</v>
       </c>
@@ -1374,7 +1373,7 @@
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -1397,7 +1396,7 @@
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B36" s="17"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="2" t="s">
         <v>5</v>
       </c>
@@ -1418,7 +1417,7 @@
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="17"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="2" t="s">
         <v>6</v>
       </c>
@@ -1439,7 +1438,7 @@
       <c r="R37" s="2"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="17"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="2" t="s">
         <v>8</v>
       </c>
@@ -1460,7 +1459,7 @@
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="18"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="5" t="s">
         <v>9</v>
       </c>
@@ -1510,22 +1509,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="N23:R23"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B15:B19"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="N3:R3"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="N23:R23"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1552,36 +1551,36 @@
     </row>
     <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="13" t="s">
+      <c r="I4" s="22"/>
+      <c r="J4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="13" t="s">
+      <c r="K4" s="22"/>
+      <c r="L4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="15"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="22"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1614,7 +1613,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1632,7 +1631,7 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="17"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1648,7 +1647,7 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1664,7 +1663,7 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1680,7 +1679,7 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="18"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1696,7 +1695,7 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1714,7 +1713,7 @@
       <c r="M11" s="9"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1730,7 +1729,7 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1746,7 +1745,7 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1762,7 +1761,7 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="18"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
@@ -1778,7 +1777,7 @@
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1796,7 +1795,7 @@
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1812,7 +1811,7 @@
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1828,7 +1827,7 @@
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1844,7 +1843,7 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="18"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="5" t="s">
         <v>9</v>
       </c>

--- a/results tables/results_table_scheme.xlsx
+++ b/results tables/results_table_scheme.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="36">
   <si>
     <t>Annual Returns</t>
   </si>
@@ -140,9 +140,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +169,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -366,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -380,39 +389,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -431,15 +407,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -451,24 +424,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -488,6 +443,61 @@
     <xf numFmtId="45" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,6 +513,5028 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU" sz="1000"/>
+              <a:t>Test</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" sz="1000" baseline="0"/>
+              <a:t> Period: 2006-2007</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.7593280839894991E-2"/>
+          <c:y val="2.9947016816401752E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN-I</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.1999999999999995E-2"/>
+                  <c:y val="2.3036166781847502E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-B03E-4E9A-B759-7D34E8768370}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$C$5:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Results Table - Comp'!$I$5:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.0598812158114893E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.72840636771576E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1509948722214799E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27159380739345901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2189424647157002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1960926540647322E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B03E-4E9A-B759-7D34E8768370}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN-U</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$C$5:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Results Table - Comp'!$J$5:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.13375674329481099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9491061769888399E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5150437951493501E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17950440695446099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.118150821382174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10921069427056558</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B03E-4E9A-B759-7D34E8768370}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RSI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$C$5:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Results Table - Comp'!$K$5:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.1817859250651003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8145982097384603E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9160066008666403E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31609320877955499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2704517509868302E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11358432672922505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B03E-4E9A-B759-7D34E8768370}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.9999580052493441E-2"/>
+                  <c:y val="-2.3036166781847502E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-B03E-4E9A-B759-7D34E8768370}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$C$5:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Results Table - Comp'!$L$5:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.6552496102709505E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5200992878887698E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.3411482192437998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35421937693972699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9095523510565598E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10374544824252918</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B03E-4E9A-B759-7D34E8768370}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B&amp;H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12"/>
+                  <c:y val="-4.6072333563696687E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-B03E-4E9A-B759-7D34E8768370}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$C$5:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Results Table - Comp'!$M$5:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.3445462756940305E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.3301608344867499E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2151071391820693E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62642120894139797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1181373772844104E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16797950170362713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B03E-4E9A-B759-7D34E8768370}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="406766464"/>
+        <c:axId val="406763184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="406766464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406763184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="406763184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Annual Return</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406766464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU" sz="1000"/>
+              <a:t>Test</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" sz="1000" baseline="0"/>
+              <a:t> Period: 2009-2010</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.7593280839894991E-2"/>
+          <c:y val="2.9947016816401752E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN-I</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13066666666666665"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-1BCC-4CE9-9B89-87CC752B88D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$C$11:$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Results Table - Comp'!$I$11:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.116134458669698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.0327445608229899E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.178006964526672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61311037528408696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3398833805818197E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17806463733560904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1BCC-4CE9-9B89-87CC752B88D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN-U</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.5999999999999974E-2"/>
+                  <c:y val="2.3036166781846656E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-1BCC-4CE9-9B89-87CC752B88D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$C$11:$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Results Table - Comp'!$J$11:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.16851385933499799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.2961753238873499E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13255281662987001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74644607917240202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22099781777889199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24910976393545772</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1BCC-4CE9-9B89-87CC752B88D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RSI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$C$11:$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Results Table - Comp'!$K$11:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.9661238455072499E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.73235842125352E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14778954235875799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23118342737786601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0756147317887E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11134278794442373</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1BCC-4CE9-9B89-87CC752B88D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$C$11:$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Results Table - Comp'!$L$11:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.138672045861475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13211773352060299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.308478142920041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27935374466436202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5893729613358094E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18690307931596781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1BCC-4CE9-9B89-87CC752B88D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B&amp;H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$C$11:$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Results Table - Comp'!$M$11:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.163976452271275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3043612896061599E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27600246620442198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84614288258886705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18814259069388201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30746160093090152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1BCC-4CE9-9B89-87CC752B88D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="406766464"/>
+        <c:axId val="406763184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="406766464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406763184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="406763184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Annual Return</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406766464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU" sz="1000"/>
+              <a:t>Test</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" sz="1000" baseline="0"/>
+              <a:t> Period: 2017-2019</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.7593280839894991E-2"/>
+          <c:y val="2.9947016816401752E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN-I</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$C$17:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Results Table - Comp'!$I$17:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.3243836900526101E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8882428487361706E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6992761882746302E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2002578432402903E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1479768107276403E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4520274762062684E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-25AC-4024-BE40-C48CC4EB4176}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN-U</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$C$17:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Results Table - Comp'!$J$17:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.3522643924873E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.108235968599549</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4475719300415899E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0183953124685898E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7225480388397101E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4728753067584174E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-25AC-4024-BE40-C48CC4EB4176}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RSI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11466666666666667"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-25AC-4024-BE40-C48CC4EB4176}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.7999999999999995E-2"/>
+                  <c:y val="-4.2232484560121607E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-25AC-4024-BE40-C48CC4EB4176}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$C$17:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Results Table - Comp'!$K$17:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.20656904581708E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.84498807793605E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.23538963002552E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18259611874832801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.8642539499735796E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3293990283959869E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-25AC-4024-BE40-C48CC4EB4176}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12"/>
+                  <c:y val="2.3036166781847502E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-25AC-4024-BE40-C48CC4EB4176}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$C$17:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Results Table - Comp'!$L$17:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.10542083566304999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9314041772975303E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.102981515128127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.25700196009562E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.111260042270695</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2204755527642666E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-25AC-4024-BE40-C48CC4EB4176}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B&amp;H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Financial Results Table - Comp'!$C$17:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Financial Results Table - Comp'!$M$17:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.4690295930442694E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6878391571122999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.107350968760289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12674180595863499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.105122080973315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8156708638760933E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-25AC-4024-BE40-C48CC4EB4176}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="406766464"/>
+        <c:axId val="406763184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="406766464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406763184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="406763184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Annual Return</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406766464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -802,10 +5834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R46"/>
+  <dimension ref="B2:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,37 +5858,37 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="13" t="s">
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="13" t="s">
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="15"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="64"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="22"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
@@ -904,970 +5936,970 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="13">
         <v>0.145881123814527</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="14">
         <v>0.28478386668830902</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="14">
         <v>0.12719709011844199</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="14">
         <v>0.158636517020567</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="15">
         <v>0.151971102314853</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="13">
         <v>7.0598812158114893E-2</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="19">
         <v>0.13375674329481099</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="14">
         <v>6.1817859250651003E-2</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="14">
         <v>7.6552496102709505E-2</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="15">
         <v>7.3445462756940305E-2</v>
       </c>
-      <c r="N5" s="51">
+      <c r="N5" s="37">
         <v>52</v>
       </c>
-      <c r="O5" s="52">
+      <c r="O5" s="38">
         <v>89</v>
       </c>
-      <c r="P5" s="52">
+      <c r="P5" s="38">
         <v>7</v>
       </c>
-      <c r="Q5" s="52">
+      <c r="Q5" s="38">
         <v>12</v>
       </c>
-      <c r="R5" s="53">
+      <c r="R5" s="39">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="16">
         <v>-3.4471948363141501E-3</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="17">
         <v>0.10122687302592</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="17">
         <v>0.16206241417780901</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="17">
         <v>0.134377539969327</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="18">
         <v>-6.5372478846129498E-2</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="16">
         <v>-1.72840636771576E-3</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="17">
         <v>4.9491061769888399E-2</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="20">
         <v>7.8145982097384603E-2</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="17">
         <v>6.5200992878887698E-2</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="18">
         <v>-3.3301608344867499E-2</v>
       </c>
-      <c r="N6" s="54">
+      <c r="N6" s="40">
         <v>44</v>
       </c>
-      <c r="O6" s="55">
+      <c r="O6" s="41">
         <v>94</v>
       </c>
-      <c r="P6" s="55">
+      <c r="P6" s="41">
         <v>9</v>
       </c>
-      <c r="Q6" s="55">
+      <c r="Q6" s="41">
         <v>11</v>
       </c>
-      <c r="R6" s="56">
+      <c r="R6" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="17"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="16">
         <v>1.43253275390385E-2</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="17">
         <v>0.134270073423258</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="17">
         <v>0.100533692630671</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="17">
         <v>-1.2617928604890199E-2</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="18">
         <v>0.170695397604605</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="16">
         <v>7.1509948722214799E-3</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="17">
         <v>6.5150437951493501E-2</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="17">
         <v>4.9160066008666403E-2</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="17">
         <v>-6.3411482192437998E-3</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="21">
         <v>8.2151071391820693E-2</v>
       </c>
-      <c r="N7" s="54">
+      <c r="N7" s="40">
         <v>37</v>
       </c>
-      <c r="O7" s="55">
+      <c r="O7" s="41">
         <v>92</v>
       </c>
-      <c r="P7" s="55">
+      <c r="P7" s="41">
         <v>7</v>
       </c>
-      <c r="Q7" s="55">
+      <c r="Q7" s="41">
         <v>7</v>
       </c>
-      <c r="R7" s="56">
+      <c r="R7" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="16">
         <v>0.615457245386409</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="17">
         <v>0.39034752517533799</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="17">
         <v>0.73027248416018997</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="17">
         <v>0.83177256861479099</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="18">
         <v>1.6403021127161399</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="16">
         <v>0.27159380739345901</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="17">
         <v>0.17950440695446099</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="17">
         <v>0.31609320877955499</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="17">
         <v>0.35421937693972699</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="21">
         <v>0.62642120894139797</v>
       </c>
-      <c r="N8" s="54">
+      <c r="N8" s="40">
         <v>38</v>
       </c>
-      <c r="O8" s="55">
+      <c r="O8" s="41">
         <v>72</v>
       </c>
-      <c r="P8" s="55">
+      <c r="P8" s="41">
         <v>10</v>
       </c>
-      <c r="Q8" s="55">
+      <c r="Q8" s="41">
         <v>10</v>
       </c>
-      <c r="R8" s="56">
+      <c r="R8" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="16">
         <v>0.12798459778988899</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="17">
         <v>0.24972435731795101</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="17">
         <v>0.12907675617140499</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="17">
         <v>5.8920781802545903E-2</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="18">
         <v>0.19027724377353</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="16">
         <v>6.2189424647157002E-2</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="20">
         <v>0.118150821382174</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="17">
         <v>6.2704517509868302E-2</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="17">
         <v>2.9095523510565598E-2</v>
       </c>
-      <c r="M9" s="57">
+      <c r="M9" s="43">
         <v>9.1181373772844104E-2</v>
       </c>
-      <c r="N9" s="54">
+      <c r="N9" s="40">
         <v>44</v>
       </c>
-      <c r="O9" s="55">
+      <c r="O9" s="41">
         <v>94</v>
       </c>
-      <c r="P9" s="55">
+      <c r="P9" s="41">
         <v>7</v>
       </c>
-      <c r="Q9" s="55">
+      <c r="Q9" s="41">
         <v>7</v>
       </c>
-      <c r="R9" s="56">
+      <c r="R9" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="18"/>
-      <c r="C10" s="34" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="25">
         <f>AVERAGE(D5:D9)</f>
         <v>0.18004021993870989</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="26">
         <f t="shared" ref="E10:R10" si="0">AVERAGE(E5:E9)</f>
         <v>0.23207053912615519</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="26">
         <f t="shared" si="0"/>
         <v>0.24982848745170338</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="26">
         <f t="shared" si="0"/>
         <v>0.23421789576046814</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="27">
         <f t="shared" si="0"/>
         <v>0.41757467551259964</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="25">
         <f t="shared" si="0"/>
         <v>8.1960926540647322E-2</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="45">
         <f t="shared" si="0"/>
         <v>0.10921069427056558</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="26">
         <f t="shared" si="0"/>
         <v>0.11358432672922505</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="26">
         <f t="shared" si="0"/>
         <v>0.10374544824252918</v>
       </c>
-      <c r="M10" s="60">
+      <c r="M10" s="46">
         <f t="shared" si="0"/>
         <v>0.16797950170362713</v>
       </c>
-      <c r="N10" s="39">
+      <c r="N10" s="28">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="O10" s="40">
+      <c r="O10" s="29">
         <f t="shared" si="0"/>
         <v>88.2</v>
       </c>
-      <c r="P10" s="40">
+      <c r="P10" s="29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="Q10" s="40">
+      <c r="Q10" s="29">
         <f t="shared" si="0"/>
         <v>9.4</v>
       </c>
-      <c r="R10" s="41">
+      <c r="R10" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="13">
         <v>0.245756129829901</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="14">
         <v>0.36542463945797099</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="14">
         <v>0.122881940284138</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="14">
         <v>0.29657402802635702</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="15">
         <v>0.35484118144202398</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="13">
         <v>0.116134458669698</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="19">
         <v>0.16851385933499799</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="14">
         <v>5.9661238455072499E-2</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="14">
         <v>0.138672045861475</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="15">
         <v>0.163976452271275</v>
       </c>
-      <c r="N11" s="51">
+      <c r="N11" s="37">
         <v>32</v>
       </c>
-      <c r="O11" s="52">
+      <c r="O11" s="38">
         <v>78</v>
       </c>
-      <c r="P11" s="52">
+      <c r="P11" s="38">
         <v>6</v>
       </c>
-      <c r="Q11" s="52">
+      <c r="Q11" s="38">
         <v>6</v>
       </c>
-      <c r="R11" s="53">
+      <c r="R11" s="39">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="16">
         <v>-0.13570894161068101</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="17">
         <v>-4.5396264365944003E-2</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="17">
         <v>9.6886690047791296E-2</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="17">
         <v>0.28169056255182701</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="18">
         <v>0.130061722919111</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="16">
         <v>-7.0327445608229899E-2</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="17">
         <v>-2.2961753238873499E-2</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="17">
         <v>4.73235842125352E-2</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="20">
         <v>0.13211773352060299</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="18">
         <v>6.3043612896061599E-2</v>
       </c>
-      <c r="N12" s="54">
+      <c r="N12" s="40">
         <v>38</v>
       </c>
-      <c r="O12" s="55">
+      <c r="O12" s="41">
         <v>69</v>
       </c>
-      <c r="P12" s="55">
+      <c r="P12" s="41">
         <v>8</v>
       </c>
-      <c r="Q12" s="55">
+      <c r="Q12" s="41">
         <v>12</v>
       </c>
-      <c r="R12" s="56">
+      <c r="R12" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="16">
         <v>0.38770040847334603</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="17">
         <v>0.28267588245625302</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="17">
         <v>0.317420833548127</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="17">
         <v>0.71211505049947899</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="18">
         <v>0.62818229375976697</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="16">
         <v>0.178006964526672</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="17">
         <v>0.13255281662987001</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="17">
         <v>0.14778954235875799</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="20">
         <v>0.308478142920041</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="18">
         <v>0.27600246620442198</v>
       </c>
-      <c r="N13" s="54">
+      <c r="N13" s="40">
         <v>45</v>
       </c>
-      <c r="O13" s="55">
+      <c r="O13" s="41">
         <v>84</v>
       </c>
-      <c r="P13" s="55">
+      <c r="P13" s="41">
         <v>6</v>
       </c>
-      <c r="Q13" s="55">
+      <c r="Q13" s="41">
         <v>12</v>
       </c>
-      <c r="R13" s="56">
+      <c r="R13" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="16">
         <v>1.60212508284916</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="17">
         <v>2.0500739074566501</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="17">
         <v>0.51581263184991</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="17">
         <v>0.63674600398672698</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="18">
         <v>2.4082435429335298</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="16">
         <v>0.61311037528408696</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="17">
         <v>0.74644607917240202</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="17">
         <v>0.23118342737786601</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="17">
         <v>0.27935374466436202</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="21">
         <v>0.84614288258886705</v>
       </c>
-      <c r="N14" s="54">
+      <c r="N14" s="40">
         <v>51</v>
       </c>
-      <c r="O14" s="55">
+      <c r="O14" s="41">
         <v>80</v>
       </c>
-      <c r="P14" s="55">
+      <c r="P14" s="41">
         <v>6</v>
       </c>
-      <c r="Q14" s="55">
+      <c r="Q14" s="41">
         <v>8</v>
       </c>
-      <c r="R14" s="56">
+      <c r="R14" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
-      <c r="C15" s="33" t="s">
+      <c r="B15" s="56"/>
+      <c r="C15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="16">
         <v>0.109649103063457</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="17">
         <v>0.49083567102081799</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="17">
         <v>0.146518727019044</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="17">
         <v>0.15754731742134101</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="18">
         <v>0.41168281582077099</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="16">
         <v>5.3398833805818197E-2</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="17">
         <v>0.22099781777889199</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="17">
         <v>7.0756147317887E-2</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="17">
         <v>7.5893729613358094E-2</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="18">
         <v>0.18814259069388201</v>
       </c>
-      <c r="N15" s="54">
+      <c r="N15" s="40">
         <v>32</v>
       </c>
-      <c r="O15" s="55">
+      <c r="O15" s="41">
         <v>72</v>
       </c>
-      <c r="P15" s="55">
+      <c r="P15" s="41">
         <v>6</v>
       </c>
-      <c r="Q15" s="55">
+      <c r="Q15" s="41">
         <v>6</v>
       </c>
-      <c r="R15" s="56">
+      <c r="R15" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="18"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="57"/>
+      <c r="C16" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="25">
         <f>AVERAGE(D11:D15)</f>
         <v>0.4419043565210366</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="26">
         <f t="shared" ref="E16:R16" si="1">AVERAGE(E11:E15)</f>
         <v>0.62872276720514964</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="26">
         <f t="shared" si="1"/>
         <v>0.23990416454980207</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="26">
         <f t="shared" si="1"/>
         <v>0.41693459249714621</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="27">
         <f t="shared" si="1"/>
         <v>0.78660231137504044</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="25">
         <f t="shared" si="1"/>
         <v>0.17806463733560904</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="45">
         <f t="shared" si="1"/>
         <v>0.24910976393545772</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="26">
         <f t="shared" si="1"/>
         <v>0.11134278794442373</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="26">
         <f t="shared" si="1"/>
         <v>0.18690307931596781</v>
       </c>
-      <c r="M16" s="60">
+      <c r="M16" s="46">
         <f t="shared" si="1"/>
         <v>0.30746160093090152</v>
       </c>
-      <c r="N16" s="39">
+      <c r="N16" s="28">
         <f t="shared" si="1"/>
         <v>39.6</v>
       </c>
-      <c r="O16" s="40">
+      <c r="O16" s="29">
         <f t="shared" si="1"/>
         <v>76.599999999999994</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="29">
         <f t="shared" si="1"/>
         <v>6.4</v>
       </c>
-      <c r="Q16" s="40">
+      <c r="Q16" s="29">
         <f t="shared" si="1"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="R16" s="41">
+      <c r="R16" s="30">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="13">
         <v>0.110429783185575</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="14">
         <v>2.7493525526368801E-2</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="14">
         <v>-2.4213617791897301E-2</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="14">
         <v>0.22431272240324801</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="15">
         <v>0.17839384771741801</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="13">
         <v>5.3243836900526101E-2</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="14">
         <v>1.3522643924873E-2</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="14">
         <v>-1.20656904581708E-2</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="14">
         <v>0.10542083566304999</v>
       </c>
-      <c r="M17" s="61">
+      <c r="M17" s="47">
         <v>8.4690295930442694E-2</v>
       </c>
-      <c r="N17" s="51">
+      <c r="N17" s="37">
         <v>40</v>
       </c>
-      <c r="O17" s="52">
+      <c r="O17" s="38">
         <v>120</v>
       </c>
-      <c r="P17" s="52">
+      <c r="P17" s="38">
         <v>5</v>
       </c>
-      <c r="Q17" s="52">
+      <c r="Q17" s="38">
         <v>13</v>
       </c>
-      <c r="R17" s="53">
+      <c r="R17" s="39">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="16">
         <v>0.18760810273480699</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="17">
         <v>0.230616673836994</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="17">
         <v>0.100247769705663</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="17">
         <v>7.9543173226844302E-3</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="18">
         <v>3.4374549657321403E-2</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="16">
         <v>8.8882428487361706E-2</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="20">
         <v>0.108235968599549</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="17">
         <v>4.84498807793605E-2</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="17">
         <v>3.9314041772975303E-3</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="18">
         <v>1.6878391571122999E-2</v>
       </c>
-      <c r="N18" s="54">
+      <c r="N18" s="40">
         <v>51</v>
       </c>
-      <c r="O18" s="55">
+      <c r="O18" s="41">
         <v>111</v>
       </c>
-      <c r="P18" s="55">
+      <c r="P18" s="41">
         <v>9</v>
       </c>
-      <c r="Q18" s="55">
+      <c r="Q18" s="41">
         <v>11</v>
       </c>
-      <c r="R18" s="56">
+      <c r="R18" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="16">
         <v>3.4609476671710201E-2</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="17">
         <v>0.11305385772299301</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="17">
         <v>0.108536035547753</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="17">
         <v>0.21886354578831499</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="18">
         <v>0.22863312487667201</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="16">
         <v>1.6992761882746302E-2</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="17">
         <v>5.4475719300415899E-2</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="17">
         <v>5.23538963002552E-2</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="17">
         <v>0.102981515128127</v>
       </c>
-      <c r="M19" s="32">
+      <c r="M19" s="21">
         <v>0.107350968760289</v>
       </c>
-      <c r="N19" s="54">
+      <c r="N19" s="40">
         <v>56</v>
       </c>
-      <c r="O19" s="55">
+      <c r="O19" s="41">
         <v>112</v>
       </c>
-      <c r="P19" s="55">
+      <c r="P19" s="41">
         <v>7</v>
       </c>
-      <c r="Q19" s="55">
+      <c r="Q19" s="41">
         <v>11</v>
       </c>
-      <c r="R19" s="56">
+      <c r="R19" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="16">
         <v>0.15072712102236899</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="17">
         <v>0.190476207275802</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="17">
         <v>0.403051458595163</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="17">
         <v>-2.52191910322761E-2</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="18">
         <v>0.27246381180456902</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="16">
         <v>7.2002578432402903E-2</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="17">
         <v>9.0183953124685898E-2</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="20">
         <v>0.18259611874832801</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="17">
         <v>-1.25700196009562E-2</v>
       </c>
-      <c r="M20" s="29">
+      <c r="M20" s="18">
         <v>0.12674180595863499</v>
       </c>
-      <c r="N20" s="54">
+      <c r="N20" s="40">
         <v>47</v>
       </c>
-      <c r="O20" s="55">
+      <c r="O20" s="41">
         <v>114</v>
       </c>
-      <c r="P20" s="55">
+      <c r="P20" s="41">
         <v>11</v>
       </c>
-      <c r="Q20" s="55">
+      <c r="Q20" s="41">
         <v>11</v>
       </c>
-      <c r="R20" s="56">
+      <c r="R20" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="33" t="s">
+      <c r="B21" s="56"/>
+      <c r="C21" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="16">
         <v>8.5528211301886703E-2</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="17">
         <v>0.11892249522370001</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="17">
         <v>-9.7977041356918492E-3</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="17">
         <v>0.23740671485365999</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="18">
         <v>0.22364467760978801</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="16">
         <v>4.1479768107276403E-2</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="17">
         <v>5.7225480388397101E-2</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="17">
         <v>-4.8642539499735796E-3</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="20">
         <v>0.111260042270695</v>
       </c>
-      <c r="M21" s="32">
+      <c r="M21" s="21">
         <v>0.105122080973315</v>
       </c>
-      <c r="N21" s="54">
+      <c r="N21" s="40">
         <v>49</v>
       </c>
-      <c r="O21" s="55">
+      <c r="O21" s="41">
         <v>116</v>
       </c>
-      <c r="P21" s="55">
+      <c r="P21" s="41">
         <v>5</v>
       </c>
-      <c r="Q21" s="55">
+      <c r="Q21" s="41">
         <v>13</v>
       </c>
-      <c r="R21" s="56">
+      <c r="R21" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="18"/>
-      <c r="C22" s="34" t="s">
+      <c r="B22" s="57"/>
+      <c r="C22" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="25">
         <f>AVERAGE(D17:D21)</f>
         <v>0.11378053898326959</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="26">
         <f t="shared" ref="E22:R22" si="2">AVERAGE(E17:E21)</f>
         <v>0.13611255191717159</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="26">
         <f t="shared" si="2"/>
         <v>0.11556478838419797</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="26">
         <f t="shared" si="2"/>
         <v>0.13266362186712627</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="27">
         <f t="shared" si="2"/>
         <v>0.18750200233315367</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="25">
         <f t="shared" si="2"/>
         <v>5.4520274762062684E-2</v>
       </c>
-      <c r="J22" s="59">
+      <c r="J22" s="45">
         <f t="shared" si="2"/>
         <v>6.4728753067584174E-2</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="26">
         <f t="shared" si="2"/>
         <v>5.3293990283959869E-2</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="26">
         <f t="shared" si="2"/>
         <v>6.2204755527642666E-2</v>
       </c>
-      <c r="M22" s="60">
+      <c r="M22" s="46">
         <f t="shared" si="2"/>
         <v>8.8156708638760933E-2</v>
       </c>
-      <c r="N22" s="39">
+      <c r="N22" s="28">
         <f t="shared" si="2"/>
         <v>48.6</v>
       </c>
-      <c r="O22" s="40">
+      <c r="O22" s="29">
         <f t="shared" si="2"/>
         <v>114.6</v>
       </c>
-      <c r="P22" s="40">
+      <c r="P22" s="29">
         <f t="shared" si="2"/>
         <v>7.4</v>
       </c>
-      <c r="Q22" s="40">
+      <c r="Q22" s="29">
         <f t="shared" si="2"/>
         <v>11.8</v>
       </c>
-      <c r="R22" s="41">
+      <c r="R22" s="30">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -1883,35 +6915,35 @@
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="13" t="s">
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
     </row>
     <row r="27" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="22"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="4" t="s">
         <v>1</v>
       </c>
@@ -1949,40 +6981,40 @@
       <c r="R27" s="2"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="31">
         <v>1458.81123814527</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="32">
         <v>2847.8386668830899</v>
       </c>
-      <c r="F28" s="43">
+      <c r="F28" s="32">
         <v>1271.97090118442</v>
       </c>
-      <c r="G28" s="43">
+      <c r="G28" s="32">
         <v>1586.36517020567</v>
       </c>
-      <c r="H28" s="44">
+      <c r="H28" s="33">
         <v>1519.7110231485301</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I28" s="31">
         <v>28.054062272024499</v>
       </c>
-      <c r="J28" s="43">
+      <c r="J28" s="32">
         <v>31.998187268349302</v>
       </c>
-      <c r="K28" s="43">
+      <c r="K28" s="32">
         <v>181.71012874063101</v>
       </c>
-      <c r="L28" s="43">
+      <c r="L28" s="32">
         <v>132.19709751713901</v>
       </c>
-      <c r="M28" s="44">
+      <c r="M28" s="33">
         <v>759.85551157426505</v>
       </c>
       <c r="N28" s="2"/>
@@ -1992,38 +7024,38 @@
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="17"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="34">
         <v>-34.4719483631415</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="35">
         <v>1012.2687302592</v>
       </c>
-      <c r="F29" s="46">
+      <c r="F29" s="35">
         <v>1620.62414177809</v>
       </c>
-      <c r="G29" s="46">
+      <c r="G29" s="35">
         <v>1343.7753996932699</v>
       </c>
-      <c r="H29" s="47">
+      <c r="H29" s="36">
         <v>-653.72478846129502</v>
       </c>
-      <c r="I29" s="45">
+      <c r="I29" s="34">
         <v>-0.78345337188958097</v>
       </c>
-      <c r="J29" s="46">
+      <c r="J29" s="35">
         <v>10.768816279353199</v>
       </c>
-      <c r="K29" s="46">
+      <c r="K29" s="35">
         <v>180.06934908645499</v>
       </c>
-      <c r="L29" s="46">
+      <c r="L29" s="35">
         <v>122.16139997211501</v>
       </c>
-      <c r="M29" s="47">
+      <c r="M29" s="36">
         <v>-326.862394230647</v>
       </c>
       <c r="N29" s="2"/>
@@ -2033,38 +7065,38 @@
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="17"/>
+      <c r="B30" s="56"/>
       <c r="C30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="34">
         <v>143.253275390385</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="35">
         <v>1342.7007342325801</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="35">
         <v>1005.33692630671</v>
       </c>
-      <c r="G30" s="46">
+      <c r="G30" s="35">
         <v>-126.179286048902</v>
       </c>
-      <c r="H30" s="47">
+      <c r="H30" s="36">
         <v>1706.95397604605</v>
       </c>
-      <c r="I30" s="45">
+      <c r="I30" s="34">
         <v>3.8717101456860799</v>
       </c>
-      <c r="J30" s="46">
+      <c r="J30" s="35">
         <v>14.5945731981802</v>
       </c>
-      <c r="K30" s="46">
+      <c r="K30" s="35">
         <v>143.61956090095899</v>
       </c>
-      <c r="L30" s="46">
+      <c r="L30" s="35">
         <v>-18.025612292700298</v>
       </c>
-      <c r="M30" s="47">
+      <c r="M30" s="36">
         <v>853.47698802302705</v>
       </c>
       <c r="N30" s="2"/>
@@ -2074,38 +7106,38 @@
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="17"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D31" s="34">
         <v>6154.5724538640898</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E31" s="35">
         <v>3903.4752517533798</v>
       </c>
-      <c r="F31" s="46">
+      <c r="F31" s="35">
         <v>7302.7248416019002</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="35">
         <v>8317.7256861479109</v>
       </c>
-      <c r="H31" s="47">
+      <c r="H31" s="36">
         <v>16403.021127161399</v>
       </c>
-      <c r="I31" s="45">
+      <c r="I31" s="34">
         <v>161.96243299642299</v>
       </c>
-      <c r="J31" s="46">
+      <c r="J31" s="35">
         <v>54.214934052130303</v>
       </c>
-      <c r="K31" s="46">
+      <c r="K31" s="35">
         <v>730.27248416018995</v>
       </c>
-      <c r="L31" s="46">
+      <c r="L31" s="35">
         <v>831.772568614791</v>
       </c>
-      <c r="M31" s="47">
+      <c r="M31" s="36">
         <v>8201.5105635807395</v>
       </c>
       <c r="N31" s="2"/>
@@ -2114,39 +7146,39 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="18"/>
-      <c r="C32" s="5" t="s">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B32" s="56"/>
+      <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="34">
         <v>1279.8459778988899</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="35">
         <v>2497.2435731795099</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="35">
         <v>1290.7675617140501</v>
       </c>
-      <c r="G32" s="49">
+      <c r="G32" s="35">
         <v>589.20781802545901</v>
       </c>
-      <c r="H32" s="50">
+      <c r="H32" s="36">
         <v>1902.7724377352999</v>
       </c>
-      <c r="I32" s="48">
+      <c r="I32" s="34">
         <v>29.087408588611201</v>
       </c>
-      <c r="J32" s="49">
+      <c r="J32" s="35">
         <v>26.5664209912714</v>
       </c>
-      <c r="K32" s="49">
+      <c r="K32" s="35">
         <v>184.39536595915101</v>
       </c>
-      <c r="L32" s="49">
+      <c r="L32" s="35">
         <v>84.172545432208395</v>
       </c>
-      <c r="M32" s="50">
+      <c r="M32" s="36">
         <v>951.38621886765304</v>
       </c>
       <c r="N32" s="2"/>
@@ -2155,42 +7187,50 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="8">
-        <v>2457.5612982990101</v>
-      </c>
-      <c r="E33" s="7">
-        <v>3654.2463945797099</v>
-      </c>
-      <c r="F33" s="7">
-        <v>1228.81940284138</v>
-      </c>
-      <c r="G33" s="7">
-        <v>2965.7402802635702</v>
-      </c>
-      <c r="H33" s="9">
-        <v>3548.4118144202398</v>
-      </c>
-      <c r="I33" s="8">
-        <v>76.798790571844293</v>
-      </c>
-      <c r="J33" s="7">
-        <v>46.849312751021998</v>
-      </c>
-      <c r="K33" s="7">
-        <v>204.803233806896</v>
-      </c>
-      <c r="L33" s="7">
-        <v>494.29004671059602</v>
-      </c>
-      <c r="M33" s="9">
-        <v>1774.2059072101199</v>
+    <row r="33" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="57"/>
+      <c r="C33" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="73">
+        <f>AVERAGE(D28:D32)</f>
+        <v>1800.4021993870986</v>
+      </c>
+      <c r="E33" s="74">
+        <f t="shared" ref="E33:M33" si="3">AVERAGE(E28:E32)</f>
+        <v>2320.705391261552</v>
+      </c>
+      <c r="F33" s="74">
+        <f t="shared" si="3"/>
+        <v>2498.284874517034</v>
+      </c>
+      <c r="G33" s="74">
+        <f t="shared" si="3"/>
+        <v>2342.1789576046817</v>
+      </c>
+      <c r="H33" s="75">
+        <f t="shared" si="3"/>
+        <v>4175.746755125997</v>
+      </c>
+      <c r="I33" s="73">
+        <f t="shared" si="3"/>
+        <v>44.438432126171037</v>
+      </c>
+      <c r="J33" s="74">
+        <f t="shared" si="3"/>
+        <v>27.628586357856882</v>
+      </c>
+      <c r="K33" s="74">
+        <f t="shared" si="3"/>
+        <v>284.01337776947719</v>
+      </c>
+      <c r="L33" s="74">
+        <f t="shared" si="3"/>
+        <v>230.45559984871062</v>
+      </c>
+      <c r="M33" s="75">
+        <f t="shared" si="3"/>
+        <v>2087.8733775630076</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -2199,39 +7239,41 @@
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="17"/>
-      <c r="C34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="1">
-        <v>-1357.0894161068099</v>
-      </c>
-      <c r="E34" s="2">
-        <v>-453.96264365944</v>
-      </c>
-      <c r="F34" s="2">
-        <v>968.86690047791296</v>
-      </c>
-      <c r="G34" s="2">
-        <v>2816.90562551827</v>
-      </c>
-      <c r="H34" s="3">
-        <v>1300.61722919111</v>
-      </c>
-      <c r="I34" s="1">
-        <v>-35.712879371231899</v>
-      </c>
-      <c r="J34" s="2">
-        <v>-6.5791687486875396</v>
-      </c>
-      <c r="K34" s="2">
-        <v>121.10836255973901</v>
-      </c>
-      <c r="L34" s="2">
-        <v>234.742135459856</v>
-      </c>
-      <c r="M34" s="3">
-        <v>650.30861459555899</v>
+      <c r="B34" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="8">
+        <v>2457.5612982990101</v>
+      </c>
+      <c r="E34" s="7">
+        <v>3654.2463945797099</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1228.81940284138</v>
+      </c>
+      <c r="G34" s="7">
+        <v>2965.7402802635702</v>
+      </c>
+      <c r="H34" s="9">
+        <v>3548.4118144202398</v>
+      </c>
+      <c r="I34" s="8">
+        <v>76.798790571844293</v>
+      </c>
+      <c r="J34" s="7">
+        <v>46.849312751021998</v>
+      </c>
+      <c r="K34" s="7">
+        <v>204.803233806896</v>
+      </c>
+      <c r="L34" s="7">
+        <v>494.29004671059602</v>
+      </c>
+      <c r="M34" s="9">
+        <v>1774.2059072101199</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -2240,39 +7282,39 @@
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="17"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1">
-        <v>3877.0040847334599</v>
+        <v>-1357.0894161068099</v>
       </c>
       <c r="E35" s="2">
-        <v>2826.7588245625302</v>
+        <v>-453.96264365944</v>
       </c>
       <c r="F35" s="2">
-        <v>3174.2083354812698</v>
+        <v>968.86690047791296</v>
       </c>
       <c r="G35" s="2">
-        <v>7121.15050499479</v>
+        <v>2816.90562551827</v>
       </c>
       <c r="H35" s="3">
-        <v>6281.8229375976698</v>
+        <v>1300.61722919111</v>
       </c>
       <c r="I35" s="1">
-        <v>86.155646327410196</v>
+        <v>-35.712879371231899</v>
       </c>
       <c r="J35" s="2">
-        <v>33.651890768601497</v>
+        <v>-6.5791687486875396</v>
       </c>
       <c r="K35" s="2">
-        <v>529.034722580211</v>
+        <v>121.10836255973901</v>
       </c>
       <c r="L35" s="2">
-        <v>593.42920874956599</v>
+        <v>234.742135459856</v>
       </c>
       <c r="M35" s="3">
-        <v>3140.9114687988299</v>
+        <v>650.30861459555899</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -2281,39 +7323,39 @@
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B36" s="17"/>
+      <c r="B36" s="56"/>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36" s="1">
-        <v>16021.2508284916</v>
+        <v>3877.0040847334599</v>
       </c>
       <c r="E36" s="2">
-        <v>20500.7390745665</v>
+        <v>2826.7588245625302</v>
       </c>
       <c r="F36" s="2">
-        <v>5158.1263184991003</v>
+        <v>3174.2083354812698</v>
       </c>
       <c r="G36" s="2">
-        <v>6367.4600398672701</v>
+        <v>7121.15050499479</v>
       </c>
       <c r="H36" s="3">
-        <v>24082.435429335299</v>
+        <v>6281.8229375976698</v>
       </c>
       <c r="I36" s="1">
-        <v>314.14217310767901</v>
+        <v>86.155646327410196</v>
       </c>
       <c r="J36" s="2">
-        <v>256.25923843208199</v>
+        <v>33.651890768601497</v>
       </c>
       <c r="K36" s="2">
-        <v>859.687719749851</v>
+        <v>529.034722580211</v>
       </c>
       <c r="L36" s="2">
-        <v>795.93250498340899</v>
+        <v>593.42920874956599</v>
       </c>
       <c r="M36" s="3">
-        <v>12041.2177146676</v>
+        <v>3140.9114687988299</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -2321,40 +7363,40 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
     </row>
-    <row r="37" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="18"/>
-      <c r="C37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1096.4910306345701</v>
-      </c>
-      <c r="E37" s="5">
-        <v>4908.3567102081797</v>
-      </c>
-      <c r="F37" s="5">
-        <v>1465.1872701904399</v>
-      </c>
-      <c r="G37" s="5">
-        <v>1575.4731742134099</v>
-      </c>
-      <c r="H37" s="6">
-        <v>4116.8281582077097</v>
-      </c>
-      <c r="I37" s="4">
-        <v>34.265344707330598</v>
-      </c>
-      <c r="J37" s="5">
-        <v>68.171620975113598</v>
-      </c>
-      <c r="K37" s="5">
-        <v>244.19787836507399</v>
-      </c>
-      <c r="L37" s="5">
-        <v>262.57886236890198</v>
-      </c>
-      <c r="M37" s="6">
-        <v>2058.4140791038499</v>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B37" s="56"/>
+      <c r="C37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1">
+        <v>16021.2508284916</v>
+      </c>
+      <c r="E37" s="2">
+        <v>20500.7390745665</v>
+      </c>
+      <c r="F37" s="2">
+        <v>5158.1263184991003</v>
+      </c>
+      <c r="G37" s="2">
+        <v>6367.4600398672701</v>
+      </c>
+      <c r="H37" s="3">
+        <v>24082.435429335299</v>
+      </c>
+      <c r="I37" s="1">
+        <v>314.14217310767901</v>
+      </c>
+      <c r="J37" s="2">
+        <v>256.25923843208199</v>
+      </c>
+      <c r="K37" s="2">
+        <v>859.687719749851</v>
+      </c>
+      <c r="L37" s="2">
+        <v>795.93250498340899</v>
+      </c>
+      <c r="M37" s="3">
+        <v>12041.2177146676</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -2363,41 +7405,39 @@
       <c r="R37" s="2"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="8">
-        <v>1104.29783185575</v>
-      </c>
-      <c r="E38" s="7">
-        <v>274.93525526368802</v>
-      </c>
-      <c r="F38" s="7">
-        <v>-242.136177918973</v>
-      </c>
-      <c r="G38" s="7">
-        <v>2243.1272240324802</v>
-      </c>
-      <c r="H38" s="9">
-        <v>1783.93847717418</v>
-      </c>
-      <c r="I38" s="8">
-        <v>27.607445796393801</v>
-      </c>
-      <c r="J38" s="7">
-        <v>2.2911271271974001</v>
-      </c>
-      <c r="K38" s="7">
-        <v>-48.427235583794698</v>
-      </c>
-      <c r="L38" s="7">
-        <v>172.54824800249901</v>
-      </c>
-      <c r="M38" s="9">
-        <v>891.96923858709101</v>
+      <c r="B38" s="56"/>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1096.4910306345701</v>
+      </c>
+      <c r="E38" s="2">
+        <v>4908.3567102081797</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1465.1872701904399</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1575.4731742134099</v>
+      </c>
+      <c r="H38" s="3">
+        <v>4116.8281582077097</v>
+      </c>
+      <c r="I38" s="1">
+        <v>34.265344707330598</v>
+      </c>
+      <c r="J38" s="2">
+        <v>68.171620975113598</v>
+      </c>
+      <c r="K38" s="2">
+        <v>244.19787836507399</v>
+      </c>
+      <c r="L38" s="2">
+        <v>262.57886236890198</v>
+      </c>
+      <c r="M38" s="3">
+        <v>2058.4140791038499</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -2405,40 +7445,50 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B39" s="17"/>
-      <c r="C39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1876.0810273480699</v>
-      </c>
-      <c r="E39" s="2">
-        <v>2306.16673836994</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1002.4776970566299</v>
-      </c>
-      <c r="G39" s="2">
-        <v>79.543173226844303</v>
-      </c>
-      <c r="H39" s="3">
-        <v>343.74549657321398</v>
-      </c>
-      <c r="I39" s="1">
-        <v>36.785902497021098</v>
-      </c>
-      <c r="J39" s="2">
-        <v>20.7762769222517</v>
-      </c>
-      <c r="K39" s="2">
-        <v>111.38641078406999</v>
-      </c>
-      <c r="L39" s="2">
-        <v>7.2311975660767596</v>
-      </c>
-      <c r="M39" s="3">
-        <v>171.87274828660699</v>
+    <row r="39" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="57"/>
+      <c r="C39" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="73">
+        <f t="shared" ref="D39:M39" si="4">AVERAGE(D34:D38)</f>
+        <v>4419.0435652103661</v>
+      </c>
+      <c r="E39" s="74">
+        <f t="shared" si="4"/>
+        <v>6287.2276720514956</v>
+      </c>
+      <c r="F39" s="74">
+        <f t="shared" si="4"/>
+        <v>2399.0416454980204</v>
+      </c>
+      <c r="G39" s="74">
+        <f t="shared" si="4"/>
+        <v>4169.3459249714624</v>
+      </c>
+      <c r="H39" s="75">
+        <f t="shared" si="4"/>
+        <v>7866.0231137504061</v>
+      </c>
+      <c r="I39" s="73">
+        <f t="shared" si="4"/>
+        <v>95.129815068606433</v>
+      </c>
+      <c r="J39" s="74">
+        <f t="shared" si="4"/>
+        <v>79.670578835626316</v>
+      </c>
+      <c r="K39" s="74">
+        <f t="shared" si="4"/>
+        <v>391.76638341235423</v>
+      </c>
+      <c r="L39" s="74">
+        <f t="shared" si="4"/>
+        <v>476.19455165446573</v>
+      </c>
+      <c r="M39" s="75">
+        <f t="shared" si="4"/>
+        <v>3933.0115568751921</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -2447,39 +7497,41 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="17"/>
-      <c r="C40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="1">
-        <v>346.094766717102</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1130.5385772299301</v>
-      </c>
-      <c r="F40" s="2">
-        <v>1085.36035547753</v>
-      </c>
-      <c r="G40" s="2">
-        <v>2188.6354578831501</v>
-      </c>
-      <c r="H40" s="3">
-        <v>2286.3312487667199</v>
-      </c>
-      <c r="I40" s="1">
-        <v>6.1802636913768199</v>
-      </c>
-      <c r="J40" s="2">
-        <v>10.094094439553</v>
-      </c>
-      <c r="K40" s="2">
-        <v>155.05147935393299</v>
-      </c>
-      <c r="L40" s="2">
-        <v>198.96685980755899</v>
-      </c>
-      <c r="M40" s="3">
-        <v>1143.16562438336</v>
+      <c r="B40" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1104.29783185575</v>
+      </c>
+      <c r="E40" s="7">
+        <v>274.93525526368802</v>
+      </c>
+      <c r="F40" s="7">
+        <v>-242.136177918973</v>
+      </c>
+      <c r="G40" s="7">
+        <v>2243.1272240324802</v>
+      </c>
+      <c r="H40" s="9">
+        <v>1783.93847717418</v>
+      </c>
+      <c r="I40" s="8">
+        <v>27.607445796393801</v>
+      </c>
+      <c r="J40" s="7">
+        <v>2.2911271271974001</v>
+      </c>
+      <c r="K40" s="7">
+        <v>-48.427235583794698</v>
+      </c>
+      <c r="L40" s="7">
+        <v>172.54824800249901</v>
+      </c>
+      <c r="M40" s="9">
+        <v>891.96923858709101</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -2488,39 +7540,39 @@
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="17"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D41" s="1">
-        <v>1507.2712102236901</v>
+        <v>1876.0810273480699</v>
       </c>
       <c r="E41" s="2">
-        <v>1904.7620727580199</v>
+        <v>2306.16673836994</v>
       </c>
       <c r="F41" s="2">
-        <v>4030.5145859516301</v>
+        <v>1002.4776970566299</v>
       </c>
       <c r="G41" s="2">
-        <v>-252.191910322761</v>
+        <v>79.543173226844303</v>
       </c>
       <c r="H41" s="3">
-        <v>2724.6381180456901</v>
+        <v>343.74549657321398</v>
       </c>
       <c r="I41" s="1">
-        <v>32.069600217525299</v>
+        <v>36.785902497021098</v>
       </c>
       <c r="J41" s="2">
-        <v>16.7084392347194</v>
+        <v>20.7762769222517</v>
       </c>
       <c r="K41" s="2">
-        <v>366.41041690469302</v>
+        <v>111.38641078406999</v>
       </c>
       <c r="L41" s="2">
-        <v>-22.9265373020691</v>
+        <v>7.2311975660767596</v>
       </c>
       <c r="M41" s="3">
-        <v>1362.3190590228401</v>
+        <v>171.87274828660699</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -2528,40 +7580,40 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
     </row>
-    <row r="42" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="18"/>
-      <c r="C42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="4">
-        <v>855.28211301886699</v>
-      </c>
-      <c r="E42" s="5">
-        <v>1189.224952237</v>
-      </c>
-      <c r="F42" s="5">
-        <v>-97.977041356918505</v>
-      </c>
-      <c r="G42" s="5">
-        <v>2374.0671485366001</v>
-      </c>
-      <c r="H42" s="6">
-        <v>2236.44677609788</v>
-      </c>
-      <c r="I42" s="4">
-        <v>17.454737000384998</v>
-      </c>
-      <c r="J42" s="5">
-        <v>10.251939243422401</v>
-      </c>
-      <c r="K42" s="5">
-        <v>-19.5954082713837</v>
-      </c>
-      <c r="L42" s="5">
-        <v>182.620549887431</v>
-      </c>
-      <c r="M42" s="6">
-        <v>1118.22338804894</v>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B42" s="56"/>
+      <c r="C42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1">
+        <v>346.094766717102</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1130.5385772299301</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1085.36035547753</v>
+      </c>
+      <c r="G42" s="2">
+        <v>2188.6354578831501</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2286.3312487667199</v>
+      </c>
+      <c r="I42" s="1">
+        <v>6.1802636913768199</v>
+      </c>
+      <c r="J42" s="2">
+        <v>10.094094439553</v>
+      </c>
+      <c r="K42" s="2">
+        <v>155.05147935393299</v>
+      </c>
+      <c r="L42" s="2">
+        <v>198.96685980755899</v>
+      </c>
+      <c r="M42" s="3">
+        <v>1143.16562438336</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -2570,6 +7622,40 @@
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B43" s="56"/>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1507.2712102236901</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1904.7620727580199</v>
+      </c>
+      <c r="F43" s="2">
+        <v>4030.5145859516301</v>
+      </c>
+      <c r="G43" s="2">
+        <v>-252.191910322761</v>
+      </c>
+      <c r="H43" s="3">
+        <v>2724.6381180456901</v>
+      </c>
+      <c r="I43" s="1">
+        <v>32.069600217525299</v>
+      </c>
+      <c r="J43" s="2">
+        <v>16.7084392347194</v>
+      </c>
+      <c r="K43" s="2">
+        <v>366.41041690469302</v>
+      </c>
+      <c r="L43" s="2">
+        <v>-22.9265373020691</v>
+      </c>
+      <c r="M43" s="3">
+        <v>1362.3190590228401</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -2577,13 +7663,91 @@
       <c r="R43" s="2"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B44" s="56"/>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="1">
+        <v>855.28211301886699</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1189.224952237</v>
+      </c>
+      <c r="F44" s="2">
+        <v>-97.977041356918505</v>
+      </c>
+      <c r="G44" s="2">
+        <v>2374.0671485366001</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2236.44677609788</v>
+      </c>
+      <c r="I44" s="1">
+        <v>17.454737000384998</v>
+      </c>
+      <c r="J44" s="2">
+        <v>10.251939243422401</v>
+      </c>
+      <c r="K44" s="2">
+        <v>-19.5954082713837</v>
+      </c>
+      <c r="L44" s="2">
+        <v>182.620549887431</v>
+      </c>
+      <c r="M44" s="3">
+        <v>1118.22338804894</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="57"/>
+      <c r="C45" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="73">
+        <f t="shared" ref="D45" si="5">AVERAGE(D40:D44)</f>
+        <v>1137.8053898326957</v>
+      </c>
+      <c r="E45" s="74">
+        <f t="shared" ref="E45" si="6">AVERAGE(E40:E44)</f>
+        <v>1361.1255191717157</v>
+      </c>
+      <c r="F45" s="74">
+        <f t="shared" ref="F45" si="7">AVERAGE(F40:F44)</f>
+        <v>1155.6478838419796</v>
+      </c>
+      <c r="G45" s="74">
+        <f t="shared" ref="G45" si="8">AVERAGE(G40:G44)</f>
+        <v>1326.6362186712627</v>
+      </c>
+      <c r="H45" s="75">
+        <f t="shared" ref="H45" si="9">AVERAGE(H40:H44)</f>
+        <v>1875.0200233315368</v>
+      </c>
+      <c r="I45" s="73">
+        <f t="shared" ref="I45" si="10">AVERAGE(I40:I44)</f>
+        <v>24.019589840540402</v>
+      </c>
+      <c r="J45" s="74">
+        <f t="shared" ref="J45" si="11">AVERAGE(J40:J44)</f>
+        <v>12.02437539342878</v>
+      </c>
+      <c r="K45" s="74">
+        <f t="shared" ref="K45" si="12">AVERAGE(K40:K44)</f>
+        <v>112.96513263750353</v>
+      </c>
+      <c r="L45" s="74">
+        <f t="shared" ref="L45" si="13">AVERAGE(L40:L44)</f>
+        <v>107.68806359229932</v>
+      </c>
+      <c r="M45" s="75">
+        <f t="shared" ref="M45" si="14">AVERAGE(M40:M44)</f>
+        <v>937.51001166576748</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -2597,27 +7761,49 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
     </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+    </row>
+    <row r="49" spans="14:18" x14ac:dyDescent="0.3">
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="D26:H26"/>
     <mergeCell ref="I26:M26"/>
     <mergeCell ref="N26:R26"/>
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B22"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2645,46 +7831,46 @@
     </row>
     <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="64" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66" t="s">
+      <c r="G4" s="69"/>
+      <c r="H4" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="66" t="s">
+      <c r="I4" s="71"/>
+      <c r="J4" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="67"/>
-      <c r="P4" s="21" t="s">
+      <c r="K4" s="71"/>
+      <c r="P4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="63"/>
-      <c r="T4" s="62" t="s">
+      <c r="S4" s="67"/>
+      <c r="T4" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="63"/>
+      <c r="U4" s="67"/>
     </row>
     <row r="5" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="22"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
@@ -2709,8 +7895,8 @@
       <c r="K5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="20"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="61"/>
       <c r="R5" s="4" t="s">
         <v>1</v>
       </c>
@@ -2725,866 +7911,866 @@
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="13">
         <v>0.51445086705202303</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="14">
         <v>0.44701348747591502</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="13">
         <v>0.35609720730420003</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="14">
         <v>0.447292156422886</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="13">
         <v>0.36056094163217001</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="15">
         <v>0.43131598851314801</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="13">
         <v>0.35174264326231303</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="15">
         <v>0.46449738029316001</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="55" t="s">
         <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="72">
+      <c r="R6" s="52">
         <v>5.9066671629746641E-3</v>
       </c>
-      <c r="S6" s="72">
+      <c r="S6" s="52">
         <v>2.9265203845721646E-2</v>
       </c>
-      <c r="T6" s="70">
+      <c r="T6" s="50">
         <v>0.41</v>
       </c>
-      <c r="U6" s="70">
+      <c r="U6" s="50">
         <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="17"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="16">
         <v>0.55876685934489401</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="17">
         <v>0.489402697495183</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="16">
         <v>0.38477222707655401</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="17">
         <v>0.50620097832842703</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="16">
         <v>0.38544747708627303</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="18">
         <v>0.47385560460970799</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="16">
         <v>0.38409933881631902</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="18">
         <v>0.54328564517243705</v>
       </c>
-      <c r="P7" s="17"/>
+      <c r="P7" s="56"/>
       <c r="Q7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="72">
+      <c r="R7" s="52">
         <v>4.9963166205971299E-3</v>
       </c>
-      <c r="S7" s="72">
+      <c r="S7" s="52">
         <v>2.9265203845721646E-2</v>
       </c>
-      <c r="T7" s="70">
+      <c r="T7" s="50">
         <v>0.59</v>
       </c>
-      <c r="U7" s="70">
+      <c r="U7" s="50">
         <v>0.09</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="16">
         <v>0.54527938342967197</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="17">
         <v>0.429672447013487</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="16">
         <v>0.34816315489819299</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="17">
         <v>0.43139045320270403</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="16">
         <v>0.34549565813105199</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="18">
         <v>0.41712459278382202</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="16">
         <v>0.35087216248506498</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="18">
         <v>0.44666666666666599</v>
       </c>
-      <c r="P8" s="17"/>
+      <c r="P8" s="56"/>
       <c r="Q8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="72">
+      <c r="R8" s="52">
         <v>3.4645467113565507E-3</v>
       </c>
-      <c r="S8" s="72">
+      <c r="S8" s="52">
         <v>2.9265203845721646E-2</v>
       </c>
-      <c r="T8" s="70">
+      <c r="T8" s="50">
         <v>0.41</v>
       </c>
-      <c r="U8" s="70">
+      <c r="U8" s="50">
         <v>0.09</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="16">
         <v>0.58574181117533697</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="17">
         <v>0.43159922928708999</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="16">
         <v>0.36234406457908602</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="17">
         <v>0.40679747631929503</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="16">
         <v>0.36901411389244998</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="18">
         <v>0.40347221874510703</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="16">
         <v>0.35591086079821999</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="18">
         <v>0.41017800027812501</v>
       </c>
-      <c r="P9" s="17"/>
+      <c r="P9" s="56"/>
       <c r="Q9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="72">
+      <c r="R9" s="52">
         <v>7.5936176627874313E-3</v>
       </c>
-      <c r="S9" s="72">
+      <c r="S9" s="52">
         <v>2.9265203845721646E-2</v>
       </c>
-      <c r="T9" s="70">
+      <c r="T9" s="50">
         <v>0.6</v>
       </c>
-      <c r="U9" s="70">
+      <c r="U9" s="50">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
-      <c r="C10" s="33" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="16">
         <v>0.57032755298651205</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="17">
         <v>0.44123314065510599</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="16">
         <v>0.37857442238841599</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="17">
         <v>0.46650934927906301</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="16">
         <v>0.37511471265561902</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="18">
         <v>0.441117870044895</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="16">
         <v>0.38209854450011899</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="18">
         <v>0.49500251862456501</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="33" t="s">
+      <c r="P10" s="56"/>
+      <c r="Q10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="72">
+      <c r="R10" s="52">
         <v>2.6989069829384373E-3</v>
       </c>
-      <c r="S10" s="72">
+      <c r="S10" s="52">
         <v>2.9265203845721646E-2</v>
       </c>
-      <c r="T10" s="70">
+      <c r="T10" s="50">
         <v>0.63</v>
       </c>
-      <c r="U10" s="70">
+      <c r="U10" s="50">
         <v>0.09</v>
       </c>
     </row>
     <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="18"/>
-      <c r="C11" s="35" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="48">
         <f>AVERAGE(D6:D10)</f>
         <v>0.55491329479768747</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="26">
         <f t="shared" ref="E11:K11" si="0">AVERAGE(E6:E10)</f>
         <v>0.44778420038535616</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="25">
         <f t="shared" si="0"/>
         <v>0.36599021524928982</v>
       </c>
-      <c r="G11" s="58">
+      <c r="G11" s="44">
         <f t="shared" si="0"/>
         <v>0.45163808271047501</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="25">
         <f t="shared" si="0"/>
         <v>0.36712658067951276</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="46">
         <f t="shared" si="0"/>
         <v>0.43337725493933599</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="25">
         <f t="shared" si="0"/>
         <v>0.36494470997240719</v>
       </c>
-      <c r="K11" s="60">
+      <c r="K11" s="46">
         <f t="shared" si="0"/>
         <v>0.47192604220699064</v>
       </c>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="35" t="s">
+      <c r="P11" s="57"/>
+      <c r="Q11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="73">
+      <c r="R11" s="53">
         <v>4.9320110281308432E-3</v>
       </c>
-      <c r="S11" s="73">
+      <c r="S11" s="53">
         <v>2.9265203845721646E-2</v>
       </c>
-      <c r="T11" s="71">
+      <c r="T11" s="51">
         <v>0.53</v>
       </c>
-      <c r="U11" s="71">
+      <c r="U11" s="51">
         <v>0.15</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="13">
         <v>0.59423076923076901</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="14">
         <v>0.43846153846153801</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="13">
         <v>0.40131952708969498</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="14">
         <v>0.414407338344153</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="13">
         <v>0.40338647111961301</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="15">
         <v>0.39230246484873199</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="13">
         <v>0.39927365703505102</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="15">
         <v>0.43915202065336101</v>
       </c>
-      <c r="P12" s="16" t="s">
+      <c r="P12" s="55" t="s">
         <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="R12" s="74">
+      <c r="R12" s="54">
         <v>7.070677319058658E-3</v>
       </c>
-      <c r="S12" s="74">
+      <c r="S12" s="54">
         <v>6.614877637613692E-2</v>
       </c>
-      <c r="T12" s="69">
+      <c r="T12" s="49">
         <v>0.3</v>
       </c>
-      <c r="U12" s="69">
+      <c r="U12" s="49">
         <v>0.39</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="16">
         <v>0.52692307692307605</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="17">
         <v>0.40192307692307599</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="16">
         <v>0.33201595363908898</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="17">
         <v>0.36156166770645798</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="16">
         <v>0.33051546712748803</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="18">
         <v>0.35702544311034801</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="16">
         <v>0.333530126213053</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="18">
         <v>0.36621464670245102</v>
       </c>
-      <c r="P13" s="17"/>
+      <c r="P13" s="56"/>
       <c r="Q13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R13" s="72">
+      <c r="R13" s="52">
         <v>4.0751707967784604E-3</v>
       </c>
-      <c r="S13" s="72">
+      <c r="S13" s="52">
         <v>6.614877637613692E-2</v>
       </c>
-      <c r="T13" s="70">
+      <c r="T13" s="50">
         <v>0.3</v>
       </c>
-      <c r="U13" s="70">
+      <c r="U13" s="50">
         <v>0.09</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="16">
         <v>0.56730769230769196</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="17">
         <v>0.45192307692307598</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="16">
         <v>0.37648292365095998</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="17">
         <v>0.44481145347739998</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="16">
         <v>0.37649144083764102</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="18">
         <v>0.41588321524389199</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="16">
         <v>0.37647440684963002</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="18">
         <v>0.47806496476339599</v>
       </c>
-      <c r="P14" s="17"/>
+      <c r="P14" s="56"/>
       <c r="Q14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R14" s="72">
+      <c r="R14" s="52">
         <v>2.854012292292373E-3</v>
       </c>
-      <c r="S14" s="72">
+      <c r="S14" s="52">
         <v>6.614877637613692E-2</v>
       </c>
-      <c r="T14" s="70">
+      <c r="T14" s="50">
         <v>0.3</v>
       </c>
-      <c r="U14" s="70">
+      <c r="U14" s="50">
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="16">
         <v>0.58461538461538398</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="17">
         <v>0.43076923076923002</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="16">
         <v>0.37361165600954899</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="17">
         <v>0.41533742355439301</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="16">
         <v>0.37414201076172898</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="18">
         <v>0.39336231733138899</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="16">
         <v>0.37308280270871202</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="18">
         <v>0.43991307863351498</v>
       </c>
-      <c r="P15" s="17"/>
+      <c r="P15" s="56"/>
       <c r="Q15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="72">
+      <c r="R15" s="52">
         <v>4.5750310796278471E-3</v>
       </c>
-      <c r="S15" s="72">
+      <c r="S15" s="52">
         <v>6.614877637613692E-2</v>
       </c>
-      <c r="T15" s="70">
+      <c r="T15" s="50">
         <v>0.68</v>
       </c>
-      <c r="U15" s="70">
+      <c r="U15" s="50">
         <v>0.09</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="56"/>
+      <c r="C16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="16">
         <v>0.58269230769230695</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="17">
         <v>0.44038461538461499</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="16">
         <v>0.38120742815588798</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="17">
         <v>0.42960191956687399</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="16">
         <v>0.38220640143941198</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="18">
         <v>0.40868421052631498</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="16">
         <v>0.38021366329420198</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="18">
         <v>0.45277640194823998</v>
       </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="33" t="s">
+      <c r="P16" s="56"/>
+      <c r="Q16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="R16" s="72">
+      <c r="R16" s="52">
         <v>3.4267830931478012E-3</v>
       </c>
-      <c r="S16" s="72">
+      <c r="S16" s="52">
         <v>6.614877637613692E-2</v>
       </c>
-      <c r="T16" s="70">
+      <c r="T16" s="50">
         <v>0.61</v>
       </c>
-      <c r="U16" s="70">
+      <c r="U16" s="50">
         <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="18"/>
-      <c r="C17" s="35" t="s">
+      <c r="B17" s="57"/>
+      <c r="C17" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="48">
         <f t="shared" ref="D17:K17" si="1">AVERAGE(D12:D16)</f>
         <v>0.57115384615384557</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="26">
         <f t="shared" si="1"/>
         <v>0.43269230769230704</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="25">
         <f t="shared" si="1"/>
         <v>0.37292749770903616</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="44">
         <f t="shared" si="1"/>
         <v>0.41314396052985558</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="25">
         <f t="shared" si="1"/>
         <v>0.3733483582571766</v>
       </c>
-      <c r="I17" s="60">
+      <c r="I17" s="46">
         <f t="shared" si="1"/>
         <v>0.39345153021213519</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="25">
         <f t="shared" si="1"/>
         <v>0.37251493122012957</v>
       </c>
-      <c r="K17" s="60">
+      <c r="K17" s="46">
         <f t="shared" si="1"/>
         <v>0.43522422254019261</v>
       </c>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="35" t="s">
+      <c r="P17" s="57"/>
+      <c r="Q17" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="R17" s="73">
+      <c r="R17" s="53">
         <v>4.4003349161810283E-3</v>
       </c>
-      <c r="S17" s="73">
+      <c r="S17" s="53">
         <v>6.614877637613692E-2</v>
       </c>
-      <c r="T17" s="71">
+      <c r="T17" s="51">
         <v>0.44</v>
       </c>
-      <c r="U17" s="71">
+      <c r="U17" s="51">
         <v>0.15</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="13">
         <v>0.59047619047619004</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="14">
         <v>0.44190476190476102</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="13">
         <v>0.38107796348305401</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="14">
         <v>0.51914756667051798</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="13">
         <v>0.38711617600506398</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="15">
         <v>0.47814180227973302</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="13">
         <v>0.375225225225225</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="15">
         <v>0.56784646348476098</v>
       </c>
-      <c r="P18" s="16" t="s">
+      <c r="P18" s="55" t="s">
         <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="R18" s="74">
+      <c r="R18" s="54">
         <v>1.0795921156251862E-2</v>
       </c>
-      <c r="S18" s="74">
+      <c r="S18" s="54">
         <v>2.1528031058885417E-2</v>
       </c>
-      <c r="T18" s="69">
+      <c r="T18" s="49">
         <v>0.33</v>
       </c>
-      <c r="U18" s="69">
+      <c r="U18" s="49">
         <v>0.31</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="16">
         <v>0.57904761904761903</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="17">
         <v>0.37904761904761902</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="16">
         <v>0.40471159774460702</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="17">
         <v>0.44819654588306801</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="16">
         <v>0.40023147017480998</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="18">
         <v>0.43472037321766299</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="16">
         <v>0.409293160437325</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="18">
         <v>0.46253496058987997</v>
       </c>
-      <c r="P19" s="17"/>
+      <c r="P19" s="56"/>
       <c r="Q19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R19" s="72">
+      <c r="R19" s="52">
         <v>5.9523247182369215E-3</v>
       </c>
-      <c r="S19" s="72">
+      <c r="S19" s="52">
         <v>2.1528031058885417E-2</v>
       </c>
-      <c r="T19" s="70">
+      <c r="T19" s="50">
         <v>0.3</v>
       </c>
-      <c r="U19" s="70">
+      <c r="U19" s="50">
         <v>0.06</v>
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="16">
         <v>0.502857142857142</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="17">
         <v>0.41142857142857098</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="16">
         <v>0.36148561582201399</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="17">
         <v>0.46670415144252497</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="16">
         <v>0.35679969270812401</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="18">
         <v>0.43561251194284001</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="16">
         <v>0.36629625928100501</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="18">
         <v>0.50257522316750003</v>
       </c>
-      <c r="P20" s="17"/>
+      <c r="P20" s="56"/>
       <c r="Q20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R20" s="72">
+      <c r="R20" s="52">
         <v>4.6370679691985764E-3</v>
       </c>
-      <c r="S20" s="72">
+      <c r="S20" s="52">
         <v>2.1528031058885417E-2</v>
       </c>
-      <c r="T20" s="70">
+      <c r="T20" s="50">
         <v>0.28999999999999998</v>
       </c>
-      <c r="U20" s="70">
+      <c r="U20" s="50">
         <v>0.08</v>
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="16">
         <v>0.55428571428571405</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="17">
         <v>0.36761904761904701</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="16">
         <v>0.34820887117882598</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="17">
         <v>0.46133599498891298</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="16">
         <v>0.34716378778275198</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="18">
         <v>0.43383085058048998</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="16">
         <v>0.34926026570048302</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="18">
         <v>0.49256491545893699</v>
       </c>
-      <c r="P21" s="17"/>
+      <c r="P21" s="56"/>
       <c r="Q21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="72">
+      <c r="R21" s="52">
         <v>4.0745874494314124E-3</v>
       </c>
-      <c r="S21" s="72">
+      <c r="S21" s="52">
         <v>2.1528031058885417E-2</v>
       </c>
-      <c r="T21" s="70">
+      <c r="T21" s="50">
         <v>0.31</v>
       </c>
-      <c r="U21" s="70">
+      <c r="U21" s="50">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
-      <c r="C22" s="33" t="s">
+      <c r="B22" s="56"/>
+      <c r="C22" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="16">
         <v>0.55619047619047601</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="17">
         <v>0.419047619047619</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="16">
         <v>0.365621541646654</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="17">
         <v>0.48934256671550003</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="16">
         <v>0.35885616990665797</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="18">
         <v>0.45136700621526599</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="16">
         <v>0.37264690458789002</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="18">
         <v>0.53429525850500204</v>
       </c>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="33" t="s">
+      <c r="P22" s="56"/>
+      <c r="Q22" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="R22" s="72">
+      <c r="R22" s="52">
         <v>3.8741564033207983E-3</v>
       </c>
-      <c r="S22" s="72">
+      <c r="S22" s="52">
         <v>2.1528031058885417E-2</v>
       </c>
-      <c r="T22" s="70">
+      <c r="T22" s="50">
         <v>0.32</v>
       </c>
-      <c r="U22" s="70">
+      <c r="U22" s="50">
         <v>0.06</v>
       </c>
     </row>
     <row r="23" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="18"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="57"/>
+      <c r="C23" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="68">
+      <c r="D23" s="48">
         <f t="shared" ref="D23:K23" si="2">AVERAGE(D18:D22)</f>
         <v>0.55657142857142827</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="26">
         <f t="shared" si="2"/>
         <v>0.40380952380952345</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="25">
         <f t="shared" si="2"/>
         <v>0.37222111797503099</v>
       </c>
-      <c r="G23" s="58">
+      <c r="G23" s="44">
         <f t="shared" si="2"/>
         <v>0.47694536514010483</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="25">
         <f t="shared" si="2"/>
         <v>0.37003345931548159</v>
       </c>
-      <c r="I23" s="60">
+      <c r="I23" s="46">
         <f t="shared" si="2"/>
         <v>0.44673450884719845</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="25">
         <f t="shared" si="2"/>
         <v>0.37454436304638561</v>
       </c>
-      <c r="K23" s="60">
+      <c r="K23" s="46">
         <f t="shared" si="2"/>
         <v>0.51196336424121602</v>
       </c>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="35" t="s">
+      <c r="P23" s="57"/>
+      <c r="Q23" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="R23" s="73">
+      <c r="R23" s="53">
         <v>5.8668115392879142E-3</v>
       </c>
-      <c r="S23" s="73">
+      <c r="S23" s="53">
         <v>2.1528031058885417E-2</v>
       </c>
-      <c r="T23" s="71">
+      <c r="T23" s="51">
         <v>0.31</v>
       </c>
-      <c r="U23" s="71">
+      <c r="U23" s="51">
         <v>0.12</v>
       </c>
     </row>

--- a/results tables/results_table_scheme.xlsx
+++ b/results tables/results_table_scheme.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="36">
   <si>
     <t>Annual Returns</t>
   </si>
@@ -142,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +185,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -194,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -371,11 +379,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -443,6 +462,10 @@
     <xf numFmtId="45" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -450,18 +473,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -472,6 +483,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -494,10 +517,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5442,16 +5466,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5834,10 +5858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R49"/>
+  <dimension ref="B2:Y135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q58" sqref="Q58"/>
+    <sheetView tabSelected="1" topLeftCell="B98" workbookViewId="0">
+      <selection activeCell="X115" sqref="X115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5856,12 +5880,12 @@
     <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="58" t="s">
+    <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="65" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="62" t="s">
@@ -5886,9 +5910,9 @@
       <c r="Q3" s="63"/>
       <c r="R3" s="64"/>
     </row>
-    <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="59"/>
-      <c r="C4" s="61"/>
+    <row r="4" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="68"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
@@ -5935,8 +5959,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="55" t="s">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="59" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -5987,9 +6011,13 @@
       <c r="R5" s="39">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="56"/>
+      <c r="T5">
+        <f>TTEST(D5:D9,E5:E9,2,3)</f>
+        <v>0.69116159688663892</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="60"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -6039,8 +6067,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="56"/>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B7" s="60"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -6090,8 +6118,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="56"/>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="60"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -6141,8 +6169,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="56"/>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="60"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -6192,8 +6220,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="57"/>
+    <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="61"/>
       <c r="C10" s="23" t="s">
         <v>29</v>
       </c>
@@ -6258,8 +6286,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="55" t="s">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="59" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -6311,8 +6339,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="56"/>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="60"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -6362,8 +6390,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="56"/>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="60"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
@@ -6413,8 +6441,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="56"/>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="60"/>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
@@ -6464,8 +6492,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="56"/>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="60"/>
       <c r="C15" s="22" t="s">
         <v>9</v>
       </c>
@@ -6515,8 +6543,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="57"/>
+    <row r="16" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="61"/>
       <c r="C16" s="23" t="s">
         <v>29</v>
       </c>
@@ -6582,7 +6610,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="59" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -6635,7 +6663,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="56"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
@@ -6686,7 +6714,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="56"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
@@ -6737,7 +6765,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="56"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
@@ -6788,7 +6816,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="56"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="22" t="s">
         <v>9</v>
       </c>
@@ -6839,7 +6867,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="57"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="23" t="s">
         <v>29</v>
       </c>
@@ -6915,10 +6943,10 @@
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="65" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="62" t="s">
@@ -6935,15 +6963,15 @@
       <c r="K26" s="63"/>
       <c r="L26" s="63"/>
       <c r="M26" s="64"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
     </row>
     <row r="27" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="59"/>
-      <c r="C27" s="61"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="4" t="s">
         <v>1</v>
       </c>
@@ -6981,7 +7009,7 @@
       <c r="R27" s="2"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="59" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -7024,7 +7052,7 @@
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="56"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="2" t="s">
         <v>5</v>
       </c>
@@ -7065,7 +7093,7 @@
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="56"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="2" t="s">
         <v>6</v>
       </c>
@@ -7106,7 +7134,7 @@
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="56"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
@@ -7147,7 +7175,7 @@
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="56"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
@@ -7188,47 +7216,47 @@
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="57"/>
-      <c r="C33" s="72" t="s">
+      <c r="B33" s="61"/>
+      <c r="C33" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="73">
+      <c r="D33" s="56">
         <f>AVERAGE(D28:D32)</f>
         <v>1800.4021993870986</v>
       </c>
-      <c r="E33" s="74">
+      <c r="E33" s="57">
         <f t="shared" ref="E33:M33" si="3">AVERAGE(E28:E32)</f>
         <v>2320.705391261552</v>
       </c>
-      <c r="F33" s="74">
+      <c r="F33" s="57">
         <f t="shared" si="3"/>
         <v>2498.284874517034</v>
       </c>
-      <c r="G33" s="74">
+      <c r="G33" s="57">
         <f t="shared" si="3"/>
         <v>2342.1789576046817</v>
       </c>
-      <c r="H33" s="75">
+      <c r="H33" s="58">
         <f t="shared" si="3"/>
         <v>4175.746755125997</v>
       </c>
-      <c r="I33" s="73">
+      <c r="I33" s="56">
         <f t="shared" si="3"/>
         <v>44.438432126171037</v>
       </c>
-      <c r="J33" s="74">
+      <c r="J33" s="57">
         <f t="shared" si="3"/>
         <v>27.628586357856882</v>
       </c>
-      <c r="K33" s="74">
+      <c r="K33" s="57">
         <f t="shared" si="3"/>
         <v>284.01337776947719</v>
       </c>
-      <c r="L33" s="74">
+      <c r="L33" s="57">
         <f t="shared" si="3"/>
         <v>230.45559984871062</v>
       </c>
-      <c r="M33" s="75">
+      <c r="M33" s="58">
         <f t="shared" si="3"/>
         <v>2087.8733775630076</v>
       </c>
@@ -7239,7 +7267,7 @@
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="59" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -7282,7 +7310,7 @@
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="56"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="2" t="s">
         <v>5</v>
       </c>
@@ -7323,7 +7351,7 @@
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B36" s="56"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="2" t="s">
         <v>6</v>
       </c>
@@ -7364,7 +7392,7 @@
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="56"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="2" t="s">
         <v>8</v>
       </c>
@@ -7405,7 +7433,7 @@
       <c r="R37" s="2"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="56"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
@@ -7446,47 +7474,47 @@
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="57"/>
-      <c r="C39" s="72" t="s">
+      <c r="B39" s="61"/>
+      <c r="C39" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="73">
+      <c r="D39" s="56">
         <f t="shared" ref="D39:M39" si="4">AVERAGE(D34:D38)</f>
         <v>4419.0435652103661</v>
       </c>
-      <c r="E39" s="74">
+      <c r="E39" s="57">
         <f t="shared" si="4"/>
         <v>6287.2276720514956</v>
       </c>
-      <c r="F39" s="74">
+      <c r="F39" s="57">
         <f t="shared" si="4"/>
         <v>2399.0416454980204</v>
       </c>
-      <c r="G39" s="74">
+      <c r="G39" s="57">
         <f t="shared" si="4"/>
         <v>4169.3459249714624</v>
       </c>
-      <c r="H39" s="75">
+      <c r="H39" s="58">
         <f t="shared" si="4"/>
         <v>7866.0231137504061</v>
       </c>
-      <c r="I39" s="73">
+      <c r="I39" s="56">
         <f t="shared" si="4"/>
         <v>95.129815068606433</v>
       </c>
-      <c r="J39" s="74">
+      <c r="J39" s="57">
         <f t="shared" si="4"/>
         <v>79.670578835626316</v>
       </c>
-      <c r="K39" s="74">
+      <c r="K39" s="57">
         <f t="shared" si="4"/>
         <v>391.76638341235423</v>
       </c>
-      <c r="L39" s="74">
+      <c r="L39" s="57">
         <f t="shared" si="4"/>
         <v>476.19455165446573</v>
       </c>
-      <c r="M39" s="75">
+      <c r="M39" s="58">
         <f t="shared" si="4"/>
         <v>3933.0115568751921</v>
       </c>
@@ -7497,7 +7525,7 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="59" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -7540,7 +7568,7 @@
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="56"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="2" t="s">
         <v>5</v>
       </c>
@@ -7581,7 +7609,7 @@
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B42" s="56"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="2" t="s">
         <v>6</v>
       </c>
@@ -7622,7 +7650,7 @@
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="56"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
@@ -7663,7 +7691,7 @@
       <c r="R43" s="2"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="56"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
@@ -7704,47 +7732,47 @@
       <c r="R44" s="2"/>
     </row>
     <row r="45" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="57"/>
-      <c r="C45" s="72" t="s">
+      <c r="B45" s="61"/>
+      <c r="C45" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="73">
+      <c r="D45" s="56">
         <f t="shared" ref="D45" si="5">AVERAGE(D40:D44)</f>
         <v>1137.8053898326957</v>
       </c>
-      <c r="E45" s="74">
+      <c r="E45" s="57">
         <f t="shared" ref="E45" si="6">AVERAGE(E40:E44)</f>
         <v>1361.1255191717157</v>
       </c>
-      <c r="F45" s="74">
+      <c r="F45" s="57">
         <f t="shared" ref="F45" si="7">AVERAGE(F40:F44)</f>
         <v>1155.6478838419796</v>
       </c>
-      <c r="G45" s="74">
+      <c r="G45" s="57">
         <f t="shared" ref="G45" si="8">AVERAGE(G40:G44)</f>
         <v>1326.6362186712627</v>
       </c>
-      <c r="H45" s="75">
+      <c r="H45" s="58">
         <f t="shared" ref="H45" si="9">AVERAGE(H40:H44)</f>
         <v>1875.0200233315368</v>
       </c>
-      <c r="I45" s="73">
+      <c r="I45" s="56">
         <f t="shared" ref="I45" si="10">AVERAGE(I40:I44)</f>
         <v>24.019589840540402</v>
       </c>
-      <c r="J45" s="74">
+      <c r="J45" s="57">
         <f t="shared" ref="J45" si="11">AVERAGE(J40:J44)</f>
         <v>12.02437539342878</v>
       </c>
-      <c r="K45" s="74">
+      <c r="K45" s="57">
         <f t="shared" ref="K45" si="12">AVERAGE(K40:K44)</f>
         <v>112.96513263750353</v>
       </c>
-      <c r="L45" s="74">
+      <c r="L45" s="57">
         <f t="shared" ref="L45" si="13">AVERAGE(L40:L44)</f>
         <v>107.68806359229932</v>
       </c>
-      <c r="M45" s="75">
+      <c r="M45" s="58">
         <f t="shared" ref="M45" si="14">AVERAGE(M40:M44)</f>
         <v>937.51001166576748</v>
       </c>
@@ -7782,24 +7810,1016 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
     </row>
+    <row r="102" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="103" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C103" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" s="63"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="64"/>
+      <c r="J103" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="K103" s="63"/>
+      <c r="L103" s="63"/>
+      <c r="M103" s="63"/>
+      <c r="N103" s="64"/>
+      <c r="O103" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="P103" s="63"/>
+      <c r="Q103" s="63"/>
+      <c r="R103" s="63"/>
+      <c r="S103" s="64"/>
+    </row>
+    <row r="104" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C104" s="68"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M104" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O104" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P104" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q104" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R104" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S104" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W104">
+        <v>9</v>
+      </c>
+      <c r="X104">
+        <v>9</v>
+      </c>
+      <c r="Y104">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C105" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="13">
+        <v>0.145881123814527</v>
+      </c>
+      <c r="F105" s="14">
+        <v>0.28478386668830902</v>
+      </c>
+      <c r="G105" s="14">
+        <v>0.12719709011844199</v>
+      </c>
+      <c r="H105" s="14">
+        <v>0.158636517020567</v>
+      </c>
+      <c r="I105" s="15">
+        <v>0.151971102314853</v>
+      </c>
+      <c r="J105" s="13">
+        <v>7.0598812158114893E-2</v>
+      </c>
+      <c r="K105" s="19">
+        <v>0.13375674329481099</v>
+      </c>
+      <c r="L105" s="14">
+        <v>6.1817859250651003E-2</v>
+      </c>
+      <c r="M105" s="14">
+        <v>7.6552496102709505E-2</v>
+      </c>
+      <c r="N105" s="15">
+        <v>7.3445462756940305E-2</v>
+      </c>
+      <c r="O105" s="37">
+        <v>52</v>
+      </c>
+      <c r="P105" s="38">
+        <v>89</v>
+      </c>
+      <c r="Q105" s="38">
+        <v>7</v>
+      </c>
+      <c r="R105" s="38">
+        <v>12</v>
+      </c>
+      <c r="S105" s="39">
+        <v>2</v>
+      </c>
+      <c r="W105">
+        <v>20</v>
+      </c>
+      <c r="X105">
+        <v>9</v>
+      </c>
+      <c r="Y105">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C106" s="60"/>
+      <c r="D106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" s="16">
+        <v>-3.4471948363141501E-3</v>
+      </c>
+      <c r="F106" s="17">
+        <v>0.10122687302592</v>
+      </c>
+      <c r="G106" s="17">
+        <v>0.16206241417780901</v>
+      </c>
+      <c r="H106" s="17">
+        <v>0.134377539969327</v>
+      </c>
+      <c r="I106" s="18">
+        <v>-6.5372478846129498E-2</v>
+      </c>
+      <c r="J106" s="16">
+        <v>-1.72840636771576E-3</v>
+      </c>
+      <c r="K106" s="17">
+        <v>4.9491061769888399E-2</v>
+      </c>
+      <c r="L106" s="20">
+        <v>7.8145982097384603E-2</v>
+      </c>
+      <c r="M106" s="17">
+        <v>6.5200992878887698E-2</v>
+      </c>
+      <c r="N106" s="18">
+        <v>-3.3301608344867499E-2</v>
+      </c>
+      <c r="O106" s="40">
+        <v>44</v>
+      </c>
+      <c r="P106" s="41">
+        <v>94</v>
+      </c>
+      <c r="Q106" s="41">
+        <v>9</v>
+      </c>
+      <c r="R106" s="41">
+        <v>11</v>
+      </c>
+      <c r="S106" s="42">
+        <v>2</v>
+      </c>
+      <c r="W106">
+        <v>56</v>
+      </c>
+      <c r="X106">
+        <v>39</v>
+      </c>
+      <c r="Y106">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="107" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C107" s="60"/>
+      <c r="D107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="16">
+        <v>1.43253275390385E-2</v>
+      </c>
+      <c r="F107" s="17">
+        <v>0.134270073423258</v>
+      </c>
+      <c r="G107" s="17">
+        <v>0.100533692630671</v>
+      </c>
+      <c r="H107" s="17">
+        <v>-1.2617928604890199E-2</v>
+      </c>
+      <c r="I107" s="18">
+        <v>0.170695397604605</v>
+      </c>
+      <c r="J107" s="16">
+        <v>7.1509948722214799E-3</v>
+      </c>
+      <c r="K107" s="17">
+        <v>6.5150437951493501E-2</v>
+      </c>
+      <c r="L107" s="17">
+        <v>4.9160066008666403E-2</v>
+      </c>
+      <c r="M107" s="17">
+        <v>-6.3411482192437998E-3</v>
+      </c>
+      <c r="N107" s="21">
+        <v>8.2151071391820693E-2</v>
+      </c>
+      <c r="O107" s="40">
+        <v>37</v>
+      </c>
+      <c r="P107" s="41">
+        <v>92</v>
+      </c>
+      <c r="Q107" s="41">
+        <v>7</v>
+      </c>
+      <c r="R107" s="41">
+        <v>7</v>
+      </c>
+      <c r="S107" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C108" s="60"/>
+      <c r="D108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="16">
+        <v>0.615457245386409</v>
+      </c>
+      <c r="F108" s="17">
+        <v>0.39034752517533799</v>
+      </c>
+      <c r="G108" s="17">
+        <v>0.73027248416018997</v>
+      </c>
+      <c r="H108" s="17">
+        <v>0.83177256861479099</v>
+      </c>
+      <c r="I108" s="18">
+        <v>1.6403021127161399</v>
+      </c>
+      <c r="J108" s="16">
+        <v>0.27159380739345901</v>
+      </c>
+      <c r="K108" s="17">
+        <v>0.17950440695446099</v>
+      </c>
+      <c r="L108" s="17">
+        <v>0.31609320877955499</v>
+      </c>
+      <c r="M108" s="17">
+        <v>0.35421937693972699</v>
+      </c>
+      <c r="N108" s="21">
+        <v>0.62642120894139797</v>
+      </c>
+      <c r="O108" s="40">
+        <v>38</v>
+      </c>
+      <c r="P108" s="41">
+        <v>72</v>
+      </c>
+      <c r="Q108" s="41">
+        <v>10</v>
+      </c>
+      <c r="R108" s="41">
+        <v>10</v>
+      </c>
+      <c r="S108" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C109" s="60"/>
+      <c r="D109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="16">
+        <v>0.12798459778988899</v>
+      </c>
+      <c r="F109" s="17">
+        <v>0.24972435731795101</v>
+      </c>
+      <c r="G109" s="17">
+        <v>0.12907675617140499</v>
+      </c>
+      <c r="H109" s="17">
+        <v>5.8920781802545903E-2</v>
+      </c>
+      <c r="I109" s="18">
+        <v>0.19027724377353</v>
+      </c>
+      <c r="J109" s="16">
+        <v>6.2189424647157002E-2</v>
+      </c>
+      <c r="K109" s="20">
+        <v>0.118150821382174</v>
+      </c>
+      <c r="L109" s="17">
+        <v>6.2704517509868302E-2</v>
+      </c>
+      <c r="M109" s="17">
+        <v>2.9095523510565598E-2</v>
+      </c>
+      <c r="N109" s="43">
+        <v>9.1181373772844104E-2</v>
+      </c>
+      <c r="O109" s="40">
+        <v>44</v>
+      </c>
+      <c r="P109" s="41">
+        <v>94</v>
+      </c>
+      <c r="Q109" s="41">
+        <v>7</v>
+      </c>
+      <c r="R109" s="41">
+        <v>7</v>
+      </c>
+      <c r="S109" s="42">
+        <v>2</v>
+      </c>
+      <c r="W109">
+        <v>9</v>
+      </c>
+      <c r="X109">
+        <v>10</v>
+      </c>
+      <c r="Y109">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C110" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="13">
+        <v>0.245756129829901</v>
+      </c>
+      <c r="F110" s="14">
+        <v>0.36542463945797099</v>
+      </c>
+      <c r="G110" s="14">
+        <v>0.122881940284138</v>
+      </c>
+      <c r="H110" s="14">
+        <v>0.29657402802635702</v>
+      </c>
+      <c r="I110" s="15">
+        <v>0.35484118144202398</v>
+      </c>
+      <c r="J110" s="13">
+        <v>0.116134458669698</v>
+      </c>
+      <c r="K110" s="19">
+        <v>0.16851385933499799</v>
+      </c>
+      <c r="L110" s="14">
+        <v>5.9661238455072499E-2</v>
+      </c>
+      <c r="M110" s="14">
+        <v>0.138672045861475</v>
+      </c>
+      <c r="N110" s="15">
+        <v>0.163976452271275</v>
+      </c>
+      <c r="O110" s="37">
+        <v>32</v>
+      </c>
+      <c r="P110" s="38">
+        <v>78</v>
+      </c>
+      <c r="Q110" s="38">
+        <v>6</v>
+      </c>
+      <c r="R110" s="38">
+        <v>6</v>
+      </c>
+      <c r="S110" s="39">
+        <v>2</v>
+      </c>
+      <c r="W110">
+        <v>8</v>
+      </c>
+      <c r="X110">
+        <v>18</v>
+      </c>
+      <c r="Y110">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C111" s="60"/>
+      <c r="D111" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="16">
+        <v>-0.13570894161068101</v>
+      </c>
+      <c r="F111" s="17">
+        <v>-4.5396264365944003E-2</v>
+      </c>
+      <c r="G111" s="17">
+        <v>9.6886690047791296E-2</v>
+      </c>
+      <c r="H111" s="17">
+        <v>0.28169056255182701</v>
+      </c>
+      <c r="I111" s="18">
+        <v>0.130061722919111</v>
+      </c>
+      <c r="J111" s="16">
+        <v>-7.0327445608229899E-2</v>
+      </c>
+      <c r="K111" s="17">
+        <v>-2.2961753238873499E-2</v>
+      </c>
+      <c r="L111" s="17">
+        <v>4.73235842125352E-2</v>
+      </c>
+      <c r="M111" s="20">
+        <v>0.13211773352060299</v>
+      </c>
+      <c r="N111" s="18">
+        <v>6.3043612896061599E-2</v>
+      </c>
+      <c r="O111" s="40">
+        <v>38</v>
+      </c>
+      <c r="P111" s="41">
+        <v>69</v>
+      </c>
+      <c r="Q111" s="41">
+        <v>8</v>
+      </c>
+      <c r="R111" s="41">
+        <v>12</v>
+      </c>
+      <c r="S111" s="42">
+        <v>2</v>
+      </c>
+      <c r="W111">
+        <v>75</v>
+      </c>
+      <c r="X111">
+        <v>39</v>
+      </c>
+      <c r="Y111">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="112" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C112" s="60"/>
+      <c r="D112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="16">
+        <v>0.38770040847334603</v>
+      </c>
+      <c r="F112" s="17">
+        <v>0.28267588245625302</v>
+      </c>
+      <c r="G112" s="17">
+        <v>0.317420833548127</v>
+      </c>
+      <c r="H112" s="17">
+        <v>0.71211505049947899</v>
+      </c>
+      <c r="I112" s="18">
+        <v>0.62818229375976697</v>
+      </c>
+      <c r="J112" s="16">
+        <v>0.178006964526672</v>
+      </c>
+      <c r="K112" s="17">
+        <v>0.13255281662987001</v>
+      </c>
+      <c r="L112" s="17">
+        <v>0.14778954235875799</v>
+      </c>
+      <c r="M112" s="20">
+        <v>0.308478142920041</v>
+      </c>
+      <c r="N112" s="18">
+        <v>0.27600246620442198</v>
+      </c>
+      <c r="O112" s="40">
+        <v>45</v>
+      </c>
+      <c r="P112" s="41">
+        <v>84</v>
+      </c>
+      <c r="Q112" s="41">
+        <v>6</v>
+      </c>
+      <c r="R112" s="41">
+        <v>12</v>
+      </c>
+      <c r="S112" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C113" s="60"/>
+      <c r="D113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="16">
+        <v>1.60212508284916</v>
+      </c>
+      <c r="F113" s="17">
+        <v>2.0500739074566501</v>
+      </c>
+      <c r="G113" s="17">
+        <v>0.51581263184991</v>
+      </c>
+      <c r="H113" s="17">
+        <v>0.63674600398672698</v>
+      </c>
+      <c r="I113" s="18">
+        <v>2.4082435429335298</v>
+      </c>
+      <c r="J113" s="16">
+        <v>0.61311037528408696</v>
+      </c>
+      <c r="K113" s="17">
+        <v>0.74644607917240202</v>
+      </c>
+      <c r="L113" s="17">
+        <v>0.23118342737786601</v>
+      </c>
+      <c r="M113" s="17">
+        <v>0.27935374466436202</v>
+      </c>
+      <c r="N113" s="21">
+        <v>0.84614288258886705</v>
+      </c>
+      <c r="O113" s="40">
+        <v>51</v>
+      </c>
+      <c r="P113" s="41">
+        <v>80</v>
+      </c>
+      <c r="Q113" s="41">
+        <v>6</v>
+      </c>
+      <c r="R113" s="41">
+        <v>8</v>
+      </c>
+      <c r="S113" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C114" s="60"/>
+      <c r="D114" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="16">
+        <v>0.109649103063457</v>
+      </c>
+      <c r="F114" s="17">
+        <v>0.49083567102081799</v>
+      </c>
+      <c r="G114" s="17">
+        <v>0.146518727019044</v>
+      </c>
+      <c r="H114" s="17">
+        <v>0.15754731742134101</v>
+      </c>
+      <c r="I114" s="18">
+        <v>0.41168281582077099</v>
+      </c>
+      <c r="J114" s="16">
+        <v>5.3398833805818197E-2</v>
+      </c>
+      <c r="K114" s="17">
+        <v>0.22099781777889199</v>
+      </c>
+      <c r="L114" s="17">
+        <v>7.0756147317887E-2</v>
+      </c>
+      <c r="M114" s="17">
+        <v>7.5893729613358094E-2</v>
+      </c>
+      <c r="N114" s="18">
+        <v>0.18814259069388201</v>
+      </c>
+      <c r="O114" s="40">
+        <v>32</v>
+      </c>
+      <c r="P114" s="41">
+        <v>72</v>
+      </c>
+      <c r="Q114" s="41">
+        <v>6</v>
+      </c>
+      <c r="R114" s="41">
+        <v>6</v>
+      </c>
+      <c r="S114" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C115" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="13">
+        <v>0.110429783185575</v>
+      </c>
+      <c r="F115" s="14">
+        <v>2.7493525526368801E-2</v>
+      </c>
+      <c r="G115" s="14">
+        <v>-2.4213617791897301E-2</v>
+      </c>
+      <c r="H115" s="14">
+        <v>0.22431272240324801</v>
+      </c>
+      <c r="I115" s="15">
+        <v>0.17839384771741801</v>
+      </c>
+      <c r="J115" s="13">
+        <v>5.3243836900526101E-2</v>
+      </c>
+      <c r="K115" s="14">
+        <v>1.3522643924873E-2</v>
+      </c>
+      <c r="L115" s="14">
+        <v>-1.20656904581708E-2</v>
+      </c>
+      <c r="M115" s="14">
+        <v>0.10542083566304999</v>
+      </c>
+      <c r="N115" s="47">
+        <v>8.4690295930442694E-2</v>
+      </c>
+      <c r="O115" s="37">
+        <v>40</v>
+      </c>
+      <c r="P115" s="38">
+        <v>120</v>
+      </c>
+      <c r="Q115" s="38">
+        <v>5</v>
+      </c>
+      <c r="R115" s="38">
+        <v>13</v>
+      </c>
+      <c r="S115" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C116" s="60"/>
+      <c r="D116" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" s="16">
+        <v>0.18760810273480699</v>
+      </c>
+      <c r="F116" s="17">
+        <v>0.230616673836994</v>
+      </c>
+      <c r="G116" s="17">
+        <v>0.100247769705663</v>
+      </c>
+      <c r="H116" s="17">
+        <v>7.9543173226844302E-3</v>
+      </c>
+      <c r="I116" s="18">
+        <v>3.4374549657321403E-2</v>
+      </c>
+      <c r="J116" s="16">
+        <v>8.8882428487361706E-2</v>
+      </c>
+      <c r="K116" s="20">
+        <v>0.108235968599549</v>
+      </c>
+      <c r="L116" s="17">
+        <v>4.84498807793605E-2</v>
+      </c>
+      <c r="M116" s="17">
+        <v>3.9314041772975303E-3</v>
+      </c>
+      <c r="N116" s="18">
+        <v>1.6878391571122999E-2</v>
+      </c>
+      <c r="O116" s="40">
+        <v>51</v>
+      </c>
+      <c r="P116" s="41">
+        <v>111</v>
+      </c>
+      <c r="Q116" s="41">
+        <v>9</v>
+      </c>
+      <c r="R116" s="41">
+        <v>11</v>
+      </c>
+      <c r="S116" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C117" s="60"/>
+      <c r="D117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="16">
+        <v>3.4609476671710201E-2</v>
+      </c>
+      <c r="F117" s="17">
+        <v>0.11305385772299301</v>
+      </c>
+      <c r="G117" s="17">
+        <v>0.108536035547753</v>
+      </c>
+      <c r="H117" s="17">
+        <v>0.21886354578831499</v>
+      </c>
+      <c r="I117" s="18">
+        <v>0.22863312487667201</v>
+      </c>
+      <c r="J117" s="16">
+        <v>1.6992761882746302E-2</v>
+      </c>
+      <c r="K117" s="17">
+        <v>5.4475719300415899E-2</v>
+      </c>
+      <c r="L117" s="17">
+        <v>5.23538963002552E-2</v>
+      </c>
+      <c r="M117" s="17">
+        <v>0.102981515128127</v>
+      </c>
+      <c r="N117" s="21">
+        <v>0.107350968760289</v>
+      </c>
+      <c r="O117" s="40">
+        <v>56</v>
+      </c>
+      <c r="P117" s="41">
+        <v>112</v>
+      </c>
+      <c r="Q117" s="41">
+        <v>7</v>
+      </c>
+      <c r="R117" s="41">
+        <v>11</v>
+      </c>
+      <c r="S117" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C118" s="60"/>
+      <c r="D118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="16">
+        <v>0.15072712102236899</v>
+      </c>
+      <c r="F118" s="17">
+        <v>0.190476207275802</v>
+      </c>
+      <c r="G118" s="17">
+        <v>0.403051458595163</v>
+      </c>
+      <c r="H118" s="17">
+        <v>-2.52191910322761E-2</v>
+      </c>
+      <c r="I118" s="18">
+        <v>0.27246381180456902</v>
+      </c>
+      <c r="J118" s="16">
+        <v>7.2002578432402903E-2</v>
+      </c>
+      <c r="K118" s="17">
+        <v>9.0183953124685898E-2</v>
+      </c>
+      <c r="L118" s="20">
+        <v>0.18259611874832801</v>
+      </c>
+      <c r="M118" s="17">
+        <v>-1.25700196009562E-2</v>
+      </c>
+      <c r="N118" s="18">
+        <v>0.12674180595863499</v>
+      </c>
+      <c r="O118" s="40">
+        <v>47</v>
+      </c>
+      <c r="P118" s="41">
+        <v>114</v>
+      </c>
+      <c r="Q118" s="41">
+        <v>11</v>
+      </c>
+      <c r="R118" s="41">
+        <v>11</v>
+      </c>
+      <c r="S118" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C119" s="60"/>
+      <c r="D119" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="16">
+        <v>8.5528211301886703E-2</v>
+      </c>
+      <c r="F119" s="17">
+        <v>0.11892249522370001</v>
+      </c>
+      <c r="G119" s="17">
+        <v>-9.7977041356918492E-3</v>
+      </c>
+      <c r="H119" s="17">
+        <v>0.23740671485365999</v>
+      </c>
+      <c r="I119" s="18">
+        <v>0.22364467760978801</v>
+      </c>
+      <c r="J119" s="16">
+        <v>4.1479768107276403E-2</v>
+      </c>
+      <c r="K119" s="17">
+        <v>5.7225480388397101E-2</v>
+      </c>
+      <c r="L119" s="17">
+        <v>-4.8642539499735796E-3</v>
+      </c>
+      <c r="M119" s="20">
+        <v>0.111260042270695</v>
+      </c>
+      <c r="N119" s="21">
+        <v>0.105122080973315</v>
+      </c>
+      <c r="O119" s="40">
+        <v>49</v>
+      </c>
+      <c r="P119" s="41">
+        <v>116</v>
+      </c>
+      <c r="Q119" s="41">
+        <v>5</v>
+      </c>
+      <c r="R119" s="41">
+        <v>13</v>
+      </c>
+      <c r="S119" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="125" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C125" s="78"/>
+      <c r="D125" s="78"/>
+      <c r="E125" s="78"/>
+      <c r="G125" s="78"/>
+      <c r="H125" s="78"/>
+      <c r="I125" s="78"/>
+    </row>
+    <row r="126" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C126" s="76"/>
+      <c r="D126" s="76"/>
+      <c r="E126" s="76"/>
+      <c r="G126" s="76"/>
+      <c r="H126" s="76"/>
+      <c r="I126" s="76"/>
+    </row>
+    <row r="127" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C127" s="76"/>
+      <c r="D127" s="76"/>
+      <c r="E127" s="76"/>
+      <c r="G127" s="76"/>
+      <c r="H127" s="76"/>
+      <c r="I127" s="76"/>
+    </row>
+    <row r="128" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C128" s="76"/>
+      <c r="D128" s="76"/>
+      <c r="E128" s="76"/>
+      <c r="G128" s="76"/>
+      <c r="H128" s="76"/>
+      <c r="I128" s="76"/>
+    </row>
+    <row r="129" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C129" s="76"/>
+      <c r="D129" s="76"/>
+      <c r="E129" s="76"/>
+      <c r="G129" s="76"/>
+      <c r="H129" s="76"/>
+      <c r="I129" s="76"/>
+    </row>
+    <row r="130" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C130" s="76"/>
+      <c r="D130" s="76"/>
+      <c r="E130" s="76"/>
+      <c r="G130" s="76"/>
+      <c r="H130" s="76"/>
+      <c r="I130" s="76"/>
+    </row>
+    <row r="131" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C131" s="76"/>
+      <c r="D131" s="76"/>
+      <c r="E131" s="76"/>
+      <c r="G131" s="76"/>
+      <c r="H131" s="76"/>
+      <c r="I131" s="76"/>
+    </row>
+    <row r="132" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C132" s="77"/>
+      <c r="D132" s="77"/>
+      <c r="E132" s="77"/>
+      <c r="G132" s="76"/>
+      <c r="H132" s="76"/>
+      <c r="I132" s="76"/>
+    </row>
+    <row r="133" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="G133" s="76"/>
+      <c r="H133" s="76"/>
+      <c r="I133" s="76"/>
+    </row>
+    <row r="134" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="G134" s="76"/>
+      <c r="H134" s="76"/>
+      <c r="I134" s="76"/>
+    </row>
+    <row r="135" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G135" s="77"/>
+      <c r="H135" s="77"/>
+      <c r="I135" s="77"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="24">
+    <mergeCell ref="C105:C109"/>
+    <mergeCell ref="C110:C114"/>
+    <mergeCell ref="C115:C119"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:I103"/>
+    <mergeCell ref="J103:N103"/>
+    <mergeCell ref="O103:S103"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B22"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="N3:R3"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7831,46 +8851,46 @@
     </row>
     <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="68" t="s">
+      <c r="E4" s="73"/>
+      <c r="F4" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="70" t="s">
+      <c r="I4" s="75"/>
+      <c r="J4" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="71"/>
-      <c r="P4" s="58" t="s">
+      <c r="K4" s="75"/>
+      <c r="P4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="67"/>
-      <c r="T4" s="66" t="s">
+      <c r="S4" s="71"/>
+      <c r="T4" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="67"/>
+      <c r="U4" s="71"/>
     </row>
     <row r="5" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="59"/>
-      <c r="C5" s="61"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
@@ -7895,8 +8915,8 @@
       <c r="K5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="61"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="66"/>
       <c r="R5" s="4" t="s">
         <v>1</v>
       </c>
@@ -7911,7 +8931,7 @@
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="59" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -7941,7 +8961,7 @@
       <c r="K6" s="15">
         <v>0.46449738029316001</v>
       </c>
-      <c r="P6" s="55" t="s">
+      <c r="P6" s="59" t="s">
         <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
@@ -7961,7 +8981,7 @@
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="56"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -7989,7 +9009,7 @@
       <c r="K7" s="18">
         <v>0.54328564517243705</v>
       </c>
-      <c r="P7" s="56"/>
+      <c r="P7" s="60"/>
       <c r="Q7" s="2" t="s">
         <v>5</v>
       </c>
@@ -8007,7 +9027,7 @@
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="56"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -8035,7 +9055,7 @@
       <c r="K8" s="18">
         <v>0.44666666666666599</v>
       </c>
-      <c r="P8" s="56"/>
+      <c r="P8" s="60"/>
       <c r="Q8" s="2" t="s">
         <v>6</v>
       </c>
@@ -8053,7 +9073,7 @@
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="56"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -8081,7 +9101,7 @@
       <c r="K9" s="18">
         <v>0.41017800027812501</v>
       </c>
-      <c r="P9" s="56"/>
+      <c r="P9" s="60"/>
       <c r="Q9" s="2" t="s">
         <v>8</v>
       </c>
@@ -8099,7 +9119,7 @@
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="56"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="22" t="s">
         <v>9</v>
       </c>
@@ -8127,7 +9147,7 @@
       <c r="K10" s="18">
         <v>0.49500251862456501</v>
       </c>
-      <c r="P10" s="56"/>
+      <c r="P10" s="60"/>
       <c r="Q10" s="22" t="s">
         <v>9</v>
       </c>
@@ -8145,7 +9165,7 @@
       </c>
     </row>
     <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="57"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="24" t="s">
         <v>29</v>
       </c>
@@ -8181,7 +9201,7 @@
         <f t="shared" si="0"/>
         <v>0.47192604220699064</v>
       </c>
-      <c r="P11" s="57"/>
+      <c r="P11" s="61"/>
       <c r="Q11" s="24" t="s">
         <v>29</v>
       </c>
@@ -8199,7 +9219,7 @@
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="59" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -8229,7 +9249,7 @@
       <c r="K12" s="15">
         <v>0.43915202065336101</v>
       </c>
-      <c r="P12" s="55" t="s">
+      <c r="P12" s="59" t="s">
         <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
@@ -8249,7 +9269,7 @@
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="56"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
@@ -8277,7 +9297,7 @@
       <c r="K13" s="18">
         <v>0.36621464670245102</v>
       </c>
-      <c r="P13" s="56"/>
+      <c r="P13" s="60"/>
       <c r="Q13" s="2" t="s">
         <v>5</v>
       </c>
@@ -8295,7 +9315,7 @@
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="56"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -8323,7 +9343,7 @@
       <c r="K14" s="18">
         <v>0.47806496476339599</v>
       </c>
-      <c r="P14" s="56"/>
+      <c r="P14" s="60"/>
       <c r="Q14" s="2" t="s">
         <v>6</v>
       </c>
@@ -8341,7 +9361,7 @@
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="56"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
@@ -8369,7 +9389,7 @@
       <c r="K15" s="18">
         <v>0.43991307863351498</v>
       </c>
-      <c r="P15" s="56"/>
+      <c r="P15" s="60"/>
       <c r="Q15" s="2" t="s">
         <v>8</v>
       </c>
@@ -8387,7 +9407,7 @@
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="56"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="22" t="s">
         <v>9</v>
       </c>
@@ -8415,7 +9435,7 @@
       <c r="K16" s="18">
         <v>0.45277640194823998</v>
       </c>
-      <c r="P16" s="56"/>
+      <c r="P16" s="60"/>
       <c r="Q16" s="22" t="s">
         <v>9</v>
       </c>
@@ -8433,7 +9453,7 @@
       </c>
     </row>
     <row r="17" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="57"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="24" t="s">
         <v>29</v>
       </c>
@@ -8469,7 +9489,7 @@
         <f t="shared" si="1"/>
         <v>0.43522422254019261</v>
       </c>
-      <c r="P17" s="57"/>
+      <c r="P17" s="61"/>
       <c r="Q17" s="24" t="s">
         <v>29</v>
       </c>
@@ -8487,7 +9507,7 @@
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="59" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -8517,7 +9537,7 @@
       <c r="K18" s="15">
         <v>0.56784646348476098</v>
       </c>
-      <c r="P18" s="55" t="s">
+      <c r="P18" s="59" t="s">
         <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
@@ -8537,7 +9557,7 @@
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="56"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
@@ -8565,7 +9585,7 @@
       <c r="K19" s="18">
         <v>0.46253496058987997</v>
       </c>
-      <c r="P19" s="56"/>
+      <c r="P19" s="60"/>
       <c r="Q19" s="2" t="s">
         <v>5</v>
       </c>
@@ -8583,7 +9603,7 @@
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="56"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
@@ -8611,7 +9631,7 @@
       <c r="K20" s="18">
         <v>0.50257522316750003</v>
       </c>
-      <c r="P20" s="56"/>
+      <c r="P20" s="60"/>
       <c r="Q20" s="2" t="s">
         <v>6</v>
       </c>
@@ -8629,7 +9649,7 @@
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B21" s="56"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
@@ -8657,7 +9677,7 @@
       <c r="K21" s="18">
         <v>0.49256491545893699</v>
       </c>
-      <c r="P21" s="56"/>
+      <c r="P21" s="60"/>
       <c r="Q21" s="2" t="s">
         <v>8</v>
       </c>
@@ -8675,7 +9695,7 @@
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="56"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="22" t="s">
         <v>9</v>
       </c>
@@ -8703,7 +9723,7 @@
       <c r="K22" s="18">
         <v>0.53429525850500204</v>
       </c>
-      <c r="P22" s="56"/>
+      <c r="P22" s="60"/>
       <c r="Q22" s="22" t="s">
         <v>9</v>
       </c>
@@ -8721,7 +9741,7 @@
       </c>
     </row>
     <row r="23" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="57"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="24" t="s">
         <v>29</v>
       </c>
@@ -8757,7 +9777,7 @@
         <f t="shared" si="2"/>
         <v>0.51196336424121602</v>
       </c>
-      <c r="P23" s="57"/>
+      <c r="P23" s="61"/>
       <c r="Q23" s="24" t="s">
         <v>29</v>
       </c>

--- a/results tables/results_table_scheme.xlsx
+++ b/results tables/results_table_scheme.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Financial Results Table - Comp" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="53">
   <si>
     <t>Annual Returns</t>
   </si>
@@ -134,6 +134,57 @@
   <si>
     <t xml:space="preserve"> Testing time (s)}</t>
   </si>
+  <si>
+    <t>Std.Dev.</t>
+  </si>
+  <si>
+    <t>Significance test: Permutation test results</t>
+  </si>
+  <si>
+    <t>Strategy 1</t>
+  </si>
+  <si>
+    <t>Strategy 2</t>
+  </si>
+  <si>
+    <t>p-value (equal means)</t>
+  </si>
+  <si>
+    <t>p-value (equal variances)</t>
+  </si>
+  <si>
+    <t>indiv</t>
+  </si>
+  <si>
+    <t>univ</t>
+  </si>
+  <si>
+    <t>BaH</t>
+  </si>
+  <si>
+    <t>Strategies</t>
+  </si>
+  <si>
+    <t>p-values</t>
+  </si>
+  <si>
+    <t>2017-2019</t>
+  </si>
+  <si>
+    <t>Permutation test results</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>MacroF1</t>
+  </si>
+  <si>
+    <t>MacroPrec</t>
+  </si>
+  <si>
+    <t>MacroRec</t>
+  </si>
 </sst>
 </file>
 
@@ -186,8 +237,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -202,7 +252,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -380,12 +430,29 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -394,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -466,15 +533,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,6 +553,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,10 +584,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,9 +825,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Financial Results Table - Comp'!$C$5:$C$10</c:f>
+              <c:f>'Financial Results Table - Comp'!$C$5:$C$11</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>S&amp;P500</c:v>
                 </c:pt>
@@ -751,6 +844,9 @@
                   <c:v>SPY</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Std.Dev.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -758,10 +854,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Financial Results Table - Comp'!$I$5:$I$10</c:f>
+              <c:f>'Financial Results Table - Comp'!$I$5:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>7.0598812158114893E-2</c:v>
                 </c:pt>
@@ -778,6 +874,9 @@
                   <c:v>6.2189424647157002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.11077123921598975</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>8.1960926540647322E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -872,9 +971,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Financial Results Table - Comp'!$C$5:$C$10</c:f>
+              <c:f>'Financial Results Table - Comp'!$C$5:$C$11</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>S&amp;P500</c:v>
                 </c:pt>
@@ -891,6 +990,9 @@
                   <c:v>SPY</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Std.Dev.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -898,10 +1000,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Financial Results Table - Comp'!$J$5:$J$10</c:f>
+              <c:f>'Financial Results Table - Comp'!$J$5:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.13375674329481099</c:v>
                 </c:pt>
@@ -918,6 +1020,9 @@
                   <c:v>0.118150821382174</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>5.2752680337772126E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.10921069427056558</c:v>
                 </c:pt>
               </c:numCache>
@@ -1012,9 +1117,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Financial Results Table - Comp'!$C$5:$C$10</c:f>
+              <c:f>'Financial Results Table - Comp'!$C$5:$C$11</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>S&amp;P500</c:v>
                 </c:pt>
@@ -1031,6 +1136,9 @@
                   <c:v>SPY</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Std.Dev.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -1038,10 +1146,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Financial Results Table - Comp'!$K$5:$K$10</c:f>
+              <c:f>'Financial Results Table - Comp'!$K$5:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6.1817859250651003E-2</c:v>
                 </c:pt>
@@ -1058,6 +1166,9 @@
                   <c:v>6.2704517509868302E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.1136713806222992</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.11358432672922505</c:v>
                 </c:pt>
               </c:numCache>
@@ -1175,9 +1286,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Financial Results Table - Comp'!$C$5:$C$10</c:f>
+              <c:f>'Financial Results Table - Comp'!$C$5:$C$11</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>S&amp;P500</c:v>
                 </c:pt>
@@ -1194,6 +1305,9 @@
                   <c:v>SPY</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Std.Dev.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -1201,10 +1315,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Financial Results Table - Comp'!$L$5:$L$10</c:f>
+              <c:f>'Financial Results Table - Comp'!$L$5:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>7.6552496102709505E-2</c:v>
                 </c:pt>
@@ -1221,6 +1335,9 @@
                   <c:v>2.9095523510565598E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.14374803531300204</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.10374544824252918</c:v>
                 </c:pt>
               </c:numCache>
@@ -1338,9 +1455,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Financial Results Table - Comp'!$C$5:$C$10</c:f>
+              <c:f>'Financial Results Table - Comp'!$C$5:$C$11</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>S&amp;P500</c:v>
                 </c:pt>
@@ -1357,6 +1474,9 @@
                   <c:v>SPY</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Std.Dev.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -1364,10 +1484,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Financial Results Table - Comp'!$M$5:$M$10</c:f>
+              <c:f>'Financial Results Table - Comp'!$M$5:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>7.3445462756940305E-2</c:v>
                 </c:pt>
@@ -1384,6 +1504,9 @@
                   <c:v>9.1181373772844104E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.26119152006739776</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.16797950170362713</c:v>
                 </c:pt>
               </c:numCache>
@@ -1840,9 +1963,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Financial Results Table - Comp'!$C$11:$C$16</c:f>
+              <c:f>'Financial Results Table - Comp'!$C$12:$C$18</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>S&amp;P500</c:v>
                 </c:pt>
@@ -1859,6 +1982,9 @@
                   <c:v>SPY</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Std.Dev.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -1866,10 +1992,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Financial Results Table - Comp'!$I$11:$I$16</c:f>
+              <c:f>'Financial Results Table - Comp'!$I$12:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.116134458669698</c:v>
                 </c:pt>
@@ -1886,6 +2012,9 @@
                   <c:v>5.3398833805818197E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.25997131279325209</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.17806463733560904</c:v>
                 </c:pt>
               </c:numCache>
@@ -2001,9 +2130,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Financial Results Table - Comp'!$C$11:$C$16</c:f>
+              <c:f>'Financial Results Table - Comp'!$C$12:$C$18</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>S&amp;P500</c:v>
                 </c:pt>
@@ -2020,6 +2149,9 @@
                   <c:v>SPY</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Std.Dev.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -2027,10 +2159,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Financial Results Table - Comp'!$J$11:$J$16</c:f>
+              <c:f>'Financial Results Table - Comp'!$J$12:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.16851385933499799</c:v>
                 </c:pt>
@@ -2047,6 +2179,9 @@
                   <c:v>0.22099781777889199</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.29250548038937552</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.24910976393545772</c:v>
                 </c:pt>
               </c:numCache>
@@ -2141,9 +2276,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Financial Results Table - Comp'!$C$11:$C$16</c:f>
+              <c:f>'Financial Results Table - Comp'!$C$12:$C$18</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>S&amp;P500</c:v>
                 </c:pt>
@@ -2160,6 +2295,9 @@
                   <c:v>SPY</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Std.Dev.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -2167,10 +2305,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Financial Results Table - Comp'!$K$11:$K$16</c:f>
+              <c:f>'Financial Results Table - Comp'!$K$12:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.9661238455072499E-2</c:v>
                 </c:pt>
@@ -2187,6 +2325,9 @@
                   <c:v>7.0756147317887E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>7.7631921863026268E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.11134278794442373</c:v>
                 </c:pt>
               </c:numCache>
@@ -2283,9 +2424,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Financial Results Table - Comp'!$C$11:$C$16</c:f>
+              <c:f>'Financial Results Table - Comp'!$C$12:$C$18</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>S&amp;P500</c:v>
                 </c:pt>
@@ -2302,6 +2443,9 @@
                   <c:v>SPY</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Std.Dev.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -2309,10 +2453,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Financial Results Table - Comp'!$L$11:$L$16</c:f>
+              <c:f>'Financial Results Table - Comp'!$L$12:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.138672045861475</c:v>
                 </c:pt>
@@ -2329,6 +2473,9 @@
                   <c:v>7.5893729613358094E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.1012155670303457</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.18690307931596781</c:v>
                 </c:pt>
               </c:numCache>
@@ -2425,9 +2572,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Financial Results Table - Comp'!$C$11:$C$16</c:f>
+              <c:f>'Financial Results Table - Comp'!$C$12:$C$18</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>S&amp;P500</c:v>
                 </c:pt>
@@ -2444,6 +2591,9 @@
                   <c:v>SPY</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Std.Dev.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -2451,10 +2601,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Financial Results Table - Comp'!$M$11:$M$16</c:f>
+              <c:f>'Financial Results Table - Comp'!$M$12:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.163976452271275</c:v>
                 </c:pt>
@@ -2471,6 +2621,9 @@
                   <c:v>0.18814259069388201</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.31053678016107189</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.30746160093090152</c:v>
                 </c:pt>
               </c:numCache>
@@ -2906,9 +3059,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Financial Results Table - Comp'!$C$17:$C$22</c:f>
+              <c:f>'Financial Results Table - Comp'!$C$19:$C$25</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>S&amp;P500</c:v>
                 </c:pt>
@@ -2925,6 +3078,9 @@
                   <c:v>SPY</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Std.Dev.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -2932,10 +3088,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Financial Results Table - Comp'!$I$17:$I$22</c:f>
+              <c:f>'Financial Results Table - Comp'!$I$19:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.3243836900526101E-2</c:v>
                 </c:pt>
@@ -2952,6 +3108,9 @@
                   <c:v>4.1479768107276403E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2.7687483095246407E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>5.4520274762062684E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3046,9 +3205,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Financial Results Table - Comp'!$C$17:$C$22</c:f>
+              <c:f>'Financial Results Table - Comp'!$C$19:$C$25</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>S&amp;P500</c:v>
                 </c:pt>
@@ -3065,6 +3224,9 @@
                   <c:v>SPY</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Std.Dev.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -3072,10 +3234,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Financial Results Table - Comp'!$J$17:$J$22</c:f>
+              <c:f>'Financial Results Table - Comp'!$J$19:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.3522643924873E-2</c:v>
                 </c:pt>
@@ -3092,6 +3254,9 @@
                   <c:v>5.7225480388397101E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>3.6484018518921725E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>6.4728753067584174E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3228,9 +3393,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Financial Results Table - Comp'!$C$17:$C$22</c:f>
+              <c:f>'Financial Results Table - Comp'!$C$19:$C$25</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>S&amp;P500</c:v>
                 </c:pt>
@@ -3247,6 +3412,9 @@
                   <c:v>SPY</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Std.Dev.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -3254,10 +3422,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Financial Results Table - Comp'!$K$17:$K$22</c:f>
+              <c:f>'Financial Results Table - Comp'!$K$19:$K$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>-1.20656904581708E-2</c:v>
                 </c:pt>
@@ -3274,6 +3442,9 @@
                   <c:v>-4.8642539499735796E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>7.809874973085966E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>5.3293990283959869E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3391,9 +3562,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Financial Results Table - Comp'!$C$17:$C$22</c:f>
+              <c:f>'Financial Results Table - Comp'!$C$19:$C$25</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>S&amp;P500</c:v>
                 </c:pt>
@@ -3410,6 +3581,9 @@
                   <c:v>SPY</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Std.Dev.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -3417,10 +3591,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Financial Results Table - Comp'!$L$17:$L$22</c:f>
+              <c:f>'Financial Results Table - Comp'!$L$19:$L$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.10542083566304999</c:v>
                 </c:pt>
@@ -3437,6 +3611,9 @@
                   <c:v>0.111260042270695</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>6.1081595706812583E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>6.2204755527642666E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3533,9 +3710,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Financial Results Table - Comp'!$C$17:$C$22</c:f>
+              <c:f>'Financial Results Table - Comp'!$C$19:$C$25</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>S&amp;P500</c:v>
                 </c:pt>
@@ -3552,6 +3729,9 @@
                   <c:v>SPY</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Std.Dev.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -3559,10 +3739,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Financial Results Table - Comp'!$M$17:$M$22</c:f>
+              <c:f>'Financial Results Table - Comp'!$M$19:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8.4690295930442694E-2</c:v>
                 </c:pt>
@@ -3579,6 +3759,9 @@
                   <c:v>0.105122080973315</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>4.2537241672169455E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>8.8156708638760933E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -5474,7 +5657,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5498,13 +5681,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5530,13 +5713,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5858,17 +6041,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Y135"/>
+  <dimension ref="B2:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B98" workbookViewId="0">
-      <selection activeCell="X115" sqref="X115"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.44140625" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
@@ -5880,39 +6065,39 @@
     <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="67" t="s">
+    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="62" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="62" t="s">
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="64"/>
-    </row>
-    <row r="4" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="68"/>
-      <c r="C4" s="66"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="61"/>
+    </row>
+    <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="65"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
@@ -5959,8 +6144,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="59" t="s">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="66" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -6011,13 +6196,9 @@
       <c r="R5" s="39">
         <v>2</v>
       </c>
-      <c r="T5">
-        <f>TTEST(D5:D9,E5:E9,2,3)</f>
-        <v>0.69116159688663892</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="60"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="67"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -6067,8 +6248,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="60"/>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="67"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -6118,8 +6299,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="60"/>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="67"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -6169,8 +6350,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="60"/>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="67"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -6220,219 +6401,234 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="61"/>
+    <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="67"/>
       <c r="C10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="25">
+        <f>_xlfn.STDEV.S(D5:D9)</f>
+        <v>0.25228638223202843</v>
+      </c>
+      <c r="E10" s="45">
+        <f t="shared" ref="E10:R10" si="0">_xlfn.STDEV.S(E5:E9)</f>
+        <v>0.11707577947903079</v>
+      </c>
+      <c r="F10" s="26">
+        <f t="shared" si="0"/>
+        <v>0.26946135788406406</v>
+      </c>
+      <c r="G10" s="26">
+        <f t="shared" si="0"/>
+        <v>0.3407378871137115</v>
+      </c>
+      <c r="H10" s="27">
+        <f t="shared" si="0"/>
+        <v>0.69127763923486119</v>
+      </c>
+      <c r="I10" s="25">
+        <f t="shared" si="0"/>
+        <v>0.11077123921598975</v>
+      </c>
+      <c r="J10" s="44">
+        <f t="shared" si="0"/>
+        <v>5.2752680337772126E-2</v>
+      </c>
+      <c r="K10" s="26">
+        <f t="shared" si="0"/>
+        <v>0.1136713806222992</v>
+      </c>
+      <c r="L10" s="26">
+        <f t="shared" si="0"/>
+        <v>0.14374803531300204</v>
+      </c>
+      <c r="M10" s="76">
+        <f t="shared" si="0"/>
+        <v>0.26119152006739776</v>
+      </c>
+      <c r="N10" s="28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O10" s="29">
+        <f t="shared" si="0"/>
+        <v>9.2843955107481282</v>
+      </c>
+      <c r="P10" s="29">
+        <f t="shared" si="0"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="Q10" s="29">
+        <f t="shared" si="0"/>
+        <v>2.302172886644267</v>
+      </c>
+      <c r="R10" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="68"/>
+      <c r="C11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D11" s="25">
         <f>AVERAGE(D5:D9)</f>
         <v>0.18004021993870989</v>
       </c>
-      <c r="E10" s="26">
-        <f t="shared" ref="E10:R10" si="0">AVERAGE(E5:E9)</f>
+      <c r="E11" s="26">
+        <f t="shared" ref="E11:R11" si="1">AVERAGE(E5:E9)</f>
         <v>0.23207053912615519</v>
       </c>
-      <c r="F10" s="26">
-        <f t="shared" si="0"/>
+      <c r="F11" s="26">
+        <f t="shared" si="1"/>
         <v>0.24982848745170338</v>
       </c>
-      <c r="G10" s="26">
-        <f t="shared" si="0"/>
+      <c r="G11" s="26">
+        <f t="shared" si="1"/>
         <v>0.23421789576046814</v>
       </c>
-      <c r="H10" s="27">
-        <f t="shared" si="0"/>
+      <c r="H11" s="27">
+        <f t="shared" si="1"/>
         <v>0.41757467551259964</v>
       </c>
-      <c r="I10" s="25">
-        <f t="shared" si="0"/>
+      <c r="I11" s="25">
+        <f t="shared" si="1"/>
         <v>8.1960926540647322E-2</v>
       </c>
-      <c r="J10" s="45">
-        <f t="shared" si="0"/>
+      <c r="J11" s="45">
+        <f t="shared" si="1"/>
         <v>0.10921069427056558</v>
       </c>
-      <c r="K10" s="26">
-        <f t="shared" si="0"/>
+      <c r="K11" s="26">
+        <f t="shared" si="1"/>
         <v>0.11358432672922505</v>
       </c>
-      <c r="L10" s="26">
-        <f t="shared" si="0"/>
+      <c r="L11" s="26">
+        <f t="shared" si="1"/>
         <v>0.10374544824252918</v>
       </c>
-      <c r="M10" s="46">
-        <f t="shared" si="0"/>
+      <c r="M11" s="46">
+        <f t="shared" si="1"/>
         <v>0.16797950170362713</v>
       </c>
-      <c r="N10" s="28">
-        <f t="shared" si="0"/>
+      <c r="N11" s="28">
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="O10" s="29">
-        <f t="shared" si="0"/>
+      <c r="O11" s="29">
+        <f t="shared" si="1"/>
         <v>88.2</v>
       </c>
-      <c r="P10" s="29">
-        <f t="shared" si="0"/>
+      <c r="P11" s="29">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="Q10" s="29">
-        <f t="shared" si="0"/>
+      <c r="Q11" s="29">
+        <f t="shared" si="1"/>
         <v>9.4</v>
       </c>
-      <c r="R10" s="30">
-        <f t="shared" si="0"/>
+      <c r="R11" s="30">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="59" t="s">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D12" s="13">
         <v>0.245756129829901</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E12" s="14">
         <v>0.36542463945797099</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F12" s="14">
         <v>0.122881940284138</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G12" s="14">
         <v>0.29657402802635702</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H12" s="15">
         <v>0.35484118144202398</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I12" s="13">
         <v>0.116134458669698</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J12" s="19">
         <v>0.16851385933499799</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K12" s="14">
         <v>5.9661238455072499E-2</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L12" s="14">
         <v>0.138672045861475</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M12" s="15">
         <v>0.163976452271275</v>
       </c>
-      <c r="N11" s="37">
+      <c r="N12" s="37">
         <v>32</v>
       </c>
-      <c r="O11" s="38">
+      <c r="O12" s="38">
         <v>78</v>
       </c>
-      <c r="P11" s="38">
+      <c r="P12" s="38">
         <v>6</v>
       </c>
-      <c r="Q11" s="38">
+      <c r="Q12" s="38">
         <v>6</v>
       </c>
-      <c r="R11" s="39">
+      <c r="R12" s="39">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="60"/>
-      <c r="C12" s="2" t="s">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="67"/>
+      <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D13" s="16">
         <v>-0.13570894161068101</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E13" s="17">
         <v>-4.5396264365944003E-2</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F13" s="17">
         <v>9.6886690047791296E-2</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G13" s="17">
         <v>0.28169056255182701</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H13" s="18">
         <v>0.130061722919111</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I13" s="16">
         <v>-7.0327445608229899E-2</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J13" s="17">
         <v>-2.2961753238873499E-2</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K13" s="17">
         <v>4.73235842125352E-2</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L13" s="20">
         <v>0.13211773352060299</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M13" s="18">
         <v>6.3043612896061599E-2</v>
       </c>
-      <c r="N12" s="40">
+      <c r="N13" s="40">
         <v>38</v>
       </c>
-      <c r="O12" s="41">
+      <c r="O13" s="41">
         <v>69</v>
       </c>
-      <c r="P12" s="41">
+      <c r="P13" s="41">
         <v>8</v>
-      </c>
-      <c r="Q12" s="41">
-        <v>12</v>
-      </c>
-      <c r="R12" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="60"/>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="16">
-        <v>0.38770040847334603</v>
-      </c>
-      <c r="E13" s="17">
-        <v>0.28267588245625302</v>
-      </c>
-      <c r="F13" s="17">
-        <v>0.317420833548127</v>
-      </c>
-      <c r="G13" s="17">
-        <v>0.71211505049947899</v>
-      </c>
-      <c r="H13" s="18">
-        <v>0.62818229375976697</v>
-      </c>
-      <c r="I13" s="16">
-        <v>0.178006964526672</v>
-      </c>
-      <c r="J13" s="17">
-        <v>0.13255281662987001</v>
-      </c>
-      <c r="K13" s="17">
-        <v>0.14778954235875799</v>
-      </c>
-      <c r="L13" s="20">
-        <v>0.308478142920041</v>
-      </c>
-      <c r="M13" s="18">
-        <v>0.27600246620442198</v>
-      </c>
-      <c r="N13" s="40">
-        <v>45</v>
-      </c>
-      <c r="O13" s="41">
-        <v>84</v>
-      </c>
-      <c r="P13" s="41">
-        <v>6</v>
       </c>
       <c r="Q13" s="41">
         <v>12</v>
@@ -6441,372 +6637,387 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="60"/>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="67"/>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" s="16">
-        <v>1.60212508284916</v>
+        <v>0.38770040847334603</v>
       </c>
       <c r="E14" s="17">
-        <v>2.0500739074566501</v>
+        <v>0.28267588245625302</v>
       </c>
       <c r="F14" s="17">
-        <v>0.51581263184991</v>
+        <v>0.317420833548127</v>
       </c>
       <c r="G14" s="17">
-        <v>0.63674600398672698</v>
+        <v>0.71211505049947899</v>
       </c>
       <c r="H14" s="18">
-        <v>2.4082435429335298</v>
+        <v>0.62818229375976697</v>
       </c>
       <c r="I14" s="16">
-        <v>0.61311037528408696</v>
+        <v>0.178006964526672</v>
       </c>
       <c r="J14" s="17">
-        <v>0.74644607917240202</v>
+        <v>0.13255281662987001</v>
       </c>
       <c r="K14" s="17">
-        <v>0.23118342737786601</v>
-      </c>
-      <c r="L14" s="17">
-        <v>0.27935374466436202</v>
-      </c>
-      <c r="M14" s="21">
-        <v>0.84614288258886705</v>
+        <v>0.14778954235875799</v>
+      </c>
+      <c r="L14" s="20">
+        <v>0.308478142920041</v>
+      </c>
+      <c r="M14" s="18">
+        <v>0.27600246620442198</v>
       </c>
       <c r="N14" s="40">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O14" s="41">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P14" s="41">
         <v>6</v>
       </c>
       <c r="Q14" s="41">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R14" s="42">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B15" s="60"/>
-      <c r="C15" s="22" t="s">
-        <v>9</v>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="67"/>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D15" s="16">
-        <v>0.109649103063457</v>
+        <v>1.60212508284916</v>
       </c>
       <c r="E15" s="17">
-        <v>0.49083567102081799</v>
+        <v>2.0500739074566501</v>
       </c>
       <c r="F15" s="17">
-        <v>0.146518727019044</v>
+        <v>0.51581263184991</v>
       </c>
       <c r="G15" s="17">
-        <v>0.15754731742134101</v>
+        <v>0.63674600398672698</v>
       </c>
       <c r="H15" s="18">
-        <v>0.41168281582077099</v>
+        <v>2.4082435429335298</v>
       </c>
       <c r="I15" s="16">
-        <v>5.3398833805818197E-2</v>
+        <v>0.61311037528408696</v>
       </c>
       <c r="J15" s="17">
-        <v>0.22099781777889199</v>
+        <v>0.74644607917240202</v>
       </c>
       <c r="K15" s="17">
-        <v>7.0756147317887E-2</v>
+        <v>0.23118342737786601</v>
       </c>
       <c r="L15" s="17">
-        <v>7.5893729613358094E-2</v>
-      </c>
-      <c r="M15" s="18">
-        <v>0.18814259069388201</v>
+        <v>0.27935374466436202</v>
+      </c>
+      <c r="M15" s="21">
+        <v>0.84614288258886705</v>
       </c>
       <c r="N15" s="40">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O15" s="41">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="P15" s="41">
         <v>6</v>
       </c>
       <c r="Q15" s="41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R15" s="42">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="61"/>
-      <c r="C16" s="23" t="s">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="67"/>
+      <c r="C16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.109649103063457</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.49083567102081799</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.146518727019044</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0.15754731742134101</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0.41168281582077099</v>
+      </c>
+      <c r="I16" s="16">
+        <v>5.3398833805818197E-2</v>
+      </c>
+      <c r="J16" s="17">
+        <v>0.22099781777889199</v>
+      </c>
+      <c r="K16" s="17">
+        <v>7.0756147317887E-2</v>
+      </c>
+      <c r="L16" s="17">
+        <v>7.5893729613358094E-2</v>
+      </c>
+      <c r="M16" s="18">
+        <v>0.18814259069388201</v>
+      </c>
+      <c r="N16" s="40">
+        <v>32</v>
+      </c>
+      <c r="O16" s="41">
+        <v>72</v>
+      </c>
+      <c r="P16" s="41">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="41">
+        <v>6</v>
+      </c>
+      <c r="R16" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="67"/>
+      <c r="C17" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="25">
+        <f>_xlfn.STDEV.S(D12:D16)</f>
+        <v>0.67667477495621065</v>
+      </c>
+      <c r="E17" s="26">
+        <f t="shared" ref="E17" si="2">_xlfn.STDEV.S(E12:E16)</f>
+        <v>0.81895707067500223</v>
+      </c>
+      <c r="F17" s="45">
+        <f t="shared" ref="F17" si="3">_xlfn.STDEV.S(F12:F16)</f>
+        <v>0.17677906778541283</v>
+      </c>
+      <c r="G17" s="26">
+        <f t="shared" ref="G17" si="4">_xlfn.STDEV.S(G12:G16)</f>
+        <v>0.24264579689041482</v>
+      </c>
+      <c r="H17" s="27">
+        <f t="shared" ref="H17" si="5">_xlfn.STDEV.S(H12:H16)</f>
+        <v>0.9236943530775642</v>
+      </c>
+      <c r="I17" s="25">
+        <f t="shared" ref="I17" si="6">_xlfn.STDEV.S(I12:I16)</f>
+        <v>0.25997131279325209</v>
+      </c>
+      <c r="J17" s="45">
+        <f t="shared" ref="J17" si="7">_xlfn.STDEV.S(J12:J16)</f>
+        <v>0.29250548038937552</v>
+      </c>
+      <c r="K17" s="44">
+        <f t="shared" ref="K17" si="8">_xlfn.STDEV.S(K12:K16)</f>
+        <v>7.7631921863026268E-2</v>
+      </c>
+      <c r="L17" s="26">
+        <f t="shared" ref="L17" si="9">_xlfn.STDEV.S(L12:L16)</f>
+        <v>0.1012155670303457</v>
+      </c>
+      <c r="M17" s="76">
+        <f t="shared" ref="M17" si="10">_xlfn.STDEV.S(M12:M16)</f>
+        <v>0.31053678016107189</v>
+      </c>
+      <c r="N17" s="28">
+        <f t="shared" ref="N17" si="11">_xlfn.STDEV.S(N12:N16)</f>
+        <v>8.324662155306962</v>
+      </c>
+      <c r="O17" s="29">
+        <f t="shared" ref="O17" si="12">_xlfn.STDEV.S(O12:O16)</f>
+        <v>6.06630035524124</v>
+      </c>
+      <c r="P17" s="29">
+        <f t="shared" ref="P17" si="13">_xlfn.STDEV.S(P12:P16)</f>
+        <v>0.8944271909999143</v>
+      </c>
+      <c r="Q17" s="29">
+        <f t="shared" ref="Q17" si="14">_xlfn.STDEV.S(Q12:Q16)</f>
+        <v>3.0331501776206209</v>
+      </c>
+      <c r="R17" s="30">
+        <f t="shared" ref="R17" si="15">_xlfn.STDEV.S(R12:R16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="68"/>
+      <c r="C18" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="25">
-        <f>AVERAGE(D11:D15)</f>
+      <c r="D18" s="25">
+        <f>AVERAGE(D12:D16)</f>
         <v>0.4419043565210366</v>
       </c>
-      <c r="E16" s="26">
-        <f t="shared" ref="E16:R16" si="1">AVERAGE(E11:E15)</f>
+      <c r="E18" s="26">
+        <f t="shared" ref="E18:R18" si="16">AVERAGE(E12:E16)</f>
         <v>0.62872276720514964</v>
       </c>
-      <c r="F16" s="26">
-        <f t="shared" si="1"/>
+      <c r="F18" s="26">
+        <f t="shared" si="16"/>
         <v>0.23990416454980207</v>
       </c>
-      <c r="G16" s="26">
-        <f t="shared" si="1"/>
+      <c r="G18" s="26">
+        <f t="shared" si="16"/>
         <v>0.41693459249714621</v>
       </c>
-      <c r="H16" s="27">
-        <f t="shared" si="1"/>
+      <c r="H18" s="27">
+        <f t="shared" si="16"/>
         <v>0.78660231137504044</v>
       </c>
-      <c r="I16" s="25">
-        <f t="shared" si="1"/>
+      <c r="I18" s="25">
+        <f t="shared" si="16"/>
         <v>0.17806463733560904</v>
       </c>
-      <c r="J16" s="45">
-        <f t="shared" si="1"/>
+      <c r="J18" s="45">
+        <f t="shared" si="16"/>
         <v>0.24910976393545772</v>
       </c>
-      <c r="K16" s="26">
-        <f t="shared" si="1"/>
+      <c r="K18" s="26">
+        <f t="shared" si="16"/>
         <v>0.11134278794442373</v>
       </c>
-      <c r="L16" s="26">
-        <f t="shared" si="1"/>
+      <c r="L18" s="26">
+        <f t="shared" si="16"/>
         <v>0.18690307931596781</v>
       </c>
-      <c r="M16" s="46">
-        <f t="shared" si="1"/>
+      <c r="M18" s="46">
+        <f t="shared" si="16"/>
         <v>0.30746160093090152</v>
       </c>
-      <c r="N16" s="28">
-        <f t="shared" si="1"/>
+      <c r="N18" s="28">
+        <f t="shared" si="16"/>
         <v>39.6</v>
       </c>
-      <c r="O16" s="29">
-        <f t="shared" si="1"/>
+      <c r="O18" s="29">
+        <f t="shared" si="16"/>
         <v>76.599999999999994</v>
       </c>
-      <c r="P16" s="29">
-        <f t="shared" si="1"/>
+      <c r="P18" s="29">
+        <f t="shared" si="16"/>
         <v>6.4</v>
       </c>
-      <c r="Q16" s="29">
-        <f t="shared" si="1"/>
+      <c r="Q18" s="29">
+        <f t="shared" si="16"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="R16" s="30">
-        <f t="shared" si="1"/>
+      <c r="R18" s="30">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="59" t="s">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D19" s="13">
         <v>0.110429783185575</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E19" s="14">
         <v>2.7493525526368801E-2</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F19" s="14">
         <v>-2.4213617791897301E-2</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G19" s="14">
         <v>0.22431272240324801</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H19" s="15">
         <v>0.17839384771741801</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I19" s="13">
         <v>5.3243836900526101E-2</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J19" s="14">
         <v>1.3522643924873E-2</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K19" s="14">
         <v>-1.20656904581708E-2</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L19" s="14">
         <v>0.10542083566304999</v>
       </c>
-      <c r="M17" s="47">
+      <c r="M19" s="47">
         <v>8.4690295930442694E-2</v>
       </c>
-      <c r="N17" s="37">
+      <c r="N19" s="37">
         <v>40</v>
       </c>
-      <c r="O17" s="38">
+      <c r="O19" s="38">
         <v>120</v>
       </c>
-      <c r="P17" s="38">
+      <c r="P19" s="38">
         <v>5</v>
       </c>
-      <c r="Q17" s="38">
+      <c r="Q19" s="38">
         <v>13</v>
       </c>
-      <c r="R17" s="39">
+      <c r="R19" s="39">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="60"/>
-      <c r="C18" s="2" t="s">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="67"/>
+      <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D20" s="16">
         <v>0.18760810273480699</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E20" s="17">
         <v>0.230616673836994</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F20" s="17">
         <v>0.100247769705663</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G20" s="17">
         <v>7.9543173226844302E-3</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H20" s="18">
         <v>3.4374549657321403E-2</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I20" s="16">
         <v>8.8882428487361706E-2</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J20" s="20">
         <v>0.108235968599549</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K20" s="17">
         <v>4.84498807793605E-2</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L20" s="17">
         <v>3.9314041772975303E-3</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M20" s="18">
         <v>1.6878391571122999E-2</v>
       </c>
-      <c r="N18" s="40">
+      <c r="N20" s="40">
         <v>51</v>
       </c>
-      <c r="O18" s="41">
+      <c r="O20" s="41">
         <v>111</v>
       </c>
-      <c r="P18" s="41">
+      <c r="P20" s="41">
         <v>9</v>
-      </c>
-      <c r="Q18" s="41">
-        <v>11</v>
-      </c>
-      <c r="R18" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="60"/>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="16">
-        <v>3.4609476671710201E-2</v>
-      </c>
-      <c r="E19" s="17">
-        <v>0.11305385772299301</v>
-      </c>
-      <c r="F19" s="17">
-        <v>0.108536035547753</v>
-      </c>
-      <c r="G19" s="17">
-        <v>0.21886354578831499</v>
-      </c>
-      <c r="H19" s="18">
-        <v>0.22863312487667201</v>
-      </c>
-      <c r="I19" s="16">
-        <v>1.6992761882746302E-2</v>
-      </c>
-      <c r="J19" s="17">
-        <v>5.4475719300415899E-2</v>
-      </c>
-      <c r="K19" s="17">
-        <v>5.23538963002552E-2</v>
-      </c>
-      <c r="L19" s="17">
-        <v>0.102981515128127</v>
-      </c>
-      <c r="M19" s="21">
-        <v>0.107350968760289</v>
-      </c>
-      <c r="N19" s="40">
-        <v>56</v>
-      </c>
-      <c r="O19" s="41">
-        <v>112</v>
-      </c>
-      <c r="P19" s="41">
-        <v>7</v>
-      </c>
-      <c r="Q19" s="41">
-        <v>11</v>
-      </c>
-      <c r="R19" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="60"/>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0.15072712102236899</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0.190476207275802</v>
-      </c>
-      <c r="F20" s="17">
-        <v>0.403051458595163</v>
-      </c>
-      <c r="G20" s="17">
-        <v>-2.52191910322761E-2</v>
-      </c>
-      <c r="H20" s="18">
-        <v>0.27246381180456902</v>
-      </c>
-      <c r="I20" s="16">
-        <v>7.2002578432402903E-2</v>
-      </c>
-      <c r="J20" s="17">
-        <v>9.0183953124685898E-2</v>
-      </c>
-      <c r="K20" s="20">
-        <v>0.18259611874832801</v>
-      </c>
-      <c r="L20" s="17">
-        <v>-1.25700196009562E-2</v>
-      </c>
-      <c r="M20" s="18">
-        <v>0.12674180595863499</v>
-      </c>
-      <c r="N20" s="40">
-        <v>47</v>
-      </c>
-      <c r="O20" s="41">
-        <v>114</v>
-      </c>
-      <c r="P20" s="41">
-        <v>11</v>
       </c>
       <c r="Q20" s="41">
         <v>11</v>
@@ -6816,234 +7027,293 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="60"/>
-      <c r="C21" s="22" t="s">
-        <v>9</v>
+      <c r="B21" s="67"/>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D21" s="16">
-        <v>8.5528211301886703E-2</v>
+        <v>3.4609476671710201E-2</v>
       </c>
       <c r="E21" s="17">
-        <v>0.11892249522370001</v>
+        <v>0.11305385772299301</v>
       </c>
       <c r="F21" s="17">
-        <v>-9.7977041356918492E-3</v>
+        <v>0.108536035547753</v>
       </c>
       <c r="G21" s="17">
-        <v>0.23740671485365999</v>
+        <v>0.21886354578831499</v>
       </c>
       <c r="H21" s="18">
-        <v>0.22364467760978801</v>
+        <v>0.22863312487667201</v>
       </c>
       <c r="I21" s="16">
-        <v>4.1479768107276403E-2</v>
+        <v>1.6992761882746302E-2</v>
       </c>
       <c r="J21" s="17">
-        <v>5.7225480388397101E-2</v>
+        <v>5.4475719300415899E-2</v>
       </c>
       <c r="K21" s="17">
-        <v>-4.8642539499735796E-3</v>
-      </c>
-      <c r="L21" s="20">
-        <v>0.111260042270695</v>
+        <v>5.23538963002552E-2</v>
+      </c>
+      <c r="L21" s="17">
+        <v>0.102981515128127</v>
       </c>
       <c r="M21" s="21">
-        <v>0.105122080973315</v>
+        <v>0.107350968760289</v>
       </c>
       <c r="N21" s="40">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="O21" s="41">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P21" s="41">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q21" s="41">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R21" s="42">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="61"/>
-      <c r="C22" s="23" t="s">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="67"/>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0.15072712102236899</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0.190476207275802</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0.403051458595163</v>
+      </c>
+      <c r="G22" s="17">
+        <v>-2.52191910322761E-2</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0.27246381180456902</v>
+      </c>
+      <c r="I22" s="16">
+        <v>7.2002578432402903E-2</v>
+      </c>
+      <c r="J22" s="17">
+        <v>9.0183953124685898E-2</v>
+      </c>
+      <c r="K22" s="20">
+        <v>0.18259611874832801</v>
+      </c>
+      <c r="L22" s="17">
+        <v>-1.25700196009562E-2</v>
+      </c>
+      <c r="M22" s="18">
+        <v>0.12674180595863499</v>
+      </c>
+      <c r="N22" s="40">
+        <v>47</v>
+      </c>
+      <c r="O22" s="41">
+        <v>114</v>
+      </c>
+      <c r="P22" s="41">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="41">
+        <v>11</v>
+      </c>
+      <c r="R22" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="67"/>
+      <c r="C23" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="16">
+        <v>8.5528211301886703E-2</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0.11892249522370001</v>
+      </c>
+      <c r="F23" s="17">
+        <v>-9.7977041356918492E-3</v>
+      </c>
+      <c r="G23" s="17">
+        <v>0.23740671485365999</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0.22364467760978801</v>
+      </c>
+      <c r="I23" s="16">
+        <v>4.1479768107276403E-2</v>
+      </c>
+      <c r="J23" s="17">
+        <v>5.7225480388397101E-2</v>
+      </c>
+      <c r="K23" s="17">
+        <v>-4.8642539499735796E-3</v>
+      </c>
+      <c r="L23" s="20">
+        <v>0.111260042270695</v>
+      </c>
+      <c r="M23" s="21">
+        <v>0.105122080973315</v>
+      </c>
+      <c r="N23" s="40">
+        <v>49</v>
+      </c>
+      <c r="O23" s="41">
+        <v>116</v>
+      </c>
+      <c r="P23" s="41">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="41">
+        <v>13</v>
+      </c>
+      <c r="R23" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="67"/>
+      <c r="C24" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="25">
+        <f>_xlfn.STDEV.S(D19:D23)</f>
+        <v>5.8934365579923015E-2</v>
+      </c>
+      <c r="E24" s="26">
+        <f t="shared" ref="E24" si="17">_xlfn.STDEV.S(E19:E23)</f>
+        <v>7.8281112672438299E-2</v>
+      </c>
+      <c r="F24" s="45">
+        <f t="shared" ref="F24" si="18">_xlfn.STDEV.S(F19:F23)</f>
+        <v>0.17189121366474169</v>
+      </c>
+      <c r="G24" s="26">
+        <f t="shared" ref="G24" si="19">_xlfn.STDEV.S(G19:G23)</f>
+        <v>0.12969241813852359</v>
+      </c>
+      <c r="H24" s="27">
+        <f t="shared" ref="H24" si="20">_xlfn.STDEV.S(H19:H23)</f>
+        <v>9.1852526543901719E-2</v>
+      </c>
+      <c r="I24" s="48">
+        <f t="shared" ref="I24" si="21">_xlfn.STDEV.S(I19:I23)</f>
+        <v>2.7687483095246407E-2</v>
+      </c>
+      <c r="J24" s="45">
+        <f t="shared" ref="J24" si="22">_xlfn.STDEV.S(J19:J23)</f>
+        <v>3.6484018518921725E-2</v>
+      </c>
+      <c r="K24" s="26">
+        <f t="shared" ref="K24" si="23">_xlfn.STDEV.S(K19:K23)</f>
+        <v>7.809874973085966E-2</v>
+      </c>
+      <c r="L24" s="26">
+        <f t="shared" ref="L24" si="24">_xlfn.STDEV.S(L19:L23)</f>
+        <v>6.1081595706812583E-2</v>
+      </c>
+      <c r="M24" s="76">
+        <f t="shared" ref="M24" si="25">_xlfn.STDEV.S(M19:M23)</f>
+        <v>4.2537241672169455E-2</v>
+      </c>
+      <c r="N24" s="28">
+        <f t="shared" ref="N24" si="26">_xlfn.STDEV.S(N19:N23)</f>
+        <v>5.856620185738544</v>
+      </c>
+      <c r="O24" s="29">
+        <f t="shared" ref="O24" si="27">_xlfn.STDEV.S(O19:O23)</f>
+        <v>3.5777087639996634</v>
+      </c>
+      <c r="P24" s="29">
+        <f t="shared" ref="P24" si="28">_xlfn.STDEV.S(P19:P23)</f>
+        <v>2.607680962081059</v>
+      </c>
+      <c r="Q24" s="29">
+        <f t="shared" ref="Q24" si="29">_xlfn.STDEV.S(Q19:Q23)</f>
+        <v>1.0954451150103321</v>
+      </c>
+      <c r="R24" s="30">
+        <f t="shared" ref="R24" si="30">_xlfn.STDEV.S(R19:R23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="68"/>
+      <c r="C25" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="25">
-        <f>AVERAGE(D17:D21)</f>
+      <c r="D25" s="25">
+        <f>AVERAGE(D19:D23)</f>
         <v>0.11378053898326959</v>
       </c>
-      <c r="E22" s="26">
-        <f t="shared" ref="E22:R22" si="2">AVERAGE(E17:E21)</f>
+      <c r="E25" s="26">
+        <f>AVERAGE(E19:E23)</f>
         <v>0.13611255191717159</v>
       </c>
-      <c r="F22" s="26">
-        <f t="shared" si="2"/>
+      <c r="F25" s="26">
+        <f>AVERAGE(F19:F23)</f>
         <v>0.11556478838419797</v>
       </c>
-      <c r="G22" s="26">
-        <f t="shared" si="2"/>
+      <c r="G25" s="26">
+        <f>AVERAGE(G19:G23)</f>
         <v>0.13266362186712627</v>
       </c>
-      <c r="H22" s="27">
-        <f t="shared" si="2"/>
+      <c r="H25" s="27">
+        <f>AVERAGE(H19:H23)</f>
         <v>0.18750200233315367</v>
       </c>
-      <c r="I22" s="25">
-        <f t="shared" si="2"/>
+      <c r="I25" s="25">
+        <f>AVERAGE(I19:I23)</f>
         <v>5.4520274762062684E-2</v>
       </c>
-      <c r="J22" s="45">
-        <f t="shared" si="2"/>
+      <c r="J25" s="45">
+        <f>AVERAGE(J19:J23)</f>
         <v>6.4728753067584174E-2</v>
       </c>
-      <c r="K22" s="26">
-        <f t="shared" si="2"/>
+      <c r="K25" s="26">
+        <f>AVERAGE(K19:K23)</f>
         <v>5.3293990283959869E-2</v>
       </c>
-      <c r="L22" s="26">
-        <f t="shared" si="2"/>
+      <c r="L25" s="26">
+        <f>AVERAGE(L19:L23)</f>
         <v>6.2204755527642666E-2</v>
       </c>
-      <c r="M22" s="46">
-        <f t="shared" si="2"/>
+      <c r="M25" s="46">
+        <f>AVERAGE(M19:M23)</f>
         <v>8.8156708638760933E-2</v>
       </c>
-      <c r="N22" s="28">
-        <f t="shared" si="2"/>
+      <c r="N25" s="28">
+        <f>AVERAGE(N19:N23)</f>
         <v>48.6</v>
       </c>
-      <c r="O22" s="29">
-        <f t="shared" si="2"/>
+      <c r="O25" s="29">
+        <f>AVERAGE(O19:O23)</f>
         <v>114.6</v>
       </c>
-      <c r="P22" s="29">
-        <f t="shared" si="2"/>
+      <c r="P25" s="29">
+        <f>AVERAGE(P19:P23)</f>
         <v>7.4</v>
       </c>
-      <c r="Q22" s="29">
-        <f t="shared" si="2"/>
+      <c r="Q25" s="29">
+        <f>AVERAGE(Q19:Q23)</f>
         <v>11.8</v>
       </c>
-      <c r="R22" s="30">
-        <f t="shared" si="2"/>
+      <c r="R25" s="30">
+        <f>AVERAGE(R19:R23)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
+    <row r="28" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
         <v>20</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-    </row>
-    <row r="27" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="68"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="31">
-        <v>1458.81123814527</v>
-      </c>
-      <c r="E28" s="32">
-        <v>2847.8386668830899</v>
-      </c>
-      <c r="F28" s="32">
-        <v>1271.97090118442</v>
-      </c>
-      <c r="G28" s="32">
-        <v>1586.36517020567</v>
-      </c>
-      <c r="H28" s="33">
-        <v>1519.7110231485301</v>
-      </c>
-      <c r="I28" s="31">
-        <v>28.054062272024499</v>
-      </c>
-      <c r="J28" s="32">
-        <v>31.998187268349302</v>
-      </c>
-      <c r="K28" s="32">
-        <v>181.71012874063101</v>
-      </c>
-      <c r="L28" s="32">
-        <v>132.19709751713901</v>
-      </c>
-      <c r="M28" s="33">
-        <v>759.85551157426505</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -7052,80 +7322,64 @@
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="60"/>
-      <c r="C29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="34">
-        <v>-34.4719483631415</v>
-      </c>
-      <c r="E29" s="35">
-        <v>1012.2687302592</v>
-      </c>
-      <c r="F29" s="35">
-        <v>1620.62414177809</v>
-      </c>
-      <c r="G29" s="35">
-        <v>1343.7753996932699</v>
-      </c>
-      <c r="H29" s="36">
-        <v>-653.72478846129502</v>
-      </c>
-      <c r="I29" s="34">
-        <v>-0.78345337188958097</v>
-      </c>
-      <c r="J29" s="35">
-        <v>10.768816279353199</v>
-      </c>
-      <c r="K29" s="35">
-        <v>180.06934908645499</v>
-      </c>
-      <c r="L29" s="35">
-        <v>122.16139997211501</v>
-      </c>
-      <c r="M29" s="36">
-        <v>-326.862394230647</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="60"/>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="34">
-        <v>143.253275390385</v>
-      </c>
-      <c r="E30" s="35">
-        <v>1342.7007342325801</v>
-      </c>
-      <c r="F30" s="35">
-        <v>1005.33692630671</v>
-      </c>
-      <c r="G30" s="35">
-        <v>-126.179286048902</v>
-      </c>
-      <c r="H30" s="36">
-        <v>1706.95397604605</v>
-      </c>
-      <c r="I30" s="34">
-        <v>3.8717101456860799</v>
-      </c>
-      <c r="J30" s="35">
-        <v>14.5945731981802</v>
-      </c>
-      <c r="K30" s="35">
-        <v>143.61956090095899</v>
-      </c>
-      <c r="L30" s="35">
-        <v>-18.025612292700298</v>
-      </c>
-      <c r="M30" s="36">
-        <v>853.47698802302705</v>
+      <c r="B29" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="69"/>
+    </row>
+    <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="65"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -7134,39 +7388,41 @@
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="60"/>
-      <c r="C31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="34">
-        <v>6154.5724538640898</v>
-      </c>
-      <c r="E31" s="35">
-        <v>3903.4752517533798</v>
-      </c>
-      <c r="F31" s="35">
-        <v>7302.7248416019002</v>
-      </c>
-      <c r="G31" s="35">
-        <v>8317.7256861479109</v>
-      </c>
-      <c r="H31" s="36">
-        <v>16403.021127161399</v>
-      </c>
-      <c r="I31" s="34">
-        <v>161.96243299642299</v>
-      </c>
-      <c r="J31" s="35">
-        <v>54.214934052130303</v>
-      </c>
-      <c r="K31" s="35">
-        <v>730.27248416018995</v>
-      </c>
-      <c r="L31" s="35">
-        <v>831.772568614791</v>
-      </c>
-      <c r="M31" s="36">
-        <v>8201.5105635807395</v>
+      <c r="B31" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="31">
+        <v>1458.81123814527</v>
+      </c>
+      <c r="E31" s="32">
+        <v>2847.8386668830899</v>
+      </c>
+      <c r="F31" s="32">
+        <v>1271.97090118442</v>
+      </c>
+      <c r="G31" s="32">
+        <v>1586.36517020567</v>
+      </c>
+      <c r="H31" s="33">
+        <v>1519.7110231485301</v>
+      </c>
+      <c r="I31" s="31">
+        <v>28.054062272024499</v>
+      </c>
+      <c r="J31" s="32">
+        <v>31.998187268349302</v>
+      </c>
+      <c r="K31" s="32">
+        <v>181.71012874063101</v>
+      </c>
+      <c r="L31" s="32">
+        <v>132.19709751713901</v>
+      </c>
+      <c r="M31" s="33">
+        <v>759.85551157426505</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -7175,39 +7431,39 @@
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="60"/>
+      <c r="B32" s="67"/>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D32" s="34">
-        <v>1279.8459778988899</v>
+        <v>-34.4719483631415</v>
       </c>
       <c r="E32" s="35">
-        <v>2497.2435731795099</v>
+        <v>1012.2687302592</v>
       </c>
       <c r="F32" s="35">
-        <v>1290.7675617140501</v>
+        <v>1620.62414177809</v>
       </c>
       <c r="G32" s="35">
-        <v>589.20781802545901</v>
+        <v>1343.7753996932699</v>
       </c>
       <c r="H32" s="36">
-        <v>1902.7724377352999</v>
+        <v>-653.72478846129502</v>
       </c>
       <c r="I32" s="34">
-        <v>29.087408588611201</v>
+        <v>-0.78345337188958097</v>
       </c>
       <c r="J32" s="35">
-        <v>26.5664209912714</v>
+        <v>10.768816279353199</v>
       </c>
       <c r="K32" s="35">
-        <v>184.39536595915101</v>
+        <v>180.06934908645499</v>
       </c>
       <c r="L32" s="35">
-        <v>84.172545432208395</v>
+        <v>122.16139997211501</v>
       </c>
       <c r="M32" s="36">
-        <v>951.38621886765304</v>
+        <v>-326.862394230647</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -7215,50 +7471,40 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="61"/>
-      <c r="C33" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="56">
-        <f>AVERAGE(D28:D32)</f>
-        <v>1800.4021993870986</v>
-      </c>
-      <c r="E33" s="57">
-        <f t="shared" ref="E33:M33" si="3">AVERAGE(E28:E32)</f>
-        <v>2320.705391261552</v>
-      </c>
-      <c r="F33" s="57">
-        <f t="shared" si="3"/>
-        <v>2498.284874517034</v>
-      </c>
-      <c r="G33" s="57">
-        <f t="shared" si="3"/>
-        <v>2342.1789576046817</v>
-      </c>
-      <c r="H33" s="58">
-        <f t="shared" si="3"/>
-        <v>4175.746755125997</v>
-      </c>
-      <c r="I33" s="56">
-        <f t="shared" si="3"/>
-        <v>44.438432126171037</v>
-      </c>
-      <c r="J33" s="57">
-        <f t="shared" si="3"/>
-        <v>27.628586357856882</v>
-      </c>
-      <c r="K33" s="57">
-        <f t="shared" si="3"/>
-        <v>284.01337776947719</v>
-      </c>
-      <c r="L33" s="57">
-        <f t="shared" si="3"/>
-        <v>230.45559984871062</v>
-      </c>
-      <c r="M33" s="58">
-        <f t="shared" si="3"/>
-        <v>2087.8733775630076</v>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B33" s="67"/>
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="34">
+        <v>143.253275390385</v>
+      </c>
+      <c r="E33" s="35">
+        <v>1342.7007342325801</v>
+      </c>
+      <c r="F33" s="35">
+        <v>1005.33692630671</v>
+      </c>
+      <c r="G33" s="35">
+        <v>-126.179286048902</v>
+      </c>
+      <c r="H33" s="36">
+        <v>1706.95397604605</v>
+      </c>
+      <c r="I33" s="34">
+        <v>3.8717101456860799</v>
+      </c>
+      <c r="J33" s="35">
+        <v>14.5945731981802</v>
+      </c>
+      <c r="K33" s="35">
+        <v>143.61956090095899</v>
+      </c>
+      <c r="L33" s="35">
+        <v>-18.025612292700298</v>
+      </c>
+      <c r="M33" s="36">
+        <v>853.47698802302705</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -7267,41 +7513,39 @@
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="8">
-        <v>2457.5612982990101</v>
-      </c>
-      <c r="E34" s="7">
-        <v>3654.2463945797099</v>
-      </c>
-      <c r="F34" s="7">
-        <v>1228.81940284138</v>
-      </c>
-      <c r="G34" s="7">
-        <v>2965.7402802635702</v>
-      </c>
-      <c r="H34" s="9">
-        <v>3548.4118144202398</v>
-      </c>
-      <c r="I34" s="8">
-        <v>76.798790571844293</v>
-      </c>
-      <c r="J34" s="7">
-        <v>46.849312751021998</v>
-      </c>
-      <c r="K34" s="7">
-        <v>204.803233806896</v>
-      </c>
-      <c r="L34" s="7">
-        <v>494.29004671059602</v>
-      </c>
-      <c r="M34" s="9">
-        <v>1774.2059072101199</v>
+      <c r="B34" s="67"/>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="34">
+        <v>6154.5724538640898</v>
+      </c>
+      <c r="E34" s="35">
+        <v>3903.4752517533798</v>
+      </c>
+      <c r="F34" s="35">
+        <v>7302.7248416019002</v>
+      </c>
+      <c r="G34" s="35">
+        <v>8317.7256861479109</v>
+      </c>
+      <c r="H34" s="36">
+        <v>16403.021127161399</v>
+      </c>
+      <c r="I34" s="34">
+        <v>161.96243299642299</v>
+      </c>
+      <c r="J34" s="35">
+        <v>54.214934052130303</v>
+      </c>
+      <c r="K34" s="35">
+        <v>730.27248416018995</v>
+      </c>
+      <c r="L34" s="35">
+        <v>831.772568614791</v>
+      </c>
+      <c r="M34" s="36">
+        <v>8201.5105635807395</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -7310,39 +7554,39 @@
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="60"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="1">
-        <v>-1357.0894161068099</v>
-      </c>
-      <c r="E35" s="2">
-        <v>-453.96264365944</v>
-      </c>
-      <c r="F35" s="2">
-        <v>968.86690047791296</v>
-      </c>
-      <c r="G35" s="2">
-        <v>2816.90562551827</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1300.61722919111</v>
-      </c>
-      <c r="I35" s="1">
-        <v>-35.712879371231899</v>
-      </c>
-      <c r="J35" s="2">
-        <v>-6.5791687486875396</v>
-      </c>
-      <c r="K35" s="2">
-        <v>121.10836255973901</v>
-      </c>
-      <c r="L35" s="2">
-        <v>234.742135459856</v>
-      </c>
-      <c r="M35" s="3">
-        <v>650.30861459555899</v>
+        <v>9</v>
+      </c>
+      <c r="D35" s="34">
+        <v>1279.8459778988899</v>
+      </c>
+      <c r="E35" s="35">
+        <v>2497.2435731795099</v>
+      </c>
+      <c r="F35" s="35">
+        <v>1290.7675617140501</v>
+      </c>
+      <c r="G35" s="35">
+        <v>589.20781802545901</v>
+      </c>
+      <c r="H35" s="36">
+        <v>1902.7724377352999</v>
+      </c>
+      <c r="I35" s="34">
+        <v>29.087408588611201</v>
+      </c>
+      <c r="J35" s="35">
+        <v>26.5664209912714</v>
+      </c>
+      <c r="K35" s="35">
+        <v>184.39536595915101</v>
+      </c>
+      <c r="L35" s="35">
+        <v>84.172545432208395</v>
+      </c>
+      <c r="M35" s="36">
+        <v>951.38621886765304</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -7350,40 +7594,50 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B36" s="60"/>
-      <c r="C36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="1">
-        <v>3877.0040847334599</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2826.7588245625302</v>
-      </c>
-      <c r="F36" s="2">
-        <v>3174.2083354812698</v>
-      </c>
-      <c r="G36" s="2">
-        <v>7121.15050499479</v>
-      </c>
-      <c r="H36" s="3">
-        <v>6281.8229375976698</v>
-      </c>
-      <c r="I36" s="1">
-        <v>86.155646327410196</v>
-      </c>
-      <c r="J36" s="2">
-        <v>33.651890768601497</v>
-      </c>
-      <c r="K36" s="2">
-        <v>529.034722580211</v>
-      </c>
-      <c r="L36" s="2">
-        <v>593.42920874956599</v>
-      </c>
-      <c r="M36" s="3">
-        <v>3140.9114687988299</v>
+    <row r="36" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="68"/>
+      <c r="C36" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="56">
+        <f>AVERAGE(D31:D35)</f>
+        <v>1800.4021993870986</v>
+      </c>
+      <c r="E36" s="57">
+        <f t="shared" ref="E36:M36" si="31">AVERAGE(E31:E35)</f>
+        <v>2320.705391261552</v>
+      </c>
+      <c r="F36" s="57">
+        <f t="shared" si="31"/>
+        <v>2498.284874517034</v>
+      </c>
+      <c r="G36" s="57">
+        <f t="shared" si="31"/>
+        <v>2342.1789576046817</v>
+      </c>
+      <c r="H36" s="58">
+        <f t="shared" si="31"/>
+        <v>4175.746755125997</v>
+      </c>
+      <c r="I36" s="56">
+        <f t="shared" si="31"/>
+        <v>44.438432126171037</v>
+      </c>
+      <c r="J36" s="57">
+        <f t="shared" si="31"/>
+        <v>27.628586357856882</v>
+      </c>
+      <c r="K36" s="57">
+        <f t="shared" si="31"/>
+        <v>284.01337776947719</v>
+      </c>
+      <c r="L36" s="57">
+        <f t="shared" si="31"/>
+        <v>230.45559984871062</v>
+      </c>
+      <c r="M36" s="58">
+        <f t="shared" si="31"/>
+        <v>2087.8733775630076</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -7392,39 +7646,41 @@
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="60"/>
-      <c r="C37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="1">
-        <v>16021.2508284916</v>
-      </c>
-      <c r="E37" s="2">
-        <v>20500.7390745665</v>
-      </c>
-      <c r="F37" s="2">
-        <v>5158.1263184991003</v>
-      </c>
-      <c r="G37" s="2">
-        <v>6367.4600398672701</v>
-      </c>
-      <c r="H37" s="3">
-        <v>24082.435429335299</v>
-      </c>
-      <c r="I37" s="1">
-        <v>314.14217310767901</v>
-      </c>
-      <c r="J37" s="2">
-        <v>256.25923843208199</v>
-      </c>
-      <c r="K37" s="2">
-        <v>859.687719749851</v>
-      </c>
-      <c r="L37" s="2">
-        <v>795.93250498340899</v>
-      </c>
-      <c r="M37" s="3">
-        <v>12041.2177146676</v>
+      <c r="B37" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="8">
+        <v>2457.5612982990101</v>
+      </c>
+      <c r="E37" s="7">
+        <v>3654.2463945797099</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1228.81940284138</v>
+      </c>
+      <c r="G37" s="7">
+        <v>2965.7402802635702</v>
+      </c>
+      <c r="H37" s="9">
+        <v>3548.4118144202398</v>
+      </c>
+      <c r="I37" s="8">
+        <v>76.798790571844293</v>
+      </c>
+      <c r="J37" s="7">
+        <v>46.849312751021998</v>
+      </c>
+      <c r="K37" s="7">
+        <v>204.803233806896</v>
+      </c>
+      <c r="L37" s="7">
+        <v>494.29004671059602</v>
+      </c>
+      <c r="M37" s="9">
+        <v>1774.2059072101199</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -7433,39 +7689,39 @@
       <c r="R37" s="2"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="60"/>
+      <c r="B38" s="67"/>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1">
-        <v>1096.4910306345701</v>
+        <v>-1357.0894161068099</v>
       </c>
       <c r="E38" s="2">
-        <v>4908.3567102081797</v>
+        <v>-453.96264365944</v>
       </c>
       <c r="F38" s="2">
-        <v>1465.1872701904399</v>
+        <v>968.86690047791296</v>
       </c>
       <c r="G38" s="2">
-        <v>1575.4731742134099</v>
+        <v>2816.90562551827</v>
       </c>
       <c r="H38" s="3">
-        <v>4116.8281582077097</v>
+        <v>1300.61722919111</v>
       </c>
       <c r="I38" s="1">
-        <v>34.265344707330598</v>
+        <v>-35.712879371231899</v>
       </c>
       <c r="J38" s="2">
-        <v>68.171620975113598</v>
+        <v>-6.5791687486875396</v>
       </c>
       <c r="K38" s="2">
-        <v>244.19787836507399</v>
+        <v>121.10836255973901</v>
       </c>
       <c r="L38" s="2">
-        <v>262.57886236890198</v>
+        <v>234.742135459856</v>
       </c>
       <c r="M38" s="3">
-        <v>2058.4140791038499</v>
+        <v>650.30861459555899</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -7473,50 +7729,40 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
     </row>
-    <row r="39" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="61"/>
-      <c r="C39" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="56">
-        <f t="shared" ref="D39:M39" si="4">AVERAGE(D34:D38)</f>
-        <v>4419.0435652103661</v>
-      </c>
-      <c r="E39" s="57">
-        <f t="shared" si="4"/>
-        <v>6287.2276720514956</v>
-      </c>
-      <c r="F39" s="57">
-        <f t="shared" si="4"/>
-        <v>2399.0416454980204</v>
-      </c>
-      <c r="G39" s="57">
-        <f t="shared" si="4"/>
-        <v>4169.3459249714624</v>
-      </c>
-      <c r="H39" s="58">
-        <f t="shared" si="4"/>
-        <v>7866.0231137504061</v>
-      </c>
-      <c r="I39" s="56">
-        <f t="shared" si="4"/>
-        <v>95.129815068606433</v>
-      </c>
-      <c r="J39" s="57">
-        <f t="shared" si="4"/>
-        <v>79.670578835626316</v>
-      </c>
-      <c r="K39" s="57">
-        <f t="shared" si="4"/>
-        <v>391.76638341235423</v>
-      </c>
-      <c r="L39" s="57">
-        <f t="shared" si="4"/>
-        <v>476.19455165446573</v>
-      </c>
-      <c r="M39" s="58">
-        <f t="shared" si="4"/>
-        <v>3933.0115568751921</v>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B39" s="67"/>
+      <c r="C39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3877.0040847334599</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2826.7588245625302</v>
+      </c>
+      <c r="F39" s="2">
+        <v>3174.2083354812698</v>
+      </c>
+      <c r="G39" s="2">
+        <v>7121.15050499479</v>
+      </c>
+      <c r="H39" s="3">
+        <v>6281.8229375976698</v>
+      </c>
+      <c r="I39" s="1">
+        <v>86.155646327410196</v>
+      </c>
+      <c r="J39" s="2">
+        <v>33.651890768601497</v>
+      </c>
+      <c r="K39" s="2">
+        <v>529.034722580211</v>
+      </c>
+      <c r="L39" s="2">
+        <v>593.42920874956599</v>
+      </c>
+      <c r="M39" s="3">
+        <v>3140.9114687988299</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7525,41 +7771,39 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="8">
-        <v>1104.29783185575</v>
-      </c>
-      <c r="E40" s="7">
-        <v>274.93525526368802</v>
-      </c>
-      <c r="F40" s="7">
-        <v>-242.136177918973</v>
-      </c>
-      <c r="G40" s="7">
-        <v>2243.1272240324802</v>
-      </c>
-      <c r="H40" s="9">
-        <v>1783.93847717418</v>
-      </c>
-      <c r="I40" s="8">
-        <v>27.607445796393801</v>
-      </c>
-      <c r="J40" s="7">
-        <v>2.2911271271974001</v>
-      </c>
-      <c r="K40" s="7">
-        <v>-48.427235583794698</v>
-      </c>
-      <c r="L40" s="7">
-        <v>172.54824800249901</v>
-      </c>
-      <c r="M40" s="9">
-        <v>891.96923858709101</v>
+      <c r="B40" s="67"/>
+      <c r="C40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1">
+        <v>16021.2508284916</v>
+      </c>
+      <c r="E40" s="2">
+        <v>20500.7390745665</v>
+      </c>
+      <c r="F40" s="2">
+        <v>5158.1263184991003</v>
+      </c>
+      <c r="G40" s="2">
+        <v>6367.4600398672701</v>
+      </c>
+      <c r="H40" s="3">
+        <v>24082.435429335299</v>
+      </c>
+      <c r="I40" s="1">
+        <v>314.14217310767901</v>
+      </c>
+      <c r="J40" s="2">
+        <v>256.25923843208199</v>
+      </c>
+      <c r="K40" s="2">
+        <v>859.687719749851</v>
+      </c>
+      <c r="L40" s="2">
+        <v>795.93250498340899</v>
+      </c>
+      <c r="M40" s="3">
+        <v>12041.2177146676</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7568,39 +7812,39 @@
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="60"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D41" s="1">
-        <v>1876.0810273480699</v>
+        <v>1096.4910306345701</v>
       </c>
       <c r="E41" s="2">
-        <v>2306.16673836994</v>
+        <v>4908.3567102081797</v>
       </c>
       <c r="F41" s="2">
-        <v>1002.4776970566299</v>
+        <v>1465.1872701904399</v>
       </c>
       <c r="G41" s="2">
-        <v>79.543173226844303</v>
+        <v>1575.4731742134099</v>
       </c>
       <c r="H41" s="3">
-        <v>343.74549657321398</v>
+        <v>4116.8281582077097</v>
       </c>
       <c r="I41" s="1">
-        <v>36.785902497021098</v>
+        <v>34.265344707330598</v>
       </c>
       <c r="J41" s="2">
-        <v>20.7762769222517</v>
+        <v>68.171620975113598</v>
       </c>
       <c r="K41" s="2">
-        <v>111.38641078406999</v>
+        <v>244.19787836507399</v>
       </c>
       <c r="L41" s="2">
-        <v>7.2311975660767596</v>
+        <v>262.57886236890198</v>
       </c>
       <c r="M41" s="3">
-        <v>171.87274828660699</v>
+        <v>2058.4140791038499</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7608,40 +7852,50 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B42" s="60"/>
-      <c r="C42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="1">
-        <v>346.094766717102</v>
-      </c>
-      <c r="E42" s="2">
-        <v>1130.5385772299301</v>
-      </c>
-      <c r="F42" s="2">
-        <v>1085.36035547753</v>
-      </c>
-      <c r="G42" s="2">
-        <v>2188.6354578831501</v>
-      </c>
-      <c r="H42" s="3">
-        <v>2286.3312487667199</v>
-      </c>
-      <c r="I42" s="1">
-        <v>6.1802636913768199</v>
-      </c>
-      <c r="J42" s="2">
-        <v>10.094094439553</v>
-      </c>
-      <c r="K42" s="2">
-        <v>155.05147935393299</v>
-      </c>
-      <c r="L42" s="2">
-        <v>198.96685980755899</v>
-      </c>
-      <c r="M42" s="3">
-        <v>1143.16562438336</v>
+    <row r="42" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="68"/>
+      <c r="C42" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="56">
+        <f t="shared" ref="D42:M42" si="32">AVERAGE(D37:D41)</f>
+        <v>4419.0435652103661</v>
+      </c>
+      <c r="E42" s="57">
+        <f t="shared" si="32"/>
+        <v>6287.2276720514956</v>
+      </c>
+      <c r="F42" s="57">
+        <f t="shared" si="32"/>
+        <v>2399.0416454980204</v>
+      </c>
+      <c r="G42" s="57">
+        <f t="shared" si="32"/>
+        <v>4169.3459249714624</v>
+      </c>
+      <c r="H42" s="58">
+        <f t="shared" si="32"/>
+        <v>7866.0231137504061</v>
+      </c>
+      <c r="I42" s="56">
+        <f t="shared" si="32"/>
+        <v>95.129815068606433</v>
+      </c>
+      <c r="J42" s="57">
+        <f t="shared" si="32"/>
+        <v>79.670578835626316</v>
+      </c>
+      <c r="K42" s="57">
+        <f t="shared" si="32"/>
+        <v>391.76638341235423</v>
+      </c>
+      <c r="L42" s="57">
+        <f t="shared" si="32"/>
+        <v>476.19455165446573</v>
+      </c>
+      <c r="M42" s="58">
+        <f t="shared" si="32"/>
+        <v>3933.0115568751921</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7650,39 +7904,41 @@
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="60"/>
-      <c r="C43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1507.2712102236901</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1904.7620727580199</v>
-      </c>
-      <c r="F43" s="2">
-        <v>4030.5145859516301</v>
-      </c>
-      <c r="G43" s="2">
-        <v>-252.191910322761</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2724.6381180456901</v>
-      </c>
-      <c r="I43" s="1">
-        <v>32.069600217525299</v>
-      </c>
-      <c r="J43" s="2">
-        <v>16.7084392347194</v>
-      </c>
-      <c r="K43" s="2">
-        <v>366.41041690469302</v>
-      </c>
-      <c r="L43" s="2">
-        <v>-22.9265373020691</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1362.3190590228401</v>
+      <c r="B43" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1104.29783185575</v>
+      </c>
+      <c r="E43" s="7">
+        <v>274.93525526368802</v>
+      </c>
+      <c r="F43" s="7">
+        <v>-242.136177918973</v>
+      </c>
+      <c r="G43" s="7">
+        <v>2243.1272240324802</v>
+      </c>
+      <c r="H43" s="9">
+        <v>1783.93847717418</v>
+      </c>
+      <c r="I43" s="8">
+        <v>27.607445796393801</v>
+      </c>
+      <c r="J43" s="7">
+        <v>2.2911271271974001</v>
+      </c>
+      <c r="K43" s="7">
+        <v>-48.427235583794698</v>
+      </c>
+      <c r="L43" s="7">
+        <v>172.54824800249901</v>
+      </c>
+      <c r="M43" s="9">
+        <v>891.96923858709101</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7691,39 +7947,39 @@
       <c r="R43" s="2"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="60"/>
+      <c r="B44" s="67"/>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1">
-        <v>855.28211301886699</v>
+        <v>1876.0810273480699</v>
       </c>
       <c r="E44" s="2">
-        <v>1189.224952237</v>
+        <v>2306.16673836994</v>
       </c>
       <c r="F44" s="2">
-        <v>-97.977041356918505</v>
+        <v>1002.4776970566299</v>
       </c>
       <c r="G44" s="2">
-        <v>2374.0671485366001</v>
+        <v>79.543173226844303</v>
       </c>
       <c r="H44" s="3">
-        <v>2236.44677609788</v>
+        <v>343.74549657321398</v>
       </c>
       <c r="I44" s="1">
-        <v>17.454737000384998</v>
+        <v>36.785902497021098</v>
       </c>
       <c r="J44" s="2">
-        <v>10.251939243422401</v>
+        <v>20.7762769222517</v>
       </c>
       <c r="K44" s="2">
-        <v>-19.5954082713837</v>
+        <v>111.38641078406999</v>
       </c>
       <c r="L44" s="2">
-        <v>182.620549887431</v>
+        <v>7.2311975660767596</v>
       </c>
       <c r="M44" s="3">
-        <v>1118.22338804894</v>
+        <v>171.87274828660699</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7731,50 +7987,40 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="61"/>
-      <c r="C45" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="56">
-        <f t="shared" ref="D45" si="5">AVERAGE(D40:D44)</f>
-        <v>1137.8053898326957</v>
-      </c>
-      <c r="E45" s="57">
-        <f t="shared" ref="E45" si="6">AVERAGE(E40:E44)</f>
-        <v>1361.1255191717157</v>
-      </c>
-      <c r="F45" s="57">
-        <f t="shared" ref="F45" si="7">AVERAGE(F40:F44)</f>
-        <v>1155.6478838419796</v>
-      </c>
-      <c r="G45" s="57">
-        <f t="shared" ref="G45" si="8">AVERAGE(G40:G44)</f>
-        <v>1326.6362186712627</v>
-      </c>
-      <c r="H45" s="58">
-        <f t="shared" ref="H45" si="9">AVERAGE(H40:H44)</f>
-        <v>1875.0200233315368</v>
-      </c>
-      <c r="I45" s="56">
-        <f t="shared" ref="I45" si="10">AVERAGE(I40:I44)</f>
-        <v>24.019589840540402</v>
-      </c>
-      <c r="J45" s="57">
-        <f t="shared" ref="J45" si="11">AVERAGE(J40:J44)</f>
-        <v>12.02437539342878</v>
-      </c>
-      <c r="K45" s="57">
-        <f t="shared" ref="K45" si="12">AVERAGE(K40:K44)</f>
-        <v>112.96513263750353</v>
-      </c>
-      <c r="L45" s="57">
-        <f t="shared" ref="L45" si="13">AVERAGE(L40:L44)</f>
-        <v>107.68806359229932</v>
-      </c>
-      <c r="M45" s="58">
-        <f t="shared" ref="M45" si="14">AVERAGE(M40:M44)</f>
-        <v>937.51001166576748</v>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B45" s="67"/>
+      <c r="C45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="1">
+        <v>346.094766717102</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1130.5385772299301</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1085.36035547753</v>
+      </c>
+      <c r="G45" s="2">
+        <v>2188.6354578831501</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2286.3312487667199</v>
+      </c>
+      <c r="I45" s="1">
+        <v>6.1802636913768199</v>
+      </c>
+      <c r="J45" s="2">
+        <v>10.094094439553</v>
+      </c>
+      <c r="K45" s="2">
+        <v>155.05147935393299</v>
+      </c>
+      <c r="L45" s="2">
+        <v>198.96685980755899</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1143.16562438336</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7783,6 +8029,40 @@
       <c r="R45" s="2"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B46" s="67"/>
+      <c r="C46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1507.2712102236901</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1904.7620727580199</v>
+      </c>
+      <c r="F46" s="2">
+        <v>4030.5145859516301</v>
+      </c>
+      <c r="G46" s="2">
+        <v>-252.191910322761</v>
+      </c>
+      <c r="H46" s="3">
+        <v>2724.6381180456901</v>
+      </c>
+      <c r="I46" s="1">
+        <v>32.069600217525299</v>
+      </c>
+      <c r="J46" s="2">
+        <v>16.7084392347194</v>
+      </c>
+      <c r="K46" s="2">
+        <v>366.41041690469302</v>
+      </c>
+      <c r="L46" s="2">
+        <v>-22.9265373020691</v>
+      </c>
+      <c r="M46" s="3">
+        <v>1362.3190590228401</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -7790,1036 +8070,497 @@
       <c r="R46" s="2"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B47" s="67"/>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="1">
+        <v>855.28211301886699</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1189.224952237</v>
+      </c>
+      <c r="F47" s="2">
+        <v>-97.977041356918505</v>
+      </c>
+      <c r="G47" s="2">
+        <v>2374.0671485366001</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2236.44677609788</v>
+      </c>
+      <c r="I47" s="1">
+        <v>17.454737000384998</v>
+      </c>
+      <c r="J47" s="2">
+        <v>10.251939243422401</v>
+      </c>
+      <c r="K47" s="2">
+        <v>-19.5954082713837</v>
+      </c>
+      <c r="L47" s="2">
+        <v>182.620549887431</v>
+      </c>
+      <c r="M47" s="3">
+        <v>1118.22338804894</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="68"/>
+      <c r="C48" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="56">
+        <f t="shared" ref="D48" si="33">AVERAGE(D43:D47)</f>
+        <v>1137.8053898326957</v>
+      </c>
+      <c r="E48" s="57">
+        <f t="shared" ref="E48" si="34">AVERAGE(E43:E47)</f>
+        <v>1361.1255191717157</v>
+      </c>
+      <c r="F48" s="57">
+        <f t="shared" ref="F48" si="35">AVERAGE(F43:F47)</f>
+        <v>1155.6478838419796</v>
+      </c>
+      <c r="G48" s="57">
+        <f t="shared" ref="G48" si="36">AVERAGE(G43:G47)</f>
+        <v>1326.6362186712627</v>
+      </c>
+      <c r="H48" s="58">
+        <f t="shared" ref="H48" si="37">AVERAGE(H43:H47)</f>
+        <v>1875.0200233315368</v>
+      </c>
+      <c r="I48" s="56">
+        <f t="shared" ref="I48" si="38">AVERAGE(I43:I47)</f>
+        <v>24.019589840540402</v>
+      </c>
+      <c r="J48" s="57">
+        <f t="shared" ref="J48" si="39">AVERAGE(J43:J47)</f>
+        <v>12.02437539342878</v>
+      </c>
+      <c r="K48" s="57">
+        <f t="shared" ref="K48" si="40">AVERAGE(K43:K47)</f>
+        <v>112.96513263750353</v>
+      </c>
+      <c r="L48" s="57">
+        <f t="shared" ref="L48" si="41">AVERAGE(L43:L47)</f>
+        <v>107.68806359229932</v>
+      </c>
+      <c r="M48" s="58">
+        <f t="shared" ref="M48" si="42">AVERAGE(M43:M47)</f>
+        <v>937.51001166576748</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
     </row>
-    <row r="49" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
     </row>
-    <row r="102" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="103" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C103" s="67" t="s">
+    <row r="50" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B51" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F103" s="63"/>
-      <c r="G103" s="63"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="64"/>
-      <c r="J103" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="K103" s="63"/>
-      <c r="L103" s="63"/>
-      <c r="M103" s="63"/>
-      <c r="N103" s="64"/>
-      <c r="O103" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="P103" s="63"/>
-      <c r="Q103" s="63"/>
-      <c r="R103" s="63"/>
-      <c r="S103" s="64"/>
-    </row>
-    <row r="104" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C104" s="68"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G104" s="5" t="s">
+      <c r="C51" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="79"/>
+      <c r="E51" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="79"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+    </row>
+    <row r="52" spans="2:18" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="65"/>
+      <c r="C52" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+    </row>
+    <row r="53" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="13">
+        <v>0.62698412698412698</v>
+      </c>
+      <c r="F53" s="15">
+        <v>0.83730158730158699</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B54" s="67"/>
+      <c r="C54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H104" s="5" t="s">
+      <c r="E54" s="16">
+        <v>0.51587301587301504</v>
+      </c>
+      <c r="F54" s="18">
+        <v>0.46031746031746001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B55" s="67"/>
+      <c r="C55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I104" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K104" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L104" s="5" t="s">
+      <c r="E55" s="16">
+        <v>0.65873015873015806</v>
+      </c>
+      <c r="F55" s="18">
+        <v>0.37698412698412698</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B56" s="67"/>
+      <c r="C56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="16">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="F56" s="18">
+        <v>0.39682539682539603</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B57" s="67"/>
+      <c r="C57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M104" s="5" t="s">
+      <c r="E57" s="16">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="F57" s="18">
+        <v>0.28174603174603102</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B58" s="67"/>
+      <c r="C58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N104" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O104" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P104" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q104" s="5" t="s">
+      <c r="E58" s="16">
+        <v>0.96031746031746001</v>
+      </c>
+      <c r="F58" s="21">
+        <v>0.15476190476190399</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="68"/>
+      <c r="C59" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="84">
+        <v>0.90476190476190399</v>
+      </c>
+      <c r="F59" s="85">
+        <v>0.19841269841269801</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B60" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="13">
+        <v>0.59523809523809501</v>
+      </c>
+      <c r="F60" s="15">
+        <v>0.42857142857142799</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B61" s="67"/>
+      <c r="C61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R104" s="5" t="s">
+      <c r="E61" s="16">
+        <v>0.73809523809523803</v>
+      </c>
+      <c r="F61" s="18">
+        <v>0.81349206349206304</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B62" s="67"/>
+      <c r="C62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S104" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="W104">
-        <v>9</v>
-      </c>
-      <c r="X104">
-        <v>9</v>
-      </c>
-      <c r="Y104">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="105" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C105" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="13">
-        <v>0.145881123814527</v>
-      </c>
-      <c r="F105" s="14">
-        <v>0.28478386668830902</v>
-      </c>
-      <c r="G105" s="14">
-        <v>0.12719709011844199</v>
-      </c>
-      <c r="H105" s="14">
-        <v>0.158636517020567</v>
-      </c>
-      <c r="I105" s="15">
-        <v>0.151971102314853</v>
-      </c>
-      <c r="J105" s="13">
-        <v>7.0598812158114893E-2</v>
-      </c>
-      <c r="K105" s="19">
-        <v>0.13375674329481099</v>
-      </c>
-      <c r="L105" s="14">
-        <v>6.1817859250651003E-2</v>
-      </c>
-      <c r="M105" s="14">
-        <v>7.6552496102709505E-2</v>
-      </c>
-      <c r="N105" s="15">
-        <v>7.3445462756940305E-2</v>
-      </c>
-      <c r="O105" s="37">
-        <v>52</v>
-      </c>
-      <c r="P105" s="38">
-        <v>89</v>
-      </c>
-      <c r="Q105" s="38">
-        <v>7</v>
-      </c>
-      <c r="R105" s="38">
+      <c r="E62" s="16">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="F62" s="18">
+        <v>0.84920634920634896</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B63" s="67"/>
+      <c r="C63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="16">
+        <v>0.48412698412698402</v>
+      </c>
+      <c r="F63" s="18">
+        <v>0.47222222222222199</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B64" s="67"/>
+      <c r="C64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="16">
+        <v>0.40476190476190399</v>
+      </c>
+      <c r="F64" s="18">
+        <v>0.78968253968253899</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="67"/>
+      <c r="C65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S105" s="39">
-        <v>2</v>
-      </c>
-      <c r="W105">
-        <v>20</v>
-      </c>
-      <c r="X105">
-        <v>9</v>
-      </c>
-      <c r="Y105">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="106" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C106" s="60"/>
-      <c r="D106" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E106" s="16">
-        <v>-3.4471948363141501E-3</v>
-      </c>
-      <c r="F106" s="17">
-        <v>0.10122687302592</v>
-      </c>
-      <c r="G106" s="17">
-        <v>0.16206241417780901</v>
-      </c>
-      <c r="H106" s="17">
-        <v>0.134377539969327</v>
-      </c>
-      <c r="I106" s="18">
-        <v>-6.5372478846129498E-2</v>
-      </c>
-      <c r="J106" s="16">
-        <v>-1.72840636771576E-3</v>
-      </c>
-      <c r="K106" s="17">
-        <v>4.9491061769888399E-2</v>
-      </c>
-      <c r="L106" s="20">
-        <v>7.8145982097384603E-2</v>
-      </c>
-      <c r="M106" s="17">
-        <v>6.5200992878887698E-2</v>
-      </c>
-      <c r="N106" s="18">
-        <v>-3.3301608344867499E-2</v>
-      </c>
-      <c r="O106" s="40">
+      <c r="E65" s="16">
+        <v>0.80158730158730096</v>
+      </c>
+      <c r="F65" s="18">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="68"/>
+      <c r="C66" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="P106" s="41">
-        <v>94</v>
-      </c>
-      <c r="Q106" s="41">
-        <v>9</v>
-      </c>
-      <c r="R106" s="41">
-        <v>11</v>
-      </c>
-      <c r="S106" s="42">
-        <v>2</v>
-      </c>
-      <c r="W106">
-        <v>56</v>
-      </c>
-      <c r="X106">
-        <v>39</v>
-      </c>
-      <c r="Y106">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="107" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C107" s="60"/>
-      <c r="D107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E107" s="16">
-        <v>1.43253275390385E-2</v>
-      </c>
-      <c r="F107" s="17">
-        <v>0.134270073423258</v>
-      </c>
-      <c r="G107" s="17">
-        <v>0.100533692630671</v>
-      </c>
-      <c r="H107" s="17">
-        <v>-1.2617928604890199E-2</v>
-      </c>
-      <c r="I107" s="18">
-        <v>0.170695397604605</v>
-      </c>
-      <c r="J107" s="16">
-        <v>7.1509948722214799E-3</v>
-      </c>
-      <c r="K107" s="17">
-        <v>6.5150437951493501E-2</v>
-      </c>
-      <c r="L107" s="17">
-        <v>4.9160066008666403E-2</v>
-      </c>
-      <c r="M107" s="17">
-        <v>-6.3411482192437998E-3</v>
-      </c>
-      <c r="N107" s="21">
-        <v>8.2151071391820693E-2</v>
-      </c>
-      <c r="O107" s="40">
-        <v>37</v>
-      </c>
-      <c r="P107" s="41">
-        <v>92</v>
-      </c>
-      <c r="Q107" s="41">
-        <v>7</v>
-      </c>
-      <c r="R107" s="41">
-        <v>7</v>
-      </c>
-      <c r="S107" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C108" s="60"/>
-      <c r="D108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="16">
-        <v>0.615457245386409</v>
-      </c>
-      <c r="F108" s="17">
-        <v>0.39034752517533799</v>
-      </c>
-      <c r="G108" s="17">
-        <v>0.73027248416018997</v>
-      </c>
-      <c r="H108" s="17">
-        <v>0.83177256861479099</v>
-      </c>
-      <c r="I108" s="18">
-        <v>1.6403021127161399</v>
-      </c>
-      <c r="J108" s="16">
-        <v>0.27159380739345901</v>
-      </c>
-      <c r="K108" s="17">
-        <v>0.17950440695446099</v>
-      </c>
-      <c r="L108" s="17">
-        <v>0.31609320877955499</v>
-      </c>
-      <c r="M108" s="17">
-        <v>0.35421937693972699</v>
-      </c>
-      <c r="N108" s="21">
-        <v>0.62642120894139797</v>
-      </c>
-      <c r="O108" s="40">
-        <v>38</v>
-      </c>
-      <c r="P108" s="41">
-        <v>72</v>
-      </c>
-      <c r="Q108" s="41">
-        <v>10</v>
-      </c>
-      <c r="R108" s="41">
-        <v>10</v>
-      </c>
-      <c r="S108" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C109" s="60"/>
-      <c r="D109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" s="16">
-        <v>0.12798459778988899</v>
-      </c>
-      <c r="F109" s="17">
-        <v>0.24972435731795101</v>
-      </c>
-      <c r="G109" s="17">
-        <v>0.12907675617140499</v>
-      </c>
-      <c r="H109" s="17">
-        <v>5.8920781802545903E-2</v>
-      </c>
-      <c r="I109" s="18">
-        <v>0.19027724377353</v>
-      </c>
-      <c r="J109" s="16">
-        <v>6.2189424647157002E-2</v>
-      </c>
-      <c r="K109" s="20">
-        <v>0.118150821382174</v>
-      </c>
-      <c r="L109" s="17">
-        <v>6.2704517509868302E-2</v>
-      </c>
-      <c r="M109" s="17">
-        <v>2.9095523510565598E-2</v>
-      </c>
-      <c r="N109" s="43">
-        <v>9.1181373772844104E-2</v>
-      </c>
-      <c r="O109" s="40">
+      <c r="E66" s="84">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="F66" s="85">
+        <v>0.42857142857142799</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="13">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="F67" s="15">
+        <v>0.24603174603174599</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="67"/>
+      <c r="C68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="16">
+        <v>0.96825396825396803</v>
+      </c>
+      <c r="F68" s="21">
+        <v>8.3333333333333301E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="67"/>
+      <c r="C69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="16">
+        <v>0.79365079365079305</v>
+      </c>
+      <c r="F69" s="21">
+        <v>7.9365079365079309E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="67"/>
+      <c r="C70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P109" s="41">
-        <v>94</v>
-      </c>
-      <c r="Q109" s="41">
-        <v>7</v>
-      </c>
-      <c r="R109" s="41">
-        <v>7</v>
-      </c>
-      <c r="S109" s="42">
-        <v>2</v>
-      </c>
-      <c r="W109">
-        <v>9</v>
-      </c>
-      <c r="X109">
-        <v>10</v>
-      </c>
-      <c r="Y109">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="110" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C110" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110" s="13">
-        <v>0.245756129829901</v>
-      </c>
-      <c r="F110" s="14">
-        <v>0.36542463945797099</v>
-      </c>
-      <c r="G110" s="14">
-        <v>0.122881940284138</v>
-      </c>
-      <c r="H110" s="14">
-        <v>0.29657402802635702</v>
-      </c>
-      <c r="I110" s="15">
-        <v>0.35484118144202398</v>
-      </c>
-      <c r="J110" s="13">
-        <v>0.116134458669698</v>
-      </c>
-      <c r="K110" s="19">
-        <v>0.16851385933499799</v>
-      </c>
-      <c r="L110" s="14">
-        <v>5.9661238455072499E-2</v>
-      </c>
-      <c r="M110" s="14">
-        <v>0.138672045861475</v>
-      </c>
-      <c r="N110" s="15">
-        <v>0.163976452271275</v>
-      </c>
-      <c r="O110" s="37">
-        <v>32</v>
-      </c>
-      <c r="P110" s="38">
-        <v>78</v>
-      </c>
-      <c r="Q110" s="38">
-        <v>6</v>
-      </c>
-      <c r="R110" s="38">
-        <v>6</v>
-      </c>
-      <c r="S110" s="39">
-        <v>2</v>
-      </c>
-      <c r="W110">
-        <v>8</v>
-      </c>
-      <c r="X110">
-        <v>18</v>
-      </c>
-      <c r="Y110">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="111" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C111" s="60"/>
-      <c r="D111" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E111" s="16">
-        <v>-0.13570894161068101</v>
-      </c>
-      <c r="F111" s="17">
-        <v>-4.5396264365944003E-2</v>
-      </c>
-      <c r="G111" s="17">
-        <v>9.6886690047791296E-2</v>
-      </c>
-      <c r="H111" s="17">
-        <v>0.28169056255182701</v>
-      </c>
-      <c r="I111" s="18">
-        <v>0.130061722919111</v>
-      </c>
-      <c r="J111" s="16">
-        <v>-7.0327445608229899E-2</v>
-      </c>
-      <c r="K111" s="17">
-        <v>-2.2961753238873499E-2</v>
-      </c>
-      <c r="L111" s="17">
-        <v>4.73235842125352E-2</v>
-      </c>
-      <c r="M111" s="20">
-        <v>0.13211773352060299</v>
-      </c>
-      <c r="N111" s="18">
-        <v>6.3043612896061599E-2</v>
-      </c>
-      <c r="O111" s="40">
-        <v>38</v>
-      </c>
-      <c r="P111" s="41">
-        <v>69</v>
-      </c>
-      <c r="Q111" s="41">
-        <v>8</v>
-      </c>
-      <c r="R111" s="41">
+      <c r="E70" s="16">
+        <v>0.182539682539682</v>
+      </c>
+      <c r="F70" s="21">
+        <v>0.11111111111111099</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" s="67"/>
+      <c r="C71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="16">
+        <v>0.79365079365079305</v>
+      </c>
+      <c r="F71" s="21">
+        <v>0.115079365079365</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" s="67"/>
+      <c r="C72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S111" s="42">
-        <v>2</v>
-      </c>
-      <c r="W111">
-        <v>75</v>
-      </c>
-      <c r="X111">
-        <v>39</v>
-      </c>
-      <c r="Y111">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="112" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C112" s="60"/>
-      <c r="D112" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E112" s="16">
-        <v>0.38770040847334603</v>
-      </c>
-      <c r="F112" s="17">
-        <v>0.28267588245625302</v>
-      </c>
-      <c r="G112" s="17">
-        <v>0.317420833548127</v>
-      </c>
-      <c r="H112" s="17">
-        <v>0.71211505049947899</v>
-      </c>
-      <c r="I112" s="18">
-        <v>0.62818229375976697</v>
-      </c>
-      <c r="J112" s="16">
-        <v>0.178006964526672</v>
-      </c>
-      <c r="K112" s="17">
-        <v>0.13255281662987001</v>
-      </c>
-      <c r="L112" s="17">
-        <v>0.14778954235875799</v>
-      </c>
-      <c r="M112" s="20">
-        <v>0.308478142920041</v>
-      </c>
-      <c r="N112" s="18">
-        <v>0.27600246620442198</v>
-      </c>
-      <c r="O112" s="40">
-        <v>45</v>
-      </c>
-      <c r="P112" s="41">
-        <v>84</v>
-      </c>
-      <c r="Q112" s="41">
-        <v>6</v>
-      </c>
-      <c r="R112" s="41">
-        <v>12</v>
-      </c>
-      <c r="S112" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C113" s="60"/>
-      <c r="D113" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" s="16">
-        <v>1.60212508284916</v>
-      </c>
-      <c r="F113" s="17">
-        <v>2.0500739074566501</v>
-      </c>
-      <c r="G113" s="17">
-        <v>0.51581263184991</v>
-      </c>
-      <c r="H113" s="17">
-        <v>0.63674600398672698</v>
-      </c>
-      <c r="I113" s="18">
-        <v>2.4082435429335298</v>
-      </c>
-      <c r="J113" s="16">
-        <v>0.61311037528408696</v>
-      </c>
-      <c r="K113" s="17">
-        <v>0.74644607917240202</v>
-      </c>
-      <c r="L113" s="17">
-        <v>0.23118342737786601</v>
-      </c>
-      <c r="M113" s="17">
-        <v>0.27935374466436202</v>
-      </c>
-      <c r="N113" s="21">
-        <v>0.84614288258886705</v>
-      </c>
-      <c r="O113" s="40">
-        <v>51</v>
-      </c>
-      <c r="P113" s="41">
-        <v>80</v>
-      </c>
-      <c r="Q113" s="41">
-        <v>6</v>
-      </c>
-      <c r="R113" s="41">
-        <v>8</v>
-      </c>
-      <c r="S113" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C114" s="60"/>
-      <c r="D114" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" s="16">
-        <v>0.109649103063457</v>
-      </c>
-      <c r="F114" s="17">
-        <v>0.49083567102081799</v>
-      </c>
-      <c r="G114" s="17">
-        <v>0.146518727019044</v>
-      </c>
-      <c r="H114" s="17">
-        <v>0.15754731742134101</v>
-      </c>
-      <c r="I114" s="18">
-        <v>0.41168281582077099</v>
-      </c>
-      <c r="J114" s="16">
-        <v>5.3398833805818197E-2</v>
-      </c>
-      <c r="K114" s="17">
-        <v>0.22099781777889199</v>
-      </c>
-      <c r="L114" s="17">
-        <v>7.0756147317887E-2</v>
-      </c>
-      <c r="M114" s="17">
-        <v>7.5893729613358094E-2</v>
-      </c>
-      <c r="N114" s="18">
-        <v>0.18814259069388201</v>
-      </c>
-      <c r="O114" s="40">
-        <v>32</v>
-      </c>
-      <c r="P114" s="41">
-        <v>72</v>
-      </c>
-      <c r="Q114" s="41">
-        <v>6</v>
-      </c>
-      <c r="R114" s="41">
-        <v>6</v>
-      </c>
-      <c r="S114" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C115" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115" s="13">
-        <v>0.110429783185575</v>
-      </c>
-      <c r="F115" s="14">
-        <v>2.7493525526368801E-2</v>
-      </c>
-      <c r="G115" s="14">
-        <v>-2.4213617791897301E-2</v>
-      </c>
-      <c r="H115" s="14">
-        <v>0.22431272240324801</v>
-      </c>
-      <c r="I115" s="15">
-        <v>0.17839384771741801</v>
-      </c>
-      <c r="J115" s="13">
-        <v>5.3243836900526101E-2</v>
-      </c>
-      <c r="K115" s="14">
-        <v>1.3522643924873E-2</v>
-      </c>
-      <c r="L115" s="14">
-        <v>-1.20656904581708E-2</v>
-      </c>
-      <c r="M115" s="14">
-        <v>0.10542083566304999</v>
-      </c>
-      <c r="N115" s="47">
-        <v>8.4690295930442694E-2</v>
-      </c>
-      <c r="O115" s="37">
-        <v>40</v>
-      </c>
-      <c r="P115" s="38">
-        <v>120</v>
-      </c>
-      <c r="Q115" s="38">
-        <v>5</v>
-      </c>
-      <c r="R115" s="38">
-        <v>13</v>
-      </c>
-      <c r="S115" s="39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C116" s="60"/>
-      <c r="D116" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E116" s="16">
-        <v>0.18760810273480699</v>
-      </c>
-      <c r="F116" s="17">
-        <v>0.230616673836994</v>
-      </c>
-      <c r="G116" s="17">
-        <v>0.100247769705663</v>
-      </c>
-      <c r="H116" s="17">
-        <v>7.9543173226844302E-3</v>
-      </c>
-      <c r="I116" s="18">
-        <v>3.4374549657321403E-2</v>
-      </c>
-      <c r="J116" s="16">
-        <v>8.8882428487361706E-2</v>
-      </c>
-      <c r="K116" s="20">
-        <v>0.108235968599549</v>
-      </c>
-      <c r="L116" s="17">
-        <v>4.84498807793605E-2</v>
-      </c>
-      <c r="M116" s="17">
-        <v>3.9314041772975303E-3</v>
-      </c>
-      <c r="N116" s="18">
-        <v>1.6878391571122999E-2</v>
-      </c>
-      <c r="O116" s="40">
-        <v>51</v>
-      </c>
-      <c r="P116" s="41">
-        <v>111</v>
-      </c>
-      <c r="Q116" s="41">
-        <v>9</v>
-      </c>
-      <c r="R116" s="41">
-        <v>11</v>
-      </c>
-      <c r="S116" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C117" s="60"/>
-      <c r="D117" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E117" s="16">
-        <v>3.4609476671710201E-2</v>
-      </c>
-      <c r="F117" s="17">
-        <v>0.11305385772299301</v>
-      </c>
-      <c r="G117" s="17">
-        <v>0.108536035547753</v>
-      </c>
-      <c r="H117" s="17">
-        <v>0.21886354578831499</v>
-      </c>
-      <c r="I117" s="18">
-        <v>0.22863312487667201</v>
-      </c>
-      <c r="J117" s="16">
-        <v>1.6992761882746302E-2</v>
-      </c>
-      <c r="K117" s="17">
-        <v>5.4475719300415899E-2</v>
-      </c>
-      <c r="L117" s="17">
-        <v>5.23538963002552E-2</v>
-      </c>
-      <c r="M117" s="17">
-        <v>0.102981515128127</v>
-      </c>
-      <c r="N117" s="21">
-        <v>0.107350968760289</v>
-      </c>
-      <c r="O117" s="40">
-        <v>56</v>
-      </c>
-      <c r="P117" s="41">
-        <v>112</v>
-      </c>
-      <c r="Q117" s="41">
-        <v>7</v>
-      </c>
-      <c r="R117" s="41">
-        <v>11</v>
-      </c>
-      <c r="S117" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C118" s="60"/>
-      <c r="D118" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" s="16">
-        <v>0.15072712102236899</v>
-      </c>
-      <c r="F118" s="17">
-        <v>0.190476207275802</v>
-      </c>
-      <c r="G118" s="17">
-        <v>0.403051458595163</v>
-      </c>
-      <c r="H118" s="17">
-        <v>-2.52191910322761E-2</v>
-      </c>
-      <c r="I118" s="18">
-        <v>0.27246381180456902</v>
-      </c>
-      <c r="J118" s="16">
-        <v>7.2002578432402903E-2</v>
-      </c>
-      <c r="K118" s="17">
-        <v>9.0183953124685898E-2</v>
-      </c>
-      <c r="L118" s="20">
-        <v>0.18259611874832801</v>
-      </c>
-      <c r="M118" s="17">
-        <v>-1.25700196009562E-2</v>
-      </c>
-      <c r="N118" s="18">
-        <v>0.12674180595863499</v>
-      </c>
-      <c r="O118" s="40">
-        <v>47</v>
-      </c>
-      <c r="P118" s="41">
-        <v>114</v>
-      </c>
-      <c r="Q118" s="41">
-        <v>11</v>
-      </c>
-      <c r="R118" s="41">
-        <v>11</v>
-      </c>
-      <c r="S118" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C119" s="60"/>
-      <c r="D119" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" s="16">
-        <v>8.5528211301886703E-2</v>
-      </c>
-      <c r="F119" s="17">
-        <v>0.11892249522370001</v>
-      </c>
-      <c r="G119" s="17">
-        <v>-9.7977041356918492E-3</v>
-      </c>
-      <c r="H119" s="17">
-        <v>0.23740671485365999</v>
-      </c>
-      <c r="I119" s="18">
-        <v>0.22364467760978801</v>
-      </c>
-      <c r="J119" s="16">
-        <v>4.1479768107276403E-2</v>
-      </c>
-      <c r="K119" s="17">
-        <v>5.7225480388397101E-2</v>
-      </c>
-      <c r="L119" s="17">
-        <v>-4.8642539499735796E-3</v>
-      </c>
-      <c r="M119" s="20">
-        <v>0.111260042270695</v>
-      </c>
-      <c r="N119" s="21">
-        <v>0.105122080973315</v>
-      </c>
-      <c r="O119" s="40">
-        <v>49</v>
-      </c>
-      <c r="P119" s="41">
-        <v>116</v>
-      </c>
-      <c r="Q119" s="41">
-        <v>5</v>
-      </c>
-      <c r="R119" s="41">
-        <v>13</v>
-      </c>
-      <c r="S119" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="125" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C125" s="78"/>
-      <c r="D125" s="78"/>
-      <c r="E125" s="78"/>
-      <c r="G125" s="78"/>
-      <c r="H125" s="78"/>
-      <c r="I125" s="78"/>
-    </row>
-    <row r="126" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C126" s="76"/>
-      <c r="D126" s="76"/>
-      <c r="E126" s="76"/>
-      <c r="G126" s="76"/>
-      <c r="H126" s="76"/>
-      <c r="I126" s="76"/>
-    </row>
-    <row r="127" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C127" s="76"/>
-      <c r="D127" s="76"/>
-      <c r="E127" s="76"/>
-      <c r="G127" s="76"/>
-      <c r="H127" s="76"/>
-      <c r="I127" s="76"/>
-    </row>
-    <row r="128" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C128" s="76"/>
-      <c r="D128" s="76"/>
-      <c r="E128" s="76"/>
-      <c r="G128" s="76"/>
-      <c r="H128" s="76"/>
-      <c r="I128" s="76"/>
-    </row>
-    <row r="129" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C129" s="76"/>
-      <c r="D129" s="76"/>
-      <c r="E129" s="76"/>
-      <c r="G129" s="76"/>
-      <c r="H129" s="76"/>
-      <c r="I129" s="76"/>
-    </row>
-    <row r="130" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C130" s="76"/>
-      <c r="D130" s="76"/>
-      <c r="E130" s="76"/>
-      <c r="G130" s="76"/>
-      <c r="H130" s="76"/>
-      <c r="I130" s="76"/>
-    </row>
-    <row r="131" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C131" s="76"/>
-      <c r="D131" s="76"/>
-      <c r="E131" s="76"/>
-      <c r="G131" s="76"/>
-      <c r="H131" s="76"/>
-      <c r="I131" s="76"/>
-    </row>
-    <row r="132" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C132" s="77"/>
-      <c r="D132" s="77"/>
-      <c r="E132" s="77"/>
-      <c r="G132" s="76"/>
-      <c r="H132" s="76"/>
-      <c r="I132" s="76"/>
-    </row>
-    <row r="133" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="G133" s="76"/>
-      <c r="H133" s="76"/>
-      <c r="I133" s="76"/>
-    </row>
-    <row r="134" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="G134" s="76"/>
-      <c r="H134" s="76"/>
-      <c r="I134" s="76"/>
-    </row>
-    <row r="135" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G135" s="77"/>
-      <c r="H135" s="77"/>
-      <c r="I135" s="77"/>
+      <c r="E72" s="16">
+        <v>0.92063492063492003</v>
+      </c>
+      <c r="F72" s="21">
+        <v>9.1269841269841195E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="68"/>
+      <c r="C73" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="84">
+        <v>0.38888888888888801</v>
+      </c>
+      <c r="F73" s="85">
+        <v>0.34920634920634902</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C105:C109"/>
-    <mergeCell ref="C110:C114"/>
-    <mergeCell ref="C115:C119"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:I103"/>
-    <mergeCell ref="J103:N103"/>
-    <mergeCell ref="O103:S103"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:M3"/>
+  <mergeCells count="22">
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="N29:R29"/>
     <mergeCell ref="N3:R3"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8829,17 +8570,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U31"/>
+  <dimension ref="B2:U48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" customWidth="1"/>
     <col min="2" max="2" width="7.21875" customWidth="1"/>
-    <col min="4" max="11" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="7.6640625" customWidth="1"/>
     <col min="12" max="13" width="12.109375" customWidth="1"/>
     <col min="18" max="20" width="13.44140625" customWidth="1"/>
   </cols>
@@ -8851,10 +8594,10 @@
     </row>
     <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="62" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="72" t="s">
@@ -8873,10 +8616,10 @@
         <v>32</v>
       </c>
       <c r="K4" s="75"/>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="62" t="s">
         <v>10</v>
       </c>
       <c r="R4" s="70" t="s">
@@ -8889,8 +8632,8 @@
       <c r="U4" s="71"/>
     </row>
     <row r="5" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="68"/>
-      <c r="C5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
@@ -8915,8 +8658,8 @@
       <c r="K5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="66"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="63"/>
       <c r="R5" s="4" t="s">
         <v>1</v>
       </c>
@@ -8931,7 +8674,7 @@
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="66" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -8961,7 +8704,7 @@
       <c r="K6" s="15">
         <v>0.46449738029316001</v>
       </c>
-      <c r="P6" s="59" t="s">
+      <c r="P6" s="66" t="s">
         <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
@@ -8981,7 +8724,7 @@
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="60"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -9009,7 +8752,7 @@
       <c r="K7" s="18">
         <v>0.54328564517243705</v>
       </c>
-      <c r="P7" s="60"/>
+      <c r="P7" s="67"/>
       <c r="Q7" s="2" t="s">
         <v>5</v>
       </c>
@@ -9027,7 +8770,7 @@
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="60"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -9055,7 +8798,7 @@
       <c r="K8" s="18">
         <v>0.44666666666666599</v>
       </c>
-      <c r="P8" s="60"/>
+      <c r="P8" s="67"/>
       <c r="Q8" s="2" t="s">
         <v>6</v>
       </c>
@@ -9073,7 +8816,7 @@
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="60"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -9101,7 +8844,7 @@
       <c r="K9" s="18">
         <v>0.41017800027812501</v>
       </c>
-      <c r="P9" s="60"/>
+      <c r="P9" s="67"/>
       <c r="Q9" s="2" t="s">
         <v>8</v>
       </c>
@@ -9119,7 +8862,7 @@
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="60"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="22" t="s">
         <v>9</v>
       </c>
@@ -9147,7 +8890,7 @@
       <c r="K10" s="18">
         <v>0.49500251862456501</v>
       </c>
-      <c r="P10" s="60"/>
+      <c r="P10" s="67"/>
       <c r="Q10" s="22" t="s">
         <v>9</v>
       </c>
@@ -9165,7 +8908,7 @@
       </c>
     </row>
     <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="61"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="24" t="s">
         <v>29</v>
       </c>
@@ -9174,34 +8917,34 @@
         <v>0.55491329479768747</v>
       </c>
       <c r="E11" s="26">
-        <f t="shared" ref="E11:K11" si="0">AVERAGE(E6:E10)</f>
+        <f>AVERAGE(E6:E10)</f>
         <v>0.44778420038535616</v>
       </c>
       <c r="F11" s="25">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F6:F10)</f>
         <v>0.36599021524928982</v>
       </c>
       <c r="G11" s="44">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G6:G10)</f>
         <v>0.45163808271047501</v>
       </c>
       <c r="H11" s="25">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H6:H10)</f>
         <v>0.36712658067951276</v>
       </c>
       <c r="I11" s="46">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(I6:I10)</f>
         <v>0.43337725493933599</v>
       </c>
       <c r="J11" s="25">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J6:J10)</f>
         <v>0.36494470997240719</v>
       </c>
       <c r="K11" s="46">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(K6:K10)</f>
         <v>0.47192604220699064</v>
       </c>
-      <c r="P11" s="61"/>
+      <c r="P11" s="68"/>
       <c r="Q11" s="24" t="s">
         <v>29</v>
       </c>
@@ -9219,7 +8962,7 @@
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="66" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -9249,7 +8992,7 @@
       <c r="K12" s="15">
         <v>0.43915202065336101</v>
       </c>
-      <c r="P12" s="59" t="s">
+      <c r="P12" s="66" t="s">
         <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
@@ -9269,7 +9012,7 @@
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="60"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
@@ -9297,7 +9040,7 @@
       <c r="K13" s="18">
         <v>0.36621464670245102</v>
       </c>
-      <c r="P13" s="60"/>
+      <c r="P13" s="67"/>
       <c r="Q13" s="2" t="s">
         <v>5</v>
       </c>
@@ -9315,7 +9058,7 @@
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="60"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -9343,7 +9086,7 @@
       <c r="K14" s="18">
         <v>0.47806496476339599</v>
       </c>
-      <c r="P14" s="60"/>
+      <c r="P14" s="67"/>
       <c r="Q14" s="2" t="s">
         <v>6</v>
       </c>
@@ -9361,7 +9104,7 @@
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="60"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
@@ -9389,7 +9132,7 @@
       <c r="K15" s="18">
         <v>0.43991307863351498</v>
       </c>
-      <c r="P15" s="60"/>
+      <c r="P15" s="67"/>
       <c r="Q15" s="2" t="s">
         <v>8</v>
       </c>
@@ -9407,7 +9150,7 @@
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="60"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="22" t="s">
         <v>9</v>
       </c>
@@ -9435,7 +9178,7 @@
       <c r="K16" s="18">
         <v>0.45277640194823998</v>
       </c>
-      <c r="P16" s="60"/>
+      <c r="P16" s="67"/>
       <c r="Q16" s="22" t="s">
         <v>9</v>
       </c>
@@ -9453,43 +9196,43 @@
       </c>
     </row>
     <row r="17" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="61"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="48">
-        <f t="shared" ref="D17:K17" si="1">AVERAGE(D12:D16)</f>
+        <f t="shared" ref="D17:K17" si="0">AVERAGE(D12:D16)</f>
         <v>0.57115384615384557</v>
       </c>
       <c r="E17" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.43269230769230704</v>
       </c>
       <c r="F17" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.37292749770903616</v>
       </c>
       <c r="G17" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.41314396052985558</v>
       </c>
       <c r="H17" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.3733483582571766</v>
       </c>
       <c r="I17" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.39345153021213519</v>
       </c>
       <c r="J17" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.37251493122012957</v>
       </c>
       <c r="K17" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.43522422254019261</v>
       </c>
-      <c r="P17" s="61"/>
+      <c r="P17" s="68"/>
       <c r="Q17" s="24" t="s">
         <v>29</v>
       </c>
@@ -9507,7 +9250,7 @@
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="66" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -9537,7 +9280,7 @@
       <c r="K18" s="15">
         <v>0.56784646348476098</v>
       </c>
-      <c r="P18" s="59" t="s">
+      <c r="P18" s="66" t="s">
         <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
@@ -9557,7 +9300,7 @@
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="60"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
@@ -9585,7 +9328,7 @@
       <c r="K19" s="18">
         <v>0.46253496058987997</v>
       </c>
-      <c r="P19" s="60"/>
+      <c r="P19" s="67"/>
       <c r="Q19" s="2" t="s">
         <v>5</v>
       </c>
@@ -9603,7 +9346,7 @@
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="60"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
@@ -9631,7 +9374,7 @@
       <c r="K20" s="18">
         <v>0.50257522316750003</v>
       </c>
-      <c r="P20" s="60"/>
+      <c r="P20" s="67"/>
       <c r="Q20" s="2" t="s">
         <v>6</v>
       </c>
@@ -9649,7 +9392,7 @@
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B21" s="60"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
@@ -9677,7 +9420,7 @@
       <c r="K21" s="18">
         <v>0.49256491545893699</v>
       </c>
-      <c r="P21" s="60"/>
+      <c r="P21" s="67"/>
       <c r="Q21" s="2" t="s">
         <v>8</v>
       </c>
@@ -9695,7 +9438,7 @@
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="60"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="22" t="s">
         <v>9</v>
       </c>
@@ -9723,7 +9466,7 @@
       <c r="K22" s="18">
         <v>0.53429525850500204</v>
       </c>
-      <c r="P22" s="60"/>
+      <c r="P22" s="67"/>
       <c r="Q22" s="22" t="s">
         <v>9</v>
       </c>
@@ -9741,43 +9484,43 @@
       </c>
     </row>
     <row r="23" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="61"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="48">
-        <f t="shared" ref="D23:K23" si="2">AVERAGE(D18:D22)</f>
+        <f t="shared" ref="D23:K23" si="1">AVERAGE(D18:D22)</f>
         <v>0.55657142857142827</v>
       </c>
       <c r="E23" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.40380952380952345</v>
       </c>
       <c r="F23" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.37222111797503099</v>
       </c>
       <c r="G23" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.47694536514010483</v>
       </c>
       <c r="H23" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.37003345931548159</v>
       </c>
       <c r="I23" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.44673450884719845</v>
       </c>
       <c r="J23" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.37454436304638561</v>
       </c>
       <c r="K23" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.51196336424121602</v>
       </c>
-      <c r="P23" s="61"/>
+      <c r="P23" s="68"/>
       <c r="Q23" s="24" t="s">
         <v>29</v>
       </c>
@@ -9827,8 +9570,142 @@
         <v>28</v>
       </c>
     </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:4" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="88" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="67"/>
+      <c r="C38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="67"/>
+      <c r="C39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="68"/>
+      <c r="C40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="67"/>
+      <c r="C42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="18">
+        <v>6.3492063492063405E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="67"/>
+      <c r="C43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="18">
+        <v>0.24603174603174599</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="68"/>
+      <c r="C44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="85">
+        <v>3.1746031746031703E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="67"/>
+      <c r="C46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="67"/>
+      <c r="C47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="68"/>
+      <c r="C48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="85">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B48"/>
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="B12:B17"/>

--- a/results tables/results_table_scheme.xlsx
+++ b/results tables/results_table_scheme.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Financial Results Table - Comp" sheetId="1" r:id="rId1"/>
-    <sheet name="Classification Results - Comp" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Classification Results - Comp" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="50">
   <si>
     <t>Annual Returns</t>
   </si>
@@ -151,15 +152,6 @@
   </si>
   <si>
     <t>p-value (equal variances)</t>
-  </si>
-  <si>
-    <t>indiv</t>
-  </si>
-  <si>
-    <t>univ</t>
-  </si>
-  <si>
-    <t>BaH</t>
   </si>
   <si>
     <t>Strategies</t>
@@ -461,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -533,20 +525,27 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -562,6 +561,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -584,36 +607,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6043,8 +6041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R73"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6067,37 +6065,37 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="59" t="s">
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="59" t="s">
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="61"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="81"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="65"/>
-      <c r="C4" s="63"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
@@ -6145,7 +6143,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -6198,7 +6196,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="67"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -6249,7 +6247,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="67"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -6300,7 +6298,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="67"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -6351,7 +6349,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="67"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -6402,7 +6400,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="67"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="23" t="s">
         <v>36</v>
       </c>
@@ -6442,7 +6440,7 @@
         <f t="shared" si="0"/>
         <v>0.14374803531300204</v>
       </c>
-      <c r="M10" s="76">
+      <c r="M10" s="59">
         <f t="shared" si="0"/>
         <v>0.26119152006739776</v>
       </c>
@@ -6468,7 +6466,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="68"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="23" t="s">
         <v>29</v>
       </c>
@@ -6534,7 +6532,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="71" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -6587,7 +6585,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="67"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
@@ -6638,7 +6636,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="67"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -6689,7 +6687,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="67"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
@@ -6740,7 +6738,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="67"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="22" t="s">
         <v>9</v>
       </c>
@@ -6791,7 +6789,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="67"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="23" t="s">
         <v>36</v>
       </c>
@@ -6831,7 +6829,7 @@
         <f t="shared" ref="L17" si="9">_xlfn.STDEV.S(L12:L16)</f>
         <v>0.1012155670303457</v>
       </c>
-      <c r="M17" s="76">
+      <c r="M17" s="59">
         <f t="shared" ref="M17" si="10">_xlfn.STDEV.S(M12:M16)</f>
         <v>0.31053678016107189</v>
       </c>
@@ -6857,7 +6855,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="68"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="23" t="s">
         <v>29</v>
       </c>
@@ -6923,7 +6921,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="71" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -6976,7 +6974,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="67"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
@@ -7027,7 +7025,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="67"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
@@ -7078,7 +7076,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="67"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
@@ -7129,7 +7127,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="67"/>
+      <c r="B23" s="72"/>
       <c r="C23" s="22" t="s">
         <v>9</v>
       </c>
@@ -7180,7 +7178,7 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="67"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="23" t="s">
         <v>36</v>
       </c>
@@ -7220,7 +7218,7 @@
         <f t="shared" ref="L24" si="24">_xlfn.STDEV.S(L19:L23)</f>
         <v>6.1081595706812583E-2</v>
       </c>
-      <c r="M24" s="76">
+      <c r="M24" s="59">
         <f t="shared" ref="M24" si="25">_xlfn.STDEV.S(M19:M23)</f>
         <v>4.2537241672169455E-2</v>
       </c>
@@ -7246,68 +7244,68 @@
       </c>
     </row>
     <row r="25" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="68"/>
+      <c r="B25" s="73"/>
       <c r="C25" s="23" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="25">
-        <f>AVERAGE(D19:D23)</f>
+        <f t="shared" ref="D25:R25" si="31">AVERAGE(D19:D23)</f>
         <v>0.11378053898326959</v>
       </c>
       <c r="E25" s="26">
-        <f>AVERAGE(E19:E23)</f>
+        <f t="shared" si="31"/>
         <v>0.13611255191717159</v>
       </c>
       <c r="F25" s="26">
-        <f>AVERAGE(F19:F23)</f>
+        <f t="shared" si="31"/>
         <v>0.11556478838419797</v>
       </c>
       <c r="G25" s="26">
-        <f>AVERAGE(G19:G23)</f>
+        <f t="shared" si="31"/>
         <v>0.13266362186712627</v>
       </c>
       <c r="H25" s="27">
-        <f>AVERAGE(H19:H23)</f>
+        <f t="shared" si="31"/>
         <v>0.18750200233315367</v>
       </c>
       <c r="I25" s="25">
-        <f>AVERAGE(I19:I23)</f>
+        <f t="shared" si="31"/>
         <v>5.4520274762062684E-2</v>
       </c>
       <c r="J25" s="45">
-        <f>AVERAGE(J19:J23)</f>
+        <f t="shared" si="31"/>
         <v>6.4728753067584174E-2</v>
       </c>
       <c r="K25" s="26">
-        <f>AVERAGE(K19:K23)</f>
+        <f t="shared" si="31"/>
         <v>5.3293990283959869E-2</v>
       </c>
       <c r="L25" s="26">
-        <f>AVERAGE(L19:L23)</f>
+        <f t="shared" si="31"/>
         <v>6.2204755527642666E-2</v>
       </c>
       <c r="M25" s="46">
-        <f>AVERAGE(M19:M23)</f>
+        <f t="shared" si="31"/>
         <v>8.8156708638760933E-2</v>
       </c>
       <c r="N25" s="28">
-        <f>AVERAGE(N19:N23)</f>
+        <f t="shared" si="31"/>
         <v>48.6</v>
       </c>
       <c r="O25" s="29">
-        <f>AVERAGE(O19:O23)</f>
+        <f t="shared" si="31"/>
         <v>114.6</v>
       </c>
       <c r="P25" s="29">
-        <f>AVERAGE(P19:P23)</f>
+        <f t="shared" si="31"/>
         <v>7.4</v>
       </c>
       <c r="Q25" s="29">
-        <f>AVERAGE(Q19:Q23)</f>
+        <f t="shared" si="31"/>
         <v>11.8</v>
       </c>
       <c r="R25" s="30">
-        <f>AVERAGE(R19:R23)</f>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
     </row>
@@ -7322,35 +7320,35 @@
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="59" t="s">
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="82"/>
     </row>
     <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="65"/>
-      <c r="C30" s="63"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="4" t="s">
         <v>1</v>
       </c>
@@ -7388,7 +7386,7 @@
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -7431,7 +7429,7 @@
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="67"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
@@ -7472,7 +7470,7 @@
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="67"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="2" t="s">
         <v>6</v>
       </c>
@@ -7513,7 +7511,7 @@
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="67"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
@@ -7554,7 +7552,7 @@
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="67"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
@@ -7595,7 +7593,7 @@
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="68"/>
+      <c r="B36" s="73"/>
       <c r="C36" s="55" t="s">
         <v>29</v>
       </c>
@@ -7604,39 +7602,39 @@
         <v>1800.4021993870986</v>
       </c>
       <c r="E36" s="57">
-        <f t="shared" ref="E36:M36" si="31">AVERAGE(E31:E35)</f>
+        <f t="shared" ref="E36:M36" si="32">AVERAGE(E31:E35)</f>
         <v>2320.705391261552</v>
       </c>
       <c r="F36" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2498.284874517034</v>
       </c>
       <c r="G36" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2342.1789576046817</v>
       </c>
       <c r="H36" s="58">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4175.746755125997</v>
       </c>
       <c r="I36" s="56">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>44.438432126171037</v>
       </c>
       <c r="J36" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>27.628586357856882</v>
       </c>
       <c r="K36" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>284.01337776947719</v>
       </c>
       <c r="L36" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>230.45559984871062</v>
       </c>
       <c r="M36" s="58">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2087.8733775630076</v>
       </c>
       <c r="N36" s="2"/>
@@ -7646,7 +7644,7 @@
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="71" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -7689,7 +7687,7 @@
       <c r="R37" s="2"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="67"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="2" t="s">
         <v>5</v>
       </c>
@@ -7730,7 +7728,7 @@
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B39" s="67"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="2" t="s">
         <v>6</v>
       </c>
@@ -7771,7 +7769,7 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="67"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
@@ -7812,7 +7810,7 @@
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="67"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
@@ -7853,48 +7851,48 @@
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="68"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="55" t="s">
         <v>29</v>
       </c>
       <c r="D42" s="56">
-        <f t="shared" ref="D42:M42" si="32">AVERAGE(D37:D41)</f>
+        <f t="shared" ref="D42:M42" si="33">AVERAGE(D37:D41)</f>
         <v>4419.0435652103661</v>
       </c>
       <c r="E42" s="57">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>6287.2276720514956</v>
       </c>
       <c r="F42" s="57">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2399.0416454980204</v>
       </c>
       <c r="G42" s="57">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4169.3459249714624</v>
       </c>
       <c r="H42" s="58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>7866.0231137504061</v>
       </c>
       <c r="I42" s="56">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>95.129815068606433</v>
       </c>
       <c r="J42" s="57">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>79.670578835626316</v>
       </c>
       <c r="K42" s="57">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>391.76638341235423</v>
       </c>
       <c r="L42" s="57">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>476.19455165446573</v>
       </c>
       <c r="M42" s="58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3933.0115568751921</v>
       </c>
       <c r="N42" s="2"/>
@@ -7904,7 +7902,7 @@
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="71" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -7947,7 +7945,7 @@
       <c r="R43" s="2"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="67"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="2" t="s">
         <v>5</v>
       </c>
@@ -7988,7 +7986,7 @@
       <c r="R44" s="2"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="67"/>
+      <c r="B45" s="72"/>
       <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
@@ -8029,7 +8027,7 @@
       <c r="R45" s="2"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="67"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
@@ -8070,7 +8068,7 @@
       <c r="R46" s="2"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="67"/>
+      <c r="B47" s="72"/>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
@@ -8111,48 +8109,48 @@
       <c r="R47" s="2"/>
     </row>
     <row r="48" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="68"/>
+      <c r="B48" s="73"/>
       <c r="C48" s="55" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="56">
-        <f t="shared" ref="D48" si="33">AVERAGE(D43:D47)</f>
+        <f t="shared" ref="D48" si="34">AVERAGE(D43:D47)</f>
         <v>1137.8053898326957</v>
       </c>
       <c r="E48" s="57">
-        <f t="shared" ref="E48" si="34">AVERAGE(E43:E47)</f>
+        <f t="shared" ref="E48" si="35">AVERAGE(E43:E47)</f>
         <v>1361.1255191717157</v>
       </c>
       <c r="F48" s="57">
-        <f t="shared" ref="F48" si="35">AVERAGE(F43:F47)</f>
+        <f t="shared" ref="F48" si="36">AVERAGE(F43:F47)</f>
         <v>1155.6478838419796</v>
       </c>
       <c r="G48" s="57">
-        <f t="shared" ref="G48" si="36">AVERAGE(G43:G47)</f>
+        <f t="shared" ref="G48" si="37">AVERAGE(G43:G47)</f>
         <v>1326.6362186712627</v>
       </c>
       <c r="H48" s="58">
-        <f t="shared" ref="H48" si="37">AVERAGE(H43:H47)</f>
+        <f t="shared" ref="H48" si="38">AVERAGE(H43:H47)</f>
         <v>1875.0200233315368</v>
       </c>
       <c r="I48" s="56">
-        <f t="shared" ref="I48" si="38">AVERAGE(I43:I47)</f>
+        <f t="shared" ref="I48" si="39">AVERAGE(I43:I47)</f>
         <v>24.019589840540402</v>
       </c>
       <c r="J48" s="57">
-        <f t="shared" ref="J48" si="39">AVERAGE(J43:J47)</f>
+        <f t="shared" ref="J48" si="40">AVERAGE(J43:J47)</f>
         <v>12.02437539342878</v>
       </c>
       <c r="K48" s="57">
-        <f t="shared" ref="K48" si="40">AVERAGE(K43:K47)</f>
+        <f t="shared" ref="K48" si="41">AVERAGE(K43:K47)</f>
         <v>112.96513263750353</v>
       </c>
       <c r="L48" s="57">
-        <f t="shared" ref="L48" si="41">AVERAGE(L43:L47)</f>
+        <f t="shared" ref="L48" si="42">AVERAGE(L43:L47)</f>
         <v>107.68806359229932</v>
       </c>
       <c r="M48" s="58">
-        <f t="shared" ref="M48" si="42">AVERAGE(M43:M47)</f>
+        <f t="shared" ref="M48" si="43">AVERAGE(M43:M47)</f>
         <v>937.51001166576748</v>
       </c>
       <c r="N48" s="2"/>
@@ -8169,7 +8167,7 @@
       <c r="R49" s="2"/>
     </row>
     <row r="50" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="77" t="s">
+      <c r="B50" s="60" t="s">
         <v>37</v>
       </c>
       <c r="N50" s="2"/>
@@ -8179,17 +8177,17 @@
       <c r="R50" s="2"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="79"/>
-      <c r="E51" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="F51" s="79"/>
+      <c r="C51" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="75"/>
+      <c r="E51" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="75"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -8197,17 +8195,17 @@
       <c r="R51" s="2"/>
     </row>
     <row r="52" spans="2:18" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="65"/>
-      <c r="C52" s="81" t="s">
+      <c r="B52" s="90"/>
+      <c r="C52" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="82" t="s">
+      <c r="D52" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="83" t="s">
+      <c r="E52" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="82" t="s">
+      <c r="F52" s="62" t="s">
         <v>41</v>
       </c>
       <c r="N52" s="2"/>
@@ -8217,14 +8215,14 @@
       <c r="R52" s="2"/>
     </row>
     <row r="53" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="66" t="s">
+      <c r="B53" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E53" s="13">
         <v>0.62698412698412698</v>
@@ -8234,9 +8232,9 @@
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B54" s="67"/>
+      <c r="B54" s="72"/>
       <c r="C54" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>4</v>
@@ -8249,9 +8247,9 @@
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B55" s="67"/>
+      <c r="B55" s="72"/>
       <c r="C55" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>12</v>
@@ -8264,12 +8262,12 @@
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B56" s="67"/>
+      <c r="B56" s="72"/>
       <c r="C56" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E56" s="16">
         <v>0.61904761904761896</v>
@@ -8279,9 +8277,9 @@
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B57" s="67"/>
+      <c r="B57" s="72"/>
       <c r="C57" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>4</v>
@@ -8294,9 +8292,9 @@
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B58" s="67"/>
+      <c r="B58" s="72"/>
       <c r="C58" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>12</v>
@@ -8309,29 +8307,29 @@
       </c>
     </row>
     <row r="59" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="68"/>
+      <c r="B59" s="73"/>
       <c r="C59" s="4" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="84">
+        <v>3</v>
+      </c>
+      <c r="E59" s="64">
         <v>0.90476190476190399</v>
       </c>
-      <c r="F59" s="85">
+      <c r="F59" s="65">
         <v>0.19841269841269801</v>
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B60" s="66" t="s">
+      <c r="B60" s="71" t="s">
         <v>14</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E60" s="13">
         <v>0.59523809523809501</v>
@@ -8341,9 +8339,9 @@
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B61" s="67"/>
+      <c r="B61" s="72"/>
       <c r="C61" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>4</v>
@@ -8356,9 +8354,9 @@
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B62" s="67"/>
+      <c r="B62" s="72"/>
       <c r="C62" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>12</v>
@@ -8371,12 +8369,12 @@
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B63" s="67"/>
+      <c r="B63" s="72"/>
       <c r="C63" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E63" s="16">
         <v>0.48412698412698402</v>
@@ -8386,9 +8384,9 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B64" s="67"/>
+      <c r="B64" s="72"/>
       <c r="C64" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>4</v>
@@ -8401,9 +8399,9 @@
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="67"/>
+      <c r="B65" s="72"/>
       <c r="C65" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>12</v>
@@ -8416,29 +8414,29 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="68"/>
+      <c r="B66" s="73"/>
       <c r="C66" s="4" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D66" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="64">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="F66" s="65">
+        <v>0.42857142857142799</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="84">
-        <v>0.64285714285714202</v>
-      </c>
-      <c r="F66" s="85">
-        <v>0.42857142857142799</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="66" t="s">
-        <v>47</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E67" s="13">
         <v>0.61111111111111105</v>
@@ -8448,9 +8446,9 @@
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="67"/>
+      <c r="B68" s="72"/>
       <c r="C68" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>4</v>
@@ -8463,9 +8461,9 @@
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="67"/>
+      <c r="B69" s="72"/>
       <c r="C69" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>12</v>
@@ -8478,12 +8476,12 @@
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="67"/>
+      <c r="B70" s="72"/>
       <c r="C70" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E70" s="16">
         <v>0.182539682539682</v>
@@ -8493,9 +8491,9 @@
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="67"/>
+      <c r="B71" s="72"/>
       <c r="C71" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>4</v>
@@ -8508,9 +8506,9 @@
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="67"/>
+      <c r="B72" s="72"/>
       <c r="C72" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>12</v>
@@ -8523,34 +8521,22 @@
       </c>
     </row>
     <row r="73" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="68"/>
+      <c r="B73" s="73"/>
       <c r="C73" s="4" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E73" s="84">
+        <v>3</v>
+      </c>
+      <c r="E73" s="64">
         <v>0.38888888888888801</v>
       </c>
-      <c r="F73" s="85">
+      <c r="F73" s="65">
         <v>0.34920634920634902</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:H29"/>
     <mergeCell ref="I29:M29"/>
     <mergeCell ref="N29:R29"/>
     <mergeCell ref="N3:R3"/>
@@ -8561,6 +8547,18 @@
     <mergeCell ref="B5:B11"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="I3:M3"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="B43:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8570,9 +8568,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -8594,46 +8606,46 @@
     </row>
     <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="72" t="s">
+      <c r="E4" s="86"/>
+      <c r="F4" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74" t="s">
+      <c r="G4" s="86"/>
+      <c r="H4" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="74" t="s">
+      <c r="I4" s="88"/>
+      <c r="J4" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="P4" s="64" t="s">
+      <c r="K4" s="88"/>
+      <c r="P4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="71"/>
-      <c r="T4" s="70" t="s">
+      <c r="S4" s="84"/>
+      <c r="T4" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="71"/>
+      <c r="U4" s="84"/>
     </row>
     <row r="5" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="65"/>
-      <c r="C5" s="63"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
@@ -8658,8 +8670,8 @@
       <c r="K5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="63"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="78"/>
       <c r="R5" s="4" t="s">
         <v>1</v>
       </c>
@@ -8674,7 +8686,7 @@
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -8704,7 +8716,7 @@
       <c r="K6" s="15">
         <v>0.46449738029316001</v>
       </c>
-      <c r="P6" s="66" t="s">
+      <c r="P6" s="71" t="s">
         <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
@@ -8724,7 +8736,7 @@
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="67"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -8752,7 +8764,7 @@
       <c r="K7" s="18">
         <v>0.54328564517243705</v>
       </c>
-      <c r="P7" s="67"/>
+      <c r="P7" s="72"/>
       <c r="Q7" s="2" t="s">
         <v>5</v>
       </c>
@@ -8770,7 +8782,7 @@
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="67"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -8798,7 +8810,7 @@
       <c r="K8" s="18">
         <v>0.44666666666666599</v>
       </c>
-      <c r="P8" s="67"/>
+      <c r="P8" s="72"/>
       <c r="Q8" s="2" t="s">
         <v>6</v>
       </c>
@@ -8816,7 +8828,7 @@
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="67"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -8844,7 +8856,7 @@
       <c r="K9" s="18">
         <v>0.41017800027812501</v>
       </c>
-      <c r="P9" s="67"/>
+      <c r="P9" s="72"/>
       <c r="Q9" s="2" t="s">
         <v>8</v>
       </c>
@@ -8862,7 +8874,7 @@
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="67"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="22" t="s">
         <v>9</v>
       </c>
@@ -8890,7 +8902,7 @@
       <c r="K10" s="18">
         <v>0.49500251862456501</v>
       </c>
-      <c r="P10" s="67"/>
+      <c r="P10" s="72"/>
       <c r="Q10" s="22" t="s">
         <v>9</v>
       </c>
@@ -8908,43 +8920,43 @@
       </c>
     </row>
     <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="68"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="48">
-        <f>AVERAGE(D6:D10)</f>
+        <f t="shared" ref="D11:K11" si="0">AVERAGE(D6:D10)</f>
         <v>0.55491329479768747</v>
       </c>
       <c r="E11" s="26">
-        <f>AVERAGE(E6:E10)</f>
+        <f t="shared" si="0"/>
         <v>0.44778420038535616</v>
       </c>
       <c r="F11" s="25">
-        <f>AVERAGE(F6:F10)</f>
+        <f t="shared" si="0"/>
         <v>0.36599021524928982</v>
       </c>
       <c r="G11" s="44">
-        <f>AVERAGE(G6:G10)</f>
+        <f t="shared" si="0"/>
         <v>0.45163808271047501</v>
       </c>
       <c r="H11" s="25">
-        <f>AVERAGE(H6:H10)</f>
+        <f t="shared" si="0"/>
         <v>0.36712658067951276</v>
       </c>
       <c r="I11" s="46">
-        <f>AVERAGE(I6:I10)</f>
+        <f t="shared" si="0"/>
         <v>0.43337725493933599</v>
       </c>
       <c r="J11" s="25">
-        <f>AVERAGE(J6:J10)</f>
+        <f t="shared" si="0"/>
         <v>0.36494470997240719</v>
       </c>
       <c r="K11" s="46">
-        <f>AVERAGE(K6:K10)</f>
+        <f t="shared" si="0"/>
         <v>0.47192604220699064</v>
       </c>
-      <c r="P11" s="68"/>
+      <c r="P11" s="73"/>
       <c r="Q11" s="24" t="s">
         <v>29</v>
       </c>
@@ -8962,7 +8974,7 @@
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="71" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -8992,7 +9004,7 @@
       <c r="K12" s="15">
         <v>0.43915202065336101</v>
       </c>
-      <c r="P12" s="66" t="s">
+      <c r="P12" s="71" t="s">
         <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
@@ -9012,7 +9024,7 @@
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="67"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
@@ -9040,7 +9052,7 @@
       <c r="K13" s="18">
         <v>0.36621464670245102</v>
       </c>
-      <c r="P13" s="67"/>
+      <c r="P13" s="72"/>
       <c r="Q13" s="2" t="s">
         <v>5</v>
       </c>
@@ -9058,7 +9070,7 @@
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="67"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -9086,7 +9098,7 @@
       <c r="K14" s="18">
         <v>0.47806496476339599</v>
       </c>
-      <c r="P14" s="67"/>
+      <c r="P14" s="72"/>
       <c r="Q14" s="2" t="s">
         <v>6</v>
       </c>
@@ -9104,7 +9116,7 @@
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="67"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
@@ -9132,7 +9144,7 @@
       <c r="K15" s="18">
         <v>0.43991307863351498</v>
       </c>
-      <c r="P15" s="67"/>
+      <c r="P15" s="72"/>
       <c r="Q15" s="2" t="s">
         <v>8</v>
       </c>
@@ -9150,7 +9162,7 @@
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="67"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="22" t="s">
         <v>9</v>
       </c>
@@ -9178,7 +9190,7 @@
       <c r="K16" s="18">
         <v>0.45277640194823998</v>
       </c>
-      <c r="P16" s="67"/>
+      <c r="P16" s="72"/>
       <c r="Q16" s="22" t="s">
         <v>9</v>
       </c>
@@ -9196,43 +9208,43 @@
       </c>
     </row>
     <row r="17" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="68"/>
+      <c r="B17" s="73"/>
       <c r="C17" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="48">
-        <f t="shared" ref="D17:K17" si="0">AVERAGE(D12:D16)</f>
+        <f t="shared" ref="D17:K17" si="1">AVERAGE(D12:D16)</f>
         <v>0.57115384615384557</v>
       </c>
       <c r="E17" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.43269230769230704</v>
       </c>
       <c r="F17" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.37292749770903616</v>
       </c>
       <c r="G17" s="44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.41314396052985558</v>
       </c>
       <c r="H17" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3733483582571766</v>
       </c>
       <c r="I17" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39345153021213519</v>
       </c>
       <c r="J17" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.37251493122012957</v>
       </c>
       <c r="K17" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.43522422254019261</v>
       </c>
-      <c r="P17" s="68"/>
+      <c r="P17" s="73"/>
       <c r="Q17" s="24" t="s">
         <v>29</v>
       </c>
@@ -9250,7 +9262,7 @@
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="71" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -9280,7 +9292,7 @@
       <c r="K18" s="15">
         <v>0.56784646348476098</v>
       </c>
-      <c r="P18" s="66" t="s">
+      <c r="P18" s="71" t="s">
         <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
@@ -9300,7 +9312,7 @@
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="67"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
@@ -9328,7 +9340,7 @@
       <c r="K19" s="18">
         <v>0.46253496058987997</v>
       </c>
-      <c r="P19" s="67"/>
+      <c r="P19" s="72"/>
       <c r="Q19" s="2" t="s">
         <v>5</v>
       </c>
@@ -9346,7 +9358,7 @@
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="67"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
@@ -9374,7 +9386,7 @@
       <c r="K20" s="18">
         <v>0.50257522316750003</v>
       </c>
-      <c r="P20" s="67"/>
+      <c r="P20" s="72"/>
       <c r="Q20" s="2" t="s">
         <v>6</v>
       </c>
@@ -9392,7 +9404,7 @@
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B21" s="67"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
@@ -9420,7 +9432,7 @@
       <c r="K21" s="18">
         <v>0.49256491545893699</v>
       </c>
-      <c r="P21" s="67"/>
+      <c r="P21" s="72"/>
       <c r="Q21" s="2" t="s">
         <v>8</v>
       </c>
@@ -9438,7 +9450,7 @@
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="67"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="22" t="s">
         <v>9</v>
       </c>
@@ -9466,7 +9478,7 @@
       <c r="K22" s="18">
         <v>0.53429525850500204</v>
       </c>
-      <c r="P22" s="67"/>
+      <c r="P22" s="72"/>
       <c r="Q22" s="22" t="s">
         <v>9</v>
       </c>
@@ -9484,43 +9496,43 @@
       </c>
     </row>
     <row r="23" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="68"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="48">
-        <f t="shared" ref="D23:K23" si="1">AVERAGE(D18:D22)</f>
+        <f t="shared" ref="D23:K23" si="2">AVERAGE(D18:D22)</f>
         <v>0.55657142857142827</v>
       </c>
       <c r="E23" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.40380952380952345</v>
       </c>
       <c r="F23" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.37222111797503099</v>
       </c>
       <c r="G23" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.47694536514010483</v>
       </c>
       <c r="H23" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.37003345931548159</v>
       </c>
       <c r="I23" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44673450884719845</v>
       </c>
       <c r="J23" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.37454436304638561</v>
       </c>
       <c r="K23" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.51196336424121602</v>
       </c>
-      <c r="P23" s="68"/>
+      <c r="P23" s="73"/>
       <c r="Q23" s="24" t="s">
         <v>29</v>
       </c>
@@ -9572,23 +9584,23 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="2:4" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="88" t="s">
+      <c r="C36" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="68" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -9599,34 +9611,34 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="67"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D38" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="67"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D39" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="68"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="85">
+        <v>49</v>
+      </c>
+      <c r="D40" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="71" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -9637,35 +9649,35 @@
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="67"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D42" s="18">
         <v>6.3492063492063405E-2</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="67"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D43" s="18">
         <v>0.24603174603174599</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="68"/>
+      <c r="B44" s="73"/>
       <c r="C44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="85">
+        <v>49</v>
+      </c>
+      <c r="D44" s="65">
         <v>3.1746031746031703E-2</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="66" t="s">
-        <v>47</v>
+      <c r="B45" s="71" t="s">
+        <v>44</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>21</v>
@@ -9675,34 +9687,37 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="67"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D46" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="67"/>
+      <c r="B47" s="72"/>
       <c r="C47" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D47" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="68"/>
+      <c r="B48" s="73"/>
       <c r="C48" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="85">
+        <v>49</v>
+      </c>
+      <c r="D48" s="65">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P6:P11"/>
+    <mergeCell ref="P12:P17"/>
+    <mergeCell ref="P18:P23"/>
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="B45:B48"/>
@@ -9719,9 +9734,6 @@
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="P6:P11"/>
-    <mergeCell ref="P12:P17"/>
-    <mergeCell ref="P18:P23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results tables/results_table_scheme.xlsx
+++ b/results tables/results_table_scheme.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Financial Results Table - Comp" sheetId="1" r:id="rId1"/>
@@ -130,9 +130,6 @@
     <t>Training Time (mm:ss)</t>
   </si>
   <si>
-    <t>Testing Time (s)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Testing time (s)}</t>
   </si>
   <si>
@@ -177,13 +174,17 @@
   <si>
     <t>MacroRec</t>
   </si>
+  <si>
+    <t>Testing Time (ms/image)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -453,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -547,6 +548,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -562,6 +581,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -569,24 +594,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -607,12 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6041,7 +6043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B51" sqref="B51:F73"/>
     </sheetView>
   </sheetViews>
@@ -6065,37 +6067,37 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="79" t="s">
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="79" t="s">
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="81"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="70"/>
-      <c r="C4" s="78"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
@@ -6143,7 +6145,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="77" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -6196,7 +6198,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="72"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -6247,7 +6249,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="72"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -6298,7 +6300,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="72"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -6349,7 +6351,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="72"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -6400,9 +6402,9 @@
       </c>
     </row>
     <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="72"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="25">
         <f>_xlfn.STDEV.S(D5:D9)</f>
@@ -6466,7 +6468,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="73"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="23" t="s">
         <v>29</v>
       </c>
@@ -6532,7 +6534,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="77" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -6585,7 +6587,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="72"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
@@ -6636,7 +6638,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="72"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -6687,7 +6689,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="72"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
@@ -6738,7 +6740,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="72"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="22" t="s">
         <v>9</v>
       </c>
@@ -6789,9 +6791,9 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="72"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="25">
         <f>_xlfn.STDEV.S(D12:D16)</f>
@@ -6855,7 +6857,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="73"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="23" t="s">
         <v>29</v>
       </c>
@@ -6921,7 +6923,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="77" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -6974,7 +6976,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="72"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
@@ -7025,7 +7027,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="72"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
@@ -7076,7 +7078,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="72"/>
+      <c r="B22" s="78"/>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
@@ -7127,7 +7129,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="72"/>
+      <c r="B23" s="78"/>
       <c r="C23" s="22" t="s">
         <v>9</v>
       </c>
@@ -7178,9 +7180,9 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="72"/>
+      <c r="B24" s="78"/>
       <c r="C24" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="25">
         <f>_xlfn.STDEV.S(D19:D23)</f>
@@ -7244,7 +7246,7 @@
       </c>
     </row>
     <row r="25" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="73"/>
+      <c r="B25" s="79"/>
       <c r="C25" s="23" t="s">
         <v>29</v>
       </c>
@@ -7320,35 +7322,35 @@
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="79" t="s">
+      <c r="D29" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="79" t="s">
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="82"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
     </row>
     <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="70"/>
-      <c r="C30" s="78"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="74"/>
       <c r="D30" s="4" t="s">
         <v>1</v>
       </c>
@@ -7386,7 +7388,7 @@
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="77" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -7429,7 +7431,7 @@
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="72"/>
+      <c r="B32" s="78"/>
       <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
@@ -7470,7 +7472,7 @@
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="72"/>
+      <c r="B33" s="78"/>
       <c r="C33" s="2" t="s">
         <v>6</v>
       </c>
@@ -7511,7 +7513,7 @@
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="72"/>
+      <c r="B34" s="78"/>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
@@ -7552,7 +7554,7 @@
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="72"/>
+      <c r="B35" s="78"/>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
@@ -7593,7 +7595,7 @@
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="73"/>
+      <c r="B36" s="79"/>
       <c r="C36" s="55" t="s">
         <v>29</v>
       </c>
@@ -7644,7 +7646,7 @@
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="77" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -7687,7 +7689,7 @@
       <c r="R37" s="2"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="72"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="2" t="s">
         <v>5</v>
       </c>
@@ -7728,7 +7730,7 @@
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B39" s="72"/>
+      <c r="B39" s="78"/>
       <c r="C39" s="2" t="s">
         <v>6</v>
       </c>
@@ -7769,7 +7771,7 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="72"/>
+      <c r="B40" s="78"/>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
@@ -7810,7 +7812,7 @@
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="72"/>
+      <c r="B41" s="78"/>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
@@ -7851,7 +7853,7 @@
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="73"/>
+      <c r="B42" s="79"/>
       <c r="C42" s="55" t="s">
         <v>29</v>
       </c>
@@ -7902,7 +7904,7 @@
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="77" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -7945,7 +7947,7 @@
       <c r="R43" s="2"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="72"/>
+      <c r="B44" s="78"/>
       <c r="C44" s="2" t="s">
         <v>5</v>
       </c>
@@ -7986,7 +7988,7 @@
       <c r="R44" s="2"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="72"/>
+      <c r="B45" s="78"/>
       <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
@@ -8027,7 +8029,7 @@
       <c r="R45" s="2"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="72"/>
+      <c r="B46" s="78"/>
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
@@ -8068,7 +8070,7 @@
       <c r="R46" s="2"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="72"/>
+      <c r="B47" s="78"/>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
@@ -8109,7 +8111,7 @@
       <c r="R47" s="2"/>
     </row>
     <row r="48" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="73"/>
+      <c r="B48" s="79"/>
       <c r="C48" s="55" t="s">
         <v>29</v>
       </c>
@@ -8168,7 +8170,7 @@
     </row>
     <row r="50" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B50" s="60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8177,17 +8179,17 @@
       <c r="R50" s="2"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B51" s="89" t="s">
+      <c r="B51" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="83"/>
+      <c r="E51" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="75"/>
-      <c r="E51" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="75"/>
+      <c r="F51" s="83"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -8195,18 +8197,18 @@
       <c r="R51" s="2"/>
     </row>
     <row r="52" spans="2:18" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="90"/>
+      <c r="B52" s="81"/>
       <c r="C52" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="62" t="s">
+      <c r="E52" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="63" t="s">
+      <c r="F52" s="62" t="s">
         <v>40</v>
-      </c>
-      <c r="F52" s="62" t="s">
-        <v>41</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8215,7 +8217,7 @@
       <c r="R52" s="2"/>
     </row>
     <row r="53" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="71" t="s">
+      <c r="B53" s="77" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -8232,7 +8234,7 @@
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B54" s="72"/>
+      <c r="B54" s="78"/>
       <c r="C54" s="1" t="s">
         <v>1</v>
       </c>
@@ -8247,7 +8249,7 @@
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B55" s="72"/>
+      <c r="B55" s="78"/>
       <c r="C55" s="1" t="s">
         <v>1</v>
       </c>
@@ -8262,7 +8264,7 @@
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B56" s="72"/>
+      <c r="B56" s="78"/>
       <c r="C56" s="1" t="s">
         <v>1</v>
       </c>
@@ -8277,7 +8279,7 @@
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B57" s="72"/>
+      <c r="B57" s="78"/>
       <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
@@ -8292,7 +8294,7 @@
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B58" s="72"/>
+      <c r="B58" s="78"/>
       <c r="C58" s="1" t="s">
         <v>2</v>
       </c>
@@ -8307,7 +8309,7 @@
       </c>
     </row>
     <row r="59" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="73"/>
+      <c r="B59" s="79"/>
       <c r="C59" s="4" t="s">
         <v>2</v>
       </c>
@@ -8322,7 +8324,7 @@
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B60" s="71" t="s">
+      <c r="B60" s="77" t="s">
         <v>14</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -8339,7 +8341,7 @@
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B61" s="72"/>
+      <c r="B61" s="78"/>
       <c r="C61" s="1" t="s">
         <v>1</v>
       </c>
@@ -8354,7 +8356,7 @@
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B62" s="72"/>
+      <c r="B62" s="78"/>
       <c r="C62" s="1" t="s">
         <v>1</v>
       </c>
@@ -8369,7 +8371,7 @@
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B63" s="72"/>
+      <c r="B63" s="78"/>
       <c r="C63" s="1" t="s">
         <v>1</v>
       </c>
@@ -8384,7 +8386,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B64" s="72"/>
+      <c r="B64" s="78"/>
       <c r="C64" s="1" t="s">
         <v>2</v>
       </c>
@@ -8399,7 +8401,7 @@
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="72"/>
+      <c r="B65" s="78"/>
       <c r="C65" s="1" t="s">
         <v>2</v>
       </c>
@@ -8414,7 +8416,7 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="73"/>
+      <c r="B66" s="79"/>
       <c r="C66" s="4" t="s">
         <v>2</v>
       </c>
@@ -8429,8 +8431,8 @@
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="71" t="s">
-        <v>44</v>
+      <c r="B67" s="77" t="s">
+        <v>43</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>1</v>
@@ -8446,7 +8448,7 @@
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="72"/>
+      <c r="B68" s="78"/>
       <c r="C68" s="1" t="s">
         <v>1</v>
       </c>
@@ -8461,7 +8463,7 @@
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="72"/>
+      <c r="B69" s="78"/>
       <c r="C69" s="1" t="s">
         <v>1</v>
       </c>
@@ -8476,7 +8478,7 @@
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="72"/>
+      <c r="B70" s="78"/>
       <c r="C70" s="1" t="s">
         <v>1</v>
       </c>
@@ -8491,7 +8493,7 @@
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="72"/>
+      <c r="B71" s="78"/>
       <c r="C71" s="1" t="s">
         <v>2</v>
       </c>
@@ -8506,7 +8508,7 @@
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="72"/>
+      <c r="B72" s="78"/>
       <c r="C72" s="1" t="s">
         <v>2</v>
       </c>
@@ -8521,7 +8523,7 @@
       </c>
     </row>
     <row r="73" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="73"/>
+      <c r="B73" s="79"/>
       <c r="C73" s="4" t="s">
         <v>2</v>
       </c>
@@ -8537,16 +8539,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:M3"/>
     <mergeCell ref="B60:B66"/>
     <mergeCell ref="B67:B73"/>
     <mergeCell ref="B29:B30"/>
@@ -8559,6 +8551,16 @@
     <mergeCell ref="B31:B36"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="B43:B48"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8582,10 +8584,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U48"/>
+  <dimension ref="B2:X48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8599,53 +8601,53 @@
     <col min="18" max="20" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:24" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="69" t="s">
+    <row r="3" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="85" t="s">
+      <c r="E4" s="88"/>
+      <c r="F4" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87" t="s">
+      <c r="G4" s="88"/>
+      <c r="H4" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="87" t="s">
+      <c r="I4" s="90"/>
+      <c r="J4" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="P4" s="69" t="s">
+      <c r="K4" s="90"/>
+      <c r="P4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="84"/>
-      <c r="T4" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" s="84"/>
-    </row>
-    <row r="5" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="70"/>
-      <c r="C5" s="78"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="86"/>
+    </row>
+    <row r="5" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="76"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
@@ -8670,8 +8672,8 @@
       <c r="K5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="78"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="74"/>
       <c r="R5" s="4" t="s">
         <v>1</v>
       </c>
@@ -8685,8 +8687,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="71" t="s">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="77" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -8716,7 +8718,7 @@
       <c r="K6" s="15">
         <v>0.46449738029316001</v>
       </c>
-      <c r="P6" s="71" t="s">
+      <c r="P6" s="77" t="s">
         <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
@@ -8729,14 +8731,19 @@
         <v>2.9265203845721646E-2</v>
       </c>
       <c r="T6" s="50">
-        <v>0.41</v>
+        <v>0.78998073217726394</v>
       </c>
       <c r="U6" s="50">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="72"/>
+        <v>0.77071290944123316</v>
+      </c>
+      <c r="V6">
+        <v>519</v>
+      </c>
+      <c r="W6" s="91"/>
+      <c r="X6" s="91"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="78"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -8764,7 +8771,7 @@
       <c r="K7" s="18">
         <v>0.54328564517243705</v>
       </c>
-      <c r="P7" s="72"/>
+      <c r="P7" s="78"/>
       <c r="Q7" s="2" t="s">
         <v>5</v>
       </c>
@@ -8775,14 +8782,19 @@
         <v>2.9265203845721646E-2</v>
       </c>
       <c r="T7" s="50">
-        <v>0.59</v>
+        <v>1.1368015414258188</v>
       </c>
       <c r="U7" s="50">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="72"/>
+        <v>0.17341040462427745</v>
+      </c>
+      <c r="V7">
+        <v>519</v>
+      </c>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B8" s="78"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -8810,7 +8822,7 @@
       <c r="K8" s="18">
         <v>0.44666666666666599</v>
       </c>
-      <c r="P8" s="72"/>
+      <c r="P8" s="78"/>
       <c r="Q8" s="2" t="s">
         <v>6</v>
       </c>
@@ -8821,14 +8833,19 @@
         <v>2.9265203845721646E-2</v>
       </c>
       <c r="T8" s="50">
-        <v>0.41</v>
+        <v>0.78998073217726394</v>
       </c>
       <c r="U8" s="50">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="72"/>
+        <v>0.17341040462427745</v>
+      </c>
+      <c r="V8">
+        <v>519</v>
+      </c>
+      <c r="W8" s="91"/>
+      <c r="X8" s="91"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="78"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -8856,7 +8873,7 @@
       <c r="K9" s="18">
         <v>0.41017800027812501</v>
       </c>
-      <c r="P9" s="72"/>
+      <c r="P9" s="78"/>
       <c r="Q9" s="2" t="s">
         <v>8</v>
       </c>
@@ -8867,14 +8884,19 @@
         <v>2.9265203845721646E-2</v>
       </c>
       <c r="T9" s="50">
-        <v>0.6</v>
+        <v>1.1560693641618496</v>
       </c>
       <c r="U9" s="50">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="72"/>
+        <v>0.13487475915221581</v>
+      </c>
+      <c r="V9">
+        <v>519</v>
+      </c>
+      <c r="W9" s="91"/>
+      <c r="X9" s="91"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="78"/>
       <c r="C10" s="22" t="s">
         <v>9</v>
       </c>
@@ -8902,7 +8924,7 @@
       <c r="K10" s="18">
         <v>0.49500251862456501</v>
       </c>
-      <c r="P10" s="72"/>
+      <c r="P10" s="78"/>
       <c r="Q10" s="22" t="s">
         <v>9</v>
       </c>
@@ -8913,14 +8935,19 @@
         <v>2.9265203845721646E-2</v>
       </c>
       <c r="T10" s="50">
-        <v>0.63</v>
+        <v>1.2138728323699421</v>
       </c>
       <c r="U10" s="50">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="73"/>
+        <v>0.17341040462427745</v>
+      </c>
+      <c r="V10">
+        <v>519</v>
+      </c>
+      <c r="W10" s="91"/>
+      <c r="X10" s="91"/>
+    </row>
+    <row r="11" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="79"/>
       <c r="C11" s="24" t="s">
         <v>29</v>
       </c>
@@ -8956,7 +8983,7 @@
         <f t="shared" si="0"/>
         <v>0.47192604220699064</v>
       </c>
-      <c r="P11" s="73"/>
+      <c r="P11" s="79"/>
       <c r="Q11" s="24" t="s">
         <v>29</v>
       </c>
@@ -8967,14 +8994,21 @@
         <v>2.9265203845721646E-2</v>
       </c>
       <c r="T11" s="51">
-        <v>0.53</v>
+        <f>AVERAGE(T6:T10)</f>
+        <v>1.0173410404624277</v>
       </c>
       <c r="U11" s="51">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="71" t="s">
+        <f>AVERAGE(U6:U10)</f>
+        <v>0.28516377649325625</v>
+      </c>
+      <c r="V11">
+        <v>519</v>
+      </c>
+      <c r="W11" s="91"/>
+      <c r="X11" s="91"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="77" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -9004,7 +9038,7 @@
       <c r="K12" s="15">
         <v>0.43915202065336101</v>
       </c>
-      <c r="P12" s="71" t="s">
+      <c r="P12" s="77" t="s">
         <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
@@ -9017,14 +9051,19 @@
         <v>6.614877637613692E-2</v>
       </c>
       <c r="T12" s="49">
-        <v>0.3</v>
+        <v>0.57692307692307687</v>
       </c>
       <c r="U12" s="49">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="72"/>
+        <v>0.75</v>
+      </c>
+      <c r="V12">
+        <v>520</v>
+      </c>
+      <c r="W12" s="91"/>
+      <c r="X12" s="91"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="78"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
@@ -9052,7 +9091,7 @@
       <c r="K13" s="18">
         <v>0.36621464670245102</v>
       </c>
-      <c r="P13" s="72"/>
+      <c r="P13" s="78"/>
       <c r="Q13" s="2" t="s">
         <v>5</v>
       </c>
@@ -9063,14 +9102,19 @@
         <v>6.614877637613692E-2</v>
       </c>
       <c r="T13" s="50">
-        <v>0.3</v>
+        <v>0.57692307692307687</v>
       </c>
       <c r="U13" s="50">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="72"/>
+        <v>0.17307692307692307</v>
+      </c>
+      <c r="V13">
+        <v>520</v>
+      </c>
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="78"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -9098,7 +9142,7 @@
       <c r="K14" s="18">
         <v>0.47806496476339599</v>
       </c>
-      <c r="P14" s="72"/>
+      <c r="P14" s="78"/>
       <c r="Q14" s="2" t="s">
         <v>6</v>
       </c>
@@ -9109,14 +9153,19 @@
         <v>6.614877637613692E-2</v>
       </c>
       <c r="T14" s="50">
-        <v>0.3</v>
+        <v>0.57692307692307687</v>
       </c>
       <c r="U14" s="50">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="72"/>
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="V14">
+        <v>520</v>
+      </c>
+      <c r="W14" s="91"/>
+      <c r="X14" s="91"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="78"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
@@ -9144,7 +9193,7 @@
       <c r="K15" s="18">
         <v>0.43991307863351498</v>
       </c>
-      <c r="P15" s="72"/>
+      <c r="P15" s="78"/>
       <c r="Q15" s="2" t="s">
         <v>8</v>
       </c>
@@ -9155,14 +9204,19 @@
         <v>6.614877637613692E-2</v>
       </c>
       <c r="T15" s="50">
-        <v>0.68</v>
+        <v>1.3076923076923079</v>
       </c>
       <c r="U15" s="50">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="72"/>
+        <v>0.17307692307692307</v>
+      </c>
+      <c r="V15">
+        <v>520</v>
+      </c>
+      <c r="W15" s="91"/>
+      <c r="X15" s="91"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="78"/>
       <c r="C16" s="22" t="s">
         <v>9</v>
       </c>
@@ -9190,7 +9244,7 @@
       <c r="K16" s="18">
         <v>0.45277640194823998</v>
       </c>
-      <c r="P16" s="72"/>
+      <c r="P16" s="78"/>
       <c r="Q16" s="22" t="s">
         <v>9</v>
       </c>
@@ -9201,14 +9255,19 @@
         <v>6.614877637613692E-2</v>
       </c>
       <c r="T16" s="50">
-        <v>0.61</v>
+        <v>1.1730769230769229</v>
       </c>
       <c r="U16" s="50">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="73"/>
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="V16">
+        <v>520</v>
+      </c>
+      <c r="W16" s="91"/>
+      <c r="X16" s="91"/>
+    </row>
+    <row r="17" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="79"/>
       <c r="C17" s="24" t="s">
         <v>29</v>
       </c>
@@ -9244,7 +9303,7 @@
         <f t="shared" si="1"/>
         <v>0.43522422254019261</v>
       </c>
-      <c r="P17" s="73"/>
+      <c r="P17" s="79"/>
       <c r="Q17" s="24" t="s">
         <v>29</v>
       </c>
@@ -9255,14 +9314,21 @@
         <v>6.614877637613692E-2</v>
       </c>
       <c r="T17" s="51">
-        <v>0.44</v>
+        <f t="shared" ref="T17:U17" si="2">AVERAGE(T12:T16)</f>
+        <v>0.84230769230769231</v>
       </c>
       <c r="U17" s="51">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="71" t="s">
+        <f t="shared" si="2"/>
+        <v>0.29615384615384616</v>
+      </c>
+      <c r="V17">
+        <v>520</v>
+      </c>
+      <c r="W17" s="91"/>
+      <c r="X17" s="91"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B18" s="77" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -9292,7 +9358,7 @@
       <c r="K18" s="15">
         <v>0.56784646348476098</v>
       </c>
-      <c r="P18" s="71" t="s">
+      <c r="P18" s="77" t="s">
         <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
@@ -9305,14 +9371,19 @@
         <v>2.1528031058885417E-2</v>
       </c>
       <c r="T18" s="49">
-        <v>0.33</v>
+        <v>0.62857142857142867</v>
       </c>
       <c r="U18" s="49">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="72"/>
+        <v>0.59047619047619038</v>
+      </c>
+      <c r="V18">
+        <v>525</v>
+      </c>
+      <c r="W18" s="91"/>
+      <c r="X18" s="91"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B19" s="78"/>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
@@ -9340,7 +9411,7 @@
       <c r="K19" s="18">
         <v>0.46253496058987997</v>
       </c>
-      <c r="P19" s="72"/>
+      <c r="P19" s="78"/>
       <c r="Q19" s="2" t="s">
         <v>5</v>
       </c>
@@ -9351,14 +9422,19 @@
         <v>2.1528031058885417E-2</v>
       </c>
       <c r="T19" s="50">
-        <v>0.3</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="U19" s="50">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="72"/>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="V19">
+        <v>525</v>
+      </c>
+      <c r="W19" s="91"/>
+      <c r="X19" s="91"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B20" s="78"/>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
@@ -9386,7 +9462,7 @@
       <c r="K20" s="18">
         <v>0.50257522316750003</v>
       </c>
-      <c r="P20" s="72"/>
+      <c r="P20" s="78"/>
       <c r="Q20" s="2" t="s">
         <v>6</v>
       </c>
@@ -9397,14 +9473,19 @@
         <v>2.1528031058885417E-2</v>
       </c>
       <c r="T20" s="50">
-        <v>0.28999999999999998</v>
+        <v>0.55238095238095231</v>
       </c>
       <c r="U20" s="50">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B21" s="72"/>
+        <v>0.15238095238095239</v>
+      </c>
+      <c r="V20">
+        <v>525</v>
+      </c>
+      <c r="W20" s="91"/>
+      <c r="X20" s="91"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B21" s="78"/>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
@@ -9432,7 +9513,7 @@
       <c r="K21" s="18">
         <v>0.49256491545893699</v>
       </c>
-      <c r="P21" s="72"/>
+      <c r="P21" s="78"/>
       <c r="Q21" s="2" t="s">
         <v>8</v>
       </c>
@@ -9443,14 +9524,19 @@
         <v>2.1528031058885417E-2</v>
       </c>
       <c r="T21" s="50">
-        <v>0.31</v>
+        <v>0.59047619047619038</v>
       </c>
       <c r="U21" s="50">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="72"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="V21">
+        <v>525</v>
+      </c>
+      <c r="W21" s="91"/>
+      <c r="X21" s="91"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B22" s="78"/>
       <c r="C22" s="22" t="s">
         <v>9</v>
       </c>
@@ -9478,7 +9564,7 @@
       <c r="K22" s="18">
         <v>0.53429525850500204</v>
       </c>
-      <c r="P22" s="72"/>
+      <c r="P22" s="78"/>
       <c r="Q22" s="22" t="s">
         <v>9</v>
       </c>
@@ -9489,50 +9575,55 @@
         <v>2.1528031058885417E-2</v>
       </c>
       <c r="T22" s="50">
-        <v>0.32</v>
+        <v>0.60952380952380958</v>
       </c>
       <c r="U22" s="50">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="73"/>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="V22">
+        <v>525</v>
+      </c>
+      <c r="W22" s="91"/>
+      <c r="X22" s="91"/>
+    </row>
+    <row r="23" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="79"/>
       <c r="C23" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="48">
-        <f t="shared" ref="D23:K23" si="2">AVERAGE(D18:D22)</f>
+        <f t="shared" ref="D23:K23" si="3">AVERAGE(D18:D22)</f>
         <v>0.55657142857142827</v>
       </c>
       <c r="E23" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.40380952380952345</v>
       </c>
       <c r="F23" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.37222111797503099</v>
       </c>
       <c r="G23" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.47694536514010483</v>
       </c>
       <c r="H23" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.37003345931548159</v>
       </c>
       <c r="I23" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44673450884719845</v>
       </c>
       <c r="J23" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.37454436304638561</v>
       </c>
       <c r="K23" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.51196336424121602</v>
       </c>
-      <c r="P23" s="73"/>
+      <c r="P23" s="79"/>
       <c r="Q23" s="24" t="s">
         <v>29</v>
       </c>
@@ -9543,48 +9634,55 @@
         <v>2.1528031058885417E-2</v>
       </c>
       <c r="T23" s="51">
-        <v>0.31</v>
+        <f t="shared" ref="T23:U23" si="4">AVERAGE(T18:T22)</f>
+        <v>0.59047619047619038</v>
       </c>
       <c r="U23" s="51">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.22095238095238093</v>
+      </c>
+      <c r="V23">
+        <v>525</v>
+      </c>
+      <c r="W23" s="91"/>
+      <c r="X23" s="91"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>25</v>
       </c>
       <c r="O26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:21" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:24" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B29" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -9593,14 +9691,14 @@
         <v>11</v>
       </c>
       <c r="C36" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" s="68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="77" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -9611,34 +9709,34 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="72"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="72"/>
+      <c r="B39" s="78"/>
       <c r="C39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="73"/>
+      <c r="B40" s="79"/>
       <c r="C40" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="77" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -9649,35 +9747,35 @@
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="72"/>
+      <c r="B42" s="78"/>
       <c r="C42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" s="18">
         <v>6.3492063492063405E-2</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="72"/>
+      <c r="B43" s="78"/>
       <c r="C43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D43" s="18">
         <v>0.24603174603174599</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="73"/>
+      <c r="B44" s="79"/>
       <c r="C44" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D44" s="65">
         <v>3.1746031746031703E-2</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="71" t="s">
-        <v>44</v>
+      <c r="B45" s="77" t="s">
+        <v>43</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>21</v>
@@ -9687,27 +9785,27 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="72"/>
+      <c r="B46" s="78"/>
       <c r="C46" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D46" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="72"/>
+      <c r="B47" s="78"/>
       <c r="C47" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D47" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="73"/>
+      <c r="B48" s="79"/>
       <c r="C48" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D48" s="65">
         <v>0</v>
@@ -9715,11 +9813,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P6:P11"/>
-    <mergeCell ref="P12:P17"/>
-    <mergeCell ref="P18:P23"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B44"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="R4:S4"/>
@@ -9734,6 +9827,11 @@
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="P6:P11"/>
+    <mergeCell ref="P12:P17"/>
+    <mergeCell ref="P18:P23"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results tables/results_table_scheme.xlsx
+++ b/results tables/results_table_scheme.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Financial Results Table - Comp" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="64">
   <si>
     <t>Annual Returns</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>2006-2007</t>
-  </si>
-  <si>
-    <t>2009-2010</t>
   </si>
   <si>
     <t>2017-19</t>
@@ -177,16 +174,62 @@
   <si>
     <t>Testing Time (ms/image)</t>
   </si>
+  <si>
+    <t>2008-2009</t>
+  </si>
+  <si>
+    <t>t-Test: Paired Two Sample for Means</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Pearson Correlation</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>Variable 1</t>
+  </si>
+  <si>
+    <t>Variable 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +279,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -245,7 +296,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -450,11 +501,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -548,6 +610,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -556,30 +640,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -594,6 +654,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -614,7 +677,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1997,25 +2065,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.116134458669698</c:v>
+                  <c:v>3.13156199586615E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.0327445608229899E-2</c:v>
+                  <c:v>8.1754085874703401E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.178006964526672</c:v>
+                  <c:v>0.100798792716777</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61311037528408696</c:v>
+                  <c:v>0.346221039105227</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3398833805818197E-2</c:v>
+                  <c:v>2.78521185042006E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25997131279325209</c:v>
+                  <c:v>0.14048024379740878</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17806463733560904</c:v>
+                  <c:v>0.10287259577446728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2164,25 +2232,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.16851385933499799</c:v>
+                  <c:v>0.158923200427808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.2961753238873499E-2</c:v>
+                  <c:v>2.9686797133156001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13255281662987001</c:v>
+                  <c:v>0.21694315682008999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74644607917240202</c:v>
+                  <c:v>4.5071649422026003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22099781777889199</c:v>
+                  <c:v>0.333104580082421</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29250548038937552</c:v>
+                  <c:v>0.1258431446977816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24910976393545772</c:v>
+                  <c:v>0.15674587677710022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2310,25 +2378,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.9661238455072499E-2</c:v>
+                  <c:v>-0.19930292535681901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.73235842125352E-2</c:v>
+                  <c:v>-0.10320913792351399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14778954235875799</c:v>
+                  <c:v>-0.117490800820717</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23118342737786601</c:v>
+                  <c:v>-0.22820796269291099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0756147317887E-2</c:v>
+                  <c:v>-0.187076033856686</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7631921863026268E-2</c:v>
+                  <c:v>5.4114136898476869E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11134278794442373</c:v>
+                  <c:v>-0.16705737213012942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2458,25 +2526,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.138672045861475</c:v>
+                  <c:v>-0.127850763626391</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13211773352060299</c:v>
+                  <c:v>-0.13891939698282901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.308478142920041</c:v>
+                  <c:v>5.0432248000304297E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27935374466436202</c:v>
+                  <c:v>-0.157324120085719</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5893729613358094E-2</c:v>
+                  <c:v>-0.16091402964760901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1012155670303457</c:v>
+                  <c:v>8.8991177468047314E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18690307931596781</c:v>
+                  <c:v>-0.10691521246844875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2606,25 +2674,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.163976452271275</c:v>
+                  <c:v>-0.122477784622696</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3043612896061599E-2</c:v>
+                  <c:v>-0.170175390761545</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27600246620442198</c:v>
+                  <c:v>-6.6647736206958699E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84614288258886705</c:v>
+                  <c:v>3.9160396719383997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18814259069388201</c:v>
+                  <c:v>-0.102514245698078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31053678016107189</c:v>
+                  <c:v>7.8609302891303842E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.30746160093090152</c:v>
+                  <c:v>-8.4530952113978736E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6043,8 +6111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R73"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:F73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6053,8 +6121,8 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
     <col min="5" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" customWidth="1"/>
     <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
@@ -6067,37 +6135,37 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="71"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="79"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="76"/>
-      <c r="C4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
@@ -6145,7 +6213,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="70" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -6198,7 +6266,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="78"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -6249,7 +6317,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="78"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -6300,7 +6368,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="78"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -6351,7 +6419,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="78"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -6402,9 +6470,9 @@
       </c>
     </row>
     <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="78"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="25">
         <f>_xlfn.STDEV.S(D5:D9)</f>
@@ -6468,9 +6536,9 @@
       </c>
     </row>
     <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="79"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="25">
         <f>AVERAGE(D5:D9)</f>
@@ -6534,50 +6602,50 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="77" t="s">
-        <v>14</v>
+      <c r="B12" s="70" t="s">
+        <v>49</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="13">
-        <v>0.245756129829901</v>
+        <v>6.3738056911135196E-2</v>
       </c>
       <c r="E12" s="14">
-        <v>0.36542463945797099</v>
+        <v>0.34386510834068101</v>
       </c>
       <c r="F12" s="14">
-        <v>0.122881940284138</v>
+        <v>-0.35943204686532798</v>
       </c>
       <c r="G12" s="14">
-        <v>0.29657402802635702</v>
+        <v>-0.23975580472474201</v>
       </c>
       <c r="H12" s="15">
-        <v>0.35484118144202398</v>
+        <v>-0.230341620949573</v>
       </c>
       <c r="I12" s="13">
-        <v>0.116134458669698</v>
+        <v>3.13156199586615E-2</v>
       </c>
       <c r="J12" s="19">
-        <v>0.16851385933499799</v>
+        <v>0.158923200427808</v>
       </c>
       <c r="K12" s="14">
-        <v>5.9661238455072499E-2</v>
+        <v>-0.19930292535681901</v>
       </c>
       <c r="L12" s="14">
-        <v>0.138672045861475</v>
+        <v>-0.127850763626391</v>
       </c>
       <c r="M12" s="15">
-        <v>0.163976452271275</v>
+        <v>-0.122477784622696</v>
       </c>
       <c r="N12" s="37">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="O12" s="38">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="P12" s="38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="38">
         <v>6</v>
@@ -6587,201 +6655,201 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="78"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="16">
-        <v>-0.13570894161068101</v>
+        <v>1.64494851570521E-2</v>
       </c>
       <c r="E13" s="17">
-        <v>-4.5396264365944003E-2</v>
+        <v>6.0374204644858001E-2</v>
       </c>
       <c r="F13" s="17">
-        <v>9.6886690047791296E-2</v>
+        <v>-0.196103030203019</v>
       </c>
       <c r="G13" s="17">
-        <v>0.28169056255182701</v>
+        <v>-0.25896660337052202</v>
       </c>
       <c r="H13" s="18">
-        <v>0.130061722919111</v>
+        <v>-0.31188499352231602</v>
       </c>
       <c r="I13" s="16">
-        <v>-7.0327445608229899E-2</v>
+        <v>8.1754085874703401E-3</v>
       </c>
       <c r="J13" s="17">
-        <v>-2.2961753238873499E-2</v>
+        <v>2.9686797133156001E-2</v>
       </c>
       <c r="K13" s="17">
-        <v>4.73235842125352E-2</v>
+        <v>-0.10320913792351399</v>
       </c>
       <c r="L13" s="20">
-        <v>0.13211773352060299</v>
+        <v>-0.13891939698282901</v>
       </c>
       <c r="M13" s="18">
-        <v>6.3043612896061599E-2</v>
+        <v>-0.170175390761545</v>
       </c>
       <c r="N13" s="40">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="O13" s="41">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P13" s="41">
         <v>8</v>
       </c>
       <c r="Q13" s="41">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R13" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="78"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="16">
-        <v>0.38770040847334603</v>
+        <v>0.21220565125930499</v>
       </c>
       <c r="E14" s="17">
-        <v>0.28267588245625302</v>
+        <v>0.48206942687674498</v>
       </c>
       <c r="F14" s="17">
-        <v>0.317420833548127</v>
+        <v>-0.22155181553987799</v>
       </c>
       <c r="G14" s="17">
-        <v>0.71211505049947899</v>
+        <v>0.103616733526588</v>
       </c>
       <c r="H14" s="18">
-        <v>0.62818229375976697</v>
+        <v>-0.129084618045535</v>
       </c>
       <c r="I14" s="16">
-        <v>0.178006964526672</v>
+        <v>0.100798792716777</v>
       </c>
       <c r="J14" s="17">
-        <v>0.13255281662987001</v>
+        <v>0.21694315682008999</v>
       </c>
       <c r="K14" s="17">
-        <v>0.14778954235875799</v>
+        <v>-0.117490800820717</v>
       </c>
       <c r="L14" s="20">
-        <v>0.308478142920041</v>
+        <v>5.0432248000304297E-2</v>
       </c>
       <c r="M14" s="18">
-        <v>0.27600246620442198</v>
+        <v>-6.6647736206958699E-2</v>
       </c>
       <c r="N14" s="40">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="O14" s="41">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="P14" s="41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="41">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R14" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="78"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="16">
-        <v>1.60212508284916</v>
+        <v>0.81438458943412195</v>
       </c>
       <c r="E15" s="17">
-        <v>2.0500739074566501</v>
+        <v>9.2359956635554699E-2</v>
       </c>
       <c r="F15" s="17">
-        <v>0.51581263184991</v>
+        <v>-0.40493021952571201</v>
       </c>
       <c r="G15" s="17">
-        <v>0.63674600398672698</v>
+        <v>-0.29036470875703502</v>
       </c>
       <c r="H15" s="18">
-        <v>2.4082435429335298</v>
+        <v>8.0013882383444895E-2</v>
       </c>
       <c r="I15" s="16">
-        <v>0.61311037528408696</v>
+        <v>0.346221039105227</v>
       </c>
       <c r="J15" s="17">
-        <v>0.74644607917240202</v>
+        <v>4.5071649422026003E-2</v>
       </c>
       <c r="K15" s="17">
-        <v>0.23118342737786601</v>
+        <v>-0.22820796269291099</v>
       </c>
       <c r="L15" s="17">
-        <v>0.27935374466436202</v>
+        <v>-0.157324120085719</v>
       </c>
       <c r="M15" s="21">
-        <v>0.84614288258886705</v>
+        <v>3.9160396719383997E-2</v>
       </c>
       <c r="N15" s="40">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="O15" s="41">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="P15" s="41">
         <v>6</v>
       </c>
       <c r="Q15" s="41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R15" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="78"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="16">
-        <v>0.109649103063457</v>
+        <v>5.6591609878907503E-2</v>
       </c>
       <c r="E16" s="17">
-        <v>0.49083567102081799</v>
+        <v>0.77913411762679696</v>
       </c>
       <c r="F16" s="17">
-        <v>0.146518727019044</v>
+        <v>-0.33968084938245402</v>
       </c>
       <c r="G16" s="17">
-        <v>0.15754731742134101</v>
+        <v>-0.296409661396561</v>
       </c>
       <c r="H16" s="18">
-        <v>0.41168281582077099</v>
+        <v>-0.19485432500445601</v>
       </c>
       <c r="I16" s="16">
-        <v>5.3398833805818197E-2</v>
+        <v>2.78521185042006E-2</v>
       </c>
       <c r="J16" s="17">
-        <v>0.22099781777889199</v>
+        <v>0.333104580082421</v>
       </c>
       <c r="K16" s="17">
-        <v>7.0756147317887E-2</v>
+        <v>-0.187076033856686</v>
       </c>
       <c r="L16" s="17">
-        <v>7.5893729613358094E-2</v>
+        <v>-0.16091402964760901</v>
       </c>
       <c r="M16" s="18">
-        <v>0.18814259069388201</v>
+        <v>-0.102514245698078</v>
       </c>
       <c r="N16" s="40">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="O16" s="41">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P16" s="41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="41">
         <v>6</v>
@@ -6791,65 +6859,65 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="78"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="25">
         <f>_xlfn.STDEV.S(D12:D16)</f>
-        <v>0.67667477495621065</v>
+        <v>0.33358041195378946</v>
       </c>
       <c r="E17" s="26">
         <f t="shared" ref="E17" si="2">_xlfn.STDEV.S(E12:E16)</f>
-        <v>0.81895707067500223</v>
+        <v>0.29659963664038441</v>
       </c>
       <c r="F17" s="45">
         <f t="shared" ref="F17" si="3">_xlfn.STDEV.S(F12:F16)</f>
-        <v>0.17677906778541283</v>
+        <v>9.0790454679058122E-2</v>
       </c>
       <c r="G17" s="26">
         <f t="shared" ref="G17" si="4">_xlfn.STDEV.S(G12:G16)</f>
-        <v>0.24264579689041482</v>
+        <v>0.16928942823107218</v>
       </c>
       <c r="H17" s="27">
         <f t="shared" ref="H17" si="5">_xlfn.STDEV.S(H12:H16)</f>
-        <v>0.9236943530775642</v>
+        <v>0.14811810171656428</v>
       </c>
       <c r="I17" s="25">
         <f t="shared" ref="I17" si="6">_xlfn.STDEV.S(I12:I16)</f>
-        <v>0.25997131279325209</v>
+        <v>0.14048024379740878</v>
       </c>
       <c r="J17" s="45">
         <f t="shared" ref="J17" si="7">_xlfn.STDEV.S(J12:J16)</f>
-        <v>0.29250548038937552</v>
+        <v>0.1258431446977816</v>
       </c>
       <c r="K17" s="44">
         <f t="shared" ref="K17" si="8">_xlfn.STDEV.S(K12:K16)</f>
-        <v>7.7631921863026268E-2</v>
+        <v>5.4114136898476869E-2</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" ref="L17" si="9">_xlfn.STDEV.S(L12:L16)</f>
-        <v>0.1012155670303457</v>
+        <v>8.8991177468047314E-2</v>
       </c>
       <c r="M17" s="59">
         <f t="shared" ref="M17" si="10">_xlfn.STDEV.S(M12:M16)</f>
-        <v>0.31053678016107189</v>
+        <v>7.8609302891303842E-2</v>
       </c>
       <c r="N17" s="28">
         <f t="shared" ref="N17" si="11">_xlfn.STDEV.S(N12:N16)</f>
-        <v>8.324662155306962</v>
+        <v>10.802777420645111</v>
       </c>
       <c r="O17" s="29">
         <f t="shared" ref="O17" si="12">_xlfn.STDEV.S(O12:O16)</f>
-        <v>6.06630035524124</v>
+        <v>6.2289646009589745</v>
       </c>
       <c r="P17" s="29">
         <f t="shared" ref="P17" si="13">_xlfn.STDEV.S(P12:P16)</f>
-        <v>0.8944271909999143</v>
+        <v>2.6076809620810595</v>
       </c>
       <c r="Q17" s="29">
         <f t="shared" ref="Q17" si="14">_xlfn.STDEV.S(Q12:Q16)</f>
-        <v>3.0331501776206209</v>
+        <v>3.3166247903553998</v>
       </c>
       <c r="R17" s="30">
         <f t="shared" ref="R17" si="15">_xlfn.STDEV.S(R12:R16)</f>
@@ -6857,65 +6925,65 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="79"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="25">
         <f>AVERAGE(D12:D16)</f>
-        <v>0.4419043565210366</v>
+        <v>0.23267387852810434</v>
       </c>
       <c r="E18" s="26">
         <f t="shared" ref="E18:R18" si="16">AVERAGE(E12:E16)</f>
-        <v>0.62872276720514964</v>
+        <v>0.35156056282492709</v>
       </c>
       <c r="F18" s="26">
         <f t="shared" si="16"/>
-        <v>0.23990416454980207</v>
+        <v>-0.30433959230327823</v>
       </c>
       <c r="G18" s="26">
         <f t="shared" si="16"/>
-        <v>0.41693459249714621</v>
+        <v>-0.19637600894445439</v>
       </c>
       <c r="H18" s="27">
         <f t="shared" si="16"/>
-        <v>0.78660231137504044</v>
+        <v>-0.15723033502768702</v>
       </c>
       <c r="I18" s="25">
         <f t="shared" si="16"/>
-        <v>0.17806463733560904</v>
-      </c>
-      <c r="J18" s="45">
+        <v>0.10287259577446728</v>
+      </c>
+      <c r="J18" s="44">
         <f t="shared" si="16"/>
-        <v>0.24910976393545772</v>
+        <v>0.15674587677710022</v>
       </c>
       <c r="K18" s="26">
         <f t="shared" si="16"/>
-        <v>0.11134278794442373</v>
+        <v>-0.16705737213012942</v>
       </c>
       <c r="L18" s="26">
         <f t="shared" si="16"/>
-        <v>0.18690307931596781</v>
-      </c>
-      <c r="M18" s="46">
+        <v>-0.10691521246844875</v>
+      </c>
+      <c r="M18" s="59">
         <f t="shared" si="16"/>
-        <v>0.30746160093090152</v>
+        <v>-8.4530952113978736E-2</v>
       </c>
       <c r="N18" s="28">
         <f t="shared" si="16"/>
-        <v>39.6</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="O18" s="29">
         <f t="shared" si="16"/>
-        <v>76.599999999999994</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="P18" s="29">
         <f t="shared" si="16"/>
-        <v>6.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q18" s="29">
         <f t="shared" si="16"/>
-        <v>8.8000000000000007</v>
+        <v>9</v>
       </c>
       <c r="R18" s="30">
         <f t="shared" si="16"/>
@@ -6923,8 +6991,8 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="77" t="s">
-        <v>15</v>
+      <c r="B19" s="70" t="s">
+        <v>14</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>7</v>
@@ -6976,7 +7044,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="78"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
@@ -7027,7 +7095,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="78"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
@@ -7078,7 +7146,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="78"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
@@ -7129,7 +7197,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="78"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="22" t="s">
         <v>9</v>
       </c>
@@ -7180,9 +7248,9 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="78"/>
+      <c r="B24" s="71"/>
       <c r="C24" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="25">
         <f>_xlfn.STDEV.S(D19:D23)</f>
@@ -7246,9 +7314,9 @@
       </c>
     </row>
     <row r="25" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="79"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="25">
         <f t="shared" ref="D25:R25" si="31">AVERAGE(D19:D23)</f>
@@ -7313,7 +7381,7 @@
     </row>
     <row r="28" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -7322,35 +7390,35 @@
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
     </row>
     <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="76"/>
-      <c r="C30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="4" t="s">
         <v>1</v>
       </c>
@@ -7388,7 +7456,7 @@
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="70" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -7431,7 +7499,7 @@
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="78"/>
+      <c r="B32" s="71"/>
       <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
@@ -7472,7 +7540,7 @@
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="78"/>
+      <c r="B33" s="71"/>
       <c r="C33" s="2" t="s">
         <v>6</v>
       </c>
@@ -7513,7 +7581,7 @@
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="78"/>
+      <c r="B34" s="71"/>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
@@ -7554,7 +7622,7 @@
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="78"/>
+      <c r="B35" s="71"/>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
@@ -7595,9 +7663,9 @@
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="79"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="56">
         <f>AVERAGE(D31:D35)</f>
@@ -7646,41 +7714,41 @@
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="77" t="s">
-        <v>14</v>
+      <c r="B37" s="70" t="s">
+        <v>49</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="8">
-        <v>2457.5612982990101</v>
+        <v>637.38056911135197</v>
       </c>
       <c r="E37" s="7">
-        <v>3654.2463945797099</v>
+        <v>3438.6510834068099</v>
       </c>
       <c r="F37" s="7">
-        <v>1228.81940284138</v>
+        <v>-3594.3204686532799</v>
       </c>
       <c r="G37" s="7">
-        <v>2965.7402802635702</v>
+        <v>-2397.5580472474198</v>
       </c>
       <c r="H37" s="9">
-        <v>3548.4118144202398</v>
+        <v>-2303.4162094957301</v>
       </c>
       <c r="I37" s="8">
-        <v>76.798790571844293</v>
+        <v>11.1821152475675</v>
       </c>
       <c r="J37" s="7">
-        <v>46.849312751021998</v>
+        <v>53.728923178231497</v>
       </c>
       <c r="K37" s="7">
-        <v>204.803233806896</v>
+        <v>-1797.16023432664</v>
       </c>
       <c r="L37" s="7">
-        <v>494.29004671059602</v>
+        <v>-399.59300787457101</v>
       </c>
       <c r="M37" s="9">
-        <v>1774.2059072101199</v>
+        <v>-1151.70810474786</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -7689,39 +7757,39 @@
       <c r="R37" s="2"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="78"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="1">
-        <v>-1357.0894161068099</v>
+        <v>164.49485157052101</v>
       </c>
       <c r="E38" s="2">
-        <v>-453.96264365944</v>
+        <v>603.74204644858003</v>
       </c>
       <c r="F38" s="2">
-        <v>968.86690047791296</v>
+        <v>-1961.0303020301899</v>
       </c>
       <c r="G38" s="2">
-        <v>2816.90562551827</v>
+        <v>-2589.6660337052199</v>
       </c>
       <c r="H38" s="3">
-        <v>1300.61722919111</v>
+        <v>-3118.8499352231602</v>
       </c>
       <c r="I38" s="1">
-        <v>-35.712879371231899</v>
+        <v>3.57597503414177</v>
       </c>
       <c r="J38" s="2">
-        <v>-6.5791687486875396</v>
+        <v>9.1476067643724299</v>
       </c>
       <c r="K38" s="2">
-        <v>121.10836255973901</v>
+        <v>-245.12878775377399</v>
       </c>
       <c r="L38" s="2">
-        <v>234.742135459856</v>
+        <v>-287.74067041169099</v>
       </c>
       <c r="M38" s="3">
-        <v>650.30861459555899</v>
+        <v>-1559.4249676115801</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -7730,39 +7798,39 @@
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B39" s="78"/>
+      <c r="B39" s="71"/>
       <c r="C39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="1">
-        <v>3877.0040847334599</v>
+        <v>2122.0565125930498</v>
       </c>
       <c r="E39" s="2">
-        <v>2826.7588245625302</v>
+        <v>4820.69426876745</v>
       </c>
       <c r="F39" s="2">
-        <v>3174.2083354812698</v>
+        <v>-2215.51815539878</v>
       </c>
       <c r="G39" s="2">
-        <v>7121.15050499479</v>
+        <v>1036.16733526588</v>
       </c>
       <c r="H39" s="3">
-        <v>6281.8229375976698</v>
+        <v>-1290.8461804553499</v>
       </c>
       <c r="I39" s="1">
-        <v>86.155646327410196</v>
+        <v>62.413426840972001</v>
       </c>
       <c r="J39" s="2">
-        <v>33.651890768601497</v>
+        <v>70.892562775992005</v>
       </c>
       <c r="K39" s="2">
-        <v>529.034722580211</v>
+        <v>-553.87953884969704</v>
       </c>
       <c r="L39" s="2">
-        <v>593.42920874956599</v>
+        <v>74.011952518991507</v>
       </c>
       <c r="M39" s="3">
-        <v>3140.9114687988299</v>
+        <v>-645.42309022767597</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7771,39 +7839,39 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="78"/>
+      <c r="B40" s="71"/>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1">
-        <v>16021.2508284916</v>
+        <v>8143.8458943412197</v>
       </c>
       <c r="E40" s="2">
-        <v>20500.7390745665</v>
+        <v>923.59956635554704</v>
       </c>
       <c r="F40" s="2">
-        <v>5158.1263184991003</v>
+        <v>-4049.3021952571198</v>
       </c>
       <c r="G40" s="2">
-        <v>6367.4600398672701</v>
+        <v>-2903.6470875703499</v>
       </c>
       <c r="H40" s="3">
-        <v>24082.435429335299</v>
+        <v>800.138823834449</v>
       </c>
       <c r="I40" s="1">
-        <v>314.14217310767901</v>
+        <v>271.46152981137402</v>
       </c>
       <c r="J40" s="2">
-        <v>256.25923843208199</v>
+        <v>14.896767199283</v>
       </c>
       <c r="K40" s="2">
-        <v>859.687719749851</v>
+        <v>-674.88369920952005</v>
       </c>
       <c r="L40" s="2">
-        <v>795.93250498340899</v>
+        <v>-290.36470875703498</v>
       </c>
       <c r="M40" s="3">
-        <v>12041.2177146676</v>
+        <v>400.06941191722399</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7812,39 +7880,39 @@
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="78"/>
+      <c r="B41" s="71"/>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="1">
-        <v>1096.4910306345701</v>
+        <v>565.91609878907502</v>
       </c>
       <c r="E41" s="2">
-        <v>4908.3567102081797</v>
+        <v>7791.3411762679698</v>
       </c>
       <c r="F41" s="2">
-        <v>1465.1872701904399</v>
+        <v>-3396.8084938245402</v>
       </c>
       <c r="G41" s="2">
-        <v>1575.4731742134099</v>
+        <v>-2964.0966139656098</v>
       </c>
       <c r="H41" s="3">
-        <v>4116.8281582077097</v>
+        <v>-1948.54325004456</v>
       </c>
       <c r="I41" s="1">
-        <v>34.265344707330598</v>
+        <v>15.295029697002001</v>
       </c>
       <c r="J41" s="2">
-        <v>68.171620975113598</v>
+        <v>99.888989439333002</v>
       </c>
       <c r="K41" s="2">
-        <v>244.19787836507399</v>
+        <v>-1698.4042469122701</v>
       </c>
       <c r="L41" s="2">
-        <v>262.57886236890198</v>
+        <v>-494.01610232760299</v>
       </c>
       <c r="M41" s="3">
-        <v>2058.4140791038499</v>
+        <v>-974.27162502227998</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7853,49 +7921,49 @@
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="79"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" s="56">
         <f t="shared" ref="D42:M42" si="33">AVERAGE(D37:D41)</f>
-        <v>4419.0435652103661</v>
+        <v>2326.7387852810434</v>
       </c>
       <c r="E42" s="57">
         <f t="shared" si="33"/>
-        <v>6287.2276720514956</v>
+        <v>3515.6056282492718</v>
       </c>
       <c r="F42" s="57">
         <f t="shared" si="33"/>
-        <v>2399.0416454980204</v>
+        <v>-3043.3959230327819</v>
       </c>
       <c r="G42" s="57">
         <f t="shared" si="33"/>
-        <v>4169.3459249714624</v>
+        <v>-1963.7600894445436</v>
       </c>
       <c r="H42" s="58">
         <f t="shared" si="33"/>
-        <v>7866.0231137504061</v>
+        <v>-1572.3033502768703</v>
       </c>
       <c r="I42" s="56">
         <f t="shared" si="33"/>
-        <v>95.129815068606433</v>
+        <v>72.785615326211456</v>
       </c>
       <c r="J42" s="57">
         <f t="shared" si="33"/>
-        <v>79.670578835626316</v>
+        <v>49.710969871442387</v>
       </c>
       <c r="K42" s="57">
         <f t="shared" si="33"/>
-        <v>391.76638341235423</v>
+        <v>-993.89130141038038</v>
       </c>
       <c r="L42" s="57">
         <f t="shared" si="33"/>
-        <v>476.19455165446573</v>
+        <v>-279.5405073703817</v>
       </c>
       <c r="M42" s="58">
         <f t="shared" si="33"/>
-        <v>3933.0115568751921</v>
+        <v>-786.15167513843448</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7904,8 +7972,8 @@
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="77" t="s">
-        <v>15</v>
+      <c r="B43" s="70" t="s">
+        <v>14</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>7</v>
@@ -7947,7 +8015,7 @@
       <c r="R43" s="2"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="78"/>
+      <c r="B44" s="71"/>
       <c r="C44" s="2" t="s">
         <v>5</v>
       </c>
@@ -7988,7 +8056,7 @@
       <c r="R44" s="2"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="78"/>
+      <c r="B45" s="71"/>
       <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
@@ -8029,7 +8097,7 @@
       <c r="R45" s="2"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="78"/>
+      <c r="B46" s="71"/>
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
@@ -8070,7 +8138,7 @@
       <c r="R46" s="2"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="78"/>
+      <c r="B47" s="71"/>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
@@ -8111,9 +8179,9 @@
       <c r="R47" s="2"/>
     </row>
     <row r="48" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="79"/>
+      <c r="B48" s="72"/>
       <c r="C48" s="55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D48" s="56">
         <f t="shared" ref="D48" si="34">AVERAGE(D43:D47)</f>
@@ -8170,7 +8238,7 @@
     </row>
     <row r="50" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B50" s="60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8183,11 +8251,11 @@
         <v>11</v>
       </c>
       <c r="C51" s="82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D51" s="83"/>
       <c r="E51" s="84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F51" s="83"/>
       <c r="N51" s="2"/>
@@ -8199,16 +8267,20 @@
     <row r="52" spans="2:18" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="81"/>
       <c r="C52" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="62" t="s">
+      <c r="E52" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="E52" s="63" t="s">
+      <c r="F52" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="F52" s="62" t="s">
-        <v>40</v>
+      <c r="K52" s="92">
+        <f>AVERAGE(N5:N9,N12:N16,N19:N23)/AVERAGE(O5:O9,O12:O16,O19:O23)</f>
+        <v>0.48964497041420113</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8217,7 +8289,7 @@
       <c r="R52" s="2"/>
     </row>
     <row r="53" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="77" t="s">
+      <c r="B53" s="70" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -8234,7 +8306,7 @@
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B54" s="78"/>
+      <c r="B54" s="71"/>
       <c r="C54" s="1" t="s">
         <v>1</v>
       </c>
@@ -8249,7 +8321,7 @@
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B55" s="78"/>
+      <c r="B55" s="71"/>
       <c r="C55" s="1" t="s">
         <v>1</v>
       </c>
@@ -8264,7 +8336,7 @@
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B56" s="78"/>
+      <c r="B56" s="71"/>
       <c r="C56" s="1" t="s">
         <v>1</v>
       </c>
@@ -8279,7 +8351,7 @@
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B57" s="78"/>
+      <c r="B57" s="71"/>
       <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
@@ -8294,7 +8366,7 @@
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B58" s="78"/>
+      <c r="B58" s="71"/>
       <c r="C58" s="1" t="s">
         <v>2</v>
       </c>
@@ -8309,7 +8381,7 @@
       </c>
     </row>
     <row r="59" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="79"/>
+      <c r="B59" s="72"/>
       <c r="C59" s="4" t="s">
         <v>2</v>
       </c>
@@ -8324,8 +8396,8 @@
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B60" s="77" t="s">
-        <v>14</v>
+      <c r="B60" s="70" t="s">
+        <v>49</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>1</v>
@@ -8341,7 +8413,7 @@
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B61" s="78"/>
+      <c r="B61" s="71"/>
       <c r="C61" s="1" t="s">
         <v>1</v>
       </c>
@@ -8356,7 +8428,7 @@
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B62" s="78"/>
+      <c r="B62" s="71"/>
       <c r="C62" s="1" t="s">
         <v>1</v>
       </c>
@@ -8371,7 +8443,7 @@
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B63" s="78"/>
+      <c r="B63" s="71"/>
       <c r="C63" s="1" t="s">
         <v>1</v>
       </c>
@@ -8386,7 +8458,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B64" s="78"/>
+      <c r="B64" s="71"/>
       <c r="C64" s="1" t="s">
         <v>2</v>
       </c>
@@ -8401,7 +8473,7 @@
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="78"/>
+      <c r="B65" s="71"/>
       <c r="C65" s="1" t="s">
         <v>2</v>
       </c>
@@ -8416,7 +8488,7 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="79"/>
+      <c r="B66" s="72"/>
       <c r="C66" s="4" t="s">
         <v>2</v>
       </c>
@@ -8431,8 +8503,8 @@
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="77" t="s">
-        <v>43</v>
+      <c r="B67" s="70" t="s">
+        <v>42</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>1</v>
@@ -8448,7 +8520,7 @@
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="78"/>
+      <c r="B68" s="71"/>
       <c r="C68" s="1" t="s">
         <v>1</v>
       </c>
@@ -8463,7 +8535,7 @@
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="78"/>
+      <c r="B69" s="71"/>
       <c r="C69" s="1" t="s">
         <v>1</v>
       </c>
@@ -8478,7 +8550,7 @@
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="78"/>
+      <c r="B70" s="71"/>
       <c r="C70" s="1" t="s">
         <v>1</v>
       </c>
@@ -8493,7 +8565,7 @@
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="78"/>
+      <c r="B71" s="71"/>
       <c r="C71" s="1" t="s">
         <v>2</v>
       </c>
@@ -8508,7 +8580,7 @@
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="78"/>
+      <c r="B72" s="71"/>
       <c r="C72" s="1" t="s">
         <v>2</v>
       </c>
@@ -8523,7 +8595,7 @@
       </c>
     </row>
     <row r="73" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="79"/>
+      <c r="B73" s="72"/>
       <c r="C73" s="4" t="s">
         <v>2</v>
       </c>
@@ -8539,6 +8611,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:M3"/>
     <mergeCell ref="B60:B66"/>
     <mergeCell ref="B67:B73"/>
     <mergeCell ref="B29:B30"/>
@@ -8551,16 +8633,6 @@
     <mergeCell ref="B31:B36"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="B43:B48"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8570,14 +8642,795 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:V31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B2" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B4" s="13">
+        <v>7.0598812158114893E-2</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.13375674329481099</v>
+      </c>
+      <c r="D4" s="14">
+        <v>6.1817859250651003E-2</v>
+      </c>
+      <c r="E4" s="14">
+        <v>7.6552496102709505E-2</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7.3445462756940305E-2</v>
+      </c>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B5" s="16">
+        <v>-1.72840636771576E-3</v>
+      </c>
+      <c r="C5" s="17">
+        <v>4.9491061769888399E-2</v>
+      </c>
+      <c r="D5" s="20">
+        <v>7.8145982097384603E-2</v>
+      </c>
+      <c r="E5" s="17">
+        <v>6.5200992878887698E-2</v>
+      </c>
+      <c r="F5" s="18">
+        <v>-3.3301608344867499E-2</v>
+      </c>
+      <c r="I5" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="93">
+        <v>7.9784599025725766E-2</v>
+      </c>
+      <c r="K5" s="93">
+        <v>0.11022844137175</v>
+      </c>
+      <c r="O5" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="93">
+        <v>7.9784599025725766E-2</v>
+      </c>
+      <c r="Q5" s="93">
+        <v>-5.9685038981499224E-5</v>
+      </c>
+      <c r="T5" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="93">
+        <v>0.11022844137175</v>
+      </c>
+      <c r="V5" s="93">
+        <v>-5.9685038981499224E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B6" s="16">
+        <v>7.1509948722214799E-3</v>
+      </c>
+      <c r="C6" s="17">
+        <v>6.5150437951493501E-2</v>
+      </c>
+      <c r="D6" s="17">
+        <v>4.9160066008666403E-2</v>
+      </c>
+      <c r="E6" s="17">
+        <v>-6.3411482192437998E-3</v>
+      </c>
+      <c r="F6" s="21">
+        <v>8.2151071391820693E-2</v>
+      </c>
+      <c r="I6" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="93">
+        <v>9.7833316142148553E-3</v>
+      </c>
+      <c r="K6" s="93">
+        <v>7.2126678598775423E-3</v>
+      </c>
+      <c r="O6" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="93">
+        <v>9.7833316142148553E-3</v>
+      </c>
+      <c r="Q6" s="93">
+        <v>2.186034050375971E-2</v>
+      </c>
+      <c r="T6" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="93">
+        <v>7.2126678598775423E-3</v>
+      </c>
+      <c r="V6" s="93">
+        <v>2.186034050375971E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B7" s="16">
+        <v>0.27159380739345901</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.17950440695446099</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.31609320877955499</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.35421937693972699</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.62642120894139797</v>
+      </c>
+      <c r="I7" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="93">
+        <v>15</v>
+      </c>
+      <c r="K7" s="93">
+        <v>15</v>
+      </c>
+      <c r="O7" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="93">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="93">
+        <v>15</v>
+      </c>
+      <c r="T7" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="U7" s="93">
+        <v>15</v>
+      </c>
+      <c r="V7" s="93">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="16">
+        <v>6.2189424647157002E-2</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0.118150821382174</v>
+      </c>
+      <c r="D8" s="17">
+        <v>6.2704517509868302E-2</v>
+      </c>
+      <c r="E8" s="17">
+        <v>2.9095523510565598E-2</v>
+      </c>
+      <c r="F8" s="43">
+        <v>9.1181373772844104E-2</v>
+      </c>
+      <c r="I8" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="93">
+        <v>5.1938241853794628E-2</v>
+      </c>
+      <c r="K8" s="93"/>
+      <c r="O8" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="93">
+        <v>4.2742308942262948E-2</v>
+      </c>
+      <c r="Q8" s="93"/>
+      <c r="T8" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" s="93">
+        <v>-0.16564933589348368</v>
+      </c>
+      <c r="V8" s="93"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B9" s="13">
+        <v>3.13156199586615E-2</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.158923200427808</v>
+      </c>
+      <c r="D9" s="14">
+        <v>-0.19930292535681901</v>
+      </c>
+      <c r="E9" s="14">
+        <v>-0.127850763626391</v>
+      </c>
+      <c r="F9" s="15">
+        <v>-0.122477784622696</v>
+      </c>
+      <c r="I9" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="93">
+        <v>0</v>
+      </c>
+      <c r="K9" s="93"/>
+      <c r="O9" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="93">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="93"/>
+      <c r="T9" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" s="93">
+        <v>0</v>
+      </c>
+      <c r="V9" s="93"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B10" s="16">
+        <v>8.1754085874703401E-3</v>
+      </c>
+      <c r="C10" s="17">
+        <v>2.9686797133156001E-2</v>
+      </c>
+      <c r="D10" s="17">
+        <v>-0.10320913792351399</v>
+      </c>
+      <c r="E10" s="20">
+        <v>-0.13891939698282901</v>
+      </c>
+      <c r="F10" s="18">
+        <v>-0.170175390761545</v>
+      </c>
+      <c r="I10" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="93">
+        <v>14</v>
+      </c>
+      <c r="K10" s="93"/>
+      <c r="O10" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="93">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="93"/>
+      <c r="T10" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="U10" s="93">
+        <v>14</v>
+      </c>
+      <c r="V10" s="93"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B11" s="16">
+        <v>0.100798792716777</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.21694315682008999</v>
+      </c>
+      <c r="D11" s="17">
+        <v>-0.117490800820717</v>
+      </c>
+      <c r="E11" s="20">
+        <v>5.0432248000304297E-2</v>
+      </c>
+      <c r="F11" s="18">
+        <v>-6.6647736206958699E-2</v>
+      </c>
+      <c r="I11" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="93">
+        <v>-0.92857418904242817</v>
+      </c>
+      <c r="K11" s="93"/>
+      <c r="O11" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="93">
+        <v>1.7737765044650511</v>
+      </c>
+      <c r="Q11" s="93"/>
+      <c r="T11" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="U11" s="93">
+        <v>2.3430922376800076</v>
+      </c>
+      <c r="V11" s="93"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B12" s="16">
+        <v>0.346221039105227</v>
+      </c>
+      <c r="C12" s="17">
+        <v>4.5071649422026003E-2</v>
+      </c>
+      <c r="D12" s="17">
+        <v>-0.22820796269291099</v>
+      </c>
+      <c r="E12" s="17">
+        <v>-0.157324120085719</v>
+      </c>
+      <c r="F12" s="21">
+        <v>3.9160396719383997E-2</v>
+      </c>
+      <c r="I12" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="93">
+        <v>0.18442187732891574</v>
+      </c>
+      <c r="K12" s="93"/>
+      <c r="O12" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" s="93">
+        <v>4.8921580327779671E-2</v>
+      </c>
+      <c r="Q12" s="93"/>
+      <c r="T12" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="U12" s="93">
+        <v>1.720670098167304E-2</v>
+      </c>
+      <c r="V12" s="93"/>
+    </row>
+    <row r="13" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="16">
+        <v>2.78521185042006E-2</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.333104580082421</v>
+      </c>
+      <c r="D13" s="17">
+        <v>-0.187076033856686</v>
+      </c>
+      <c r="E13" s="17">
+        <v>-0.16091402964760901</v>
+      </c>
+      <c r="F13" s="18">
+        <v>-0.102514245698078</v>
+      </c>
+      <c r="I13" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="93">
+        <v>1.3450303744546506</v>
+      </c>
+      <c r="K13" s="93"/>
+      <c r="O13" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="93">
+        <v>1.3450303744546506</v>
+      </c>
+      <c r="Q13" s="93"/>
+      <c r="T13" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="U13" s="93">
+        <v>1.3450303744546506</v>
+      </c>
+      <c r="V13" s="93"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B14" s="13">
+        <v>5.3243836900526101E-2</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1.3522643924873E-2</v>
+      </c>
+      <c r="D14" s="14">
+        <v>-1.20656904581708E-2</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.10542083566304999</v>
+      </c>
+      <c r="F14" s="47">
+        <v>8.4690295930442694E-2</v>
+      </c>
+      <c r="I14" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="93">
+        <v>0.36884375465783148</v>
+      </c>
+      <c r="K14" s="93"/>
+      <c r="O14" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="93">
+        <v>9.7843160655559341E-2</v>
+      </c>
+      <c r="Q14" s="93"/>
+      <c r="T14" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="U14" s="93">
+        <v>3.441340196334608E-2</v>
+      </c>
+      <c r="V14" s="93"/>
+    </row>
+    <row r="15" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="16">
+        <v>8.8882428487361706E-2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0.108235968599549</v>
+      </c>
+      <c r="D15" s="17">
+        <v>4.84498807793605E-2</v>
+      </c>
+      <c r="E15" s="17">
+        <v>3.9314041772975303E-3</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1.6878391571122999E-2</v>
+      </c>
+      <c r="I15" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="94">
+        <v>1.7613101357748921</v>
+      </c>
+      <c r="K15" s="94"/>
+      <c r="O15" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="94">
+        <v>1.7613101357748921</v>
+      </c>
+      <c r="Q15" s="94"/>
+      <c r="T15" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="U15" s="94">
+        <v>1.7613101357748921</v>
+      </c>
+      <c r="V15" s="94"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B16" s="16">
+        <v>1.6992761882746302E-2</v>
+      </c>
+      <c r="C16" s="17">
+        <v>5.4475719300415899E-2</v>
+      </c>
+      <c r="D16" s="17">
+        <v>5.23538963002552E-2</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.102981515128127</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0.107350968760289</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="16">
+        <v>7.2002578432402903E-2</v>
+      </c>
+      <c r="C17" s="17">
+        <v>9.0183953124685898E-2</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.18259611874832801</v>
+      </c>
+      <c r="E17" s="17">
+        <v>-1.25700196009562E-2</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0.12674180595863499</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="16">
+        <v>4.1479768107276403E-2</v>
+      </c>
+      <c r="C18" s="17">
+        <v>5.7225480388397101E-2</v>
+      </c>
+      <c r="D18" s="17">
+        <v>-4.8642539499735796E-3</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0.111260042270695</v>
+      </c>
+      <c r="F18" s="21">
+        <v>0.105122080973315</v>
+      </c>
+      <c r="I18" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I20" s="95"/>
+      <c r="J20" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" s="95" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I21" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="93">
+        <v>0.11022844137175</v>
+      </c>
+      <c r="K21" s="93">
+        <v>5.7201752742803119E-2</v>
+      </c>
+      <c r="O21" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" s="93">
+        <v>0.15674587677710022</v>
+      </c>
+      <c r="Q21" s="93">
+        <v>-8.4530952113978736E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I22" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="93">
+        <v>7.2126678598775423E-3</v>
+      </c>
+      <c r="K22" s="93">
+        <v>3.3673556519131641E-2</v>
+      </c>
+      <c r="O22" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" s="93">
+        <v>1.5836497067426795E-2</v>
+      </c>
+      <c r="Q22" s="93">
+        <v>6.1794225010567503E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I23" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="93">
+        <v>15</v>
+      </c>
+      <c r="K23" s="93">
+        <v>15</v>
+      </c>
+      <c r="O23" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" s="93">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I24" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="93">
+        <v>-1.3405714305667995E-2</v>
+      </c>
+      <c r="K24" s="93"/>
+      <c r="O24" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="93">
+        <v>-0.12910978504187376</v>
+      </c>
+      <c r="Q24" s="93"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I25" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="93">
+        <v>0</v>
+      </c>
+      <c r="K25" s="93"/>
+      <c r="O25" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="P25" s="93">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="93"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I26" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="93">
+        <v>14</v>
+      </c>
+      <c r="K26" s="93"/>
+      <c r="O26" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="93">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="93"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I27" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="93">
+        <v>1.0105172472940547</v>
+      </c>
+      <c r="K27" s="93"/>
+      <c r="O27" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="93">
+        <v>3.4418744204330829</v>
+      </c>
+      <c r="Q27" s="93"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I28" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="93">
+        <v>0.16469725661169754</v>
+      </c>
+      <c r="K28" s="93"/>
+      <c r="O28" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="P28" s="93">
+        <v>1.3124347735258956E-2</v>
+      </c>
+      <c r="Q28" s="93"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I29" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" s="93">
+        <v>1.3450303744546506</v>
+      </c>
+      <c r="K29" s="93"/>
+      <c r="O29" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" s="93">
+        <v>1.5332062740589443</v>
+      </c>
+      <c r="Q29" s="93"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I30" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" s="93">
+        <v>0.32939451322339508</v>
+      </c>
+      <c r="K30" s="93"/>
+      <c r="O30" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" s="93">
+        <v>2.6248695470517912E-2</v>
+      </c>
+      <c r="Q30" s="93"/>
+    </row>
+    <row r="31" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I31" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="94">
+        <v>1.7613101357748921</v>
+      </c>
+      <c r="K31" s="94"/>
+      <c r="O31" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" s="94">
+        <v>2.1318467863266499</v>
+      </c>
+      <c r="Q31" s="94"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8586,8 +9439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8603,51 +9456,51 @@
   <sheetData>
     <row r="2" spans="2:24" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="87" t="s">
+      <c r="D4" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="89"/>
+      <c r="F4" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="89"/>
+      <c r="H4" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89" t="s">
+      <c r="I4" s="91"/>
+      <c r="J4" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="89" t="s">
+      <c r="K4" s="91"/>
+      <c r="P4" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="90"/>
-      <c r="P4" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" s="86"/>
-      <c r="T4" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="U4" s="86"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="87"/>
     </row>
     <row r="5" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="76"/>
-      <c r="C5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="76"/>
       <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
@@ -8672,8 +9525,8 @@
       <c r="K5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
       <c r="R5" s="4" t="s">
         <v>1</v>
       </c>
@@ -8688,7 +9541,7 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="70" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -8718,7 +9571,7 @@
       <c r="K6" s="15">
         <v>0.46449738029316001</v>
       </c>
-      <c r="P6" s="77" t="s">
+      <c r="P6" s="70" t="s">
         <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
@@ -8739,11 +9592,11 @@
       <c r="V6">
         <v>519</v>
       </c>
-      <c r="W6" s="91"/>
-      <c r="X6" s="91"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="78"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -8771,7 +9624,7 @@
       <c r="K7" s="18">
         <v>0.54328564517243705</v>
       </c>
-      <c r="P7" s="78"/>
+      <c r="P7" s="71"/>
       <c r="Q7" s="2" t="s">
         <v>5</v>
       </c>
@@ -8790,11 +9643,11 @@
       <c r="V7">
         <v>519</v>
       </c>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B8" s="78"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -8822,7 +9675,7 @@
       <c r="K8" s="18">
         <v>0.44666666666666599</v>
       </c>
-      <c r="P8" s="78"/>
+      <c r="P8" s="71"/>
       <c r="Q8" s="2" t="s">
         <v>6</v>
       </c>
@@ -8841,11 +9694,11 @@
       <c r="V8">
         <v>519</v>
       </c>
-      <c r="W8" s="91"/>
-      <c r="X8" s="91"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="78"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -8873,7 +9726,7 @@
       <c r="K9" s="18">
         <v>0.41017800027812501</v>
       </c>
-      <c r="P9" s="78"/>
+      <c r="P9" s="71"/>
       <c r="Q9" s="2" t="s">
         <v>8</v>
       </c>
@@ -8892,11 +9745,11 @@
       <c r="V9">
         <v>519</v>
       </c>
-      <c r="W9" s="91"/>
-      <c r="X9" s="91"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="78"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="22" t="s">
         <v>9</v>
       </c>
@@ -8924,7 +9777,7 @@
       <c r="K10" s="18">
         <v>0.49500251862456501</v>
       </c>
-      <c r="P10" s="78"/>
+      <c r="P10" s="71"/>
       <c r="Q10" s="22" t="s">
         <v>9</v>
       </c>
@@ -8943,13 +9796,13 @@
       <c r="V10">
         <v>519</v>
       </c>
-      <c r="W10" s="91"/>
-      <c r="X10" s="91"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
     </row>
     <row r="11" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="79"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="48">
         <f t="shared" ref="D11:K11" si="0">AVERAGE(D6:D10)</f>
@@ -8983,9 +9836,9 @@
         <f t="shared" si="0"/>
         <v>0.47192604220699064</v>
       </c>
-      <c r="P11" s="79"/>
+      <c r="P11" s="72"/>
       <c r="Q11" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R11" s="53">
         <v>4.9320110281308432E-3</v>
@@ -9004,332 +9857,332 @@
       <c r="V11">
         <v>519</v>
       </c>
-      <c r="W11" s="91"/>
-      <c r="X11" s="91"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="77" t="s">
-        <v>14</v>
+      <c r="B12" s="70" t="s">
+        <v>49</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="13">
-        <v>0.59423076923076901</v>
+        <v>0.51631477927063296</v>
       </c>
       <c r="E12" s="14">
-        <v>0.43846153846153801</v>
+        <v>0.35124760076775402</v>
       </c>
       <c r="F12" s="13">
-        <v>0.40131952708969498</v>
+        <v>0.37474989891240001</v>
       </c>
       <c r="G12" s="14">
-        <v>0.414407338344153</v>
+        <v>0.378968597250263</v>
       </c>
       <c r="H12" s="13">
-        <v>0.40338647111961301</v>
+        <v>0.37090928721156702</v>
       </c>
       <c r="I12" s="15">
-        <v>0.39230246484873199</v>
+        <v>0.37825114168096602</v>
       </c>
       <c r="J12" s="13">
-        <v>0.39927365703505102</v>
+        <v>0.37867087867087801</v>
       </c>
       <c r="K12" s="15">
-        <v>0.43915202065336101</v>
-      </c>
-      <c r="P12" s="77" t="s">
-        <v>14</v>
+        <v>0.37968877968877901</v>
+      </c>
+      <c r="P12" s="70" t="s">
+        <v>49</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="R12" s="54">
-        <v>7.070677319058658E-3</v>
+        <v>5.6056074053049071E-3</v>
       </c>
       <c r="S12" s="54">
-        <v>6.614877637613692E-2</v>
+        <v>7.1234550964501153E-2</v>
       </c>
       <c r="T12" s="49">
-        <v>0.57692307692307687</v>
+        <v>0.7140206283891497</v>
       </c>
       <c r="U12" s="49">
-        <v>0.75</v>
+        <v>0.74443112408130907</v>
       </c>
       <c r="V12">
-        <v>520</v>
-      </c>
-      <c r="W12" s="91"/>
-      <c r="X12" s="91"/>
+        <v>521</v>
+      </c>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="78"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="16">
-        <v>0.52692307692307605</v>
+        <v>0.52591170825335898</v>
       </c>
       <c r="E13" s="17">
-        <v>0.40192307692307599</v>
+        <v>0.35316698656429901</v>
       </c>
       <c r="F13" s="16">
-        <v>0.33201595363908898</v>
+        <v>0.35420285232079901</v>
       </c>
       <c r="G13" s="17">
-        <v>0.36156166770645798</v>
+        <v>0.394735093801305</v>
       </c>
       <c r="H13" s="16">
-        <v>0.33051546712748803</v>
+        <v>0.35670694603988701</v>
       </c>
       <c r="I13" s="18">
-        <v>0.35702544311034801</v>
+        <v>0.39462064483118597</v>
       </c>
       <c r="J13" s="16">
-        <v>0.333530126213053</v>
+        <v>0.35173367114425402</v>
       </c>
       <c r="K13" s="18">
-        <v>0.36621464670245102</v>
-      </c>
-      <c r="P13" s="78"/>
+        <v>0.39484960917629702</v>
+      </c>
+      <c r="P13" s="71"/>
       <c r="Q13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="R13" s="52">
-        <v>4.0751707967784604E-3</v>
+        <v>5.518423478912419E-3</v>
       </c>
       <c r="S13" s="52">
-        <v>6.614877637613692E-2</v>
+        <v>7.1234550964501153E-2</v>
       </c>
       <c r="T13" s="50">
-        <v>0.57692307692307687</v>
+        <v>0.75554939240731855</v>
       </c>
       <c r="U13" s="50">
-        <v>0.17307692307692307</v>
+        <v>0.18360839009056162</v>
       </c>
       <c r="V13">
-        <v>520</v>
-      </c>
-      <c r="W13" s="91"/>
-      <c r="X13" s="91"/>
+        <v>521</v>
+      </c>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="78"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="16">
-        <v>0.56730769230769196</v>
+        <v>0.58541266794625701</v>
       </c>
       <c r="E14" s="17">
-        <v>0.45192307692307598</v>
+        <v>0.37811900191938502</v>
       </c>
       <c r="F14" s="16">
-        <v>0.37648292365095998</v>
+        <v>0.34921914377845897</v>
       </c>
       <c r="G14" s="17">
-        <v>0.44481145347739998</v>
+        <v>0.41245390587862801</v>
       </c>
       <c r="H14" s="16">
-        <v>0.37649144083764102</v>
+        <v>0.349941714619255</v>
       </c>
       <c r="I14" s="18">
-        <v>0.41588321524389199</v>
+        <v>0.41754310504310499</v>
       </c>
       <c r="J14" s="16">
-        <v>0.37647440684963002</v>
+        <v>0.34849955076370098</v>
       </c>
       <c r="K14" s="18">
-        <v>0.47806496476339599</v>
-      </c>
-      <c r="P14" s="78"/>
+        <v>0.40748727163821502</v>
+      </c>
+      <c r="P14" s="71"/>
       <c r="Q14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="R14" s="52">
-        <v>2.854012292292373E-3</v>
+        <v>4.503964561003217E-3</v>
       </c>
       <c r="S14" s="52">
-        <v>6.614877637613692E-2</v>
+        <v>7.1234550964501153E-2</v>
       </c>
       <c r="T14" s="50">
-        <v>0.57692307692307687</v>
+        <v>0.72526428383737429</v>
       </c>
       <c r="U14" s="50">
-        <v>0.19230769230769232</v>
+        <v>0.18152257073634875</v>
       </c>
       <c r="V14">
-        <v>520</v>
-      </c>
-      <c r="W14" s="91"/>
-      <c r="X14" s="91"/>
+        <v>521</v>
+      </c>
+      <c r="W14" s="69"/>
+      <c r="X14" s="69"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B15" s="78"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="16">
-        <v>0.58461538461538398</v>
+        <v>0.602687140115163</v>
       </c>
       <c r="E15" s="17">
-        <v>0.43076923076923002</v>
+        <v>0.37428023032629498</v>
       </c>
       <c r="F15" s="16">
-        <v>0.37361165600954899</v>
+        <v>0.34115859960163403</v>
       </c>
       <c r="G15" s="17">
-        <v>0.41533742355439301</v>
+        <v>0.40969750173118002</v>
       </c>
       <c r="H15" s="16">
-        <v>0.37414201076172898</v>
+        <v>0.34095007422353601</v>
       </c>
       <c r="I15" s="18">
-        <v>0.39336231733138899</v>
+        <v>0.40988142123598198</v>
       </c>
       <c r="J15" s="16">
-        <v>0.37308280270871202</v>
+        <v>0.34136738020445301</v>
       </c>
       <c r="K15" s="18">
-        <v>0.43991307863351498</v>
-      </c>
-      <c r="P15" s="78"/>
+        <v>0.40951374720683897</v>
+      </c>
+      <c r="P15" s="71"/>
       <c r="Q15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R15" s="52">
-        <v>4.5750310796278471E-3</v>
+        <v>4.164031824028044E-3</v>
       </c>
       <c r="S15" s="52">
-        <v>6.614877637613692E-2</v>
+        <v>7.1234550964501153E-2</v>
       </c>
       <c r="T15" s="50">
-        <v>1.3076923076923079</v>
+        <v>0.77061964316926301</v>
       </c>
       <c r="U15" s="50">
-        <v>0.17307692307692307</v>
+        <v>0.17362409727129502</v>
       </c>
       <c r="V15">
-        <v>520</v>
-      </c>
-      <c r="W15" s="91"/>
-      <c r="X15" s="91"/>
+        <v>521</v>
+      </c>
+      <c r="W15" s="69"/>
+      <c r="X15" s="69"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B16" s="78"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="16">
-        <v>0.58269230769230695</v>
+        <v>0.562380038387715</v>
       </c>
       <c r="E16" s="17">
-        <v>0.44038461538461499</v>
+        <v>0.355086372360844</v>
       </c>
       <c r="F16" s="16">
-        <v>0.38120742815588798</v>
+        <v>0.365054271099718</v>
       </c>
       <c r="G16" s="17">
-        <v>0.42960191956687399</v>
+        <v>0.41273534960570202</v>
       </c>
       <c r="H16" s="16">
-        <v>0.38220640143941198</v>
+        <v>0.36429018883638398</v>
       </c>
       <c r="I16" s="18">
-        <v>0.40868421052631498</v>
+        <v>0.40786575858053498</v>
       </c>
       <c r="J16" s="16">
-        <v>0.38021366329420198</v>
+        <v>0.36582156535632798</v>
       </c>
       <c r="K16" s="18">
-        <v>0.45277640194823998</v>
-      </c>
-      <c r="P16" s="78"/>
+        <v>0.41772262371900498</v>
+      </c>
+      <c r="P16" s="71"/>
       <c r="Q16" s="22" t="s">
         <v>9</v>
       </c>
       <c r="R16" s="52">
-        <v>3.4267830931478012E-3</v>
+        <v>2.8772326448449305E-3</v>
       </c>
       <c r="S16" s="52">
-        <v>6.614877637613692E-2</v>
+        <v>7.1234550964501153E-2</v>
       </c>
       <c r="T16" s="50">
-        <v>1.1730769230769229</v>
+        <v>0.72755969188492331</v>
       </c>
       <c r="U16" s="50">
-        <v>0.19230769230769232</v>
+        <v>0.19044107301679078</v>
       </c>
       <c r="V16">
-        <v>520</v>
-      </c>
-      <c r="W16" s="91"/>
-      <c r="X16" s="91"/>
+        <v>521</v>
+      </c>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
     </row>
     <row r="17" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="79"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="48">
         <f t="shared" ref="D17:K17" si="1">AVERAGE(D12:D16)</f>
-        <v>0.57115384615384557</v>
+        <v>0.55854126679462535</v>
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>0.43269230769230704</v>
+        <v>0.36238003838771543</v>
       </c>
       <c r="F17" s="25">
         <f t="shared" si="1"/>
-        <v>0.37292749770903616</v>
+        <v>0.35687695314260198</v>
       </c>
       <c r="G17" s="44">
         <f t="shared" si="1"/>
-        <v>0.41314396052985558</v>
+        <v>0.40171808965341571</v>
       </c>
       <c r="H17" s="25">
         <f t="shared" si="1"/>
-        <v>0.3733483582571766</v>
+        <v>0.35655964218612579</v>
       </c>
       <c r="I17" s="46">
         <f t="shared" si="1"/>
-        <v>0.39345153021213519</v>
+        <v>0.40163241427435475</v>
       </c>
       <c r="J17" s="25">
         <f t="shared" si="1"/>
-        <v>0.37251493122012957</v>
+        <v>0.35721860922792276</v>
       </c>
       <c r="K17" s="46">
         <f t="shared" si="1"/>
-        <v>0.43522422254019261</v>
-      </c>
-      <c r="P17" s="79"/>
+        <v>0.40185240628582697</v>
+      </c>
+      <c r="P17" s="72"/>
       <c r="Q17" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R17" s="53">
-        <v>4.4003349161810283E-3</v>
+        <v>4.5338519828187034E-3</v>
       </c>
       <c r="S17" s="53">
-        <v>6.614877637613692E-2</v>
+        <v>7.1234550964501153E-2</v>
       </c>
       <c r="T17" s="51">
         <f t="shared" ref="T17:U17" si="2">AVERAGE(T12:T16)</f>
-        <v>0.84230769230769231</v>
+        <v>0.73860272793760573</v>
       </c>
       <c r="U17" s="51">
         <f t="shared" si="2"/>
-        <v>0.29615384615384616</v>
+        <v>0.29472545103926107</v>
       </c>
       <c r="V17">
-        <v>520</v>
-      </c>
-      <c r="W17" s="91"/>
-      <c r="X17" s="91"/>
+        <v>521</v>
+      </c>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B18" s="77" t="s">
-        <v>15</v>
+      <c r="B18" s="70" t="s">
+        <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>7</v>
@@ -9358,8 +10211,8 @@
       <c r="K18" s="15">
         <v>0.56784646348476098</v>
       </c>
-      <c r="P18" s="77" t="s">
-        <v>15</v>
+      <c r="P18" s="70" t="s">
+        <v>14</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>7</v>
@@ -9379,11 +10232,11 @@
       <c r="V18">
         <v>525</v>
       </c>
-      <c r="W18" s="91"/>
-      <c r="X18" s="91"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B19" s="78"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
@@ -9411,7 +10264,7 @@
       <c r="K19" s="18">
         <v>0.46253496058987997</v>
       </c>
-      <c r="P19" s="78"/>
+      <c r="P19" s="71"/>
       <c r="Q19" s="2" t="s">
         <v>5</v>
       </c>
@@ -9430,11 +10283,11 @@
       <c r="V19">
         <v>525</v>
       </c>
-      <c r="W19" s="91"/>
-      <c r="X19" s="91"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B20" s="78"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
@@ -9462,7 +10315,7 @@
       <c r="K20" s="18">
         <v>0.50257522316750003</v>
       </c>
-      <c r="P20" s="78"/>
+      <c r="P20" s="71"/>
       <c r="Q20" s="2" t="s">
         <v>6</v>
       </c>
@@ -9481,11 +10334,11 @@
       <c r="V20">
         <v>525</v>
       </c>
-      <c r="W20" s="91"/>
-      <c r="X20" s="91"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="69"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B21" s="78"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
@@ -9513,7 +10366,7 @@
       <c r="K21" s="18">
         <v>0.49256491545893699</v>
       </c>
-      <c r="P21" s="78"/>
+      <c r="P21" s="71"/>
       <c r="Q21" s="2" t="s">
         <v>8</v>
       </c>
@@ -9532,11 +10385,11 @@
       <c r="V21">
         <v>525</v>
       </c>
-      <c r="W21" s="91"/>
-      <c r="X21" s="91"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B22" s="78"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="22" t="s">
         <v>9</v>
       </c>
@@ -9564,7 +10417,7 @@
       <c r="K22" s="18">
         <v>0.53429525850500204</v>
       </c>
-      <c r="P22" s="78"/>
+      <c r="P22" s="71"/>
       <c r="Q22" s="22" t="s">
         <v>9</v>
       </c>
@@ -9583,13 +10436,13 @@
       <c r="V22">
         <v>525</v>
       </c>
-      <c r="W22" s="91"/>
-      <c r="X22" s="91"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
     </row>
     <row r="23" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="79"/>
+      <c r="B23" s="72"/>
       <c r="C23" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="48">
         <f t="shared" ref="D23:K23" si="3">AVERAGE(D18:D22)</f>
@@ -9623,9 +10476,9 @@
         <f t="shared" si="3"/>
         <v>0.51196336424121602</v>
       </c>
-      <c r="P23" s="79"/>
+      <c r="P23" s="72"/>
       <c r="Q23" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R23" s="53">
         <v>5.8668115392879142E-3</v>
@@ -9644,45 +10497,49 @@
       <c r="V23">
         <v>525</v>
       </c>
-      <c r="W23" s="91"/>
-      <c r="X23" s="91"/>
+      <c r="W23" s="69"/>
+      <c r="X23" s="69"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:24" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B29" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="R29">
+        <f>(42*60+35)/(6*60+32)</f>
+        <v>6.5178571428571432</v>
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -9691,121 +10548,121 @@
         <v>11</v>
       </c>
       <c r="C36" s="67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" s="68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="70" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="78"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="78"/>
+      <c r="B39" s="71"/>
       <c r="C39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="79"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D40" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="77" t="s">
-        <v>14</v>
+      <c r="B41" s="70" t="s">
+        <v>49</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D41" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="78"/>
+      <c r="B42" s="71"/>
       <c r="C42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="18">
         <v>6.3492063492063405E-2</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="78"/>
+      <c r="B43" s="71"/>
       <c r="C43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="18">
         <v>0.24603174603174599</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="79"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D44" s="65">
         <v>3.1746031746031703E-2</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="77" t="s">
-        <v>43</v>
+      <c r="B45" s="70" t="s">
+        <v>42</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D45" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="78"/>
+      <c r="B46" s="71"/>
       <c r="C46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D46" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="78"/>
+      <c r="B47" s="71"/>
       <c r="C47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D47" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="79"/>
+      <c r="B48" s="72"/>
       <c r="C48" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" s="65">
         <v>0</v>
@@ -9813,6 +10670,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P18:P23"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B44"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="R4:S4"/>
@@ -9829,9 +10689,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="P6:P11"/>
     <mergeCell ref="P12:P17"/>
-    <mergeCell ref="P18:P23"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results tables/results_table_scheme.xlsx
+++ b/results tables/results_table_scheme.xlsx
@@ -13,8 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Financial Results Table - Comp" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Classification Results - Comp" sheetId="2" r:id="rId3"/>
+    <sheet name="Classification Results - Comp" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="52">
   <si>
     <t>Annual Returns</t>
   </si>
@@ -178,46 +177,10 @@
     <t>2008-2009</t>
   </si>
   <si>
-    <t>t-Test: Paired Two Sample for Means</t>
+    <t>p-value of equal means</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Variance</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>Pearson Correlation</t>
-  </si>
-  <si>
-    <t>Hypothesized Mean Difference</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>t Stat</t>
-  </si>
-  <si>
-    <t>P(T&lt;=t) one-tail</t>
-  </si>
-  <si>
-    <t>t Critical one-tail</t>
-  </si>
-  <si>
-    <t>P(T&lt;=t) two-tail</t>
-  </si>
-  <si>
-    <t>t Critical two-tail</t>
-  </si>
-  <si>
-    <t>Variable 1</t>
-  </si>
-  <si>
-    <t>Variable 2</t>
+    <t>Significance test: paired, two tailed t test results</t>
   </si>
 </sst>
 </file>
@@ -229,7 +192,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,24 +242,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -501,22 +462,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -611,6 +561,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -619,27 +594,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -654,9 +608,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -677,12 +628,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6109,10 +6077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R73"/>
+  <dimension ref="B2:R99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C19" sqref="C1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6120,7 +6088,8 @@
     <col min="2" max="2" width="10.44140625" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="6" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="8.5546875" customWidth="1"/>
     <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
@@ -6135,36 +6104,36 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="77" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="77" t="s">
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="77" t="s">
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="79"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="73"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="74"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="76"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
@@ -6213,7 +6182,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="79" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -6266,7 +6235,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="71"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -6317,7 +6286,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="71"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -6368,7 +6337,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="71"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -6419,7 +6388,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="71"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -6470,7 +6439,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="71"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="23" t="s">
         <v>34</v>
       </c>
@@ -6536,7 +6505,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="72"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="23" t="s">
         <v>28</v>
       </c>
@@ -6602,7 +6571,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="79" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -6623,19 +6592,19 @@
       <c r="H12" s="15">
         <v>-0.230341620949573</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="98">
         <v>3.13156199586615E-2</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="99">
         <v>0.158923200427808</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="100">
         <v>-0.19930292535681901</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="100">
         <v>-0.127850763626391</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="101">
         <v>-0.122477784622696</v>
       </c>
       <c r="N12" s="37">
@@ -6655,7 +6624,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="71"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
@@ -6674,19 +6643,19 @@
       <c r="H13" s="18">
         <v>-0.31188499352231602</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="102">
         <v>8.1754085874703401E-3</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="103">
         <v>2.9686797133156001E-2</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="103">
         <v>-0.10320913792351399</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="104">
         <v>-0.13891939698282901</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="105">
         <v>-0.170175390761545</v>
       </c>
       <c r="N13" s="40">
@@ -6706,7 +6675,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="71"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -6725,19 +6694,19 @@
       <c r="H14" s="18">
         <v>-0.129084618045535</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="102">
         <v>0.100798792716777</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="103">
         <v>0.21694315682008999</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="103">
         <v>-0.117490800820717</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="104">
         <v>5.0432248000304297E-2</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="105">
         <v>-6.6647736206958699E-2</v>
       </c>
       <c r="N14" s="40">
@@ -6757,7 +6726,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="71"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
@@ -6776,19 +6745,19 @@
       <c r="H15" s="18">
         <v>8.0013882383444895E-2</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="102">
         <v>0.346221039105227</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="103">
         <v>4.5071649422026003E-2</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="103">
         <v>-0.22820796269291099</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="103">
         <v>-0.157324120085719</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="106">
         <v>3.9160396719383997E-2</v>
       </c>
       <c r="N15" s="40">
@@ -6808,7 +6777,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="71"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="22" t="s">
         <v>9</v>
       </c>
@@ -6827,19 +6796,19 @@
       <c r="H16" s="18">
         <v>-0.19485432500445601</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="102">
         <v>2.78521185042006E-2</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="103">
         <v>0.333104580082421</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="103">
         <v>-0.187076033856686</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="103">
         <v>-0.16091402964760901</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="105">
         <v>-0.102514245698078</v>
       </c>
       <c r="N16" s="40">
@@ -6859,7 +6828,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="71"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="23" t="s">
         <v>34</v>
       </c>
@@ -6883,23 +6852,23 @@
         <f t="shared" ref="H17" si="5">_xlfn.STDEV.S(H12:H16)</f>
         <v>0.14811810171656428</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="107">
         <f t="shared" ref="I17" si="6">_xlfn.STDEV.S(I12:I16)</f>
         <v>0.14048024379740878</v>
       </c>
-      <c r="J17" s="45">
+      <c r="J17" s="108">
         <f t="shared" ref="J17" si="7">_xlfn.STDEV.S(J12:J16)</f>
         <v>0.1258431446977816</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="109">
         <f t="shared" ref="K17" si="8">_xlfn.STDEV.S(K12:K16)</f>
         <v>5.4114136898476869E-2</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="110">
         <f t="shared" ref="L17" si="9">_xlfn.STDEV.S(L12:L16)</f>
         <v>8.8991177468047314E-2</v>
       </c>
-      <c r="M17" s="59">
+      <c r="M17" s="111">
         <f t="shared" ref="M17" si="10">_xlfn.STDEV.S(M12:M16)</f>
         <v>7.8609302891303842E-2</v>
       </c>
@@ -6925,7 +6894,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="72"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="23" t="s">
         <v>28</v>
       </c>
@@ -6949,23 +6918,23 @@
         <f t="shared" si="16"/>
         <v>-0.15723033502768702</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="107">
         <f t="shared" si="16"/>
         <v>0.10287259577446728</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="109">
         <f t="shared" si="16"/>
         <v>0.15674587677710022</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="110">
         <f t="shared" si="16"/>
         <v>-0.16705737213012942</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="110">
         <f t="shared" si="16"/>
         <v>-0.10691521246844875</v>
       </c>
-      <c r="M18" s="59">
+      <c r="M18" s="111">
         <f t="shared" si="16"/>
         <v>-8.4530952113978736E-2</v>
       </c>
@@ -6991,7 +6960,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="79" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -7044,7 +7013,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="71"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
@@ -7095,7 +7064,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="71"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
@@ -7146,7 +7115,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="71"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
@@ -7197,7 +7166,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="71"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="22" t="s">
         <v>9</v>
       </c>
@@ -7248,7 +7217,7 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="71"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="23" t="s">
         <v>34</v>
       </c>
@@ -7314,7 +7283,7 @@
       </c>
     </row>
     <row r="25" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="72"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="23" t="s">
         <v>28</v>
       </c>
@@ -7390,34 +7359,34 @@
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="77" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="77" t="s">
+      <c r="D29" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="77" t="s">
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="85"/>
-      <c r="R29" s="85"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
     </row>
     <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="74"/>
+      <c r="B30" s="78"/>
       <c r="C30" s="76"/>
       <c r="D30" s="4" t="s">
         <v>1</v>
@@ -7456,7 +7425,7 @@
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="79" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -7499,7 +7468,7 @@
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="71"/>
+      <c r="B32" s="80"/>
       <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
@@ -7540,7 +7509,7 @@
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="71"/>
+      <c r="B33" s="80"/>
       <c r="C33" s="2" t="s">
         <v>6</v>
       </c>
@@ -7581,7 +7550,7 @@
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="71"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
@@ -7622,7 +7591,7 @@
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="71"/>
+      <c r="B35" s="80"/>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
@@ -7663,7 +7632,7 @@
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="72"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="55" t="s">
         <v>28</v>
       </c>
@@ -7714,7 +7683,7 @@
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="79" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -7757,7 +7726,7 @@
       <c r="R37" s="2"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="71"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="2" t="s">
         <v>5</v>
       </c>
@@ -7798,7 +7767,7 @@
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B39" s="71"/>
+      <c r="B39" s="80"/>
       <c r="C39" s="2" t="s">
         <v>6</v>
       </c>
@@ -7839,7 +7808,7 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="71"/>
+      <c r="B40" s="80"/>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
@@ -7880,7 +7849,7 @@
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="71"/>
+      <c r="B41" s="80"/>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
@@ -7921,7 +7890,7 @@
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="72"/>
+      <c r="B42" s="81"/>
       <c r="C42" s="55" t="s">
         <v>28</v>
       </c>
@@ -7972,7 +7941,7 @@
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="79" t="s">
         <v>14</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -8015,7 +7984,7 @@
       <c r="R43" s="2"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="71"/>
+      <c r="B44" s="80"/>
       <c r="C44" s="2" t="s">
         <v>5</v>
       </c>
@@ -8056,7 +8025,7 @@
       <c r="R44" s="2"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="71"/>
+      <c r="B45" s="80"/>
       <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
@@ -8097,7 +8066,7 @@
       <c r="R45" s="2"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="71"/>
+      <c r="B46" s="80"/>
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
@@ -8138,7 +8107,7 @@
       <c r="R46" s="2"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="71"/>
+      <c r="B47" s="80"/>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
@@ -8179,7 +8148,7 @@
       <c r="R47" s="2"/>
     </row>
     <row r="48" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="72"/>
+      <c r="B48" s="81"/>
       <c r="C48" s="55" t="s">
         <v>28</v>
       </c>
@@ -8247,17 +8216,17 @@
       <c r="R50" s="2"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B51" s="80" t="s">
+      <c r="B51" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="82" t="s">
+      <c r="C51" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="83"/>
-      <c r="E51" s="84" t="s">
+      <c r="D51" s="85"/>
+      <c r="E51" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="F51" s="83"/>
+      <c r="F51" s="85"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -8265,7 +8234,7 @@
       <c r="R51" s="2"/>
     </row>
     <row r="52" spans="2:18" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="81"/>
+      <c r="B52" s="83"/>
       <c r="C52" s="61" t="s">
         <v>36</v>
       </c>
@@ -8278,7 +8247,7 @@
       <c r="F52" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="K52" s="92">
+      <c r="K52" s="70">
         <f>AVERAGE(N5:N9,N12:N16,N19:N23)/AVERAGE(O5:O9,O12:O16,O19:O23)</f>
         <v>0.48964497041420113</v>
       </c>
@@ -8289,7 +8258,7 @@
       <c r="R52" s="2"/>
     </row>
     <row r="53" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="70" t="s">
+      <c r="B53" s="79" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -8306,7 +8275,7 @@
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B54" s="71"/>
+      <c r="B54" s="80"/>
       <c r="C54" s="1" t="s">
         <v>1</v>
       </c>
@@ -8320,8 +8289,8 @@
         <v>0.46031746031746001</v>
       </c>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B55" s="71"/>
+    <row r="55" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="80"/>
       <c r="C55" s="1" t="s">
         <v>1</v>
       </c>
@@ -8336,7 +8305,7 @@
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B56" s="71"/>
+      <c r="B56" s="80"/>
       <c r="C56" s="1" t="s">
         <v>1</v>
       </c>
@@ -8351,7 +8320,7 @@
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B57" s="71"/>
+      <c r="B57" s="80"/>
       <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
@@ -8366,7 +8335,7 @@
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B58" s="71"/>
+      <c r="B58" s="80"/>
       <c r="C58" s="1" t="s">
         <v>2</v>
       </c>
@@ -8381,7 +8350,7 @@
       </c>
     </row>
     <row r="59" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="72"/>
+      <c r="B59" s="81"/>
       <c r="C59" s="4" t="s">
         <v>2</v>
       </c>
@@ -8396,7 +8365,7 @@
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B60" s="70" t="s">
+      <c r="B60" s="79" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -8413,7 +8382,7 @@
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B61" s="71"/>
+      <c r="B61" s="80"/>
       <c r="C61" s="1" t="s">
         <v>1</v>
       </c>
@@ -8427,8 +8396,8 @@
         <v>0.81349206349206304</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B62" s="71"/>
+    <row r="62" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="80"/>
       <c r="C62" s="1" t="s">
         <v>1</v>
       </c>
@@ -8443,7 +8412,7 @@
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B63" s="71"/>
+      <c r="B63" s="80"/>
       <c r="C63" s="1" t="s">
         <v>1</v>
       </c>
@@ -8458,7 +8427,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B64" s="71"/>
+      <c r="B64" s="80"/>
       <c r="C64" s="1" t="s">
         <v>2</v>
       </c>
@@ -8473,7 +8442,7 @@
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="71"/>
+      <c r="B65" s="80"/>
       <c r="C65" s="1" t="s">
         <v>2</v>
       </c>
@@ -8488,7 +8457,7 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="72"/>
+      <c r="B66" s="81"/>
       <c r="C66" s="4" t="s">
         <v>2</v>
       </c>
@@ -8503,7 +8472,7 @@
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="70" t="s">
+      <c r="B67" s="79" t="s">
         <v>42</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -8520,7 +8489,7 @@
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="71"/>
+      <c r="B68" s="80"/>
       <c r="C68" s="1" t="s">
         <v>1</v>
       </c>
@@ -8534,8 +8503,8 @@
         <v>8.3333333333333301E-2</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="71"/>
+    <row r="69" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="80"/>
       <c r="C69" s="1" t="s">
         <v>1</v>
       </c>
@@ -8550,7 +8519,7 @@
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="71"/>
+      <c r="B70" s="80"/>
       <c r="C70" s="1" t="s">
         <v>1</v>
       </c>
@@ -8565,7 +8534,7 @@
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="71"/>
+      <c r="B71" s="80"/>
       <c r="C71" s="1" t="s">
         <v>2</v>
       </c>
@@ -8580,7 +8549,7 @@
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="71"/>
+      <c r="B72" s="80"/>
       <c r="C72" s="1" t="s">
         <v>2</v>
       </c>
@@ -8595,7 +8564,7 @@
       </c>
     </row>
     <row r="73" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="72"/>
+      <c r="B73" s="81"/>
       <c r="C73" s="4" t="s">
         <v>2</v>
       </c>
@@ -8609,18 +8578,299 @@
         <v>0.34920634920634902</v>
       </c>
     </row>
+    <row r="76" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" s="85"/>
+      <c r="E77" s="96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="83"/>
+      <c r="C78" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" s="97"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="93">
+        <v>0.41360538776069</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" s="80"/>
+      <c r="C80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="94">
+        <v>0.121441303508643</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="80"/>
+      <c r="C81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="94">
+        <v>0.39032689443521901</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="80"/>
+      <c r="C82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="94">
+        <v>0.28303301606163001</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="80"/>
+      <c r="C83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="94">
+        <v>0.91240527820265105</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="80"/>
+      <c r="C84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="94">
+        <v>0.91561230816444406</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="81"/>
+      <c r="C85" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="95">
+        <v>0.58281054981942104</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B86" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="93">
+        <v>0.61830988814292298</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B87" s="80"/>
+      <c r="C87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="94">
+        <v>2.6950568015114799E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B88" s="80"/>
+      <c r="C88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="94">
+        <v>5.2780005060125597E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B89" s="80"/>
+      <c r="C89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="94">
+        <v>3.76288118769986E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B90" s="80"/>
+      <c r="C90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="94">
+        <v>6.7135643499659E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B91" s="80"/>
+      <c r="C91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="94">
+        <v>1.28266939548603E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="81"/>
+      <c r="C92" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="95">
+        <v>2.6248695470517801E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B93" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="93">
+        <v>0.47830138352062701</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B94" s="80"/>
+      <c r="C94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="94">
+        <v>0.97197132058742897</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B95" s="80"/>
+      <c r="C95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="94">
+        <v>0.85006904973170005</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B96" s="80"/>
+      <c r="C96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="94">
+        <v>0.29653350275301099</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B97" s="80"/>
+      <c r="C97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="94">
+        <v>0.70647571413425103</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B98" s="80"/>
+      <c r="C98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="94">
+        <v>0.95486260717246696</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="81"/>
+      <c r="C99" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="95">
+        <v>0.46781233141728401</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:M3"/>
+  <mergeCells count="28">
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B79:B85"/>
+    <mergeCell ref="B86:B92"/>
     <mergeCell ref="B60:B66"/>
     <mergeCell ref="B67:B73"/>
     <mergeCell ref="B29:B30"/>
@@ -8633,6 +8883,16 @@
     <mergeCell ref="B31:B36"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="B43:B48"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8642,804 +8902,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="9" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B2" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
-      <c r="I2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B4" s="13">
-        <v>7.0598812158114893E-2</v>
-      </c>
-      <c r="C4" s="19">
-        <v>0.13375674329481099</v>
-      </c>
-      <c r="D4" s="14">
-        <v>6.1817859250651003E-2</v>
-      </c>
-      <c r="E4" s="14">
-        <v>7.6552496102709505E-2</v>
-      </c>
-      <c r="F4" s="15">
-        <v>7.3445462756940305E-2</v>
-      </c>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="95" t="s">
-        <v>4</v>
-      </c>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="V4" s="95" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B5" s="16">
-        <v>-1.72840636771576E-3</v>
-      </c>
-      <c r="C5" s="17">
-        <v>4.9491061769888399E-2</v>
-      </c>
-      <c r="D5" s="20">
-        <v>7.8145982097384603E-2</v>
-      </c>
-      <c r="E5" s="17">
-        <v>6.5200992878887698E-2</v>
-      </c>
-      <c r="F5" s="18">
-        <v>-3.3301608344867499E-2</v>
-      </c>
-      <c r="I5" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="93">
-        <v>7.9784599025725766E-2</v>
-      </c>
-      <c r="K5" s="93">
-        <v>0.11022844137175</v>
-      </c>
-      <c r="O5" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="93">
-        <v>7.9784599025725766E-2</v>
-      </c>
-      <c r="Q5" s="93">
-        <v>-5.9685038981499224E-5</v>
-      </c>
-      <c r="T5" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="U5" s="93">
-        <v>0.11022844137175</v>
-      </c>
-      <c r="V5" s="93">
-        <v>-5.9685038981499224E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B6" s="16">
-        <v>7.1509948722214799E-3</v>
-      </c>
-      <c r="C6" s="17">
-        <v>6.5150437951493501E-2</v>
-      </c>
-      <c r="D6" s="17">
-        <v>4.9160066008666403E-2</v>
-      </c>
-      <c r="E6" s="17">
-        <v>-6.3411482192437998E-3</v>
-      </c>
-      <c r="F6" s="21">
-        <v>8.2151071391820693E-2</v>
-      </c>
-      <c r="I6" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="93">
-        <v>9.7833316142148553E-3</v>
-      </c>
-      <c r="K6" s="93">
-        <v>7.2126678598775423E-3</v>
-      </c>
-      <c r="O6" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="93">
-        <v>9.7833316142148553E-3</v>
-      </c>
-      <c r="Q6" s="93">
-        <v>2.186034050375971E-2</v>
-      </c>
-      <c r="T6" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="U6" s="93">
-        <v>7.2126678598775423E-3</v>
-      </c>
-      <c r="V6" s="93">
-        <v>2.186034050375971E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B7" s="16">
-        <v>0.27159380739345901</v>
-      </c>
-      <c r="C7" s="17">
-        <v>0.17950440695446099</v>
-      </c>
-      <c r="D7" s="17">
-        <v>0.31609320877955499</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0.35421937693972699</v>
-      </c>
-      <c r="F7" s="21">
-        <v>0.62642120894139797</v>
-      </c>
-      <c r="I7" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="93">
-        <v>15</v>
-      </c>
-      <c r="K7" s="93">
-        <v>15</v>
-      </c>
-      <c r="O7" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" s="93">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="93">
-        <v>15</v>
-      </c>
-      <c r="T7" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="U7" s="93">
-        <v>15</v>
-      </c>
-      <c r="V7" s="93">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="16">
-        <v>6.2189424647157002E-2</v>
-      </c>
-      <c r="C8" s="20">
-        <v>0.118150821382174</v>
-      </c>
-      <c r="D8" s="17">
-        <v>6.2704517509868302E-2</v>
-      </c>
-      <c r="E8" s="17">
-        <v>2.9095523510565598E-2</v>
-      </c>
-      <c r="F8" s="43">
-        <v>9.1181373772844104E-2</v>
-      </c>
-      <c r="I8" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="93">
-        <v>5.1938241853794628E-2</v>
-      </c>
-      <c r="K8" s="93"/>
-      <c r="O8" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" s="93">
-        <v>4.2742308942262948E-2</v>
-      </c>
-      <c r="Q8" s="93"/>
-      <c r="T8" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="U8" s="93">
-        <v>-0.16564933589348368</v>
-      </c>
-      <c r="V8" s="93"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="13">
-        <v>3.13156199586615E-2</v>
-      </c>
-      <c r="C9" s="19">
-        <v>0.158923200427808</v>
-      </c>
-      <c r="D9" s="14">
-        <v>-0.19930292535681901</v>
-      </c>
-      <c r="E9" s="14">
-        <v>-0.127850763626391</v>
-      </c>
-      <c r="F9" s="15">
-        <v>-0.122477784622696</v>
-      </c>
-      <c r="I9" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="93">
-        <v>0</v>
-      </c>
-      <c r="K9" s="93"/>
-      <c r="O9" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" s="93">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="93"/>
-      <c r="T9" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="U9" s="93">
-        <v>0</v>
-      </c>
-      <c r="V9" s="93"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B10" s="16">
-        <v>8.1754085874703401E-3</v>
-      </c>
-      <c r="C10" s="17">
-        <v>2.9686797133156001E-2</v>
-      </c>
-      <c r="D10" s="17">
-        <v>-0.10320913792351399</v>
-      </c>
-      <c r="E10" s="20">
-        <v>-0.13891939698282901</v>
-      </c>
-      <c r="F10" s="18">
-        <v>-0.170175390761545</v>
-      </c>
-      <c r="I10" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="93">
-        <v>14</v>
-      </c>
-      <c r="K10" s="93"/>
-      <c r="O10" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="93">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="93"/>
-      <c r="T10" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="U10" s="93">
-        <v>14</v>
-      </c>
-      <c r="V10" s="93"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="16">
-        <v>0.100798792716777</v>
-      </c>
-      <c r="C11" s="17">
-        <v>0.21694315682008999</v>
-      </c>
-      <c r="D11" s="17">
-        <v>-0.117490800820717</v>
-      </c>
-      <c r="E11" s="20">
-        <v>5.0432248000304297E-2</v>
-      </c>
-      <c r="F11" s="18">
-        <v>-6.6647736206958699E-2</v>
-      </c>
-      <c r="I11" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="93">
-        <v>-0.92857418904242817</v>
-      </c>
-      <c r="K11" s="93"/>
-      <c r="O11" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="P11" s="93">
-        <v>1.7737765044650511</v>
-      </c>
-      <c r="Q11" s="93"/>
-      <c r="T11" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="U11" s="93">
-        <v>2.3430922376800076</v>
-      </c>
-      <c r="V11" s="93"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="16">
-        <v>0.346221039105227</v>
-      </c>
-      <c r="C12" s="17">
-        <v>4.5071649422026003E-2</v>
-      </c>
-      <c r="D12" s="17">
-        <v>-0.22820796269291099</v>
-      </c>
-      <c r="E12" s="17">
-        <v>-0.157324120085719</v>
-      </c>
-      <c r="F12" s="21">
-        <v>3.9160396719383997E-2</v>
-      </c>
-      <c r="I12" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="93">
-        <v>0.18442187732891574</v>
-      </c>
-      <c r="K12" s="93"/>
-      <c r="O12" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="P12" s="93">
-        <v>4.8921580327779671E-2</v>
-      </c>
-      <c r="Q12" s="93"/>
-      <c r="T12" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="U12" s="93">
-        <v>1.720670098167304E-2</v>
-      </c>
-      <c r="V12" s="93"/>
-    </row>
-    <row r="13" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="16">
-        <v>2.78521185042006E-2</v>
-      </c>
-      <c r="C13" s="17">
-        <v>0.333104580082421</v>
-      </c>
-      <c r="D13" s="17">
-        <v>-0.187076033856686</v>
-      </c>
-      <c r="E13" s="17">
-        <v>-0.16091402964760901</v>
-      </c>
-      <c r="F13" s="18">
-        <v>-0.102514245698078</v>
-      </c>
-      <c r="I13" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="93">
-        <v>1.3450303744546506</v>
-      </c>
-      <c r="K13" s="93"/>
-      <c r="O13" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="P13" s="93">
-        <v>1.3450303744546506</v>
-      </c>
-      <c r="Q13" s="93"/>
-      <c r="T13" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="U13" s="93">
-        <v>1.3450303744546506</v>
-      </c>
-      <c r="V13" s="93"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="13">
-        <v>5.3243836900526101E-2</v>
-      </c>
-      <c r="C14" s="14">
-        <v>1.3522643924873E-2</v>
-      </c>
-      <c r="D14" s="14">
-        <v>-1.20656904581708E-2</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0.10542083566304999</v>
-      </c>
-      <c r="F14" s="47">
-        <v>8.4690295930442694E-2</v>
-      </c>
-      <c r="I14" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" s="93">
-        <v>0.36884375465783148</v>
-      </c>
-      <c r="K14" s="93"/>
-      <c r="O14" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="P14" s="93">
-        <v>9.7843160655559341E-2</v>
-      </c>
-      <c r="Q14" s="93"/>
-      <c r="T14" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="U14" s="93">
-        <v>3.441340196334608E-2</v>
-      </c>
-      <c r="V14" s="93"/>
-    </row>
-    <row r="15" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="16">
-        <v>8.8882428487361706E-2</v>
-      </c>
-      <c r="C15" s="20">
-        <v>0.108235968599549</v>
-      </c>
-      <c r="D15" s="17">
-        <v>4.84498807793605E-2</v>
-      </c>
-      <c r="E15" s="17">
-        <v>3.9314041772975303E-3</v>
-      </c>
-      <c r="F15" s="18">
-        <v>1.6878391571122999E-2</v>
-      </c>
-      <c r="I15" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="94">
-        <v>1.7613101357748921</v>
-      </c>
-      <c r="K15" s="94"/>
-      <c r="O15" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="P15" s="94">
-        <v>1.7613101357748921</v>
-      </c>
-      <c r="Q15" s="94"/>
-      <c r="T15" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="U15" s="94">
-        <v>1.7613101357748921</v>
-      </c>
-      <c r="V15" s="94"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="16">
-        <v>1.6992761882746302E-2</v>
-      </c>
-      <c r="C16" s="17">
-        <v>5.4475719300415899E-2</v>
-      </c>
-      <c r="D16" s="17">
-        <v>5.23538963002552E-2</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0.102981515128127</v>
-      </c>
-      <c r="F16" s="21">
-        <v>0.107350968760289</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="16">
-        <v>7.2002578432402903E-2</v>
-      </c>
-      <c r="C17" s="17">
-        <v>9.0183953124685898E-2</v>
-      </c>
-      <c r="D17" s="20">
-        <v>0.18259611874832801</v>
-      </c>
-      <c r="E17" s="17">
-        <v>-1.25700196009562E-2</v>
-      </c>
-      <c r="F17" s="18">
-        <v>0.12674180595863499</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="16">
-        <v>4.1479768107276403E-2</v>
-      </c>
-      <c r="C18" s="17">
-        <v>5.7225480388397101E-2</v>
-      </c>
-      <c r="D18" s="17">
-        <v>-4.8642539499735796E-3</v>
-      </c>
-      <c r="E18" s="20">
-        <v>0.111260042270695</v>
-      </c>
-      <c r="F18" s="21">
-        <v>0.105122080973315</v>
-      </c>
-      <c r="I18" t="s">
-        <v>50</v>
-      </c>
-      <c r="O18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I20" s="95"/>
-      <c r="J20" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q20" s="95" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I21" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" s="93">
-        <v>0.11022844137175</v>
-      </c>
-      <c r="K21" s="93">
-        <v>5.7201752742803119E-2</v>
-      </c>
-      <c r="O21" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="P21" s="93">
-        <v>0.15674587677710022</v>
-      </c>
-      <c r="Q21" s="93">
-        <v>-8.4530952113978736E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I22" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" s="93">
-        <v>7.2126678598775423E-3</v>
-      </c>
-      <c r="K22" s="93">
-        <v>3.3673556519131641E-2</v>
-      </c>
-      <c r="O22" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="P22" s="93">
-        <v>1.5836497067426795E-2</v>
-      </c>
-      <c r="Q22" s="93">
-        <v>6.1794225010567503E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I23" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="93">
-        <v>15</v>
-      </c>
-      <c r="K23" s="93">
-        <v>15</v>
-      </c>
-      <c r="O23" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" s="93">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="93">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I24" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="93">
-        <v>-1.3405714305667995E-2</v>
-      </c>
-      <c r="K24" s="93"/>
-      <c r="O24" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" s="93">
-        <v>-0.12910978504187376</v>
-      </c>
-      <c r="Q24" s="93"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I25" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="93">
-        <v>0</v>
-      </c>
-      <c r="K25" s="93"/>
-      <c r="O25" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="P25" s="93">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="93"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I26" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="93">
-        <v>14</v>
-      </c>
-      <c r="K26" s="93"/>
-      <c r="O26" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="P26" s="93">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="93"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I27" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" s="93">
-        <v>1.0105172472940547</v>
-      </c>
-      <c r="K27" s="93"/>
-      <c r="O27" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="93">
-        <v>3.4418744204330829</v>
-      </c>
-      <c r="Q27" s="93"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I28" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="J28" s="93">
-        <v>0.16469725661169754</v>
-      </c>
-      <c r="K28" s="93"/>
-      <c r="O28" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="P28" s="93">
-        <v>1.3124347735258956E-2</v>
-      </c>
-      <c r="Q28" s="93"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I29" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="J29" s="93">
-        <v>1.3450303744546506</v>
-      </c>
-      <c r="K29" s="93"/>
-      <c r="O29" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="P29" s="93">
-        <v>1.5332062740589443</v>
-      </c>
-      <c r="Q29" s="93"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I30" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="J30" s="93">
-        <v>0.32939451322339508</v>
-      </c>
-      <c r="K30" s="93"/>
-      <c r="O30" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="P30" s="93">
-        <v>2.6248695470517912E-2</v>
-      </c>
-      <c r="Q30" s="93"/>
-    </row>
-    <row r="31" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I31" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="J31" s="94">
-        <v>1.7613101357748921</v>
-      </c>
-      <c r="K31" s="94"/>
-      <c r="O31" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="P31" s="94">
-        <v>2.1318467863266499</v>
-      </c>
-      <c r="Q31" s="94"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -9461,45 +8926,45 @@
     </row>
     <row r="3" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="77" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="88" t="s">
+      <c r="E4" s="90"/>
+      <c r="F4" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="90" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="90" t="s">
+      <c r="I4" s="92"/>
+      <c r="J4" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="91"/>
-      <c r="P4" s="73" t="s">
+      <c r="K4" s="92"/>
+      <c r="P4" s="77" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="87"/>
-      <c r="T4" s="86" t="s">
+      <c r="S4" s="88"/>
+      <c r="T4" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="87"/>
+      <c r="U4" s="88"/>
     </row>
     <row r="5" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="74"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="76"/>
       <c r="D5" s="4" t="s">
         <v>1</v>
@@ -9525,7 +8990,7 @@
       <c r="K5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="74"/>
+      <c r="P5" s="78"/>
       <c r="Q5" s="76"/>
       <c r="R5" s="4" t="s">
         <v>1</v>
@@ -9541,7 +9006,7 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="79" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -9571,7 +9036,7 @@
       <c r="K6" s="15">
         <v>0.46449738029316001</v>
       </c>
-      <c r="P6" s="70" t="s">
+      <c r="P6" s="79" t="s">
         <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
@@ -9596,7 +9061,7 @@
       <c r="X6" s="69"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="71"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -9624,7 +9089,7 @@
       <c r="K7" s="18">
         <v>0.54328564517243705</v>
       </c>
-      <c r="P7" s="71"/>
+      <c r="P7" s="80"/>
       <c r="Q7" s="2" t="s">
         <v>5</v>
       </c>
@@ -9647,7 +9112,7 @@
       <c r="X7" s="69"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B8" s="71"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -9675,7 +9140,7 @@
       <c r="K8" s="18">
         <v>0.44666666666666599</v>
       </c>
-      <c r="P8" s="71"/>
+      <c r="P8" s="80"/>
       <c r="Q8" s="2" t="s">
         <v>6</v>
       </c>
@@ -9698,7 +9163,7 @@
       <c r="X8" s="69"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="71"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -9726,7 +9191,7 @@
       <c r="K9" s="18">
         <v>0.41017800027812501</v>
       </c>
-      <c r="P9" s="71"/>
+      <c r="P9" s="80"/>
       <c r="Q9" s="2" t="s">
         <v>8</v>
       </c>
@@ -9749,7 +9214,7 @@
       <c r="X9" s="69"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="71"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="22" t="s">
         <v>9</v>
       </c>
@@ -9777,7 +9242,7 @@
       <c r="K10" s="18">
         <v>0.49500251862456501</v>
       </c>
-      <c r="P10" s="71"/>
+      <c r="P10" s="80"/>
       <c r="Q10" s="22" t="s">
         <v>9</v>
       </c>
@@ -9800,7 +9265,7 @@
       <c r="X10" s="69"/>
     </row>
     <row r="11" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="72"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="24" t="s">
         <v>28</v>
       </c>
@@ -9836,7 +9301,7 @@
         <f t="shared" si="0"/>
         <v>0.47192604220699064</v>
       </c>
-      <c r="P11" s="72"/>
+      <c r="P11" s="81"/>
       <c r="Q11" s="24" t="s">
         <v>28</v>
       </c>
@@ -9861,7 +9326,7 @@
       <c r="X11" s="69"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="79" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -9891,7 +9356,7 @@
       <c r="K12" s="15">
         <v>0.37968877968877901</v>
       </c>
-      <c r="P12" s="70" t="s">
+      <c r="P12" s="79" t="s">
         <v>49</v>
       </c>
       <c r="Q12" s="7" t="s">
@@ -9916,7 +9381,7 @@
       <c r="X12" s="69"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="71"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
@@ -9944,7 +9409,7 @@
       <c r="K13" s="18">
         <v>0.39484960917629702</v>
       </c>
-      <c r="P13" s="71"/>
+      <c r="P13" s="80"/>
       <c r="Q13" s="2" t="s">
         <v>5</v>
       </c>
@@ -9967,7 +9432,7 @@
       <c r="X13" s="69"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="71"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -9995,7 +9460,7 @@
       <c r="K14" s="18">
         <v>0.40748727163821502</v>
       </c>
-      <c r="P14" s="71"/>
+      <c r="P14" s="80"/>
       <c r="Q14" s="2" t="s">
         <v>6</v>
       </c>
@@ -10018,7 +9483,7 @@
       <c r="X14" s="69"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B15" s="71"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
@@ -10046,7 +9511,7 @@
       <c r="K15" s="18">
         <v>0.40951374720683897</v>
       </c>
-      <c r="P15" s="71"/>
+      <c r="P15" s="80"/>
       <c r="Q15" s="2" t="s">
         <v>8</v>
       </c>
@@ -10069,7 +9534,7 @@
       <c r="X15" s="69"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B16" s="71"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="22" t="s">
         <v>9</v>
       </c>
@@ -10097,7 +9562,7 @@
       <c r="K16" s="18">
         <v>0.41772262371900498</v>
       </c>
-      <c r="P16" s="71"/>
+      <c r="P16" s="80"/>
       <c r="Q16" s="22" t="s">
         <v>9</v>
       </c>
@@ -10120,7 +9585,7 @@
       <c r="X16" s="69"/>
     </row>
     <row r="17" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="72"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="24" t="s">
         <v>28</v>
       </c>
@@ -10156,7 +9621,7 @@
         <f t="shared" si="1"/>
         <v>0.40185240628582697</v>
       </c>
-      <c r="P17" s="72"/>
+      <c r="P17" s="81"/>
       <c r="Q17" s="24" t="s">
         <v>28</v>
       </c>
@@ -10181,7 +9646,7 @@
       <c r="X17" s="69"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="79" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -10211,7 +9676,7 @@
       <c r="K18" s="15">
         <v>0.56784646348476098</v>
       </c>
-      <c r="P18" s="70" t="s">
+      <c r="P18" s="79" t="s">
         <v>14</v>
       </c>
       <c r="Q18" s="7" t="s">
@@ -10236,7 +9701,7 @@
       <c r="X18" s="69"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B19" s="71"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
@@ -10264,7 +9729,7 @@
       <c r="K19" s="18">
         <v>0.46253496058987997</v>
       </c>
-      <c r="P19" s="71"/>
+      <c r="P19" s="80"/>
       <c r="Q19" s="2" t="s">
         <v>5</v>
       </c>
@@ -10287,7 +9752,7 @@
       <c r="X19" s="69"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B20" s="71"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
@@ -10315,7 +9780,7 @@
       <c r="K20" s="18">
         <v>0.50257522316750003</v>
       </c>
-      <c r="P20" s="71"/>
+      <c r="P20" s="80"/>
       <c r="Q20" s="2" t="s">
         <v>6</v>
       </c>
@@ -10338,7 +9803,7 @@
       <c r="X20" s="69"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B21" s="71"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
@@ -10366,7 +9831,7 @@
       <c r="K21" s="18">
         <v>0.49256491545893699</v>
       </c>
-      <c r="P21" s="71"/>
+      <c r="P21" s="80"/>
       <c r="Q21" s="2" t="s">
         <v>8</v>
       </c>
@@ -10389,7 +9854,7 @@
       <c r="X21" s="69"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B22" s="71"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="22" t="s">
         <v>9</v>
       </c>
@@ -10417,7 +9882,7 @@
       <c r="K22" s="18">
         <v>0.53429525850500204</v>
       </c>
-      <c r="P22" s="71"/>
+      <c r="P22" s="80"/>
       <c r="Q22" s="22" t="s">
         <v>9</v>
       </c>
@@ -10440,7 +9905,7 @@
       <c r="X22" s="69"/>
     </row>
     <row r="23" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="72"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="24" t="s">
         <v>28</v>
       </c>
@@ -10476,7 +9941,7 @@
         <f t="shared" si="3"/>
         <v>0.51196336424121602</v>
       </c>
-      <c r="P23" s="72"/>
+      <c r="P23" s="81"/>
       <c r="Q23" s="24" t="s">
         <v>28</v>
       </c>
@@ -10555,7 +10020,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="79" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -10566,7 +10031,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="71"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="1" t="s">
         <v>45</v>
       </c>
@@ -10575,7 +10040,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="71"/>
+      <c r="B39" s="80"/>
       <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
@@ -10584,7 +10049,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="72"/>
+      <c r="B40" s="81"/>
       <c r="C40" s="4" t="s">
         <v>47</v>
       </c>
@@ -10593,7 +10058,7 @@
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="79" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -10604,7 +10069,7 @@
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="71"/>
+      <c r="B42" s="80"/>
       <c r="C42" s="1" t="s">
         <v>45</v>
       </c>
@@ -10613,7 +10078,7 @@
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="71"/>
+      <c r="B43" s="80"/>
       <c r="C43" s="1" t="s">
         <v>46</v>
       </c>
@@ -10622,7 +10087,7 @@
       </c>
     </row>
     <row r="44" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="72"/>
+      <c r="B44" s="81"/>
       <c r="C44" s="4" t="s">
         <v>47</v>
       </c>
@@ -10631,7 +10096,7 @@
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="79" t="s">
         <v>42</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -10642,7 +10107,7 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="71"/>
+      <c r="B46" s="80"/>
       <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
@@ -10651,7 +10116,7 @@
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="71"/>
+      <c r="B47" s="80"/>
       <c r="C47" s="1" t="s">
         <v>46</v>
       </c>
@@ -10660,7 +10125,7 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="72"/>
+      <c r="B48" s="81"/>
       <c r="C48" s="4" t="s">
         <v>47</v>
       </c>
@@ -10670,6 +10135,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="P6:P11"/>
+    <mergeCell ref="P12:P17"/>
     <mergeCell ref="P18:P23"/>
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B41:B44"/>
@@ -10686,9 +10154,6 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="P6:P11"/>
-    <mergeCell ref="P12:P17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results tables/results_table_scheme.xlsx
+++ b/results tables/results_table_scheme.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Financial Results Table - Comp" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="53">
   <si>
     <t>Annual Returns</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Significance test: paired, two tailed t test results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing data </t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -562,30 +565,26 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -594,6 +593,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -607,7 +612,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -628,29 +657,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6079,8 +6094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C19" sqref="C1:I1048576"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76:E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6104,37 +6119,37 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="71" t="s">
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="71" t="s">
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="73"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="104"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="78"/>
-      <c r="C4" s="76"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
@@ -6182,7 +6197,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="89" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -6235,7 +6250,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="80"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -6286,7 +6301,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="80"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -6337,7 +6352,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="80"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -6388,7 +6403,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="80"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -6439,7 +6454,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="80"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="23" t="s">
         <v>34</v>
       </c>
@@ -6505,7 +6520,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="81"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="23" t="s">
         <v>28</v>
       </c>
@@ -6571,7 +6586,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="89" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -6592,19 +6607,19 @@
       <c r="H12" s="15">
         <v>-0.230341620949573</v>
       </c>
-      <c r="I12" s="98">
+      <c r="I12" s="75">
         <v>3.13156199586615E-2</v>
       </c>
-      <c r="J12" s="99">
+      <c r="J12" s="76">
         <v>0.158923200427808</v>
       </c>
-      <c r="K12" s="100">
+      <c r="K12" s="77">
         <v>-0.19930292535681901</v>
       </c>
-      <c r="L12" s="100">
+      <c r="L12" s="77">
         <v>-0.127850763626391</v>
       </c>
-      <c r="M12" s="101">
+      <c r="M12" s="78">
         <v>-0.122477784622696</v>
       </c>
       <c r="N12" s="37">
@@ -6624,7 +6639,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="80"/>
+      <c r="B13" s="90"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
@@ -6643,19 +6658,19 @@
       <c r="H13" s="18">
         <v>-0.31188499352231602</v>
       </c>
-      <c r="I13" s="102">
+      <c r="I13" s="79">
         <v>8.1754085874703401E-3</v>
       </c>
-      <c r="J13" s="103">
+      <c r="J13" s="80">
         <v>2.9686797133156001E-2</v>
       </c>
-      <c r="K13" s="103">
+      <c r="K13" s="80">
         <v>-0.10320913792351399</v>
       </c>
-      <c r="L13" s="104">
+      <c r="L13" s="81">
         <v>-0.13891939698282901</v>
       </c>
-      <c r="M13" s="105">
+      <c r="M13" s="82">
         <v>-0.170175390761545</v>
       </c>
       <c r="N13" s="40">
@@ -6675,7 +6690,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="80"/>
+      <c r="B14" s="90"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -6694,19 +6709,19 @@
       <c r="H14" s="18">
         <v>-0.129084618045535</v>
       </c>
-      <c r="I14" s="102">
+      <c r="I14" s="79">
         <v>0.100798792716777</v>
       </c>
-      <c r="J14" s="103">
+      <c r="J14" s="80">
         <v>0.21694315682008999</v>
       </c>
-      <c r="K14" s="103">
+      <c r="K14" s="80">
         <v>-0.117490800820717</v>
       </c>
-      <c r="L14" s="104">
+      <c r="L14" s="81">
         <v>5.0432248000304297E-2</v>
       </c>
-      <c r="M14" s="105">
+      <c r="M14" s="82">
         <v>-6.6647736206958699E-2</v>
       </c>
       <c r="N14" s="40">
@@ -6726,7 +6741,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="80"/>
+      <c r="B15" s="90"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
@@ -6745,19 +6760,19 @@
       <c r="H15" s="18">
         <v>8.0013882383444895E-2</v>
       </c>
-      <c r="I15" s="102">
+      <c r="I15" s="79">
         <v>0.346221039105227</v>
       </c>
-      <c r="J15" s="103">
+      <c r="J15" s="80">
         <v>4.5071649422026003E-2</v>
       </c>
-      <c r="K15" s="103">
+      <c r="K15" s="80">
         <v>-0.22820796269291099</v>
       </c>
-      <c r="L15" s="103">
+      <c r="L15" s="80">
         <v>-0.157324120085719</v>
       </c>
-      <c r="M15" s="106">
+      <c r="M15" s="83">
         <v>3.9160396719383997E-2</v>
       </c>
       <c r="N15" s="40">
@@ -6777,7 +6792,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="80"/>
+      <c r="B16" s="90"/>
       <c r="C16" s="22" t="s">
         <v>9</v>
       </c>
@@ -6796,19 +6811,19 @@
       <c r="H16" s="18">
         <v>-0.19485432500445601</v>
       </c>
-      <c r="I16" s="102">
+      <c r="I16" s="79">
         <v>2.78521185042006E-2</v>
       </c>
-      <c r="J16" s="103">
+      <c r="J16" s="80">
         <v>0.333104580082421</v>
       </c>
-      <c r="K16" s="103">
+      <c r="K16" s="80">
         <v>-0.187076033856686</v>
       </c>
-      <c r="L16" s="103">
+      <c r="L16" s="80">
         <v>-0.16091402964760901</v>
       </c>
-      <c r="M16" s="105">
+      <c r="M16" s="82">
         <v>-0.102514245698078</v>
       </c>
       <c r="N16" s="40">
@@ -6828,7 +6843,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="80"/>
+      <c r="B17" s="90"/>
       <c r="C17" s="23" t="s">
         <v>34</v>
       </c>
@@ -6852,23 +6867,23 @@
         <f t="shared" ref="H17" si="5">_xlfn.STDEV.S(H12:H16)</f>
         <v>0.14811810171656428</v>
       </c>
-      <c r="I17" s="107">
+      <c r="I17" s="84">
         <f t="shared" ref="I17" si="6">_xlfn.STDEV.S(I12:I16)</f>
         <v>0.14048024379740878</v>
       </c>
-      <c r="J17" s="108">
+      <c r="J17" s="85">
         <f t="shared" ref="J17" si="7">_xlfn.STDEV.S(J12:J16)</f>
         <v>0.1258431446977816</v>
       </c>
-      <c r="K17" s="109">
+      <c r="K17" s="86">
         <f t="shared" ref="K17" si="8">_xlfn.STDEV.S(K12:K16)</f>
         <v>5.4114136898476869E-2</v>
       </c>
-      <c r="L17" s="110">
+      <c r="L17" s="87">
         <f t="shared" ref="L17" si="9">_xlfn.STDEV.S(L12:L16)</f>
         <v>8.8991177468047314E-2</v>
       </c>
-      <c r="M17" s="111">
+      <c r="M17" s="88">
         <f t="shared" ref="M17" si="10">_xlfn.STDEV.S(M12:M16)</f>
         <v>7.8609302891303842E-2</v>
       </c>
@@ -6894,7 +6909,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="81"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="23" t="s">
         <v>28</v>
       </c>
@@ -6918,23 +6933,23 @@
         <f t="shared" si="16"/>
         <v>-0.15723033502768702</v>
       </c>
-      <c r="I18" s="107">
+      <c r="I18" s="84">
         <f t="shared" si="16"/>
         <v>0.10287259577446728</v>
       </c>
-      <c r="J18" s="109">
+      <c r="J18" s="86">
         <f t="shared" si="16"/>
         <v>0.15674587677710022</v>
       </c>
-      <c r="K18" s="110">
+      <c r="K18" s="87">
         <f t="shared" si="16"/>
         <v>-0.16705737213012942</v>
       </c>
-      <c r="L18" s="110">
+      <c r="L18" s="87">
         <f t="shared" si="16"/>
         <v>-0.10691521246844875</v>
       </c>
-      <c r="M18" s="111">
+      <c r="M18" s="88">
         <f t="shared" si="16"/>
         <v>-8.4530952113978736E-2</v>
       </c>
@@ -6960,7 +6975,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="89" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -7013,7 +7028,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="80"/>
+      <c r="B20" s="90"/>
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
@@ -7064,7 +7079,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="80"/>
+      <c r="B21" s="90"/>
       <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
@@ -7115,7 +7130,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="80"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
@@ -7166,7 +7181,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="80"/>
+      <c r="B23" s="90"/>
       <c r="C23" s="22" t="s">
         <v>9</v>
       </c>
@@ -7217,7 +7232,7 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="80"/>
+      <c r="B24" s="90"/>
       <c r="C24" s="23" t="s">
         <v>34</v>
       </c>
@@ -7283,7 +7298,7 @@
       </c>
     </row>
     <row r="25" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="81"/>
+      <c r="B25" s="91"/>
       <c r="C25" s="23" t="s">
         <v>28</v>
       </c>
@@ -7359,35 +7374,35 @@
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="75" t="s">
+      <c r="C29" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="71" t="s">
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="74"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="104"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="106"/>
     </row>
     <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="78"/>
-      <c r="C30" s="76"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="4" t="s">
         <v>1</v>
       </c>
@@ -7425,7 +7440,7 @@
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="89" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -7468,7 +7483,7 @@
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="80"/>
+      <c r="B32" s="90"/>
       <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
@@ -7509,7 +7524,7 @@
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="80"/>
+      <c r="B33" s="90"/>
       <c r="C33" s="2" t="s">
         <v>6</v>
       </c>
@@ -7550,7 +7565,7 @@
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="80"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
@@ -7591,7 +7606,7 @@
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="80"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
@@ -7632,7 +7647,7 @@
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="81"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="55" t="s">
         <v>28</v>
       </c>
@@ -7683,7 +7698,7 @@
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="89" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -7726,7 +7741,7 @@
       <c r="R37" s="2"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="80"/>
+      <c r="B38" s="90"/>
       <c r="C38" s="2" t="s">
         <v>5</v>
       </c>
@@ -7767,7 +7782,7 @@
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B39" s="80"/>
+      <c r="B39" s="90"/>
       <c r="C39" s="2" t="s">
         <v>6</v>
       </c>
@@ -7808,7 +7823,7 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="80"/>
+      <c r="B40" s="90"/>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
@@ -7849,7 +7864,7 @@
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="80"/>
+      <c r="B41" s="90"/>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
@@ -7890,7 +7905,7 @@
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="81"/>
+      <c r="B42" s="91"/>
       <c r="C42" s="55" t="s">
         <v>28</v>
       </c>
@@ -7941,7 +7956,7 @@
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="89" t="s">
         <v>14</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -7984,7 +7999,7 @@
       <c r="R43" s="2"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="80"/>
+      <c r="B44" s="90"/>
       <c r="C44" s="2" t="s">
         <v>5</v>
       </c>
@@ -8025,7 +8040,7 @@
       <c r="R44" s="2"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="80"/>
+      <c r="B45" s="90"/>
       <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
@@ -8066,7 +8081,7 @@
       <c r="R45" s="2"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="80"/>
+      <c r="B46" s="90"/>
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
@@ -8107,7 +8122,7 @@
       <c r="R46" s="2"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="80"/>
+      <c r="B47" s="90"/>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
@@ -8148,7 +8163,7 @@
       <c r="R47" s="2"/>
     </row>
     <row r="48" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="81"/>
+      <c r="B48" s="91"/>
       <c r="C48" s="55" t="s">
         <v>28</v>
       </c>
@@ -8216,17 +8231,17 @@
       <c r="R50" s="2"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B51" s="82" t="s">
+      <c r="B51" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="84" t="s">
+      <c r="C51" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="85"/>
-      <c r="E51" s="86" t="s">
+      <c r="D51" s="97"/>
+      <c r="E51" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="F51" s="85"/>
+      <c r="F51" s="97"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -8234,7 +8249,7 @@
       <c r="R51" s="2"/>
     </row>
     <row r="52" spans="2:18" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="83"/>
+      <c r="B52" s="95"/>
       <c r="C52" s="61" t="s">
         <v>36</v>
       </c>
@@ -8258,7 +8273,7 @@
       <c r="R52" s="2"/>
     </row>
     <row r="53" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="79" t="s">
+      <c r="B53" s="89" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -8275,7 +8290,7 @@
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B54" s="80"/>
+      <c r="B54" s="90"/>
       <c r="C54" s="1" t="s">
         <v>1</v>
       </c>
@@ -8290,7 +8305,7 @@
       </c>
     </row>
     <row r="55" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="80"/>
+      <c r="B55" s="90"/>
       <c r="C55" s="1" t="s">
         <v>1</v>
       </c>
@@ -8305,7 +8320,7 @@
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B56" s="80"/>
+      <c r="B56" s="90"/>
       <c r="C56" s="1" t="s">
         <v>1</v>
       </c>
@@ -8320,7 +8335,7 @@
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B57" s="80"/>
+      <c r="B57" s="90"/>
       <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
@@ -8335,7 +8350,7 @@
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B58" s="80"/>
+      <c r="B58" s="90"/>
       <c r="C58" s="1" t="s">
         <v>2</v>
       </c>
@@ -8350,7 +8365,7 @@
       </c>
     </row>
     <row r="59" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="81"/>
+      <c r="B59" s="91"/>
       <c r="C59" s="4" t="s">
         <v>2</v>
       </c>
@@ -8365,7 +8380,7 @@
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B60" s="79" t="s">
+      <c r="B60" s="89" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -8382,7 +8397,7 @@
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B61" s="80"/>
+      <c r="B61" s="90"/>
       <c r="C61" s="1" t="s">
         <v>1</v>
       </c>
@@ -8397,7 +8412,7 @@
       </c>
     </row>
     <row r="62" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="80"/>
+      <c r="B62" s="90"/>
       <c r="C62" s="1" t="s">
         <v>1</v>
       </c>
@@ -8412,7 +8427,7 @@
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B63" s="80"/>
+      <c r="B63" s="90"/>
       <c r="C63" s="1" t="s">
         <v>1</v>
       </c>
@@ -8427,7 +8442,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B64" s="80"/>
+      <c r="B64" s="90"/>
       <c r="C64" s="1" t="s">
         <v>2</v>
       </c>
@@ -8442,7 +8457,7 @@
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="80"/>
+      <c r="B65" s="90"/>
       <c r="C65" s="1" t="s">
         <v>2</v>
       </c>
@@ -8457,7 +8472,7 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="81"/>
+      <c r="B66" s="91"/>
       <c r="C66" s="4" t="s">
         <v>2</v>
       </c>
@@ -8472,7 +8487,7 @@
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="79" t="s">
+      <c r="B67" s="89" t="s">
         <v>42</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -8489,7 +8504,7 @@
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="80"/>
+      <c r="B68" s="90"/>
       <c r="C68" s="1" t="s">
         <v>1</v>
       </c>
@@ -8504,7 +8519,7 @@
       </c>
     </row>
     <row r="69" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="80"/>
+      <c r="B69" s="90"/>
       <c r="C69" s="1" t="s">
         <v>1</v>
       </c>
@@ -8519,7 +8534,7 @@
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="80"/>
+      <c r="B70" s="90"/>
       <c r="C70" s="1" t="s">
         <v>1</v>
       </c>
@@ -8534,7 +8549,7 @@
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="80"/>
+      <c r="B71" s="90"/>
       <c r="C71" s="1" t="s">
         <v>2</v>
       </c>
@@ -8549,7 +8564,7 @@
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="80"/>
+      <c r="B72" s="90"/>
       <c r="C72" s="1" t="s">
         <v>2</v>
       </c>
@@ -8564,7 +8579,7 @@
       </c>
     </row>
     <row r="73" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="81"/>
+      <c r="B73" s="91"/>
       <c r="C73" s="4" t="s">
         <v>2</v>
       </c>
@@ -8584,29 +8599,29 @@
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="82" t="s">
+      <c r="B77" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="84" t="s">
+      <c r="C77" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="85"/>
-      <c r="E77" s="96" t="s">
+      <c r="D77" s="97"/>
+      <c r="E77" s="92" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="83"/>
+      <c r="B78" s="95"/>
       <c r="C78" s="61" t="s">
         <v>36</v>
       </c>
       <c r="D78" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="E78" s="97"/>
+      <c r="E78" s="93"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="79" t="s">
+      <c r="B79" s="89" t="s">
         <v>13</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -8615,84 +8630,84 @@
       <c r="D79" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E79" s="93">
+      <c r="E79" s="72">
         <v>0.41360538776069</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="80"/>
+      <c r="B80" s="90"/>
       <c r="C80" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E80" s="94">
+      <c r="E80" s="73">
         <v>0.121441303508643</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B81" s="80"/>
+      <c r="B81" s="90"/>
       <c r="C81" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E81" s="94">
+      <c r="E81" s="73">
         <v>0.39032689443521901</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="80"/>
+      <c r="B82" s="90"/>
       <c r="C82" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="94">
+      <c r="E82" s="73">
         <v>0.28303301606163001</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="80"/>
+      <c r="B83" s="90"/>
       <c r="C83" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="94">
+      <c r="E83" s="73">
         <v>0.91240527820265105</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B84" s="80"/>
+      <c r="B84" s="90"/>
       <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="94">
+      <c r="E84" s="73">
         <v>0.91561230816444406</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="81"/>
+      <c r="B85" s="91"/>
       <c r="C85" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E85" s="95">
+      <c r="E85" s="74">
         <v>0.58281054981942104</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="79" t="s">
+      <c r="B86" s="89" t="s">
         <v>49</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -8701,84 +8716,84 @@
       <c r="D86" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E86" s="93">
+      <c r="E86" s="72">
         <v>0.61830988814292298</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="80"/>
+      <c r="B87" s="90"/>
       <c r="C87" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E87" s="94">
+      <c r="E87" s="73">
         <v>2.6950568015114799E-2</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="80"/>
+      <c r="B88" s="90"/>
       <c r="C88" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E88" s="94">
+      <c r="E88" s="73">
         <v>5.2780005060125597E-2</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="80"/>
+      <c r="B89" s="90"/>
       <c r="C89" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="94">
+      <c r="E89" s="73">
         <v>3.76288118769986E-3</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="80"/>
+      <c r="B90" s="90"/>
       <c r="C90" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E90" s="94">
+      <c r="E90" s="73">
         <v>6.7135643499659E-3</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B91" s="80"/>
+      <c r="B91" s="90"/>
       <c r="C91" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="94">
+      <c r="E91" s="73">
         <v>1.28266939548603E-2</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="81"/>
+      <c r="B92" s="91"/>
       <c r="C92" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E92" s="95">
+      <c r="E92" s="74">
         <v>2.6248695470517801E-2</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B93" s="79" t="s">
+      <c r="B93" s="89" t="s">
         <v>42</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -8787,90 +8802,94 @@
       <c r="D93" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E93" s="93">
+      <c r="E93" s="72">
         <v>0.47830138352062701</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B94" s="80"/>
+      <c r="B94" s="90"/>
       <c r="C94" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="94">
+      <c r="E94" s="73">
         <v>0.97197132058742897</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="80"/>
+      <c r="B95" s="90"/>
       <c r="C95" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E95" s="94">
+      <c r="E95" s="73">
         <v>0.85006904973170005</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B96" s="80"/>
+      <c r="B96" s="90"/>
       <c r="C96" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E96" s="94">
+      <c r="E96" s="73">
         <v>0.29653350275301099</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B97" s="80"/>
+      <c r="B97" s="90"/>
       <c r="C97" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E97" s="94">
+      <c r="E97" s="73">
         <v>0.70647571413425103</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B98" s="80"/>
+      <c r="B98" s="90"/>
       <c r="C98" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="94">
+      <c r="E98" s="73">
         <v>0.95486260717246696</v>
       </c>
     </row>
     <row r="99" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="81"/>
+      <c r="B99" s="91"/>
       <c r="C99" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="95">
+      <c r="E99" s="74">
         <v>0.46781233141728401</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B93:B99"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="B79:B85"/>
-    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:M3"/>
     <mergeCell ref="B60:B66"/>
     <mergeCell ref="B67:B73"/>
     <mergeCell ref="B29:B30"/>
@@ -8883,16 +8902,12 @@
     <mergeCell ref="B31:B36"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="B43:B48"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B79:B85"/>
+    <mergeCell ref="B86:B92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8902,10 +8917,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:X48"/>
+  <dimension ref="B2:X64"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8926,46 +8941,46 @@
     </row>
     <row r="3" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="89" t="s">
+      <c r="E4" s="110"/>
+      <c r="F4" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="91" t="s">
+      <c r="G4" s="110"/>
+      <c r="H4" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="91" t="s">
+      <c r="I4" s="112"/>
+      <c r="J4" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="92"/>
-      <c r="P4" s="77" t="s">
+      <c r="K4" s="112"/>
+      <c r="P4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="88"/>
-      <c r="T4" s="87" t="s">
+      <c r="S4" s="108"/>
+      <c r="T4" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="88"/>
+      <c r="U4" s="108"/>
     </row>
     <row r="5" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="78"/>
-      <c r="C5" s="76"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="101"/>
       <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
@@ -8990,8 +9005,8 @@
       <c r="K5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="76"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="101"/>
       <c r="R5" s="4" t="s">
         <v>1</v>
       </c>
@@ -9006,7 +9021,7 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="89" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -9036,7 +9051,7 @@
       <c r="K6" s="15">
         <v>0.46449738029316001</v>
       </c>
-      <c r="P6" s="79" t="s">
+      <c r="P6" s="89" t="s">
         <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
@@ -9061,7 +9076,7 @@
       <c r="X6" s="69"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="80"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -9089,7 +9104,7 @@
       <c r="K7" s="18">
         <v>0.54328564517243705</v>
       </c>
-      <c r="P7" s="80"/>
+      <c r="P7" s="90"/>
       <c r="Q7" s="2" t="s">
         <v>5</v>
       </c>
@@ -9112,7 +9127,7 @@
       <c r="X7" s="69"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B8" s="80"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -9140,7 +9155,7 @@
       <c r="K8" s="18">
         <v>0.44666666666666599</v>
       </c>
-      <c r="P8" s="80"/>
+      <c r="P8" s="90"/>
       <c r="Q8" s="2" t="s">
         <v>6</v>
       </c>
@@ -9163,7 +9178,7 @@
       <c r="X8" s="69"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="80"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -9191,7 +9206,7 @@
       <c r="K9" s="18">
         <v>0.41017800027812501</v>
       </c>
-      <c r="P9" s="80"/>
+      <c r="P9" s="90"/>
       <c r="Q9" s="2" t="s">
         <v>8</v>
       </c>
@@ -9214,7 +9229,7 @@
       <c r="X9" s="69"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="80"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="22" t="s">
         <v>9</v>
       </c>
@@ -9242,7 +9257,7 @@
       <c r="K10" s="18">
         <v>0.49500251862456501</v>
       </c>
-      <c r="P10" s="80"/>
+      <c r="P10" s="90"/>
       <c r="Q10" s="22" t="s">
         <v>9</v>
       </c>
@@ -9265,7 +9280,7 @@
       <c r="X10" s="69"/>
     </row>
     <row r="11" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="81"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="24" t="s">
         <v>28</v>
       </c>
@@ -9301,7 +9316,7 @@
         <f t="shared" si="0"/>
         <v>0.47192604220699064</v>
       </c>
-      <c r="P11" s="81"/>
+      <c r="P11" s="91"/>
       <c r="Q11" s="24" t="s">
         <v>28</v>
       </c>
@@ -9326,7 +9341,7 @@
       <c r="X11" s="69"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="89" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -9356,7 +9371,7 @@
       <c r="K12" s="15">
         <v>0.37968877968877901</v>
       </c>
-      <c r="P12" s="79" t="s">
+      <c r="P12" s="89" t="s">
         <v>49</v>
       </c>
       <c r="Q12" s="7" t="s">
@@ -9381,7 +9396,7 @@
       <c r="X12" s="69"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="80"/>
+      <c r="B13" s="90"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
@@ -9409,7 +9424,7 @@
       <c r="K13" s="18">
         <v>0.39484960917629702</v>
       </c>
-      <c r="P13" s="80"/>
+      <c r="P13" s="90"/>
       <c r="Q13" s="2" t="s">
         <v>5</v>
       </c>
@@ -9432,7 +9447,7 @@
       <c r="X13" s="69"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="80"/>
+      <c r="B14" s="90"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -9460,7 +9475,7 @@
       <c r="K14" s="18">
         <v>0.40748727163821502</v>
       </c>
-      <c r="P14" s="80"/>
+      <c r="P14" s="90"/>
       <c r="Q14" s="2" t="s">
         <v>6</v>
       </c>
@@ -9483,7 +9498,7 @@
       <c r="X14" s="69"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B15" s="80"/>
+      <c r="B15" s="90"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
@@ -9511,7 +9526,7 @@
       <c r="K15" s="18">
         <v>0.40951374720683897</v>
       </c>
-      <c r="P15" s="80"/>
+      <c r="P15" s="90"/>
       <c r="Q15" s="2" t="s">
         <v>8</v>
       </c>
@@ -9534,7 +9549,7 @@
       <c r="X15" s="69"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B16" s="80"/>
+      <c r="B16" s="90"/>
       <c r="C16" s="22" t="s">
         <v>9</v>
       </c>
@@ -9562,7 +9577,7 @@
       <c r="K16" s="18">
         <v>0.41772262371900498</v>
       </c>
-      <c r="P16" s="80"/>
+      <c r="P16" s="90"/>
       <c r="Q16" s="22" t="s">
         <v>9</v>
       </c>
@@ -9585,7 +9600,7 @@
       <c r="X16" s="69"/>
     </row>
     <row r="17" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="81"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="24" t="s">
         <v>28</v>
       </c>
@@ -9621,7 +9636,7 @@
         <f t="shared" si="1"/>
         <v>0.40185240628582697</v>
       </c>
-      <c r="P17" s="81"/>
+      <c r="P17" s="91"/>
       <c r="Q17" s="24" t="s">
         <v>28</v>
       </c>
@@ -9646,7 +9661,7 @@
       <c r="X17" s="69"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="89" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -9676,7 +9691,7 @@
       <c r="K18" s="15">
         <v>0.56784646348476098</v>
       </c>
-      <c r="P18" s="79" t="s">
+      <c r="P18" s="89" t="s">
         <v>14</v>
       </c>
       <c r="Q18" s="7" t="s">
@@ -9701,7 +9716,7 @@
       <c r="X18" s="69"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B19" s="80"/>
+      <c r="B19" s="90"/>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
@@ -9729,7 +9744,7 @@
       <c r="K19" s="18">
         <v>0.46253496058987997</v>
       </c>
-      <c r="P19" s="80"/>
+      <c r="P19" s="90"/>
       <c r="Q19" s="2" t="s">
         <v>5</v>
       </c>
@@ -9752,7 +9767,7 @@
       <c r="X19" s="69"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B20" s="80"/>
+      <c r="B20" s="90"/>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
@@ -9780,7 +9795,7 @@
       <c r="K20" s="18">
         <v>0.50257522316750003</v>
       </c>
-      <c r="P20" s="80"/>
+      <c r="P20" s="90"/>
       <c r="Q20" s="2" t="s">
         <v>6</v>
       </c>
@@ -9803,7 +9818,7 @@
       <c r="X20" s="69"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B21" s="80"/>
+      <c r="B21" s="90"/>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
@@ -9831,7 +9846,7 @@
       <c r="K21" s="18">
         <v>0.49256491545893699</v>
       </c>
-      <c r="P21" s="80"/>
+      <c r="P21" s="90"/>
       <c r="Q21" s="2" t="s">
         <v>8</v>
       </c>
@@ -9854,7 +9869,7 @@
       <c r="X21" s="69"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B22" s="80"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="22" t="s">
         <v>9</v>
       </c>
@@ -9882,7 +9897,7 @@
       <c r="K22" s="18">
         <v>0.53429525850500204</v>
       </c>
-      <c r="P22" s="80"/>
+      <c r="P22" s="90"/>
       <c r="Q22" s="22" t="s">
         <v>9</v>
       </c>
@@ -9905,7 +9920,7 @@
       <c r="X22" s="69"/>
     </row>
     <row r="23" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="81"/>
+      <c r="B23" s="91"/>
       <c r="C23" s="24" t="s">
         <v>28</v>
       </c>
@@ -9941,7 +9956,7 @@
         <f t="shared" si="3"/>
         <v>0.51196336424121602</v>
       </c>
-      <c r="P23" s="81"/>
+      <c r="P23" s="91"/>
       <c r="Q23" s="24" t="s">
         <v>28</v>
       </c>
@@ -10020,7 +10035,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="89" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -10031,7 +10046,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="80"/>
+      <c r="B38" s="90"/>
       <c r="C38" s="1" t="s">
         <v>45</v>
       </c>
@@ -10040,7 +10055,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="80"/>
+      <c r="B39" s="90"/>
       <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
@@ -10049,7 +10064,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="81"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="4" t="s">
         <v>47</v>
       </c>
@@ -10058,7 +10073,7 @@
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="89" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -10069,7 +10084,7 @@
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="80"/>
+      <c r="B42" s="90"/>
       <c r="C42" s="1" t="s">
         <v>45</v>
       </c>
@@ -10078,7 +10093,7 @@
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="80"/>
+      <c r="B43" s="90"/>
       <c r="C43" s="1" t="s">
         <v>46</v>
       </c>
@@ -10087,7 +10102,7 @@
       </c>
     </row>
     <row r="44" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="81"/>
+      <c r="B44" s="91"/>
       <c r="C44" s="4" t="s">
         <v>47</v>
       </c>
@@ -10096,7 +10111,7 @@
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="89" t="s">
         <v>42</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -10107,7 +10122,7 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="80"/>
+      <c r="B46" s="90"/>
       <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
@@ -10116,7 +10131,7 @@
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="80"/>
+      <c r="B47" s="90"/>
       <c r="C47" s="1" t="s">
         <v>46</v>
       </c>
@@ -10125,7 +10140,7 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="81"/>
+      <c r="B48" s="91"/>
       <c r="C48" s="4" t="s">
         <v>47</v>
       </c>
@@ -10133,13 +10148,141 @@
         <v>0</v>
       </c>
     </row>
+    <row r="51" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="119" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="116">
+        <v>3.2270088011799301E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="90"/>
+      <c r="C54" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="117">
+        <v>2.2265568353040601E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="90"/>
+      <c r="C55" s="114" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="117">
+        <v>1.6712920535199101E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="91"/>
+      <c r="C56" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="118">
+        <v>3.1726306288855201E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="116">
+        <v>7.7688539348127404E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="90"/>
+      <c r="C58" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="117">
+        <v>1.68102373681875E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="90"/>
+      <c r="C59" s="114" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="117">
+        <v>1.6282915528986901E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="91"/>
+      <c r="C60" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="118">
+        <v>1.8619781158812101E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="116">
+        <v>1.3627117562528099E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="90"/>
+      <c r="C62" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="117">
+        <v>2.9965139606230899E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="90"/>
+      <c r="C63" s="114" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="117">
+        <v>2.0897722453687298E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="91"/>
+      <c r="C64" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="118">
+        <v>4.0639486365357004E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="P6:P11"/>
-    <mergeCell ref="P12:P17"/>
-    <mergeCell ref="P18:P23"/>
-    <mergeCell ref="B37:B40"/>
+  <mergeCells count="22">
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B53:B56"/>
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="T4:U4"/>
@@ -10154,6 +10297,11 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="P6:P11"/>
+    <mergeCell ref="P12:P17"/>
+    <mergeCell ref="P18:P23"/>
+    <mergeCell ref="B37:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results tables/results_table_scheme.xlsx
+++ b/results tables/results_table_scheme.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Financial Results Table - Comp" sheetId="1" r:id="rId1"/>
-    <sheet name="Classification Results - Comp" sheetId="2" r:id="rId2"/>
+    <sheet name="UvsI_viz" sheetId="3" r:id="rId2"/>
+    <sheet name="Classification Results - Comp" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="56">
   <si>
     <t>Annual Returns</t>
   </si>
@@ -185,6 +186,15 @@
   <si>
     <t xml:space="preserve">Testing data </t>
   </si>
+  <si>
+    <t>Testing data</t>
+  </si>
+  <si>
+    <t>Testing period</t>
+  </si>
+  <si>
+    <t>Tested Asset</t>
+  </si>
 </sst>
 </file>
 
@@ -246,7 +256,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +266,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -585,6 +601,39 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -593,12 +642,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -612,32 +655,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -657,15 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4076,6 +4093,1708 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>UvsI_viz!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN-I</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2681383757324109E-17"/>
+                  <c:y val="0.14073384564419139"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A7A8-4CD9-8D65-FB5C1BB90D36}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>UvsI_viz!$C$3:$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>UvsI_viz!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.145881123814527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.4471948363141501E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.43253275390385E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.615457245386409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12798459778988899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A7A8-4CD9-8D65-FB5C1BB90D36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>UvsI_viz!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN-U</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>UvsI_viz!$C$3:$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>UvsI_viz!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.28478386668830902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10122687302592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.134270073423258</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39034752517533799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24972435731795101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A7A8-4CD9-8D65-FB5C1BB90D36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="496839408"/>
+        <c:axId val="496845312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="496839408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU" b="1"/>
+                  <a:t>2006 - 2007</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37319666938184448"/>
+              <c:y val="0.91347732909533097"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg2">
+                      <a:lumMod val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496845312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="496845312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.85000000000000009"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU" b="1"/>
+                  <a:t>Annual return</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.8194506480855223E-3"/>
+              <c:y val="0.13906099521446624"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg2">
+                      <a:lumMod val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="496839408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.551086046652677E-2"/>
+          <c:y val="2.2221133522767039E-2"/>
+          <c:w val="0.41435960293317159"/>
+          <c:h val="8.5503921998235352E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>UvsI_viz!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN-I</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>UvsI_viz!$C$8:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>UvsI_viz!$D$8:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.3738056911135196E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.64494851570521E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21220565125930499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81438458943412195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6591609878907503E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7FAE-4AB9-AA6A-6BC310AF41FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>UvsI_viz!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN-U</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>UvsI_viz!$C$8:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>UvsI_viz!$E$8:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.34386510834068101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0374204644858001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48206942687674498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2359956635554699E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77913411762679696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7FAE-4AB9-AA6A-6BC310AF41FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="496839408"/>
+        <c:axId val="496845312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="496839408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU" b="1"/>
+                  <a:t>2008 - 2009</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37894379581862608"/>
+              <c:y val="0.91347732909533097"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg2">
+                      <a:lumMod val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496845312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="496845312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.85000000000000009"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="496839408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.4324373246447638E-2"/>
+          <c:y val="1.8494339421514537E-2"/>
+          <c:w val="0.42956647660421754"/>
+          <c:h val="8.539864475783232E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>UvsI_viz!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN-I</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>UvsI_viz!$C$13:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>UvsI_viz!$D$13:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.110429783185575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18760810273480699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4609476671710201E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15072712102236899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5528211301886703E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-666D-45E0-AD90-A7239F9AF3F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>UvsI_viz!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN-U</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>UvsI_viz!$C$13:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>UvsI_viz!$E$13:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.7493525526368801E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.230616673836994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11305385772299301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.190476207275802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11892249522370001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-666D-45E0-AD90-A7239F9AF3F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="496839408"/>
+        <c:axId val="496845312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="496839408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU" b="1"/>
+                  <a:t>2017 - 2019</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37319666938184454"/>
+              <c:y val="0.91347726328952095"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg2">
+                      <a:lumMod val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496845312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="496845312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.85000000000000009"/>
+          <c:min val="-5.000000000000001E-2"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="496839408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.4324373246447638E-2"/>
+          <c:y val="2.9628178030356053E-2"/>
+          <c:w val="0.42956647660421754"/>
+          <c:h val="8.5586532212957603E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -4187,6 +5906,24 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5692,6 +7429,1578 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5772,6 +9081,105 @@
       <xdr:colOff>594360</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>424543</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>179069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>129541</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>53787</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>58591</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>493955</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>36755</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>54458</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6094,8 +9502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R99"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76:E78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6112,43 +9520,43 @@
     <col min="11" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="102" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="102" t="s">
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="102" t="s">
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="104"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="98"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="99"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="101"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
@@ -6197,7 +9605,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="104" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -6250,7 +9658,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="90"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -6301,7 +9709,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="90"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -6352,7 +9760,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="90"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -6403,7 +9811,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="90"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -6454,7 +9862,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="90"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="23" t="s">
         <v>34</v>
       </c>
@@ -6520,7 +9928,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="91"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="23" t="s">
         <v>28</v>
       </c>
@@ -6586,7 +9994,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="104" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -6639,7 +10047,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="90"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
@@ -6690,7 +10098,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="90"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -6741,7 +10149,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="90"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
@@ -6792,7 +10200,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="90"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="22" t="s">
         <v>9</v>
       </c>
@@ -6843,7 +10251,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="90"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="23" t="s">
         <v>34</v>
       </c>
@@ -6909,7 +10317,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="91"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="23" t="s">
         <v>28</v>
       </c>
@@ -6975,7 +10383,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="104" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -7028,7 +10436,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="90"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
@@ -7079,7 +10487,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="90"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
@@ -7130,7 +10538,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="90"/>
+      <c r="B22" s="105"/>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
@@ -7181,7 +10589,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="90"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="22" t="s">
         <v>9</v>
       </c>
@@ -7232,7 +10640,7 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="90"/>
+      <c r="B24" s="105"/>
       <c r="C24" s="23" t="s">
         <v>34</v>
       </c>
@@ -7298,7 +10706,7 @@
       </c>
     </row>
     <row r="25" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="91"/>
+      <c r="B25" s="106"/>
       <c r="C25" s="23" t="s">
         <v>28</v>
       </c>
@@ -7374,34 +10782,34 @@
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="102" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="102" t="s">
+      <c r="D29" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="102" t="s">
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="104"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="106"/>
-      <c r="R29" s="106"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="99"/>
     </row>
     <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="99"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="101"/>
       <c r="D30" s="4" t="s">
         <v>1</v>
@@ -7440,7 +10848,7 @@
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="104" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -7483,7 +10891,7 @@
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="90"/>
+      <c r="B32" s="105"/>
       <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
@@ -7524,7 +10932,7 @@
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="90"/>
+      <c r="B33" s="105"/>
       <c r="C33" s="2" t="s">
         <v>6</v>
       </c>
@@ -7565,7 +10973,7 @@
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="90"/>
+      <c r="B34" s="105"/>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
@@ -7606,7 +11014,7 @@
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="90"/>
+      <c r="B35" s="105"/>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
@@ -7647,7 +11055,7 @@
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="91"/>
+      <c r="B36" s="106"/>
       <c r="C36" s="55" t="s">
         <v>28</v>
       </c>
@@ -7698,7 +11106,7 @@
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="89" t="s">
+      <c r="B37" s="104" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -7741,7 +11149,7 @@
       <c r="R37" s="2"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="90"/>
+      <c r="B38" s="105"/>
       <c r="C38" s="2" t="s">
         <v>5</v>
       </c>
@@ -7782,7 +11190,7 @@
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B39" s="90"/>
+      <c r="B39" s="105"/>
       <c r="C39" s="2" t="s">
         <v>6</v>
       </c>
@@ -7823,7 +11231,7 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="90"/>
+      <c r="B40" s="105"/>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
@@ -7864,7 +11272,7 @@
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="90"/>
+      <c r="B41" s="105"/>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
@@ -7905,7 +11313,7 @@
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="91"/>
+      <c r="B42" s="106"/>
       <c r="C42" s="55" t="s">
         <v>28</v>
       </c>
@@ -7956,7 +11364,7 @@
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="89" t="s">
+      <c r="B43" s="104" t="s">
         <v>14</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -7999,7 +11407,7 @@
       <c r="R43" s="2"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="90"/>
+      <c r="B44" s="105"/>
       <c r="C44" s="2" t="s">
         <v>5</v>
       </c>
@@ -8040,7 +11448,7 @@
       <c r="R44" s="2"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="90"/>
+      <c r="B45" s="105"/>
       <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
@@ -8081,7 +11489,7 @@
       <c r="R45" s="2"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="90"/>
+      <c r="B46" s="105"/>
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
@@ -8122,7 +11530,7 @@
       <c r="R46" s="2"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="90"/>
+      <c r="B47" s="105"/>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
@@ -8163,7 +11571,7 @@
       <c r="R47" s="2"/>
     </row>
     <row r="48" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="91"/>
+      <c r="B48" s="106"/>
       <c r="C48" s="55" t="s">
         <v>28</v>
       </c>
@@ -8231,17 +11639,17 @@
       <c r="R50" s="2"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B51" s="94" t="s">
+      <c r="B51" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="96" t="s">
+      <c r="C51" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="97"/>
-      <c r="E51" s="105" t="s">
+      <c r="D51" s="110"/>
+      <c r="E51" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="F51" s="97"/>
+      <c r="F51" s="110"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -8249,7 +11657,7 @@
       <c r="R51" s="2"/>
     </row>
     <row r="52" spans="2:18" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="95"/>
+      <c r="B52" s="108"/>
       <c r="C52" s="61" t="s">
         <v>36</v>
       </c>
@@ -8273,7 +11681,7 @@
       <c r="R52" s="2"/>
     </row>
     <row r="53" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="89" t="s">
+      <c r="B53" s="104" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -8290,7 +11698,7 @@
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B54" s="90"/>
+      <c r="B54" s="105"/>
       <c r="C54" s="1" t="s">
         <v>1</v>
       </c>
@@ -8305,7 +11713,7 @@
       </c>
     </row>
     <row r="55" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="90"/>
+      <c r="B55" s="105"/>
       <c r="C55" s="1" t="s">
         <v>1</v>
       </c>
@@ -8320,7 +11728,7 @@
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B56" s="90"/>
+      <c r="B56" s="105"/>
       <c r="C56" s="1" t="s">
         <v>1</v>
       </c>
@@ -8335,7 +11743,7 @@
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B57" s="90"/>
+      <c r="B57" s="105"/>
       <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
@@ -8350,7 +11758,7 @@
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B58" s="90"/>
+      <c r="B58" s="105"/>
       <c r="C58" s="1" t="s">
         <v>2</v>
       </c>
@@ -8365,7 +11773,7 @@
       </c>
     </row>
     <row r="59" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="91"/>
+      <c r="B59" s="106"/>
       <c r="C59" s="4" t="s">
         <v>2</v>
       </c>
@@ -8380,7 +11788,7 @@
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B60" s="89" t="s">
+      <c r="B60" s="104" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -8397,7 +11805,7 @@
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B61" s="90"/>
+      <c r="B61" s="105"/>
       <c r="C61" s="1" t="s">
         <v>1</v>
       </c>
@@ -8412,7 +11820,7 @@
       </c>
     </row>
     <row r="62" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="90"/>
+      <c r="B62" s="105"/>
       <c r="C62" s="1" t="s">
         <v>1</v>
       </c>
@@ -8427,7 +11835,7 @@
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B63" s="90"/>
+      <c r="B63" s="105"/>
       <c r="C63" s="1" t="s">
         <v>1</v>
       </c>
@@ -8442,7 +11850,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B64" s="90"/>
+      <c r="B64" s="105"/>
       <c r="C64" s="1" t="s">
         <v>2</v>
       </c>
@@ -8457,7 +11865,7 @@
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="90"/>
+      <c r="B65" s="105"/>
       <c r="C65" s="1" t="s">
         <v>2</v>
       </c>
@@ -8472,7 +11880,7 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="91"/>
+      <c r="B66" s="106"/>
       <c r="C66" s="4" t="s">
         <v>2</v>
       </c>
@@ -8487,7 +11895,7 @@
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="89" t="s">
+      <c r="B67" s="104" t="s">
         <v>42</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -8504,7 +11912,7 @@
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="90"/>
+      <c r="B68" s="105"/>
       <c r="C68" s="1" t="s">
         <v>1</v>
       </c>
@@ -8519,7 +11927,7 @@
       </c>
     </row>
     <row r="69" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="90"/>
+      <c r="B69" s="105"/>
       <c r="C69" s="1" t="s">
         <v>1</v>
       </c>
@@ -8534,7 +11942,7 @@
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="90"/>
+      <c r="B70" s="105"/>
       <c r="C70" s="1" t="s">
         <v>1</v>
       </c>
@@ -8549,7 +11957,7 @@
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="90"/>
+      <c r="B71" s="105"/>
       <c r="C71" s="1" t="s">
         <v>2</v>
       </c>
@@ -8564,7 +11972,7 @@
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="90"/>
+      <c r="B72" s="105"/>
       <c r="C72" s="1" t="s">
         <v>2</v>
       </c>
@@ -8579,7 +11987,7 @@
       </c>
     </row>
     <row r="73" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="91"/>
+      <c r="B73" s="106"/>
       <c r="C73" s="4" t="s">
         <v>2</v>
       </c>
@@ -8599,29 +12007,29 @@
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="96" t="s">
+      <c r="B77" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="97"/>
-      <c r="E77" s="92" t="s">
+      <c r="D77" s="110"/>
+      <c r="E77" s="112" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="95"/>
+      <c r="B78" s="108"/>
       <c r="C78" s="61" t="s">
         <v>36</v>
       </c>
       <c r="D78" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="E78" s="93"/>
+      <c r="E78" s="113"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="89" t="s">
+      <c r="B79" s="104" t="s">
         <v>13</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -8635,7 +12043,7 @@
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="90"/>
+      <c r="B80" s="105"/>
       <c r="C80" s="1" t="s">
         <v>1</v>
       </c>
@@ -8647,7 +12055,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B81" s="90"/>
+      <c r="B81" s="105"/>
       <c r="C81" s="1" t="s">
         <v>1</v>
       </c>
@@ -8659,7 +12067,7 @@
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="90"/>
+      <c r="B82" s="105"/>
       <c r="C82" s="1" t="s">
         <v>1</v>
       </c>
@@ -8671,7 +12079,7 @@
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="90"/>
+      <c r="B83" s="105"/>
       <c r="C83" s="1" t="s">
         <v>2</v>
       </c>
@@ -8683,7 +12091,7 @@
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B84" s="90"/>
+      <c r="B84" s="105"/>
       <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
@@ -8695,7 +12103,7 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="91"/>
+      <c r="B85" s="106"/>
       <c r="C85" s="4" t="s">
         <v>2</v>
       </c>
@@ -8707,7 +12115,7 @@
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="89" t="s">
+      <c r="B86" s="104" t="s">
         <v>49</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -8721,7 +12129,7 @@
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="90"/>
+      <c r="B87" s="105"/>
       <c r="C87" s="1" t="s">
         <v>1</v>
       </c>
@@ -8733,7 +12141,7 @@
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="90"/>
+      <c r="B88" s="105"/>
       <c r="C88" s="1" t="s">
         <v>1</v>
       </c>
@@ -8745,7 +12153,7 @@
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="90"/>
+      <c r="B89" s="105"/>
       <c r="C89" s="1" t="s">
         <v>1</v>
       </c>
@@ -8757,7 +12165,7 @@
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="90"/>
+      <c r="B90" s="105"/>
       <c r="C90" s="1" t="s">
         <v>2</v>
       </c>
@@ -8769,7 +12177,7 @@
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B91" s="90"/>
+      <c r="B91" s="105"/>
       <c r="C91" s="1" t="s">
         <v>2</v>
       </c>
@@ -8781,7 +12189,7 @@
       </c>
     </row>
     <row r="92" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="91"/>
+      <c r="B92" s="106"/>
       <c r="C92" s="4" t="s">
         <v>2</v>
       </c>
@@ -8793,7 +12201,7 @@
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B93" s="89" t="s">
+      <c r="B93" s="104" t="s">
         <v>42</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -8807,7 +12215,7 @@
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B94" s="90"/>
+      <c r="B94" s="105"/>
       <c r="C94" s="1" t="s">
         <v>1</v>
       </c>
@@ -8819,7 +12227,7 @@
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="90"/>
+      <c r="B95" s="105"/>
       <c r="C95" s="1" t="s">
         <v>1</v>
       </c>
@@ -8831,7 +12239,7 @@
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B96" s="90"/>
+      <c r="B96" s="105"/>
       <c r="C96" s="1" t="s">
         <v>1</v>
       </c>
@@ -8843,7 +12251,7 @@
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B97" s="90"/>
+      <c r="B97" s="105"/>
       <c r="C97" s="1" t="s">
         <v>2</v>
       </c>
@@ -8855,7 +12263,7 @@
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B98" s="90"/>
+      <c r="B98" s="105"/>
       <c r="C98" s="1" t="s">
         <v>2</v>
       </c>
@@ -8867,7 +12275,7 @@
       </c>
     </row>
     <row r="99" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="91"/>
+      <c r="B99" s="106"/>
       <c r="C99" s="4" t="s">
         <v>2</v>
       </c>
@@ -8880,16 +12288,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B79:B85"/>
+    <mergeCell ref="B86:B92"/>
     <mergeCell ref="B60:B66"/>
     <mergeCell ref="B67:B73"/>
     <mergeCell ref="B29:B30"/>
@@ -8902,12 +12306,16 @@
     <mergeCell ref="B31:B36"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="B43:B48"/>
-    <mergeCell ref="B93:B99"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="B79:B85"/>
-    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8917,9 +12325,824 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:X41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:X41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="24" max="24" width="4.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.145881123814527</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.28478386668830902</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16">
+        <v>-3.4471948363141501E-3</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.10122687302592</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1.43253275390385E-2</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.134270073423258</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.615457245386409</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.39034752517533799</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.12798459778988899</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.24972435731795101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="13">
+        <v>6.3738056911135196E-2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.34386510834068101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1.64494851570521E-2</v>
+      </c>
+      <c r="E9" s="17">
+        <v>6.0374204644858001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.21220565125930499</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.48206942687674498</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.81438458943412195</v>
+      </c>
+      <c r="E11" s="17">
+        <v>9.2359956635554699E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="16">
+        <v>5.6591609878907503E-2</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.77913411762679696</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.110429783185575</v>
+      </c>
+      <c r="E13" s="14">
+        <v>2.7493525526368801E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.18760810273480699</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.230616673836994</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16">
+        <v>3.4609476671710201E-2</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.11305385772299301</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.15072712102236899</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.190476207275802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="16">
+        <v>8.5528211301886703E-2</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.11892249522370001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="120"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="120"/>
+      <c r="S20" s="120"/>
+      <c r="T20" s="120"/>
+      <c r="U20" s="120"/>
+      <c r="V20" s="120"/>
+      <c r="W20" s="120"/>
+      <c r="X20" s="120"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="120"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="120"/>
+      <c r="T21" s="120"/>
+      <c r="U21" s="120"/>
+      <c r="V21" s="120"/>
+      <c r="W21" s="120"/>
+      <c r="X21" s="120"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="120"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="120"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="120"/>
+      <c r="S22" s="120"/>
+      <c r="T22" s="120"/>
+      <c r="U22" s="120"/>
+      <c r="V22" s="120"/>
+      <c r="W22" s="120"/>
+      <c r="X22" s="120"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="120"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="120"/>
+      <c r="Q23" s="120"/>
+      <c r="R23" s="120"/>
+      <c r="S23" s="120"/>
+      <c r="T23" s="120"/>
+      <c r="U23" s="120"/>
+      <c r="V23" s="120"/>
+      <c r="W23" s="120"/>
+      <c r="X23" s="120"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="120"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="120"/>
+      <c r="S24" s="120"/>
+      <c r="T24" s="120"/>
+      <c r="U24" s="120"/>
+      <c r="V24" s="120"/>
+      <c r="W24" s="120"/>
+      <c r="X24" s="120"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="120"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="120"/>
+      <c r="N25" s="120"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="120"/>
+      <c r="Q25" s="120"/>
+      <c r="R25" s="120"/>
+      <c r="S25" s="120"/>
+      <c r="T25" s="120"/>
+      <c r="U25" s="120"/>
+      <c r="V25" s="120"/>
+      <c r="W25" s="120"/>
+      <c r="X25" s="120"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="120"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="120"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="120"/>
+      <c r="S26" s="120"/>
+      <c r="T26" s="120"/>
+      <c r="U26" s="120"/>
+      <c r="V26" s="120"/>
+      <c r="W26" s="120"/>
+      <c r="X26" s="120"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="120"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="120"/>
+      <c r="S27" s="120"/>
+      <c r="T27" s="120"/>
+      <c r="U27" s="120"/>
+      <c r="V27" s="120"/>
+      <c r="W27" s="120"/>
+      <c r="X27" s="120"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="120"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="120"/>
+      <c r="Q28" s="120"/>
+      <c r="R28" s="120"/>
+      <c r="S28" s="120"/>
+      <c r="T28" s="120"/>
+      <c r="U28" s="120"/>
+      <c r="V28" s="120"/>
+      <c r="W28" s="120"/>
+      <c r="X28" s="120"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="120"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="120"/>
+      <c r="S29" s="120"/>
+      <c r="T29" s="120"/>
+      <c r="U29" s="120"/>
+      <c r="V29" s="120"/>
+      <c r="W29" s="120"/>
+      <c r="X29" s="120"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="120"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="120"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="120"/>
+      <c r="Q30" s="120"/>
+      <c r="R30" s="120"/>
+      <c r="S30" s="120"/>
+      <c r="T30" s="120"/>
+      <c r="U30" s="120"/>
+      <c r="V30" s="120"/>
+      <c r="W30" s="120"/>
+      <c r="X30" s="120"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="120"/>
+      <c r="B31" s="120"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="120"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="120"/>
+      <c r="Q31" s="120"/>
+      <c r="R31" s="120"/>
+      <c r="S31" s="120"/>
+      <c r="T31" s="120"/>
+      <c r="U31" s="120"/>
+      <c r="V31" s="120"/>
+      <c r="W31" s="120"/>
+      <c r="X31" s="120"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="120"/>
+      <c r="B32" s="120"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="120"/>
+      <c r="J32" s="120"/>
+      <c r="K32" s="120"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="120"/>
+      <c r="N32" s="120"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="120"/>
+      <c r="Q32" s="120"/>
+      <c r="R32" s="120"/>
+      <c r="S32" s="120"/>
+      <c r="T32" s="120"/>
+      <c r="U32" s="120"/>
+      <c r="V32" s="120"/>
+      <c r="W32" s="120"/>
+      <c r="X32" s="120"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33" s="120"/>
+      <c r="B33" s="120"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="120"/>
+      <c r="K33" s="120"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="120"/>
+      <c r="N33" s="120"/>
+      <c r="O33" s="120"/>
+      <c r="P33" s="120"/>
+      <c r="Q33" s="120"/>
+      <c r="R33" s="120"/>
+      <c r="S33" s="120"/>
+      <c r="T33" s="120"/>
+      <c r="U33" s="120"/>
+      <c r="V33" s="120"/>
+      <c r="W33" s="120"/>
+      <c r="X33" s="120"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" s="120"/>
+      <c r="B34" s="120"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="120"/>
+      <c r="L34" s="120"/>
+      <c r="M34" s="120"/>
+      <c r="N34" s="120"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="120"/>
+      <c r="Q34" s="120"/>
+      <c r="R34" s="120"/>
+      <c r="S34" s="120"/>
+      <c r="T34" s="120"/>
+      <c r="U34" s="120"/>
+      <c r="V34" s="120"/>
+      <c r="W34" s="120"/>
+      <c r="X34" s="120"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35" s="120"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="120"/>
+      <c r="K35" s="120"/>
+      <c r="L35" s="120"/>
+      <c r="M35" s="120"/>
+      <c r="N35" s="120"/>
+      <c r="O35" s="120"/>
+      <c r="P35" s="120"/>
+      <c r="Q35" s="120"/>
+      <c r="R35" s="120"/>
+      <c r="S35" s="120"/>
+      <c r="T35" s="120"/>
+      <c r="U35" s="120"/>
+      <c r="V35" s="120"/>
+      <c r="W35" s="120"/>
+      <c r="X35" s="120"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" s="120"/>
+      <c r="B36" s="120"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="120"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="120"/>
+      <c r="N36" s="120"/>
+      <c r="O36" s="120"/>
+      <c r="P36" s="120"/>
+      <c r="Q36" s="120"/>
+      <c r="R36" s="120"/>
+      <c r="S36" s="120"/>
+      <c r="T36" s="120"/>
+      <c r="U36" s="120"/>
+      <c r="V36" s="120"/>
+      <c r="W36" s="120"/>
+      <c r="X36" s="120"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37" s="120"/>
+      <c r="B37" s="120"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="120"/>
+      <c r="K37" s="120"/>
+      <c r="L37" s="120"/>
+      <c r="M37" s="120"/>
+      <c r="N37" s="120"/>
+      <c r="O37" s="120"/>
+      <c r="P37" s="120"/>
+      <c r="Q37" s="120"/>
+      <c r="R37" s="120"/>
+      <c r="S37" s="120"/>
+      <c r="T37" s="120"/>
+      <c r="U37" s="120"/>
+      <c r="V37" s="120"/>
+      <c r="W37" s="120"/>
+      <c r="X37" s="120"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38" s="120"/>
+      <c r="B38" s="120"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="120"/>
+      <c r="K38" s="120"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="120"/>
+      <c r="N38" s="120"/>
+      <c r="O38" s="120"/>
+      <c r="P38" s="120"/>
+      <c r="Q38" s="120"/>
+      <c r="R38" s="120"/>
+      <c r="S38" s="120"/>
+      <c r="T38" s="120"/>
+      <c r="U38" s="120"/>
+      <c r="V38" s="120"/>
+      <c r="W38" s="120"/>
+      <c r="X38" s="120"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39" s="120"/>
+      <c r="B39" s="120"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="120"/>
+      <c r="J39" s="120"/>
+      <c r="K39" s="120"/>
+      <c r="L39" s="120"/>
+      <c r="M39" s="120"/>
+      <c r="N39" s="120"/>
+      <c r="O39" s="120"/>
+      <c r="P39" s="120"/>
+      <c r="Q39" s="120"/>
+      <c r="R39" s="120"/>
+      <c r="S39" s="120"/>
+      <c r="T39" s="120"/>
+      <c r="U39" s="120"/>
+      <c r="V39" s="120"/>
+      <c r="W39" s="120"/>
+      <c r="X39" s="120"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A40" s="120"/>
+      <c r="B40" s="120"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="120"/>
+      <c r="O40" s="120"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="120"/>
+      <c r="W40" s="120"/>
+      <c r="X40" s="120"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" s="120"/>
+      <c r="B41" s="120"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="120"/>
+      <c r="K41" s="120"/>
+      <c r="L41" s="120"/>
+      <c r="M41" s="120"/>
+      <c r="N41" s="120"/>
+      <c r="O41" s="120"/>
+      <c r="P41" s="120"/>
+      <c r="Q41" s="120"/>
+      <c r="R41" s="120"/>
+      <c r="S41" s="120"/>
+      <c r="T41" s="120"/>
+      <c r="U41" s="120"/>
+      <c r="V41" s="120"/>
+      <c r="W41" s="120"/>
+      <c r="X41" s="120"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D52" sqref="D52:D64"/>
     </sheetView>
   </sheetViews>
@@ -8941,45 +13164,45 @@
     </row>
     <row r="3" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="102" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="109" t="s">
+      <c r="E4" s="117"/>
+      <c r="F4" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="110"/>
-      <c r="H4" s="111" t="s">
+      <c r="G4" s="117"/>
+      <c r="H4" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="112"/>
-      <c r="J4" s="111" t="s">
+      <c r="I4" s="119"/>
+      <c r="J4" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="112"/>
-      <c r="P4" s="98" t="s">
+      <c r="K4" s="119"/>
+      <c r="P4" s="102" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="107" t="s">
+      <c r="R4" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="108"/>
-      <c r="T4" s="107" t="s">
+      <c r="S4" s="115"/>
+      <c r="T4" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="108"/>
+      <c r="U4" s="115"/>
     </row>
     <row r="5" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="99"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="101"/>
       <c r="D5" s="4" t="s">
         <v>1</v>
@@ -9005,7 +13228,7 @@
       <c r="K5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="99"/>
+      <c r="P5" s="103"/>
       <c r="Q5" s="101"/>
       <c r="R5" s="4" t="s">
         <v>1</v>
@@ -9021,7 +13244,7 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="104" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -9051,7 +13274,7 @@
       <c r="K6" s="15">
         <v>0.46449738029316001</v>
       </c>
-      <c r="P6" s="89" t="s">
+      <c r="P6" s="104" t="s">
         <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
@@ -9076,7 +13299,7 @@
       <c r="X6" s="69"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="90"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -9104,7 +13327,7 @@
       <c r="K7" s="18">
         <v>0.54328564517243705</v>
       </c>
-      <c r="P7" s="90"/>
+      <c r="P7" s="105"/>
       <c r="Q7" s="2" t="s">
         <v>5</v>
       </c>
@@ -9127,7 +13350,7 @@
       <c r="X7" s="69"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B8" s="90"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -9155,7 +13378,7 @@
       <c r="K8" s="18">
         <v>0.44666666666666599</v>
       </c>
-      <c r="P8" s="90"/>
+      <c r="P8" s="105"/>
       <c r="Q8" s="2" t="s">
         <v>6</v>
       </c>
@@ -9178,7 +13401,7 @@
       <c r="X8" s="69"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="90"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -9206,7 +13429,7 @@
       <c r="K9" s="18">
         <v>0.41017800027812501</v>
       </c>
-      <c r="P9" s="90"/>
+      <c r="P9" s="105"/>
       <c r="Q9" s="2" t="s">
         <v>8</v>
       </c>
@@ -9229,7 +13452,7 @@
       <c r="X9" s="69"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="90"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="22" t="s">
         <v>9</v>
       </c>
@@ -9257,7 +13480,7 @@
       <c r="K10" s="18">
         <v>0.49500251862456501</v>
       </c>
-      <c r="P10" s="90"/>
+      <c r="P10" s="105"/>
       <c r="Q10" s="22" t="s">
         <v>9</v>
       </c>
@@ -9280,7 +13503,7 @@
       <c r="X10" s="69"/>
     </row>
     <row r="11" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="91"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="24" t="s">
         <v>28</v>
       </c>
@@ -9316,7 +13539,7 @@
         <f t="shared" si="0"/>
         <v>0.47192604220699064</v>
       </c>
-      <c r="P11" s="91"/>
+      <c r="P11" s="106"/>
       <c r="Q11" s="24" t="s">
         <v>28</v>
       </c>
@@ -9341,7 +13564,7 @@
       <c r="X11" s="69"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="104" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -9371,7 +13594,7 @@
       <c r="K12" s="15">
         <v>0.37968877968877901</v>
       </c>
-      <c r="P12" s="89" t="s">
+      <c r="P12" s="104" t="s">
         <v>49</v>
       </c>
       <c r="Q12" s="7" t="s">
@@ -9396,7 +13619,7 @@
       <c r="X12" s="69"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="90"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
@@ -9424,7 +13647,7 @@
       <c r="K13" s="18">
         <v>0.39484960917629702</v>
       </c>
-      <c r="P13" s="90"/>
+      <c r="P13" s="105"/>
       <c r="Q13" s="2" t="s">
         <v>5</v>
       </c>
@@ -9447,7 +13670,7 @@
       <c r="X13" s="69"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="90"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -9475,7 +13698,7 @@
       <c r="K14" s="18">
         <v>0.40748727163821502</v>
       </c>
-      <c r="P14" s="90"/>
+      <c r="P14" s="105"/>
       <c r="Q14" s="2" t="s">
         <v>6</v>
       </c>
@@ -9498,7 +13721,7 @@
       <c r="X14" s="69"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B15" s="90"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
@@ -9526,7 +13749,7 @@
       <c r="K15" s="18">
         <v>0.40951374720683897</v>
       </c>
-      <c r="P15" s="90"/>
+      <c r="P15" s="105"/>
       <c r="Q15" s="2" t="s">
         <v>8</v>
       </c>
@@ -9549,7 +13772,7 @@
       <c r="X15" s="69"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B16" s="90"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="22" t="s">
         <v>9</v>
       </c>
@@ -9577,7 +13800,7 @@
       <c r="K16" s="18">
         <v>0.41772262371900498</v>
       </c>
-      <c r="P16" s="90"/>
+      <c r="P16" s="105"/>
       <c r="Q16" s="22" t="s">
         <v>9</v>
       </c>
@@ -9600,7 +13823,7 @@
       <c r="X16" s="69"/>
     </row>
     <row r="17" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="91"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="24" t="s">
         <v>28</v>
       </c>
@@ -9636,7 +13859,7 @@
         <f t="shared" si="1"/>
         <v>0.40185240628582697</v>
       </c>
-      <c r="P17" s="91"/>
+      <c r="P17" s="106"/>
       <c r="Q17" s="24" t="s">
         <v>28</v>
       </c>
@@ -9661,7 +13884,7 @@
       <c r="X17" s="69"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="104" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -9691,7 +13914,7 @@
       <c r="K18" s="15">
         <v>0.56784646348476098</v>
       </c>
-      <c r="P18" s="89" t="s">
+      <c r="P18" s="104" t="s">
         <v>14</v>
       </c>
       <c r="Q18" s="7" t="s">
@@ -9716,7 +13939,7 @@
       <c r="X18" s="69"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B19" s="90"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
@@ -9744,7 +13967,7 @@
       <c r="K19" s="18">
         <v>0.46253496058987997</v>
       </c>
-      <c r="P19" s="90"/>
+      <c r="P19" s="105"/>
       <c r="Q19" s="2" t="s">
         <v>5</v>
       </c>
@@ -9767,7 +13990,7 @@
       <c r="X19" s="69"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B20" s="90"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
@@ -9795,7 +14018,7 @@
       <c r="K20" s="18">
         <v>0.50257522316750003</v>
       </c>
-      <c r="P20" s="90"/>
+      <c r="P20" s="105"/>
       <c r="Q20" s="2" t="s">
         <v>6</v>
       </c>
@@ -9818,7 +14041,7 @@
       <c r="X20" s="69"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B21" s="90"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
@@ -9846,7 +14069,7 @@
       <c r="K21" s="18">
         <v>0.49256491545893699</v>
       </c>
-      <c r="P21" s="90"/>
+      <c r="P21" s="105"/>
       <c r="Q21" s="2" t="s">
         <v>8</v>
       </c>
@@ -9869,7 +14092,7 @@
       <c r="X21" s="69"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B22" s="90"/>
+      <c r="B22" s="105"/>
       <c r="C22" s="22" t="s">
         <v>9</v>
       </c>
@@ -9897,7 +14120,7 @@
       <c r="K22" s="18">
         <v>0.53429525850500204</v>
       </c>
-      <c r="P22" s="90"/>
+      <c r="P22" s="105"/>
       <c r="Q22" s="22" t="s">
         <v>9</v>
       </c>
@@ -9920,7 +14143,7 @@
       <c r="X22" s="69"/>
     </row>
     <row r="23" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="91"/>
+      <c r="B23" s="106"/>
       <c r="C23" s="24" t="s">
         <v>28</v>
       </c>
@@ -9956,7 +14179,7 @@
         <f t="shared" si="3"/>
         <v>0.51196336424121602</v>
       </c>
-      <c r="P23" s="91"/>
+      <c r="P23" s="106"/>
       <c r="Q23" s="24" t="s">
         <v>28</v>
       </c>
@@ -10035,7 +14258,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="89" t="s">
+      <c r="B37" s="104" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -10046,7 +14269,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="90"/>
+      <c r="B38" s="105"/>
       <c r="C38" s="1" t="s">
         <v>45</v>
       </c>
@@ -10055,7 +14278,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="90"/>
+      <c r="B39" s="105"/>
       <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
@@ -10064,7 +14287,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="91"/>
+      <c r="B40" s="106"/>
       <c r="C40" s="4" t="s">
         <v>47</v>
       </c>
@@ -10073,7 +14296,7 @@
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="89" t="s">
+      <c r="B41" s="104" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -10084,7 +14307,7 @@
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="90"/>
+      <c r="B42" s="105"/>
       <c r="C42" s="1" t="s">
         <v>45</v>
       </c>
@@ -10093,7 +14316,7 @@
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="90"/>
+      <c r="B43" s="105"/>
       <c r="C43" s="1" t="s">
         <v>46</v>
       </c>
@@ -10102,7 +14325,7 @@
       </c>
     </row>
     <row r="44" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="91"/>
+      <c r="B44" s="106"/>
       <c r="C44" s="4" t="s">
         <v>47</v>
       </c>
@@ -10111,7 +14334,7 @@
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="89" t="s">
+      <c r="B45" s="104" t="s">
         <v>42</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -10122,7 +14345,7 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="90"/>
+      <c r="B46" s="105"/>
       <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
@@ -10131,7 +14354,7 @@
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="90"/>
+      <c r="B47" s="105"/>
       <c r="C47" s="1" t="s">
         <v>46</v>
       </c>
@@ -10140,7 +14363,7 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="91"/>
+      <c r="B48" s="106"/>
       <c r="C48" s="4" t="s">
         <v>47</v>
       </c>
@@ -10157,7 +14380,7 @@
       <c r="B52" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="119" t="s">
+      <c r="C52" s="95" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="71" t="s">
@@ -10165,126 +14388,122 @@
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="89" t="s">
+      <c r="B53" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="113" t="s">
+      <c r="C53" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="116">
+      <c r="D53" s="92">
         <v>3.2270088011799301E-3</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="90"/>
-      <c r="C54" s="114" t="s">
+      <c r="B54" s="105"/>
+      <c r="C54" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="117">
+      <c r="D54" s="93">
         <v>2.2265568353040601E-3</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="90"/>
-      <c r="C55" s="114" t="s">
+      <c r="B55" s="105"/>
+      <c r="C55" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="117">
+      <c r="D55" s="93">
         <v>1.6712920535199101E-3</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="91"/>
-      <c r="C56" s="115" t="s">
+      <c r="B56" s="106"/>
+      <c r="C56" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="118">
+      <c r="D56" s="94">
         <v>3.1726306288855201E-3</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="89" t="s">
+      <c r="B57" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="C57" s="113" t="s">
+      <c r="C57" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="116">
+      <c r="D57" s="92">
         <v>7.7688539348127404E-5</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="90"/>
-      <c r="C58" s="114" t="s">
+      <c r="B58" s="105"/>
+      <c r="C58" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="117">
+      <c r="D58" s="93">
         <v>1.68102373681875E-2</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="90"/>
-      <c r="C59" s="114" t="s">
+      <c r="B59" s="105"/>
+      <c r="C59" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="117">
+      <c r="D59" s="93">
         <v>1.6282915528986901E-2</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="91"/>
-      <c r="C60" s="115" t="s">
+      <c r="B60" s="106"/>
+      <c r="C60" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="D60" s="118">
+      <c r="D60" s="94">
         <v>1.8619781158812101E-2</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="89" t="s">
+      <c r="B61" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="113" t="s">
+      <c r="C61" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="116">
+      <c r="D61" s="92">
         <v>1.3627117562528099E-3</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="90"/>
-      <c r="C62" s="114" t="s">
+      <c r="B62" s="105"/>
+      <c r="C62" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="117">
+      <c r="D62" s="93">
         <v>2.9965139606230899E-3</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="90"/>
-      <c r="C63" s="114" t="s">
+      <c r="B63" s="105"/>
+      <c r="C63" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="117">
+      <c r="D63" s="93">
         <v>2.0897722453687298E-3</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="91"/>
-      <c r="C64" s="115" t="s">
+      <c r="B64" s="106"/>
+      <c r="C64" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="118">
+      <c r="D64" s="94">
         <v>4.0639486365357004E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B37:B40"/>
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="B12:B17"/>
@@ -10301,7 +14520,11 @@
     <mergeCell ref="P6:P11"/>
     <mergeCell ref="P12:P17"/>
     <mergeCell ref="P18:P23"/>
-    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results tables/results_table_scheme.xlsx
+++ b/results tables/results_table_scheme.xlsx
@@ -625,30 +625,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -657,6 +633,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -670,14 +652,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4430,140 +4430,6 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                    <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Viz_Comp!$C$4:$C$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>S&amp;P500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Nikkei225</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Nasdaq</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AAPL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SPY</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Viz_Comp!$F$4:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-0.19930292535681901</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.10320913792351399</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.117490800820717</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.22820796269291099</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.187076033856686</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1016-4397-86C8-1C99CD07B0D5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Viz_Comp!$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
               <a:schemeClr val="accent6">
                 <a:lumMod val="75000"/>
               </a:schemeClr>
@@ -4660,6 +4526,142 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>Viz_Comp!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.19930292535681901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.10320913792351399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.117490800820717</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.22820796269291099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.187076033856686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1016-4397-86C8-1C99CD07B0D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Viz_Comp!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Viz_Comp!$C$4:$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>Viz_Comp!$G$4:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
@@ -4704,11 +4706,11 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="7030A0"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -5463,140 +5465,6 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                    <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Viz_Comp!$C$4:$C$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>S&amp;P500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Nikkei225</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Nasdaq</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AAPL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SPY</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Viz_Comp!$R$4:$R$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6.1817859250651003E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.8145982097384603E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.9160066008666403E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31609320877955499</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.2704517509868302E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7B80-4124-8814-52866AD5FBC1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Viz_Comp!$S$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
               <a:schemeClr val="accent6">
                 <a:lumMod val="75000"/>
               </a:schemeClr>
@@ -5693,6 +5561,142 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>Viz_Comp!$R$4:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.1817859250651003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8145982097384603E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9160066008666403E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31609320877955499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2704517509868302E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7B80-4124-8814-52866AD5FBC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Viz_Comp!$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Viz_Comp!$C$4:$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>Viz_Comp!$S$4:$S$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
@@ -5737,11 +5741,11 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="7030A0"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -5922,8 +5926,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.36810476245213875"/>
-              <c:y val="0.92082007776599506"/>
+              <c:x val="0.29509907014828274"/>
+              <c:y val="0.92082004822772889"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6490,140 +6494,6 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                    <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Viz_Comp!$C$9:$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>S&amp;P500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Nikkei225</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Nasdaq</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AAPL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SPY</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Viz_Comp!$F$9:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-1.20656904581708E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.84498807793605E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.23538963002552E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.18259611874832801</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-4.8642539499735796E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F889-4C97-A5DA-C3CA7EA82E47}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Viz_Comp!$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
               <a:schemeClr val="accent6">
                 <a:lumMod val="75000"/>
               </a:schemeClr>
@@ -6720,6 +6590,142 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>Viz_Comp!$F$9:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1.20656904581708E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.84498807793605E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.23538963002552E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18259611874832801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.8642539499735796E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F889-4C97-A5DA-C3CA7EA82E47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Viz_Comp!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Viz_Comp!$C$9:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nikkei225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nasdaq</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>Viz_Comp!$G$9:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
@@ -6764,11 +6770,11 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="7030A0"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -6949,8 +6955,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.36810476245213875"/>
-              <c:y val="0.92082007776599506"/>
+              <c:x val="0.29866032370953632"/>
+              <c:y val="0.92082004822772889"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -14443,37 +14449,37 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="101" t="s">
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="101" t="s">
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="103"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="116"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="108"/>
-      <c r="C4" s="106"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="113"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
@@ -14521,7 +14527,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="101" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -14574,7 +14580,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="110"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -14625,7 +14631,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="110"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -14676,7 +14682,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="110"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -14727,7 +14733,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="110"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -14778,7 +14784,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="110"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="23" t="s">
         <v>34</v>
       </c>
@@ -14844,7 +14850,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="111"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="23" t="s">
         <v>28</v>
       </c>
@@ -14910,7 +14916,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="101" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -14963,7 +14969,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="110"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
@@ -15014,7 +15020,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="110"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -15065,7 +15071,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="110"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
@@ -15116,7 +15122,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="110"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="22" t="s">
         <v>9</v>
       </c>
@@ -15167,7 +15173,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="110"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="23" t="s">
         <v>34</v>
       </c>
@@ -15233,7 +15239,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="111"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="23" t="s">
         <v>28</v>
       </c>
@@ -15299,7 +15305,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="101" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -15352,7 +15358,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="110"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
@@ -15403,7 +15409,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="110"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
@@ -15454,7 +15460,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="110"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
@@ -15505,7 +15511,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="110"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="22" t="s">
         <v>9</v>
       </c>
@@ -15556,7 +15562,7 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="110"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="23" t="s">
         <v>34</v>
       </c>
@@ -15622,7 +15628,7 @@
       </c>
     </row>
     <row r="25" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="111"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="23" t="s">
         <v>28</v>
       </c>
@@ -15698,35 +15704,35 @@
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="107" t="s">
+      <c r="B29" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="105" t="s">
+      <c r="C29" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="101" t="s">
+      <c r="D29" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="101" t="s">
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="102"/>
-      <c r="K29" s="102"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="104"/>
-      <c r="O29" s="104"/>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="104"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="118"/>
+      <c r="O29" s="118"/>
+      <c r="P29" s="118"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="118"/>
     </row>
     <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="108"/>
-      <c r="C30" s="106"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="113"/>
       <c r="D30" s="4" t="s">
         <v>1</v>
       </c>
@@ -15764,7 +15770,7 @@
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="109" t="s">
+      <c r="B31" s="101" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -15807,7 +15813,7 @@
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="110"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
@@ -15848,7 +15854,7 @@
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="110"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="2" t="s">
         <v>6</v>
       </c>
@@ -15889,7 +15895,7 @@
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="110"/>
+      <c r="B34" s="102"/>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
@@ -15930,7 +15936,7 @@
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="110"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
@@ -15971,7 +15977,7 @@
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="111"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="55" t="s">
         <v>28</v>
       </c>
@@ -16022,7 +16028,7 @@
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="109" t="s">
+      <c r="B37" s="101" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -16065,7 +16071,7 @@
       <c r="R37" s="2"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="110"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="2" t="s">
         <v>5</v>
       </c>
@@ -16106,7 +16112,7 @@
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B39" s="110"/>
+      <c r="B39" s="102"/>
       <c r="C39" s="2" t="s">
         <v>6</v>
       </c>
@@ -16147,7 +16153,7 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="110"/>
+      <c r="B40" s="102"/>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
@@ -16188,7 +16194,7 @@
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="110"/>
+      <c r="B41" s="102"/>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
@@ -16229,7 +16235,7 @@
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="111"/>
+      <c r="B42" s="103"/>
       <c r="C42" s="55" t="s">
         <v>28</v>
       </c>
@@ -16280,7 +16286,7 @@
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="109" t="s">
+      <c r="B43" s="101" t="s">
         <v>14</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -16323,7 +16329,7 @@
       <c r="R43" s="2"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="110"/>
+      <c r="B44" s="102"/>
       <c r="C44" s="2" t="s">
         <v>5</v>
       </c>
@@ -16364,7 +16370,7 @@
       <c r="R44" s="2"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="110"/>
+      <c r="B45" s="102"/>
       <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
@@ -16405,7 +16411,7 @@
       <c r="R45" s="2"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="110"/>
+      <c r="B46" s="102"/>
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
@@ -16446,7 +16452,7 @@
       <c r="R46" s="2"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="110"/>
+      <c r="B47" s="102"/>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
@@ -16487,7 +16493,7 @@
       <c r="R47" s="2"/>
     </row>
     <row r="48" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="111"/>
+      <c r="B48" s="103"/>
       <c r="C48" s="55" t="s">
         <v>28</v>
       </c>
@@ -16555,17 +16561,17 @@
       <c r="R50" s="2"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B51" s="112" t="s">
+      <c r="B51" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="114" t="s">
+      <c r="C51" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="115"/>
-      <c r="E51" s="116" t="s">
+      <c r="D51" s="109"/>
+      <c r="E51" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="F51" s="115"/>
+      <c r="F51" s="109"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -16573,7 +16579,7 @@
       <c r="R51" s="2"/>
     </row>
     <row r="52" spans="2:18" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="113"/>
+      <c r="B52" s="107"/>
       <c r="C52" s="61" t="s">
         <v>36</v>
       </c>
@@ -16597,7 +16603,7 @@
       <c r="R52" s="2"/>
     </row>
     <row r="53" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="109" t="s">
+      <c r="B53" s="101" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -16614,7 +16620,7 @@
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B54" s="110"/>
+      <c r="B54" s="102"/>
       <c r="C54" s="1" t="s">
         <v>1</v>
       </c>
@@ -16629,7 +16635,7 @@
       </c>
     </row>
     <row r="55" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="110"/>
+      <c r="B55" s="102"/>
       <c r="C55" s="1" t="s">
         <v>1</v>
       </c>
@@ -16644,7 +16650,7 @@
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B56" s="110"/>
+      <c r="B56" s="102"/>
       <c r="C56" s="1" t="s">
         <v>1</v>
       </c>
@@ -16659,7 +16665,7 @@
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B57" s="110"/>
+      <c r="B57" s="102"/>
       <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
@@ -16674,7 +16680,7 @@
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B58" s="110"/>
+      <c r="B58" s="102"/>
       <c r="C58" s="1" t="s">
         <v>2</v>
       </c>
@@ -16689,7 +16695,7 @@
       </c>
     </row>
     <row r="59" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="111"/>
+      <c r="B59" s="103"/>
       <c r="C59" s="4" t="s">
         <v>2</v>
       </c>
@@ -16704,7 +16710,7 @@
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B60" s="109" t="s">
+      <c r="B60" s="101" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -16721,7 +16727,7 @@
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B61" s="110"/>
+      <c r="B61" s="102"/>
       <c r="C61" s="1" t="s">
         <v>1</v>
       </c>
@@ -16736,7 +16742,7 @@
       </c>
     </row>
     <row r="62" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="110"/>
+      <c r="B62" s="102"/>
       <c r="C62" s="1" t="s">
         <v>1</v>
       </c>
@@ -16751,7 +16757,7 @@
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B63" s="110"/>
+      <c r="B63" s="102"/>
       <c r="C63" s="1" t="s">
         <v>1</v>
       </c>
@@ -16766,7 +16772,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B64" s="110"/>
+      <c r="B64" s="102"/>
       <c r="C64" s="1" t="s">
         <v>2</v>
       </c>
@@ -16781,7 +16787,7 @@
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="110"/>
+      <c r="B65" s="102"/>
       <c r="C65" s="1" t="s">
         <v>2</v>
       </c>
@@ -16796,7 +16802,7 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="111"/>
+      <c r="B66" s="103"/>
       <c r="C66" s="4" t="s">
         <v>2</v>
       </c>
@@ -16811,7 +16817,7 @@
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="109" t="s">
+      <c r="B67" s="101" t="s">
         <v>42</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -16828,7 +16834,7 @@
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="110"/>
+      <c r="B68" s="102"/>
       <c r="C68" s="1" t="s">
         <v>1</v>
       </c>
@@ -16843,7 +16849,7 @@
       </c>
     </row>
     <row r="69" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="110"/>
+      <c r="B69" s="102"/>
       <c r="C69" s="1" t="s">
         <v>1</v>
       </c>
@@ -16858,7 +16864,7 @@
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="110"/>
+      <c r="B70" s="102"/>
       <c r="C70" s="1" t="s">
         <v>1</v>
       </c>
@@ -16873,7 +16879,7 @@
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="110"/>
+      <c r="B71" s="102"/>
       <c r="C71" s="1" t="s">
         <v>2</v>
       </c>
@@ -16888,7 +16894,7 @@
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="110"/>
+      <c r="B72" s="102"/>
       <c r="C72" s="1" t="s">
         <v>2</v>
       </c>
@@ -16903,7 +16909,7 @@
       </c>
     </row>
     <row r="73" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="111"/>
+      <c r="B73" s="103"/>
       <c r="C73" s="4" t="s">
         <v>2</v>
       </c>
@@ -16923,29 +16929,29 @@
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="112" t="s">
+      <c r="B77" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="C77" s="114" t="s">
+      <c r="C77" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="115"/>
-      <c r="E77" s="117" t="s">
+      <c r="D77" s="109"/>
+      <c r="E77" s="104" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="113"/>
+      <c r="B78" s="107"/>
       <c r="C78" s="61" t="s">
         <v>36</v>
       </c>
       <c r="D78" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="E78" s="118"/>
+      <c r="E78" s="105"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="109" t="s">
+      <c r="B79" s="101" t="s">
         <v>13</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -16959,7 +16965,7 @@
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="110"/>
+      <c r="B80" s="102"/>
       <c r="C80" s="1" t="s">
         <v>1</v>
       </c>
@@ -16971,7 +16977,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B81" s="110"/>
+      <c r="B81" s="102"/>
       <c r="C81" s="1" t="s">
         <v>1</v>
       </c>
@@ -16983,7 +16989,7 @@
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="110"/>
+      <c r="B82" s="102"/>
       <c r="C82" s="1" t="s">
         <v>1</v>
       </c>
@@ -16995,7 +17001,7 @@
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="110"/>
+      <c r="B83" s="102"/>
       <c r="C83" s="1" t="s">
         <v>2</v>
       </c>
@@ -17007,7 +17013,7 @@
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B84" s="110"/>
+      <c r="B84" s="102"/>
       <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
@@ -17019,7 +17025,7 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="111"/>
+      <c r="B85" s="103"/>
       <c r="C85" s="4" t="s">
         <v>2</v>
       </c>
@@ -17031,7 +17037,7 @@
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="109" t="s">
+      <c r="B86" s="101" t="s">
         <v>49</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -17045,7 +17051,7 @@
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="110"/>
+      <c r="B87" s="102"/>
       <c r="C87" s="1" t="s">
         <v>1</v>
       </c>
@@ -17057,7 +17063,7 @@
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="110"/>
+      <c r="B88" s="102"/>
       <c r="C88" s="1" t="s">
         <v>1</v>
       </c>
@@ -17069,7 +17075,7 @@
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="110"/>
+      <c r="B89" s="102"/>
       <c r="C89" s="1" t="s">
         <v>1</v>
       </c>
@@ -17081,7 +17087,7 @@
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="110"/>
+      <c r="B90" s="102"/>
       <c r="C90" s="1" t="s">
         <v>2</v>
       </c>
@@ -17093,7 +17099,7 @@
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B91" s="110"/>
+      <c r="B91" s="102"/>
       <c r="C91" s="1" t="s">
         <v>2</v>
       </c>
@@ -17105,7 +17111,7 @@
       </c>
     </row>
     <row r="92" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="111"/>
+      <c r="B92" s="103"/>
       <c r="C92" s="4" t="s">
         <v>2</v>
       </c>
@@ -17117,7 +17123,7 @@
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B93" s="109" t="s">
+      <c r="B93" s="101" t="s">
         <v>42</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -17131,7 +17137,7 @@
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B94" s="110"/>
+      <c r="B94" s="102"/>
       <c r="C94" s="1" t="s">
         <v>1</v>
       </c>
@@ -17143,7 +17149,7 @@
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="110"/>
+      <c r="B95" s="102"/>
       <c r="C95" s="1" t="s">
         <v>1</v>
       </c>
@@ -17155,7 +17161,7 @@
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B96" s="110"/>
+      <c r="B96" s="102"/>
       <c r="C96" s="1" t="s">
         <v>1</v>
       </c>
@@ -17167,7 +17173,7 @@
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B97" s="110"/>
+      <c r="B97" s="102"/>
       <c r="C97" s="1" t="s">
         <v>2</v>
       </c>
@@ -17179,7 +17185,7 @@
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B98" s="110"/>
+      <c r="B98" s="102"/>
       <c r="C98" s="1" t="s">
         <v>2</v>
       </c>
@@ -17191,7 +17197,7 @@
       </c>
     </row>
     <row r="99" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="111"/>
+      <c r="B99" s="103"/>
       <c r="C99" s="4" t="s">
         <v>2</v>
       </c>
@@ -17204,12 +17210,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B93:B99"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="B79:B85"/>
-    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:M3"/>
     <mergeCell ref="B60:B66"/>
     <mergeCell ref="B67:B73"/>
     <mergeCell ref="B29:B30"/>
@@ -17222,16 +17232,12 @@
     <mergeCell ref="B31:B36"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="B43:B48"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B79:B85"/>
+    <mergeCell ref="B86:B92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17243,8 +17249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="79" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:Y46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="79" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17257,30 +17263,30 @@
       <c r="C2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="101" t="s">
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="116"/>
       <c r="O2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="101" t="s">
+      <c r="P2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="103"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="116"/>
     </row>
     <row r="3" spans="1:29" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="99" t="s">
@@ -17339,7 +17345,7 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="101" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -17398,7 +17404,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B5" s="110"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -17452,7 +17458,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B6" s="110"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
@@ -17506,7 +17512,7 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B7" s="110"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
@@ -17560,7 +17566,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="110"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="22" t="s">
         <v>9</v>
       </c>
@@ -17614,7 +17620,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="101" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -17652,7 +17658,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B10" s="110"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
@@ -17688,7 +17694,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B11" s="110"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
@@ -17724,7 +17730,7 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B12" s="110"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
@@ -17760,7 +17766,7 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B13" s="110"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="22" t="s">
         <v>9</v>
       </c>
@@ -19672,10 +19678,10 @@
     </row>
     <row r="3" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="112" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="121" t="s">
@@ -19694,10 +19700,10 @@
         <v>31</v>
       </c>
       <c r="K4" s="124"/>
-      <c r="P4" s="107" t="s">
+      <c r="P4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="112" t="s">
         <v>10</v>
       </c>
       <c r="R4" s="119" t="s">
@@ -19710,8 +19716,8 @@
       <c r="U4" s="120"/>
     </row>
     <row r="5" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="108"/>
-      <c r="C5" s="106"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="113"/>
       <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
@@ -19736,8 +19742,8 @@
       <c r="K5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="106"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="113"/>
       <c r="R5" s="4" t="s">
         <v>1</v>
       </c>
@@ -19752,7 +19758,7 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="101" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -19782,7 +19788,7 @@
       <c r="K6" s="15">
         <v>0.46449738029316001</v>
       </c>
-      <c r="P6" s="109" t="s">
+      <c r="P6" s="101" t="s">
         <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
@@ -19807,7 +19813,7 @@
       <c r="X6" s="69"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="110"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -19835,7 +19841,7 @@
       <c r="K7" s="18">
         <v>0.54328564517243705</v>
       </c>
-      <c r="P7" s="110"/>
+      <c r="P7" s="102"/>
       <c r="Q7" s="2" t="s">
         <v>5</v>
       </c>
@@ -19858,7 +19864,7 @@
       <c r="X7" s="69"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B8" s="110"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -19886,7 +19892,7 @@
       <c r="K8" s="18">
         <v>0.44666666666666599</v>
       </c>
-      <c r="P8" s="110"/>
+      <c r="P8" s="102"/>
       <c r="Q8" s="2" t="s">
         <v>6</v>
       </c>
@@ -19909,7 +19915,7 @@
       <c r="X8" s="69"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="110"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -19937,7 +19943,7 @@
       <c r="K9" s="18">
         <v>0.41017800027812501</v>
       </c>
-      <c r="P9" s="110"/>
+      <c r="P9" s="102"/>
       <c r="Q9" s="2" t="s">
         <v>8</v>
       </c>
@@ -19960,7 +19966,7 @@
       <c r="X9" s="69"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="110"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="22" t="s">
         <v>9</v>
       </c>
@@ -19988,7 +19994,7 @@
       <c r="K10" s="18">
         <v>0.49500251862456501</v>
       </c>
-      <c r="P10" s="110"/>
+      <c r="P10" s="102"/>
       <c r="Q10" s="22" t="s">
         <v>9</v>
       </c>
@@ -20011,7 +20017,7 @@
       <c r="X10" s="69"/>
     </row>
     <row r="11" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="111"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="24" t="s">
         <v>28</v>
       </c>
@@ -20047,7 +20053,7 @@
         <f t="shared" si="0"/>
         <v>0.47192604220699064</v>
       </c>
-      <c r="P11" s="111"/>
+      <c r="P11" s="103"/>
       <c r="Q11" s="24" t="s">
         <v>28</v>
       </c>
@@ -20072,7 +20078,7 @@
       <c r="X11" s="69"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="101" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -20102,7 +20108,7 @@
       <c r="K12" s="15">
         <v>0.37968877968877901</v>
       </c>
-      <c r="P12" s="109" t="s">
+      <c r="P12" s="101" t="s">
         <v>49</v>
       </c>
       <c r="Q12" s="7" t="s">
@@ -20127,7 +20133,7 @@
       <c r="X12" s="69"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="110"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
@@ -20155,7 +20161,7 @@
       <c r="K13" s="18">
         <v>0.39484960917629702</v>
       </c>
-      <c r="P13" s="110"/>
+      <c r="P13" s="102"/>
       <c r="Q13" s="2" t="s">
         <v>5</v>
       </c>
@@ -20178,7 +20184,7 @@
       <c r="X13" s="69"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="110"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -20206,7 +20212,7 @@
       <c r="K14" s="18">
         <v>0.40748727163821502</v>
       </c>
-      <c r="P14" s="110"/>
+      <c r="P14" s="102"/>
       <c r="Q14" s="2" t="s">
         <v>6</v>
       </c>
@@ -20229,7 +20235,7 @@
       <c r="X14" s="69"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B15" s="110"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
@@ -20257,7 +20263,7 @@
       <c r="K15" s="18">
         <v>0.40951374720683897</v>
       </c>
-      <c r="P15" s="110"/>
+      <c r="P15" s="102"/>
       <c r="Q15" s="2" t="s">
         <v>8</v>
       </c>
@@ -20280,7 +20286,7 @@
       <c r="X15" s="69"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B16" s="110"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="22" t="s">
         <v>9</v>
       </c>
@@ -20308,7 +20314,7 @@
       <c r="K16" s="18">
         <v>0.41772262371900498</v>
       </c>
-      <c r="P16" s="110"/>
+      <c r="P16" s="102"/>
       <c r="Q16" s="22" t="s">
         <v>9</v>
       </c>
@@ -20331,7 +20337,7 @@
       <c r="X16" s="69"/>
     </row>
     <row r="17" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="111"/>
+      <c r="B17" s="103"/>
       <c r="C17" s="24" t="s">
         <v>28</v>
       </c>
@@ -20367,7 +20373,7 @@
         <f t="shared" si="1"/>
         <v>0.40185240628582697</v>
       </c>
-      <c r="P17" s="111"/>
+      <c r="P17" s="103"/>
       <c r="Q17" s="24" t="s">
         <v>28</v>
       </c>
@@ -20392,7 +20398,7 @@
       <c r="X17" s="69"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="101" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -20422,7 +20428,7 @@
       <c r="K18" s="15">
         <v>0.56784646348476098</v>
       </c>
-      <c r="P18" s="109" t="s">
+      <c r="P18" s="101" t="s">
         <v>14</v>
       </c>
       <c r="Q18" s="7" t="s">
@@ -20447,7 +20453,7 @@
       <c r="X18" s="69"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B19" s="110"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
@@ -20475,7 +20481,7 @@
       <c r="K19" s="18">
         <v>0.46253496058987997</v>
       </c>
-      <c r="P19" s="110"/>
+      <c r="P19" s="102"/>
       <c r="Q19" s="2" t="s">
         <v>5</v>
       </c>
@@ -20498,7 +20504,7 @@
       <c r="X19" s="69"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B20" s="110"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
@@ -20526,7 +20532,7 @@
       <c r="K20" s="18">
         <v>0.50257522316750003</v>
       </c>
-      <c r="P20" s="110"/>
+      <c r="P20" s="102"/>
       <c r="Q20" s="2" t="s">
         <v>6</v>
       </c>
@@ -20549,7 +20555,7 @@
       <c r="X20" s="69"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B21" s="110"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
@@ -20577,7 +20583,7 @@
       <c r="K21" s="18">
         <v>0.49256491545893699</v>
       </c>
-      <c r="P21" s="110"/>
+      <c r="P21" s="102"/>
       <c r="Q21" s="2" t="s">
         <v>8</v>
       </c>
@@ -20600,7 +20606,7 @@
       <c r="X21" s="69"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B22" s="110"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="22" t="s">
         <v>9</v>
       </c>
@@ -20628,7 +20634,7 @@
       <c r="K22" s="18">
         <v>0.53429525850500204</v>
       </c>
-      <c r="P22" s="110"/>
+      <c r="P22" s="102"/>
       <c r="Q22" s="22" t="s">
         <v>9</v>
       </c>
@@ -20651,7 +20657,7 @@
       <c r="X22" s="69"/>
     </row>
     <row r="23" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="111"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="24" t="s">
         <v>28</v>
       </c>
@@ -20687,7 +20693,7 @@
         <f t="shared" si="3"/>
         <v>0.51196336424121602</v>
       </c>
-      <c r="P23" s="111"/>
+      <c r="P23" s="103"/>
       <c r="Q23" s="24" t="s">
         <v>28</v>
       </c>
@@ -20766,7 +20772,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="109" t="s">
+      <c r="B37" s="101" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -20777,7 +20783,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="110"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="1" t="s">
         <v>45</v>
       </c>
@@ -20786,7 +20792,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="110"/>
+      <c r="B39" s="102"/>
       <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
@@ -20795,7 +20801,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="111"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="4" t="s">
         <v>47</v>
       </c>
@@ -20804,7 +20810,7 @@
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="109" t="s">
+      <c r="B41" s="101" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -20815,7 +20821,7 @@
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="110"/>
+      <c r="B42" s="102"/>
       <c r="C42" s="1" t="s">
         <v>45</v>
       </c>
@@ -20824,7 +20830,7 @@
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="110"/>
+      <c r="B43" s="102"/>
       <c r="C43" s="1" t="s">
         <v>46</v>
       </c>
@@ -20833,7 +20839,7 @@
       </c>
     </row>
     <row r="44" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="111"/>
+      <c r="B44" s="103"/>
       <c r="C44" s="4" t="s">
         <v>47</v>
       </c>
@@ -20842,7 +20848,7 @@
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="109" t="s">
+      <c r="B45" s="101" t="s">
         <v>42</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -20853,7 +20859,7 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="110"/>
+      <c r="B46" s="102"/>
       <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
@@ -20862,7 +20868,7 @@
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="110"/>
+      <c r="B47" s="102"/>
       <c r="C47" s="1" t="s">
         <v>46</v>
       </c>
@@ -20871,7 +20877,7 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="111"/>
+      <c r="B48" s="103"/>
       <c r="C48" s="4" t="s">
         <v>47</v>
       </c>
@@ -20896,7 +20902,7 @@
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="109" t="s">
+      <c r="B53" s="101" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="89" t="s">
@@ -20907,7 +20913,7 @@
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="110"/>
+      <c r="B54" s="102"/>
       <c r="C54" s="90" t="s">
         <v>45</v>
       </c>
@@ -20916,7 +20922,7 @@
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="110"/>
+      <c r="B55" s="102"/>
       <c r="C55" s="90" t="s">
         <v>46</v>
       </c>
@@ -20925,7 +20931,7 @@
       </c>
     </row>
     <row r="56" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="111"/>
+      <c r="B56" s="103"/>
       <c r="C56" s="91" t="s">
         <v>47</v>
       </c>
@@ -20934,7 +20940,7 @@
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="109" t="s">
+      <c r="B57" s="101" t="s">
         <v>49</v>
       </c>
       <c r="C57" s="89" t="s">
@@ -20945,7 +20951,7 @@
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="110"/>
+      <c r="B58" s="102"/>
       <c r="C58" s="90" t="s">
         <v>45</v>
       </c>
@@ -20954,7 +20960,7 @@
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="110"/>
+      <c r="B59" s="102"/>
       <c r="C59" s="90" t="s">
         <v>46</v>
       </c>
@@ -20963,7 +20969,7 @@
       </c>
     </row>
     <row r="60" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="111"/>
+      <c r="B60" s="103"/>
       <c r="C60" s="91" t="s">
         <v>47</v>
       </c>
@@ -20972,7 +20978,7 @@
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="109" t="s">
+      <c r="B61" s="101" t="s">
         <v>42</v>
       </c>
       <c r="C61" s="89" t="s">
@@ -20983,7 +20989,7 @@
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="110"/>
+      <c r="B62" s="102"/>
       <c r="C62" s="90" t="s">
         <v>45</v>
       </c>
@@ -20992,7 +20998,7 @@
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="110"/>
+      <c r="B63" s="102"/>
       <c r="C63" s="90" t="s">
         <v>46</v>
       </c>
@@ -21001,7 +21007,7 @@
       </c>
     </row>
     <row r="64" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="111"/>
+      <c r="B64" s="103"/>
       <c r="C64" s="91" t="s">
         <v>47</v>
       </c>
@@ -21011,6 +21017,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B48"/>
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="B12:B17"/>
@@ -21027,12 +21039,6 @@
     <mergeCell ref="P6:P11"/>
     <mergeCell ref="P12:P17"/>
     <mergeCell ref="P18:P23"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B37:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results tables/results_table_scheme.xlsx
+++ b/results tables/results_table_scheme.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9780" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Financial Results Table - Comp" sheetId="1" r:id="rId1"/>
@@ -625,6 +625,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -633,12 +657,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -652,32 +670,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -14424,8 +14424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:M9"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37:M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14437,10 +14437,11 @@
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="8.5546875" customWidth="1"/>
-    <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.5546875" bestFit="1" customWidth="1"/>
@@ -14449,37 +14450,37 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="114" t="s">
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="114" t="s">
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="116"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="103"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="111"/>
-      <c r="C4" s="113"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="106"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
@@ -14527,7 +14528,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="109" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -14580,7 +14581,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="102"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -14631,7 +14632,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="102"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -14682,7 +14683,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="102"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -14733,7 +14734,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="102"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -14784,7 +14785,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="102"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="23" t="s">
         <v>34</v>
       </c>
@@ -14850,7 +14851,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="103"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="23" t="s">
         <v>28</v>
       </c>
@@ -14916,7 +14917,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="109" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -14969,7 +14970,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="102"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
@@ -15020,7 +15021,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="102"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -15071,7 +15072,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="102"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
@@ -15122,7 +15123,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="102"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="22" t="s">
         <v>9</v>
       </c>
@@ -15173,7 +15174,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="102"/>
+      <c r="B17" s="110"/>
       <c r="C17" s="23" t="s">
         <v>34</v>
       </c>
@@ -15239,7 +15240,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="103"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="23" t="s">
         <v>28</v>
       </c>
@@ -15305,7 +15306,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="109" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -15358,7 +15359,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="102"/>
+      <c r="B20" s="110"/>
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
@@ -15409,7 +15410,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="102"/>
+      <c r="B21" s="110"/>
       <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
@@ -15460,7 +15461,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="102"/>
+      <c r="B22" s="110"/>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
@@ -15511,7 +15512,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="102"/>
+      <c r="B23" s="110"/>
       <c r="C23" s="22" t="s">
         <v>9</v>
       </c>
@@ -15562,7 +15563,7 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="102"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="23" t="s">
         <v>34</v>
       </c>
@@ -15628,7 +15629,7 @@
       </c>
     </row>
     <row r="25" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="103"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="23" t="s">
         <v>28</v>
       </c>
@@ -15704,35 +15705,35 @@
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="112" t="s">
+      <c r="C29" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="114" t="s">
+      <c r="D29" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="114" t="s">
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="115"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="118"/>
-      <c r="O29" s="118"/>
-      <c r="P29" s="118"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="118"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="104"/>
     </row>
     <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="111"/>
-      <c r="C30" s="113"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="106"/>
       <c r="D30" s="4" t="s">
         <v>1</v>
       </c>
@@ -15770,7 +15771,7 @@
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="101" t="s">
+      <c r="B31" s="109" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -15813,7 +15814,7 @@
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="102"/>
+      <c r="B32" s="110"/>
       <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
@@ -15854,7 +15855,7 @@
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="102"/>
+      <c r="B33" s="110"/>
       <c r="C33" s="2" t="s">
         <v>6</v>
       </c>
@@ -15895,7 +15896,7 @@
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="102"/>
+      <c r="B34" s="110"/>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
@@ -15936,7 +15937,7 @@
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="102"/>
+      <c r="B35" s="110"/>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
@@ -15977,7 +15978,7 @@
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="103"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="55" t="s">
         <v>28</v>
       </c>
@@ -16028,40 +16029,40 @@
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="101" t="s">
+      <c r="B37" s="109" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="31">
         <v>637.38056911135197</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="32">
         <v>3438.6510834068099</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="32">
         <v>-3594.3204686532799</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="32">
         <v>-2397.5580472474198</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="33">
         <v>-2303.4162094957301</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="31">
         <v>11.1821152475675</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="32">
         <v>53.728923178231497</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="32">
         <v>-1797.16023432664</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="32">
         <v>-399.59300787457101</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M37" s="33">
         <v>-1151.70810474786</v>
       </c>
       <c r="N37" s="2"/>
@@ -16071,38 +16072,38 @@
       <c r="R37" s="2"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="102"/>
+      <c r="B38" s="110"/>
       <c r="C38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="34">
         <v>164.49485157052101</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="35">
         <v>603.74204644858003</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="35">
         <v>-1961.0303020301899</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="35">
         <v>-2589.6660337052199</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="36">
         <v>-3118.8499352231602</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="34">
         <v>3.57597503414177</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="35">
         <v>9.1476067643724299</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="35">
         <v>-245.12878775377399</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="35">
         <v>-287.74067041169099</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="36">
         <v>-1559.4249676115801</v>
       </c>
       <c r="N38" s="2"/>
@@ -16112,38 +16113,38 @@
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B39" s="102"/>
+      <c r="B39" s="110"/>
       <c r="C39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="34">
         <v>2122.0565125930498</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="35">
         <v>4820.69426876745</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="35">
         <v>-2215.51815539878</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="35">
         <v>1036.16733526588</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="36">
         <v>-1290.8461804553499</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="34">
         <v>62.413426840972001</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="35">
         <v>70.892562775992005</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="35">
         <v>-553.87953884969704</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="35">
         <v>74.011952518991507</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="36">
         <v>-645.42309022767597</v>
       </c>
       <c r="N39" s="2"/>
@@ -16153,38 +16154,38 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="102"/>
+      <c r="B40" s="110"/>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="34">
         <v>8143.8458943412197</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="35">
         <v>923.59956635554704</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="35">
         <v>-4049.3021952571198</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="35">
         <v>-2903.6470875703499</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="36">
         <v>800.138823834449</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="34">
         <v>271.46152981137402</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="35">
         <v>14.896767199283</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="35">
         <v>-674.88369920952005</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="35">
         <v>-290.36470875703498</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="36">
         <v>400.06941191722399</v>
       </c>
       <c r="N40" s="2"/>
@@ -16194,38 +16195,38 @@
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="102"/>
+      <c r="B41" s="110"/>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="34">
         <v>565.91609878907502</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="35">
         <v>7791.3411762679698</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="35">
         <v>-3396.8084938245402</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="35">
         <v>-2964.0966139656098</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="36">
         <v>-1948.54325004456</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="34">
         <v>15.295029697002001</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="35">
         <v>99.888989439333002</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="35">
         <v>-1698.4042469122701</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="35">
         <v>-494.01610232760299</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="36">
         <v>-974.27162502227998</v>
       </c>
       <c r="N41" s="2"/>
@@ -16235,7 +16236,7 @@
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="103"/>
+      <c r="B42" s="111"/>
       <c r="C42" s="55" t="s">
         <v>28</v>
       </c>
@@ -16286,7 +16287,7 @@
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="101" t="s">
+      <c r="B43" s="109" t="s">
         <v>14</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -16329,7 +16330,7 @@
       <c r="R43" s="2"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="102"/>
+      <c r="B44" s="110"/>
       <c r="C44" s="2" t="s">
         <v>5</v>
       </c>
@@ -16370,7 +16371,7 @@
       <c r="R44" s="2"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="102"/>
+      <c r="B45" s="110"/>
       <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
@@ -16411,7 +16412,7 @@
       <c r="R45" s="2"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="102"/>
+      <c r="B46" s="110"/>
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
@@ -16452,7 +16453,7 @@
       <c r="R46" s="2"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="102"/>
+      <c r="B47" s="110"/>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
@@ -16493,7 +16494,7 @@
       <c r="R47" s="2"/>
     </row>
     <row r="48" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="103"/>
+      <c r="B48" s="111"/>
       <c r="C48" s="55" t="s">
         <v>28</v>
       </c>
@@ -16561,17 +16562,17 @@
       <c r="R50" s="2"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B51" s="106" t="s">
+      <c r="B51" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="108" t="s">
+      <c r="C51" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="109"/>
-      <c r="E51" s="117" t="s">
+      <c r="D51" s="115"/>
+      <c r="E51" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="F51" s="109"/>
+      <c r="F51" s="115"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -16579,7 +16580,7 @@
       <c r="R51" s="2"/>
     </row>
     <row r="52" spans="2:18" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="107"/>
+      <c r="B52" s="113"/>
       <c r="C52" s="61" t="s">
         <v>36</v>
       </c>
@@ -16603,7 +16604,7 @@
       <c r="R52" s="2"/>
     </row>
     <row r="53" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="101" t="s">
+      <c r="B53" s="109" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -16620,7 +16621,7 @@
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B54" s="102"/>
+      <c r="B54" s="110"/>
       <c r="C54" s="1" t="s">
         <v>1</v>
       </c>
@@ -16635,7 +16636,7 @@
       </c>
     </row>
     <row r="55" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="102"/>
+      <c r="B55" s="110"/>
       <c r="C55" s="1" t="s">
         <v>1</v>
       </c>
@@ -16650,7 +16651,7 @@
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B56" s="102"/>
+      <c r="B56" s="110"/>
       <c r="C56" s="1" t="s">
         <v>1</v>
       </c>
@@ -16665,7 +16666,7 @@
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B57" s="102"/>
+      <c r="B57" s="110"/>
       <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
@@ -16680,7 +16681,7 @@
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B58" s="102"/>
+      <c r="B58" s="110"/>
       <c r="C58" s="1" t="s">
         <v>2</v>
       </c>
@@ -16695,7 +16696,7 @@
       </c>
     </row>
     <row r="59" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="103"/>
+      <c r="B59" s="111"/>
       <c r="C59" s="4" t="s">
         <v>2</v>
       </c>
@@ -16710,7 +16711,7 @@
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B60" s="101" t="s">
+      <c r="B60" s="109" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -16727,7 +16728,7 @@
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B61" s="102"/>
+      <c r="B61" s="110"/>
       <c r="C61" s="1" t="s">
         <v>1</v>
       </c>
@@ -16742,7 +16743,7 @@
       </c>
     </row>
     <row r="62" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="102"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="1" t="s">
         <v>1</v>
       </c>
@@ -16757,7 +16758,7 @@
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B63" s="102"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="1" t="s">
         <v>1</v>
       </c>
@@ -16772,7 +16773,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B64" s="102"/>
+      <c r="B64" s="110"/>
       <c r="C64" s="1" t="s">
         <v>2</v>
       </c>
@@ -16787,7 +16788,7 @@
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="102"/>
+      <c r="B65" s="110"/>
       <c r="C65" s="1" t="s">
         <v>2</v>
       </c>
@@ -16802,7 +16803,7 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="103"/>
+      <c r="B66" s="111"/>
       <c r="C66" s="4" t="s">
         <v>2</v>
       </c>
@@ -16817,7 +16818,7 @@
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="101" t="s">
+      <c r="B67" s="109" t="s">
         <v>42</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -16834,7 +16835,7 @@
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="102"/>
+      <c r="B68" s="110"/>
       <c r="C68" s="1" t="s">
         <v>1</v>
       </c>
@@ -16849,7 +16850,7 @@
       </c>
     </row>
     <row r="69" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="102"/>
+      <c r="B69" s="110"/>
       <c r="C69" s="1" t="s">
         <v>1</v>
       </c>
@@ -16864,7 +16865,7 @@
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="102"/>
+      <c r="B70" s="110"/>
       <c r="C70" s="1" t="s">
         <v>1</v>
       </c>
@@ -16879,7 +16880,7 @@
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="102"/>
+      <c r="B71" s="110"/>
       <c r="C71" s="1" t="s">
         <v>2</v>
       </c>
@@ -16894,7 +16895,7 @@
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="102"/>
+      <c r="B72" s="110"/>
       <c r="C72" s="1" t="s">
         <v>2</v>
       </c>
@@ -16909,7 +16910,7 @@
       </c>
     </row>
     <row r="73" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="103"/>
+      <c r="B73" s="111"/>
       <c r="C73" s="4" t="s">
         <v>2</v>
       </c>
@@ -16929,29 +16930,29 @@
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="106" t="s">
+      <c r="B77" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="C77" s="108" t="s">
+      <c r="C77" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="109"/>
-      <c r="E77" s="104" t="s">
+      <c r="D77" s="115"/>
+      <c r="E77" s="117" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="107"/>
+      <c r="B78" s="113"/>
       <c r="C78" s="61" t="s">
         <v>36</v>
       </c>
       <c r="D78" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="E78" s="105"/>
+      <c r="E78" s="118"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="101" t="s">
+      <c r="B79" s="109" t="s">
         <v>13</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -16965,7 +16966,7 @@
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="102"/>
+      <c r="B80" s="110"/>
       <c r="C80" s="1" t="s">
         <v>1</v>
       </c>
@@ -16977,7 +16978,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B81" s="102"/>
+      <c r="B81" s="110"/>
       <c r="C81" s="1" t="s">
         <v>1</v>
       </c>
@@ -16989,7 +16990,7 @@
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="102"/>
+      <c r="B82" s="110"/>
       <c r="C82" s="1" t="s">
         <v>1</v>
       </c>
@@ -17001,7 +17002,7 @@
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="102"/>
+      <c r="B83" s="110"/>
       <c r="C83" s="1" t="s">
         <v>2</v>
       </c>
@@ -17013,7 +17014,7 @@
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B84" s="102"/>
+      <c r="B84" s="110"/>
       <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
@@ -17025,7 +17026,7 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="103"/>
+      <c r="B85" s="111"/>
       <c r="C85" s="4" t="s">
         <v>2</v>
       </c>
@@ -17037,7 +17038,7 @@
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="101" t="s">
+      <c r="B86" s="109" t="s">
         <v>49</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -17051,7 +17052,7 @@
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="102"/>
+      <c r="B87" s="110"/>
       <c r="C87" s="1" t="s">
         <v>1</v>
       </c>
@@ -17063,7 +17064,7 @@
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="102"/>
+      <c r="B88" s="110"/>
       <c r="C88" s="1" t="s">
         <v>1</v>
       </c>
@@ -17075,7 +17076,7 @@
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="102"/>
+      <c r="B89" s="110"/>
       <c r="C89" s="1" t="s">
         <v>1</v>
       </c>
@@ -17087,7 +17088,7 @@
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="102"/>
+      <c r="B90" s="110"/>
       <c r="C90" s="1" t="s">
         <v>2</v>
       </c>
@@ -17099,7 +17100,7 @@
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B91" s="102"/>
+      <c r="B91" s="110"/>
       <c r="C91" s="1" t="s">
         <v>2</v>
       </c>
@@ -17111,7 +17112,7 @@
       </c>
     </row>
     <row r="92" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="103"/>
+      <c r="B92" s="111"/>
       <c r="C92" s="4" t="s">
         <v>2</v>
       </c>
@@ -17123,7 +17124,7 @@
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B93" s="101" t="s">
+      <c r="B93" s="109" t="s">
         <v>42</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -17137,7 +17138,7 @@
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B94" s="102"/>
+      <c r="B94" s="110"/>
       <c r="C94" s="1" t="s">
         <v>1</v>
       </c>
@@ -17149,7 +17150,7 @@
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="102"/>
+      <c r="B95" s="110"/>
       <c r="C95" s="1" t="s">
         <v>1</v>
       </c>
@@ -17161,7 +17162,7 @@
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B96" s="102"/>
+      <c r="B96" s="110"/>
       <c r="C96" s="1" t="s">
         <v>1</v>
       </c>
@@ -17173,7 +17174,7 @@
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B97" s="102"/>
+      <c r="B97" s="110"/>
       <c r="C97" s="1" t="s">
         <v>2</v>
       </c>
@@ -17185,7 +17186,7 @@
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B98" s="102"/>
+      <c r="B98" s="110"/>
       <c r="C98" s="1" t="s">
         <v>2</v>
       </c>
@@ -17197,7 +17198,7 @@
       </c>
     </row>
     <row r="99" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="103"/>
+      <c r="B99" s="111"/>
       <c r="C99" s="4" t="s">
         <v>2</v>
       </c>
@@ -17210,16 +17211,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B79:B85"/>
+    <mergeCell ref="B86:B92"/>
     <mergeCell ref="B60:B66"/>
     <mergeCell ref="B67:B73"/>
     <mergeCell ref="B29:B30"/>
@@ -17232,12 +17229,16 @@
     <mergeCell ref="B31:B36"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="B43:B48"/>
-    <mergeCell ref="B93:B99"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="B79:B85"/>
-    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17249,7 +17250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="79" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="79" workbookViewId="0">
       <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
@@ -17263,30 +17264,30 @@
       <c r="C2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="114" t="s">
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
       <c r="O2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="114" t="s">
+      <c r="P2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="116"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:29" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="99" t="s">
@@ -17345,7 +17346,7 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="109" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -17404,7 +17405,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B5" s="102"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -17458,7 +17459,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B6" s="102"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
@@ -17512,7 +17513,7 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B7" s="102"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
@@ -17566,7 +17567,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="102"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="22" t="s">
         <v>9</v>
       </c>
@@ -17620,7 +17621,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="109" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -17658,7 +17659,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B10" s="102"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
@@ -17694,7 +17695,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B11" s="102"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
@@ -17730,7 +17731,7 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B12" s="102"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
@@ -17766,7 +17767,7 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B13" s="102"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="22" t="s">
         <v>9</v>
       </c>
@@ -19678,10 +19679,10 @@
     </row>
     <row r="3" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="105" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="121" t="s">
@@ -19700,10 +19701,10 @@
         <v>31</v>
       </c>
       <c r="K4" s="124"/>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="112" t="s">
+      <c r="Q4" s="105" t="s">
         <v>10</v>
       </c>
       <c r="R4" s="119" t="s">
@@ -19716,8 +19717,8 @@
       <c r="U4" s="120"/>
     </row>
     <row r="5" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="111"/>
-      <c r="C5" s="113"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
@@ -19742,8 +19743,8 @@
       <c r="K5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="113"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="106"/>
       <c r="R5" s="4" t="s">
         <v>1</v>
       </c>
@@ -19758,7 +19759,7 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="109" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -19788,7 +19789,7 @@
       <c r="K6" s="15">
         <v>0.46449738029316001</v>
       </c>
-      <c r="P6" s="101" t="s">
+      <c r="P6" s="109" t="s">
         <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
@@ -19813,7 +19814,7 @@
       <c r="X6" s="69"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="102"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -19841,7 +19842,7 @@
       <c r="K7" s="18">
         <v>0.54328564517243705</v>
       </c>
-      <c r="P7" s="102"/>
+      <c r="P7" s="110"/>
       <c r="Q7" s="2" t="s">
         <v>5</v>
       </c>
@@ -19864,7 +19865,7 @@
       <c r="X7" s="69"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B8" s="102"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -19892,7 +19893,7 @@
       <c r="K8" s="18">
         <v>0.44666666666666599</v>
       </c>
-      <c r="P8" s="102"/>
+      <c r="P8" s="110"/>
       <c r="Q8" s="2" t="s">
         <v>6</v>
       </c>
@@ -19915,7 +19916,7 @@
       <c r="X8" s="69"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="102"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -19943,7 +19944,7 @@
       <c r="K9" s="18">
         <v>0.41017800027812501</v>
       </c>
-      <c r="P9" s="102"/>
+      <c r="P9" s="110"/>
       <c r="Q9" s="2" t="s">
         <v>8</v>
       </c>
@@ -19966,7 +19967,7 @@
       <c r="X9" s="69"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="102"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="22" t="s">
         <v>9</v>
       </c>
@@ -19994,7 +19995,7 @@
       <c r="K10" s="18">
         <v>0.49500251862456501</v>
       </c>
-      <c r="P10" s="102"/>
+      <c r="P10" s="110"/>
       <c r="Q10" s="22" t="s">
         <v>9</v>
       </c>
@@ -20017,7 +20018,7 @@
       <c r="X10" s="69"/>
     </row>
     <row r="11" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="103"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="24" t="s">
         <v>28</v>
       </c>
@@ -20053,7 +20054,7 @@
         <f t="shared" si="0"/>
         <v>0.47192604220699064</v>
       </c>
-      <c r="P11" s="103"/>
+      <c r="P11" s="111"/>
       <c r="Q11" s="24" t="s">
         <v>28</v>
       </c>
@@ -20078,7 +20079,7 @@
       <c r="X11" s="69"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="109" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -20108,7 +20109,7 @@
       <c r="K12" s="15">
         <v>0.37968877968877901</v>
       </c>
-      <c r="P12" s="101" t="s">
+      <c r="P12" s="109" t="s">
         <v>49</v>
       </c>
       <c r="Q12" s="7" t="s">
@@ -20133,7 +20134,7 @@
       <c r="X12" s="69"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="102"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
@@ -20161,7 +20162,7 @@
       <c r="K13" s="18">
         <v>0.39484960917629702</v>
       </c>
-      <c r="P13" s="102"/>
+      <c r="P13" s="110"/>
       <c r="Q13" s="2" t="s">
         <v>5</v>
       </c>
@@ -20184,7 +20185,7 @@
       <c r="X13" s="69"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="102"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -20212,7 +20213,7 @@
       <c r="K14" s="18">
         <v>0.40748727163821502</v>
       </c>
-      <c r="P14" s="102"/>
+      <c r="P14" s="110"/>
       <c r="Q14" s="2" t="s">
         <v>6</v>
       </c>
@@ -20235,7 +20236,7 @@
       <c r="X14" s="69"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B15" s="102"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
@@ -20263,7 +20264,7 @@
       <c r="K15" s="18">
         <v>0.40951374720683897</v>
       </c>
-      <c r="P15" s="102"/>
+      <c r="P15" s="110"/>
       <c r="Q15" s="2" t="s">
         <v>8</v>
       </c>
@@ -20286,7 +20287,7 @@
       <c r="X15" s="69"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B16" s="102"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="22" t="s">
         <v>9</v>
       </c>
@@ -20314,7 +20315,7 @@
       <c r="K16" s="18">
         <v>0.41772262371900498</v>
       </c>
-      <c r="P16" s="102"/>
+      <c r="P16" s="110"/>
       <c r="Q16" s="22" t="s">
         <v>9</v>
       </c>
@@ -20337,7 +20338,7 @@
       <c r="X16" s="69"/>
     </row>
     <row r="17" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="103"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="24" t="s">
         <v>28</v>
       </c>
@@ -20373,7 +20374,7 @@
         <f t="shared" si="1"/>
         <v>0.40185240628582697</v>
       </c>
-      <c r="P17" s="103"/>
+      <c r="P17" s="111"/>
       <c r="Q17" s="24" t="s">
         <v>28</v>
       </c>
@@ -20398,7 +20399,7 @@
       <c r="X17" s="69"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="109" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -20428,7 +20429,7 @@
       <c r="K18" s="15">
         <v>0.56784646348476098</v>
       </c>
-      <c r="P18" s="101" t="s">
+      <c r="P18" s="109" t="s">
         <v>14</v>
       </c>
       <c r="Q18" s="7" t="s">
@@ -20453,7 +20454,7 @@
       <c r="X18" s="69"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B19" s="102"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
@@ -20481,7 +20482,7 @@
       <c r="K19" s="18">
         <v>0.46253496058987997</v>
       </c>
-      <c r="P19" s="102"/>
+      <c r="P19" s="110"/>
       <c r="Q19" s="2" t="s">
         <v>5</v>
       </c>
@@ -20504,7 +20505,7 @@
       <c r="X19" s="69"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B20" s="102"/>
+      <c r="B20" s="110"/>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
@@ -20532,7 +20533,7 @@
       <c r="K20" s="18">
         <v>0.50257522316750003</v>
       </c>
-      <c r="P20" s="102"/>
+      <c r="P20" s="110"/>
       <c r="Q20" s="2" t="s">
         <v>6</v>
       </c>
@@ -20555,7 +20556,7 @@
       <c r="X20" s="69"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B21" s="102"/>
+      <c r="B21" s="110"/>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
@@ -20583,7 +20584,7 @@
       <c r="K21" s="18">
         <v>0.49256491545893699</v>
       </c>
-      <c r="P21" s="102"/>
+      <c r="P21" s="110"/>
       <c r="Q21" s="2" t="s">
         <v>8</v>
       </c>
@@ -20606,7 +20607,7 @@
       <c r="X21" s="69"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B22" s="102"/>
+      <c r="B22" s="110"/>
       <c r="C22" s="22" t="s">
         <v>9</v>
       </c>
@@ -20634,7 +20635,7 @@
       <c r="K22" s="18">
         <v>0.53429525850500204</v>
       </c>
-      <c r="P22" s="102"/>
+      <c r="P22" s="110"/>
       <c r="Q22" s="22" t="s">
         <v>9</v>
       </c>
@@ -20657,7 +20658,7 @@
       <c r="X22" s="69"/>
     </row>
     <row r="23" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="103"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="24" t="s">
         <v>28</v>
       </c>
@@ -20693,7 +20694,7 @@
         <f t="shared" si="3"/>
         <v>0.51196336424121602</v>
       </c>
-      <c r="P23" s="103"/>
+      <c r="P23" s="111"/>
       <c r="Q23" s="24" t="s">
         <v>28</v>
       </c>
@@ -20772,7 +20773,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="101" t="s">
+      <c r="B37" s="109" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -20783,7 +20784,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="102"/>
+      <c r="B38" s="110"/>
       <c r="C38" s="1" t="s">
         <v>45</v>
       </c>
@@ -20792,7 +20793,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="102"/>
+      <c r="B39" s="110"/>
       <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
@@ -20801,7 +20802,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="103"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="4" t="s">
         <v>47</v>
       </c>
@@ -20810,7 +20811,7 @@
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="101" t="s">
+      <c r="B41" s="109" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -20821,7 +20822,7 @@
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="102"/>
+      <c r="B42" s="110"/>
       <c r="C42" s="1" t="s">
         <v>45</v>
       </c>
@@ -20830,7 +20831,7 @@
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="102"/>
+      <c r="B43" s="110"/>
       <c r="C43" s="1" t="s">
         <v>46</v>
       </c>
@@ -20839,7 +20840,7 @@
       </c>
     </row>
     <row r="44" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="103"/>
+      <c r="B44" s="111"/>
       <c r="C44" s="4" t="s">
         <v>47</v>
       </c>
@@ -20848,7 +20849,7 @@
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="101" t="s">
+      <c r="B45" s="109" t="s">
         <v>42</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -20859,7 +20860,7 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="102"/>
+      <c r="B46" s="110"/>
       <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
@@ -20868,7 +20869,7 @@
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="102"/>
+      <c r="B47" s="110"/>
       <c r="C47" s="1" t="s">
         <v>46</v>
       </c>
@@ -20877,7 +20878,7 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="103"/>
+      <c r="B48" s="111"/>
       <c r="C48" s="4" t="s">
         <v>47</v>
       </c>
@@ -20902,7 +20903,7 @@
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="101" t="s">
+      <c r="B53" s="109" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="89" t="s">
@@ -20913,7 +20914,7 @@
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="102"/>
+      <c r="B54" s="110"/>
       <c r="C54" s="90" t="s">
         <v>45</v>
       </c>
@@ -20922,7 +20923,7 @@
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="102"/>
+      <c r="B55" s="110"/>
       <c r="C55" s="90" t="s">
         <v>46</v>
       </c>
@@ -20931,7 +20932,7 @@
       </c>
     </row>
     <row r="56" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="103"/>
+      <c r="B56" s="111"/>
       <c r="C56" s="91" t="s">
         <v>47</v>
       </c>
@@ -20940,7 +20941,7 @@
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="101" t="s">
+      <c r="B57" s="109" t="s">
         <v>49</v>
       </c>
       <c r="C57" s="89" t="s">
@@ -20951,7 +20952,7 @@
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="102"/>
+      <c r="B58" s="110"/>
       <c r="C58" s="90" t="s">
         <v>45</v>
       </c>
@@ -20960,7 +20961,7 @@
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="102"/>
+      <c r="B59" s="110"/>
       <c r="C59" s="90" t="s">
         <v>46</v>
       </c>
@@ -20969,7 +20970,7 @@
       </c>
     </row>
     <row r="60" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="103"/>
+      <c r="B60" s="111"/>
       <c r="C60" s="91" t="s">
         <v>47</v>
       </c>
@@ -20978,7 +20979,7 @@
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="101" t="s">
+      <c r="B61" s="109" t="s">
         <v>42</v>
       </c>
       <c r="C61" s="89" t="s">
@@ -20989,7 +20990,7 @@
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="102"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="90" t="s">
         <v>45</v>
       </c>
@@ -20998,7 +20999,7 @@
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="102"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="90" t="s">
         <v>46</v>
       </c>
@@ -21007,7 +21008,7 @@
       </c>
     </row>
     <row r="64" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="103"/>
+      <c r="B64" s="111"/>
       <c r="C64" s="91" t="s">
         <v>47</v>
       </c>
@@ -21017,12 +21018,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B48"/>
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="B12:B17"/>
@@ -21039,6 +21034,12 @@
     <mergeCell ref="P6:P11"/>
     <mergeCell ref="P12:P17"/>
     <mergeCell ref="P18:P23"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
